--- a/dados dos inquéritos.xlsx
+++ b/dados dos inquéritos.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardacunha/Documents/Uni/3/PPIN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardacunha/Documents/Uni/3/PPIN/FEUP-PPIN/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>Inquéritos p/ o Projeto de Inovação</t>
   </si>
@@ -125,31 +125,37 @@
     <t>Na sua opinião, o canil em que trabalha/trabalhou está sobrelotado?</t>
   </si>
   <si>
-    <t>No canil em que trabalha/trabalhou , há falta de condições de saneamento para os animais?</t>
-  </si>
-  <si>
-    <t>No canil em que trabalha/trabalhou , há falta de alimento para os animais? Têm de racionar?</t>
-  </si>
-  <si>
-    <t>No canil em que trabalha/trabalhou , há falta de medicação para os animais? Têm de racionar?</t>
-  </si>
-  <si>
-    <t>No canil em que trabalha/trabalhou , como obtêm os alimentos?</t>
-  </si>
-  <si>
-    <t>No canil em que trabalha/trabalhou , como obtêm a medicação?</t>
-  </si>
-  <si>
-    <t>No canil em que trabalha/trabalhou , os animais recebem cuidados veterinários quando...</t>
-  </si>
-  <si>
-    <t>No canil em que trabalha/trabalhou , os serviços veterinários são pagos por...</t>
-  </si>
-  <si>
     <t>Índice</t>
   </si>
   <si>
     <t>Pergunta</t>
+  </si>
+  <si>
+    <t>Na sua opinião, no canil em que trabalha/trabalhou, há falta de condições de saneamento para os animais?</t>
+  </si>
+  <si>
+    <t>Na sua opinião, no canil em que trabalha/trabalhou, há falta de alimento para os animais? Têm de racionar?</t>
+  </si>
+  <si>
+    <t>Na sua opinião, no canil em que trabalha/trabalhou, há falta de medicação para os animais? Têm de racionar?</t>
+  </si>
+  <si>
+    <t>No canil em que trabalha/trabalhou, como obtêm os alimentos?</t>
+  </si>
+  <si>
+    <t>No canil em que trabalha/trabalhou, como obtêm a medicação?</t>
+  </si>
+  <si>
+    <t>No canil em que trabalha/trabalhou, os animais recebem cuidados veterinários quando...</t>
+  </si>
+  <si>
+    <t>No canil em que trabalha/trabalhou, os serviços veterinários são pagos por...</t>
+  </si>
+  <si>
+    <t>Na sua opinião, no canil em que trabalha/trabalhou, há voluntários/trabalhadores suficientes para o trabalho exigido?</t>
+  </si>
+  <si>
+    <t>Não sei</t>
   </si>
 </sst>
 </file>
@@ -212,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,6 +315,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -324,11 +348,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -341,20 +362,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -385,9 +397,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -432,6 +441,30 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6426,797 +6459,839 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:R87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="N86" sqref="N86"/>
+      <selection activeCell="R81" sqref="R81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="10.83203125" style="8"/>
-    <col min="4" max="12" width="10.83203125" style="2"/>
-    <col min="13" max="14" width="17.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="10.83203125" style="5"/>
+    <col min="4" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="23.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="1"/>
+    <col min="13" max="14" width="17.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="M1" s="4" t="s">
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="M1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="2"/>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="M2" s="2">
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="M2" s="1">
         <v>1</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="2"/>
+      <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="M3" s="2">
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="M3" s="1">
         <v>0</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="2"/>
+      <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O4" s="2"/>
+      <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="L5" s="11" t="s">
+      <c r="B5" s="36"/>
+      <c r="L5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="21"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="10" t="s">
+      <c r="N5" s="38"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="35"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="12" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="31" t="s">
+      <c r="M6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="27" t="s">
+      <c r="N6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="28" t="s">
+      <c r="O6" s="1"/>
+      <c r="P6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="26" t="s">
+      <c r="Q6" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C7" s="13">
+      <c r="C7" s="9">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="M7" s="18">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="M7" s="14">
         <v>1</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="18">
         <v>1</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="29">
+      <c r="O7" s="1"/>
+      <c r="P7" s="24">
         <f>SUM(M7:O7)</f>
         <v>2</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="17">
         <f t="shared" ref="Q7:Q12" si="0">2-P7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C8" s="16">
+      <c r="C8" s="12">
         <f>C7+1</f>
         <v>2</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="M8" s="32">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="M8" s="27">
         <v>0</v>
       </c>
-      <c r="N8" s="25">
+      <c r="N8" s="20">
         <v>1</v>
       </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="30">
-        <f t="shared" ref="P8:P13" si="1">SUM(M8:O8)</f>
+      <c r="O8" s="1"/>
+      <c r="P8" s="25">
+        <f t="shared" ref="P8:P12" si="1">SUM(M8:O8)</f>
         <v>1</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C9" s="13">
+      <c r="C9" s="9">
         <f t="shared" ref="C9:C13" si="2">C8+1</f>
         <v>3</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="M9" s="18">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="M9" s="14">
         <v>0</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="18">
         <v>1</v>
       </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="29">
+      <c r="O9" s="1"/>
+      <c r="P9" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="Q9" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C10" s="16">
+      <c r="C10" s="12">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="M10" s="32">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="M10" s="27">
         <v>1</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="20">
         <v>1</v>
       </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="30">
+      <c r="O10" s="1"/>
+      <c r="P10" s="25">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="Q10" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C11" s="13">
+      <c r="C11" s="9">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="M11" s="18">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="M11" s="14">
         <v>1</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="18">
         <v>1</v>
       </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="29">
+      <c r="O11" s="1"/>
+      <c r="P11" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="Q11" s="22">
+      <c r="Q11" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C12" s="16">
+      <c r="C12" s="12">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="M12" s="32">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="M12" s="27">
         <v>1</v>
       </c>
-      <c r="N12" s="25">
+      <c r="N12" s="20">
         <v>0</v>
       </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="30">
+      <c r="O12" s="1"/>
+      <c r="P12" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C13" s="13">
+      <c r="C13" s="9">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="M13" s="18">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="M13" s="14">
         <v>1</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="18">
         <v>1</v>
       </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="29">
+      <c r="O13" s="1"/>
+      <c r="P13" s="24">
         <f>SUM(M13:O13)</f>
         <v>2</v>
       </c>
-      <c r="Q13" s="22">
+      <c r="Q13" s="17">
         <f>2-P13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="N25" s="5"/>
+      <c r="N25" s="4"/>
     </row>
     <row r="32" spans="3:14" ht="19" x14ac:dyDescent="0.2">
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
     </row>
     <row r="49" spans="3:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A65" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="7"/>
-      <c r="L65" s="11" t="s">
+      <c r="B65" s="36"/>
+      <c r="L65" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M65" s="33"/>
-      <c r="N65" s="34"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="10" t="s">
+      <c r="M65" s="28"/>
+      <c r="N65" s="29"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="Q65" s="10"/>
+      <c r="Q65" s="35"/>
+      <c r="R65" s="35"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="12" t="s">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A66" s="36"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M66" s="31" t="s">
+      <c r="M66" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="N66" s="27" t="s">
+      <c r="N66" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="O66" s="2"/>
-      <c r="P66" s="28" t="s">
+      <c r="O66" s="1"/>
+      <c r="P66" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q66" s="26" t="s">
+      <c r="Q66" s="21" t="s">
         <v>12</v>
       </c>
+      <c r="R66" s="39" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C67" s="13">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C67" s="9">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="D67" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="23"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="29"/>
-      <c r="Q67" s="22"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="18"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="1"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C68" s="16">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C68" s="12">
         <f>C67+1</f>
         <v>2</v>
       </c>
-      <c r="D68" s="19" t="s">
+      <c r="D68" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="M68" s="32"/>
-      <c r="N68" s="25"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="30"/>
-      <c r="Q68" s="24"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="M68" s="27"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="1"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C69" s="13">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C69" s="9">
         <f t="shared" ref="C69:C76" si="3">C68+1</f>
         <v>3</v>
       </c>
-      <c r="D69" s="20" t="s">
+      <c r="D69" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="23"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="29"/>
-      <c r="Q69" s="22"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="17"/>
+      <c r="R69" s="1"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C70" s="16">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C70" s="12">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="D70" s="19" t="s">
+      <c r="D70" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="M70" s="32"/>
-      <c r="N70" s="25"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="30"/>
-      <c r="Q70" s="24"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="20"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="1"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C71" s="13">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C71" s="9">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="D71" s="20" t="s">
+      <c r="D71" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="23"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="29"/>
-      <c r="Q71" s="22"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="18"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="24"/>
+      <c r="Q71" s="17"/>
+      <c r="R71" s="1"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C72" s="16">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C72" s="12">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="D72" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="M72" s="32"/>
-      <c r="N72" s="25"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="30"/>
-      <c r="Q72" s="24"/>
+      <c r="D72" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="M72" s="27"/>
+      <c r="N72" s="20"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="25"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="1"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C73" s="13">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C73" s="9">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="D73" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="23"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="29"/>
-      <c r="Q73" s="22"/>
+      <c r="D73" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="24"/>
+      <c r="Q73" s="17"/>
+      <c r="R73" s="1"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C74" s="16">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C74" s="12">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="D74" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="M74" s="32"/>
-      <c r="N74" s="25"/>
-      <c r="P74" s="37"/>
-      <c r="Q74" s="38"/>
+      <c r="D74" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="M74" s="27"/>
+      <c r="N74" s="20"/>
+      <c r="P74" s="32"/>
+      <c r="Q74" s="33"/>
+      <c r="R74" s="1"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C75" s="13">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C75" s="9">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="D75" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="23"/>
-      <c r="P75" s="35"/>
-      <c r="Q75" s="36"/>
+      <c r="D75" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="18"/>
+      <c r="P75" s="30"/>
+      <c r="Q75" s="31"/>
+      <c r="R75" s="40"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C76" s="16">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C76" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="D76" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-      <c r="M76" s="32"/>
-      <c r="N76" s="25"/>
-      <c r="P76" s="37"/>
-      <c r="Q76" s="38"/>
+      <c r="D76" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="M76" s="27"/>
+      <c r="N76" s="20"/>
+      <c r="P76" s="32"/>
+      <c r="Q76" s="33"/>
+      <c r="R76" s="41"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C77" s="13"/>
-      <c r="D77" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="23"/>
-      <c r="P77" s="35"/>
-      <c r="Q77" s="36"/>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C77" s="9"/>
+      <c r="D77" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="18"/>
+      <c r="P77" s="30"/>
+      <c r="Q77" s="31"/>
+      <c r="R77" s="1"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C78" s="16">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C78" s="12">
         <v>11</v>
       </c>
-      <c r="D78" s="19"/>
-      <c r="E78" s="17" t="s">
+      <c r="D78" s="15"/>
+      <c r="E78" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="18"/>
-      <c r="M78" s="32"/>
-      <c r="N78" s="25"/>
-      <c r="P78" s="37"/>
-      <c r="Q78" s="38"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="M78" s="27"/>
+      <c r="N78" s="20"/>
+      <c r="P78" s="32"/>
+      <c r="Q78" s="33"/>
+      <c r="R78" s="1"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C79" s="13">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C79" s="9">
         <f>C78+1</f>
         <v>12</v>
       </c>
-      <c r="D79" s="20"/>
-      <c r="E79" s="14" t="s">
+      <c r="D79" s="16"/>
+      <c r="E79" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="15"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="23"/>
-      <c r="P79" s="35"/>
-      <c r="Q79" s="36"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="18"/>
+      <c r="P79" s="30"/>
+      <c r="Q79" s="31"/>
+      <c r="R79" s="1"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C80" s="16">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C80" s="12">
         <f>C79+1</f>
         <v>13</v>
       </c>
-      <c r="D80" s="19"/>
-      <c r="E80" s="17" t="s">
+      <c r="D80" s="15"/>
+      <c r="E80" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="M80" s="32"/>
-      <c r="N80" s="25"/>
-      <c r="P80" s="37"/>
-      <c r="Q80" s="38"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="M80" s="27"/>
+      <c r="N80" s="20"/>
+      <c r="P80" s="32"/>
+      <c r="Q80" s="33"/>
+      <c r="R80" s="1"/>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C81" s="13"/>
-      <c r="D81" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E81" s="14"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="15"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="23"/>
-      <c r="P81" s="35"/>
-      <c r="Q81" s="36"/>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C81" s="9"/>
+      <c r="D81" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E81" s="10"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="18"/>
+      <c r="P81" s="30"/>
+      <c r="Q81" s="31"/>
+      <c r="R81" s="1"/>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C82" s="16">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C82" s="12">
         <v>14</v>
       </c>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19" t="s">
+      <c r="D82" s="15"/>
+      <c r="E82" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F82" s="18"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="M82" s="32"/>
-      <c r="N82" s="25"/>
-      <c r="P82" s="37"/>
-      <c r="Q82" s="38"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="M82" s="27"/>
+      <c r="N82" s="20"/>
+      <c r="P82" s="32"/>
+      <c r="Q82" s="33"/>
+      <c r="R82" s="1"/>
     </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C83" s="13">
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C83" s="9">
         <f>C82+1</f>
         <v>15</v>
       </c>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20" t="s">
+      <c r="D83" s="16"/>
+      <c r="E83" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F83" s="15"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="23"/>
-      <c r="P83" s="35"/>
-      <c r="Q83" s="36"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="18"/>
+      <c r="P83" s="30"/>
+      <c r="Q83" s="31"/>
+      <c r="R83" s="1"/>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C84" s="16">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C84" s="12">
         <f>C83+1</f>
         <v>16</v>
       </c>
-      <c r="D84" s="18"/>
-      <c r="E84" s="19" t="s">
+      <c r="D84" s="14"/>
+      <c r="E84" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="18"/>
-      <c r="M84" s="32"/>
-      <c r="N84" s="25"/>
-      <c r="P84" s="37"/>
-      <c r="Q84" s="38"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="M84" s="27"/>
+      <c r="N84" s="20"/>
+      <c r="P84" s="32"/>
+      <c r="Q84" s="33"/>
+      <c r="R84" s="1"/>
     </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="E85" s="3"/>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C85" s="9">
+        <f>C84+1</f>
+        <v>17</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E85" s="16"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="M85" s="14"/>
+      <c r="N85" s="18"/>
+      <c r="P85" s="30"/>
+      <c r="Q85" s="31"/>
+      <c r="R85" s="1"/>
     </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="E86" s="3"/>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="E87" s="3"/>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E87" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="A65:B66"/>
-    <mergeCell ref="D66:K66"/>
-    <mergeCell ref="D6:K6"/>
     <mergeCell ref="F1:J3"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="A65:B66"/>
+    <mergeCell ref="D66:K66"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="P65:R65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/dados dos inquéritos.xlsx
+++ b/dados dos inquéritos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>Inquéritos p/ o Projeto de Inovação</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>SOS BragAdopção</t>
+  </si>
+  <si>
+    <t>Associação Mirandelense de Proteção Animal</t>
   </si>
 </sst>
 </file>
@@ -546,19 +549,19 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -939,7 +942,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1156,10 +1159,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.0</c:v>
@@ -1222,7 +1225,7 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1238,11 +1241,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1360276240"/>
-        <c:axId val="1271904240"/>
+        <c:axId val="973413648"/>
+        <c:axId val="973416400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1360276240"/>
+        <c:axId val="973413648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1285,7 +1288,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1271904240"/>
+        <c:crossAx val="973416400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1293,7 +1296,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1271904240"/>
+        <c:axId val="973416400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1343,7 +1346,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1360276240"/>
+        <c:crossAx val="973413648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1553,19 +1556,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1653,11 +1656,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1273827648"/>
-        <c:axId val="1188862912"/>
+        <c:axId val="973433408"/>
+        <c:axId val="973436160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1273827648"/>
+        <c:axId val="973433408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1700,7 +1703,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1188862912"/>
+        <c:crossAx val="973436160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1708,7 +1711,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1188862912"/>
+        <c:axId val="973436160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1758,7 +1761,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1273827648"/>
+        <c:crossAx val="973433408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1878,6 +1881,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1996,6 +2000,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2107,6 +2112,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2225,6 +2231,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2779,6 +2786,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2897,6 +2905,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3003,6 +3012,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3121,6 +3131,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3227,6 +3238,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3345,6 +3357,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3682,6 +3695,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3800,6 +3814,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3906,6 +3921,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4072,11 +4088,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1360381392"/>
-        <c:axId val="1360383712"/>
+        <c:axId val="931264608"/>
+        <c:axId val="931267360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1360381392"/>
+        <c:axId val="931264608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4119,7 +4135,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1360383712"/>
+        <c:crossAx val="931267360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4127,7 +4143,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1360383712"/>
+        <c:axId val="931267360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4177,7 +4193,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1360381392"/>
+        <c:crossAx val="931264608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4191,6 +4207,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4297,6 +4314,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4463,11 +4481,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1360128384"/>
-        <c:axId val="1360117712"/>
+        <c:axId val="896762656"/>
+        <c:axId val="896754496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1360128384"/>
+        <c:axId val="896762656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4510,7 +4528,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1360117712"/>
+        <c:crossAx val="896754496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4518,7 +4536,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1360117712"/>
+        <c:axId val="896754496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4568,7 +4586,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1360128384"/>
+        <c:crossAx val="896762656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4582,6 +4600,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4688,6 +4707,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4806,6 +4826,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5595,6 +5616,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5713,6 +5735,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5819,6 +5842,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5937,6 +5961,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6043,6 +6068,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6131,7 +6157,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
@@ -6161,6 +6187,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6267,6 +6294,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6341,7 +6369,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
@@ -6371,6 +6399,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20190,8 +20219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="M156" sqref="M156"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="89" workbookViewId="0">
+      <selection activeCell="P165" sqref="P165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20205,24 +20234,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
       <c r="M1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
       <c r="M2" s="1">
         <v>1</v>
       </c>
@@ -20232,11 +20261,11 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
       <c r="M3" s="1">
         <v>0</v>
       </c>
@@ -20249,17 +20278,17 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="55"/>
+      <c r="B5" s="56"/>
       <c r="L5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="57" t="s">
+      <c r="M5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="57"/>
+      <c r="N5" s="53"/>
       <c r="O5" s="1"/>
       <c r="P5" s="54" t="s">
         <v>14</v>
@@ -20267,8 +20296,8 @@
       <c r="Q5" s="54"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="6" t="s">
         <v>28</v>
       </c>
@@ -20526,22 +20555,22 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N25" s="4"/>
     </row>
     <row r="32" spans="3:14" ht="19" x14ac:dyDescent="0.2">
-      <c r="C32" s="53" t="s">
+      <c r="C32" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
     </row>
     <row r="48" spans="3:6" ht="19" x14ac:dyDescent="0.2">
       <c r="C48" s="28" t="s">
@@ -20552,10 +20581,10 @@
       <c r="F48" s="28"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A65" s="55" t="s">
+      <c r="A65" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="B65" s="55"/>
+      <c r="B65" s="56"/>
       <c r="L65" s="42" t="s">
         <v>54</v>
       </c>
@@ -20569,8 +20598,8 @@
       <c r="R65" s="54"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A66" s="55"/>
-      <c r="B66" s="55"/>
+      <c r="A66" s="56"/>
+      <c r="B66" s="56"/>
       <c r="C66" s="6" t="s">
         <v>28</v>
       </c>
@@ -21098,11 +21127,11 @@
       <c r="R86" s="1"/>
     </row>
     <row r="87" spans="3:18" ht="19" x14ac:dyDescent="0.2">
-      <c r="C87" s="53" t="s">
+      <c r="C87" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D87" s="53"/>
-      <c r="E87" s="53"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="55"/>
       <c r="G87" s="33"/>
       <c r="H87" s="33"/>
       <c r="I87" s="33"/>
@@ -21327,12 +21356,12 @@
       <c r="R102" s="1"/>
     </row>
     <row r="103" spans="3:18" ht="19" x14ac:dyDescent="0.2">
-      <c r="C103" s="53" t="s">
+      <c r="C103" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D103" s="53"/>
-      <c r="E103" s="53"/>
-      <c r="F103" s="53"/>
+      <c r="D103" s="55"/>
+      <c r="E103" s="55"/>
+      <c r="F103" s="55"/>
       <c r="G103" s="33"/>
       <c r="H103" s="33"/>
       <c r="I103" s="33"/>
@@ -22139,10 +22168,10 @@
       <c r="E149" s="2"/>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A150" s="55" t="s">
+      <c r="A150" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B150" s="55"/>
+      <c r="B150" s="56"/>
       <c r="L150" s="42" t="s">
         <v>50</v>
       </c>
@@ -22155,8 +22184,8 @@
       <c r="Q150" s="54"/>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A151" s="55"/>
-      <c r="B151" s="55"/>
+      <c r="A151" s="56"/>
+      <c r="B151" s="56"/>
       <c r="C151" s="6" t="s">
         <v>28</v>
       </c>
@@ -22171,7 +22200,7 @@
       <c r="J151" s="54"/>
       <c r="K151" s="54"/>
       <c r="L151" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M151" s="34"/>
       <c r="N151" s="33"/>
@@ -22204,7 +22233,7 @@
       <c r="N152" s="33"/>
       <c r="O152" s="1"/>
       <c r="P152" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q152" s="37">
         <f>$L$151-P152</f>
@@ -22226,11 +22255,13 @@
       <c r="I153" s="14"/>
       <c r="J153" s="14"/>
       <c r="K153" s="14"/>
-      <c r="M153" s="33"/>
+      <c r="M153" s="33" t="s">
+        <v>57</v>
+      </c>
       <c r="N153" s="33"/>
       <c r="O153" s="1"/>
       <c r="P153" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q153" s="38">
         <f>$L$151-P153</f>
@@ -22260,7 +22291,7 @@
       </c>
       <c r="Q154" s="37">
         <f>$L$151-P154</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.2">
@@ -22298,7 +22329,7 @@
       <c r="M156" s="33"/>
       <c r="N156" s="33"/>
       <c r="P156" s="40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q156" s="37">
         <f>$L$151-P156</f>
@@ -22324,7 +22355,7 @@
       <c r="M157" s="33"/>
       <c r="N157" s="33"/>
       <c r="P157" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q157" s="38">
         <f>$L$151-P157</f>
@@ -22354,7 +22385,7 @@
       </c>
       <c r="Q158" s="37">
         <f>$L$151-P158</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R158" s="1"/>
     </row>
@@ -22390,7 +22421,7 @@
       <c r="K160" s="11"/>
       <c r="O160" s="1"/>
       <c r="P160" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q160" s="37">
         <f>$L$151-P160</f>
@@ -22414,7 +22445,7 @@
       <c r="K161" s="14"/>
       <c r="O161" s="1"/>
       <c r="P161" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q161" s="38">
         <f>$L$151-P161</f>
@@ -22438,7 +22469,7 @@
       <c r="K162" s="11"/>
       <c r="O162" s="1"/>
       <c r="P162" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q162" s="37">
         <f>$L$151-P162</f>
@@ -22462,7 +22493,7 @@
       <c r="K163" s="14"/>
       <c r="O163" s="1"/>
       <c r="P163" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q163" s="38">
         <f>$L$151-P163</f>
@@ -22486,7 +22517,7 @@
       <c r="K164" s="11"/>
       <c r="O164" s="1"/>
       <c r="P164" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q164" s="37">
         <f>$L$151-P164</f>
@@ -22498,22 +22529,22 @@
       <c r="Q165" s="1"/>
     </row>
     <row r="166" spans="3:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="C166" s="53" t="s">
+      <c r="C166" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D166" s="53"/>
-      <c r="E166" s="53"/>
+      <c r="D166" s="55"/>
+      <c r="E166" s="55"/>
     </row>
     <row r="175" spans="3:17" x14ac:dyDescent="0.2">
       <c r="N175" s="4"/>
     </row>
     <row r="182" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="C182" s="53" t="s">
+      <c r="C182" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D182" s="53"/>
-      <c r="E182" s="53"/>
-      <c r="F182" s="53"/>
+      <c r="D182" s="55"/>
+      <c r="E182" s="55"/>
+      <c r="F182" s="55"/>
     </row>
     <row r="183" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="47"/>
@@ -23057,11 +23088,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="A150:B151"/>
+    <mergeCell ref="P150:Q150"/>
+    <mergeCell ref="D151:K151"/>
+    <mergeCell ref="C87:E87"/>
     <mergeCell ref="A65:B66"/>
     <mergeCell ref="D66:K66"/>
     <mergeCell ref="D6:K6"/>
@@ -23069,11 +23100,11 @@
     <mergeCell ref="C182:F182"/>
     <mergeCell ref="C103:F103"/>
     <mergeCell ref="C166:E166"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="A150:B151"/>
-    <mergeCell ref="P150:Q150"/>
-    <mergeCell ref="D151:K151"/>
-    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="A5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/dados dos inquéritos.xlsx
+++ b/dados dos inquéritos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>Inquéritos p/ o Projeto de Inovação</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>Associação Mirandelense de Proteção Animal</t>
+  </si>
+  <si>
+    <t>Clínica Veterinária Real</t>
+  </si>
+  <si>
+    <t>Dr Daniel Oliveira</t>
   </si>
 </sst>
 </file>
@@ -393,7 +399,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -549,20 +555,23 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -690,7 +699,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$P$6:$Q$6</c:f>
+              <c:f>Sheet1!$Q$7:$R$7</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -704,12 +713,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$7:$Q$7</c:f>
+              <c:f>Sheet1!$Q$8:$R$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
@@ -851,6 +860,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -920,7 +930,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$P$151:$Q$151</c:f>
+              <c:f>Sheet1!$Q$152:$R$152</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -934,7 +944,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$154:$Q$154</c:f>
+              <c:f>Sheet1!$Q$155:$R$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -969,6 +979,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1116,7 +1127,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$151</c:f>
+              <c:f>Sheet1!$Q$152</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1137,7 +1148,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(Sheet1!$E$156,Sheet1!$E$157,Sheet1!$E$158)</c:f>
+              <c:f>(Sheet1!$E$157,Sheet1!$E$158,Sheet1!$E$159)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1154,7 +1165,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$156:$P$158</c:f>
+              <c:f>Sheet1!$Q$157:$Q$159</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1176,7 +1187,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$151</c:f>
+              <c:f>Sheet1!$R$152</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1197,7 +1208,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(Sheet1!$E$156,Sheet1!$E$157,Sheet1!$E$158)</c:f>
+              <c:f>(Sheet1!$E$157,Sheet1!$E$158,Sheet1!$E$159)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1214,7 +1225,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$156:$Q$158</c:f>
+              <c:f>Sheet1!$R$157:$R$159</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1241,11 +1252,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="973413648"/>
-        <c:axId val="973416400"/>
+        <c:axId val="1612235680"/>
+        <c:axId val="1612238432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="973413648"/>
+        <c:axId val="1612235680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1288,7 +1299,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="973416400"/>
+        <c:crossAx val="1612238432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1296,7 +1307,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="973416400"/>
+        <c:axId val="1612238432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1346,7 +1357,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="973413648"/>
+        <c:crossAx val="1612235680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1466,6 +1477,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1507,7 +1519,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$151</c:f>
+              <c:f>Sheet1!$Q$152</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1528,7 +1540,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(Sheet1!$E$160,Sheet1!$E$161,Sheet1!$E$162,Sheet1!$E$163,Sheet1!$E$164)</c:f>
+              <c:f>(Sheet1!$E$161,Sheet1!$E$162,Sheet1!$E$163,Sheet1!$E$164,Sheet1!$E$165)</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1551,7 +1563,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$160:$P$164</c:f>
+              <c:f>Sheet1!$Q$161:$Q$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1579,7 +1591,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$151</c:f>
+              <c:f>Sheet1!$R$152</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1600,7 +1612,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(Sheet1!$E$160,Sheet1!$E$161,Sheet1!$E$162,Sheet1!$E$163,Sheet1!$E$164)</c:f>
+              <c:f>(Sheet1!$E$161,Sheet1!$E$162,Sheet1!$E$163,Sheet1!$E$164,Sheet1!$E$165)</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1623,7 +1635,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$160:$Q$164</c:f>
+              <c:f>Sheet1!$R$161:$R$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1656,11 +1668,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="973433408"/>
-        <c:axId val="973436160"/>
+        <c:axId val="1612270448"/>
+        <c:axId val="1612273200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="973433408"/>
+        <c:axId val="1612270448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1703,7 +1715,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="973436160"/>
+        <c:crossAx val="1612273200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1711,7 +1723,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="973436160"/>
+        <c:axId val="1612273200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1761,7 +1773,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="973433408"/>
+        <c:crossAx val="1612270448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1775,6 +1787,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1951,7 +1964,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$P$66:$Q$66</c:f>
+              <c:f>Sheet1!$Q$67:$R$67</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1965,7 +1978,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$67:$Q$67</c:f>
+              <c:f>Sheet1!$Q$68:$R$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2182,7 +2195,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$P$66:$Q$66</c:f>
+              <c:f>Sheet1!$Q$67:$R$67</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2196,7 +2209,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$68:$Q$68</c:f>
+              <c:f>Sheet1!$Q$69:$R$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2338,6 +2351,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2407,7 +2421,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$P$66:$Q$66</c:f>
+              <c:f>Sheet1!$Q$67:$R$67</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2421,7 +2435,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$69:$Q$69</c:f>
+              <c:f>Sheet1!$Q$70:$R$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2456,6 +2470,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2562,6 +2577,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2631,7 +2647,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$P$66:$Q$66</c:f>
+              <c:f>Sheet1!$Q$67:$R$67</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2645,7 +2661,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$70:$Q$70</c:f>
+              <c:f>Sheet1!$Q$71:$R$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2680,6 +2696,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2856,7 +2873,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$P$66:$Q$66</c:f>
+              <c:f>Sheet1!$Q$67:$R$67</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2870,7 +2887,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$71:$Q$71</c:f>
+              <c:f>Sheet1!$Q$72:$R$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3082,7 +3099,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$P$66:$Q$66</c:f>
+              <c:f>Sheet1!$Q$67:$R$67</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3096,7 +3113,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$72:$Q$72</c:f>
+              <c:f>Sheet1!$Q$73:$R$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3308,7 +3325,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$P$66:$Q$66</c:f>
+              <c:f>Sheet1!$Q$67:$R$67</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3322,7 +3339,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$73:$Q$73</c:f>
+              <c:f>Sheet1!$Q$74:$R$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3534,7 +3551,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$P$6:$Q$6</c:f>
+              <c:f>Sheet1!$Q$7:$R$7</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3548,12 +3565,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$8:$Q$8</c:f>
+              <c:f>Sheet1!$Q$9:$R$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0</c:v>
@@ -3765,7 +3782,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$P$66:$Q$66</c:f>
+              <c:f>Sheet1!$Q$67:$R$67</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3779,7 +3796,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$74:$Q$74</c:f>
+              <c:f>Sheet1!$Q$75:$R$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3963,7 +3980,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$66</c:f>
+              <c:f>Sheet1!$Q$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3984,7 +4001,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(Sheet1!$E$78,Sheet1!$E$79,Sheet1!$E$80)</c:f>
+              <c:f>(Sheet1!$E$79,Sheet1!$E$80,Sheet1!$E$81)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4001,7 +4018,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$78:$P$80</c:f>
+              <c:f>Sheet1!$Q$79:$Q$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4023,7 +4040,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$66</c:f>
+              <c:f>Sheet1!$R$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4044,7 +4061,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(Sheet1!$E$78,Sheet1!$E$79,Sheet1!$E$80)</c:f>
+              <c:f>(Sheet1!$E$79,Sheet1!$E$80,Sheet1!$E$81)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4061,7 +4078,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$78:$Q$80</c:f>
+              <c:f>Sheet1!$R$79:$R$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4088,11 +4105,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="931264608"/>
-        <c:axId val="931267360"/>
+        <c:axId val="1612355632"/>
+        <c:axId val="1612358384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="931264608"/>
+        <c:axId val="1612355632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4135,7 +4152,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="931267360"/>
+        <c:crossAx val="1612358384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4143,7 +4160,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="931267360"/>
+        <c:axId val="1612358384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4193,7 +4210,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="931264608"/>
+        <c:crossAx val="1612355632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4356,7 +4373,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$66</c:f>
+              <c:f>Sheet1!$Q$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4377,7 +4394,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(Sheet1!$E$82,Sheet1!$E$83,Sheet1!$E$84)</c:f>
+              <c:f>(Sheet1!$E$83,Sheet1!$E$84,Sheet1!$E$85)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4394,7 +4411,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$82:$P$84</c:f>
+              <c:f>Sheet1!$Q$83:$Q$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4416,7 +4433,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$66</c:f>
+              <c:f>Sheet1!$R$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4437,7 +4454,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(Sheet1!$E$82,Sheet1!$E$83,Sheet1!$E$84)</c:f>
+              <c:f>(Sheet1!$E$83,Sheet1!$E$84,Sheet1!$E$85)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4454,7 +4471,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$82:$Q$84</c:f>
+              <c:f>Sheet1!$R$83:$R$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4481,11 +4498,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="896762656"/>
-        <c:axId val="896754496"/>
+        <c:axId val="1612382752"/>
+        <c:axId val="1612385504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="896762656"/>
+        <c:axId val="1612382752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4528,7 +4545,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="896754496"/>
+        <c:crossAx val="1612385504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4536,7 +4553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="896754496"/>
+        <c:axId val="1612385504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4586,7 +4603,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="896762656"/>
+        <c:crossAx val="1612382752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4777,7 +4794,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$P$66:$Q$66</c:f>
+              <c:f>Sheet1!$Q$67:$R$67</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4791,7 +4808,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$85:$Q$85</c:f>
+              <c:f>Sheet1!$Q$86:$R$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5008,7 +5025,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$P$6:$Q$6</c:f>
+              <c:f>Sheet1!$Q$7:$R$7</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5022,12 +5039,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$9:$Q$9</c:f>
+              <c:f>Sheet1!$Q$10:$R$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0</c:v>
@@ -5234,7 +5251,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$P$6:$Q$6</c:f>
+              <c:f>Sheet1!$Q$7:$R$7</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5248,12 +5265,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$10:$Q$10</c:f>
+              <c:f>Sheet1!$Q$11:$R$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
@@ -5460,7 +5477,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$P$6:$Q$6</c:f>
+              <c:f>Sheet1!$Q$7:$R$7</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5474,7 +5491,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$11:$Q$11</c:f>
+              <c:f>Sheet1!$Q$12:$R$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5482,7 +5499,7 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5686,7 +5703,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$P$6:$Q$6</c:f>
+              <c:f>Sheet1!$Q$7:$R$7</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5700,7 +5717,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$12:$Q$12</c:f>
+              <c:f>Sheet1!$Q$13:$R$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5708,7 +5725,7 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5912,7 +5929,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$P$6:$Q$6</c:f>
+              <c:f>Sheet1!$Q$7:$R$7</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5926,7 +5943,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$13:$Q$13</c:f>
+              <c:f>Sheet1!$Q$14:$R$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5934,7 +5951,7 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6138,7 +6155,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$P$151:$Q$151</c:f>
+              <c:f>Sheet1!$Q$152:$R$152</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -6152,7 +6169,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$152:$Q$152</c:f>
+              <c:f>Sheet1!$Q$153:$R$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6364,7 +6381,7 @@
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$153:$Q$153</c:f>
+              <c:f>Sheet1!$Q$154:$R$154</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -19265,13 +19282,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>822159</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>9803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>11141</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>146161</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19295,13 +19312,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>8912</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>243751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>135021</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19325,13 +19342,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>8913</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>9805</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>813244</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>146163</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19355,13 +19372,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>822156</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>243753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>135022</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19385,13 +19402,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>822159</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>243752</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>302219</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>179583</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19415,13 +19432,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>822158</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>9802</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>11140</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>146160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19445,13 +19462,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>822159</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>243751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>135021</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19475,13 +19492,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>822159</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>243750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>135020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19505,13 +19522,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>822158</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>243751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>11140</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>135021</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19535,13 +19552,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>8913</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>243751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>135021</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19565,13 +19582,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>18176</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>21319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>474255</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>156926</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19595,13 +19612,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>824786</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>12558</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>430943</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>158680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19625,13 +19642,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>824787</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>240872</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>14269</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>144409</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19655,13 +19672,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>25685</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>12558</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>158679</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19685,13 +19702,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>11416</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>12558</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>158679</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19715,13 +19732,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>824787</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>12557</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>158678</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19745,13 +19762,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>11415</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>240873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>28539</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>144410</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19775,13 +19792,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>32820</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>240873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>144410</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19805,13 +19822,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>824785</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>12559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>672466</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>158680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19835,13 +19852,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>682089</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>240872</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>444152</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>144409</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19865,13 +19882,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>824786</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>155253</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>430943</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>58790</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19895,13 +19912,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>425235</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>140984</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>744875</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>44521</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19923,15 +19940,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>460910</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>240872</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>422748</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>144409</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -20217,10 +20234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R214"/>
+  <dimension ref="A1:S215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="89" workbookViewId="0">
-      <selection activeCell="P165" sqref="P165"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="89" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20230,908 +20247,952 @@
     <col min="4" max="10" width="10.83203125" style="1"/>
     <col min="11" max="11" width="23.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.83203125" style="1"/>
-    <col min="13" max="14" width="17.6640625" style="1" customWidth="1"/>
+    <col min="13" max="15" width="17.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F1" s="57" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
       <c r="M1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
       <c r="M2" s="1">
         <v>1</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
       <c r="M3" s="1">
         <v>0</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O4" s="1"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="56" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M5" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="58"/>
+      <c r="O5" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="L5" s="7" t="s">
+      <c r="B6" s="54"/>
+      <c r="L6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="53"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="54" t="s">
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="54"/>
+      <c r="R6" s="53"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="6" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D7" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="8" t="s">
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="23" t="s">
+      <c r="O7" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="21" t="s">
+      <c r="R7" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C7" s="9">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C8" s="9">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="M7" s="14">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="1">
+        <v>3</v>
+      </c>
+      <c r="M8" s="14">
         <v>1</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N8" s="18">
         <v>1</v>
       </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="24">
-        <f>SUM(M7:O7)</f>
-        <v>2</v>
+      <c r="O8" s="14">
+        <v>1</v>
       </c>
-      <c r="Q7" s="17">
-        <f t="shared" ref="Q7:Q12" si="0">2-P7</f>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="24">
+        <f>SUM(M8:P8)</f>
+        <v>3</v>
+      </c>
+      <c r="R8" s="17">
+        <f>$L$8-Q8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C8" s="12">
-        <f>C7+1</f>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C9" s="12">
+        <f>C8+1</f>
         <v>2</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="M8" s="27">
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="M9" s="27">
         <v>0</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N9" s="20">
         <v>1</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="25">
-        <f t="shared" ref="P8:P12" si="1">SUM(M8:O8)</f>
+      <c r="O9" s="27">
         <v>1</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="P9" s="1"/>
+      <c r="Q9" s="25">
+        <f t="shared" ref="Q9:Q13" si="0">SUM(M9:P9)</f>
+        <v>2</v>
+      </c>
+      <c r="R9" s="19">
+        <f t="shared" ref="R9:R14" si="1">$L$8-Q9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C10" s="9">
+        <f t="shared" ref="C10:C14" si="2">C9+1</f>
+        <v>3</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="M10" s="14">
+        <v>0</v>
+      </c>
+      <c r="N10" s="18">
+        <v>1</v>
+      </c>
+      <c r="O10" s="14">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R10" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C11" s="12">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="M11" s="27">
+        <v>1</v>
+      </c>
+      <c r="N11" s="20">
+        <v>1</v>
+      </c>
+      <c r="O11" s="27">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R11" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C12" s="9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="M12" s="14">
+        <v>1</v>
+      </c>
+      <c r="N12" s="18">
+        <v>1</v>
+      </c>
+      <c r="O12" s="14">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R12" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C13" s="12">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="M13" s="27">
+        <v>1</v>
+      </c>
+      <c r="N13" s="20">
+        <v>0</v>
+      </c>
+      <c r="O13" s="27">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="R13" s="19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C9" s="9">
-        <f t="shared" ref="C9:C13" si="2">C8+1</f>
-        <v>3</v>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C14" s="9">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>3</v>
+      <c r="D14" s="10" t="s">
+        <v>6</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="M9" s="14">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="M14" s="14">
+        <v>1</v>
+      </c>
+      <c r="N14" s="18">
+        <v>1</v>
+      </c>
+      <c r="O14" s="14">
         <v>0</v>
       </c>
-      <c r="N9" s="18">
-        <v>1</v>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="24">
+        <f>SUM(M14:P14)</f>
+        <v>2</v>
       </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="24">
+      <c r="R14" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q9" s="17">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="3:15" ht="19" x14ac:dyDescent="0.2">
+      <c r="C17" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+    </row>
+    <row r="33" spans="3:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="C33" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+    </row>
+    <row r="49" spans="3:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="C49" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A66" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" s="54"/>
+      <c r="L66" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="M66" s="41"/>
+      <c r="N66" s="34"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="R66" s="53"/>
+      <c r="S66" s="53"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A67" s="54"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="53"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="53"/>
+      <c r="I67" s="53"/>
+      <c r="J67" s="53"/>
+      <c r="K67" s="53"/>
+      <c r="L67" s="33">
+        <v>5</v>
+      </c>
+      <c r="M67" s="33"/>
+      <c r="N67" s="33"/>
+      <c r="O67" s="33"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="R67" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="S67" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C68" s="9">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="M68" s="33"/>
+      <c r="N68" s="33"/>
+      <c r="O68" s="33"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="29">
+        <v>5</v>
+      </c>
+      <c r="R68" s="17">
+        <f>$L$67-Q68</f>
+        <v>0</v>
+      </c>
+      <c r="S68" s="1"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C69" s="12">
+        <f>C68+1</f>
+        <v>2</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="M69" s="33"/>
+      <c r="N69" s="33"/>
+      <c r="O69" s="33"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="25">
+        <v>5</v>
+      </c>
+      <c r="R69" s="19">
+        <f t="shared" ref="R69:R86" si="3">$L$67-Q69</f>
+        <v>0</v>
+      </c>
+      <c r="S69" s="1"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C70" s="9">
+        <f t="shared" ref="C70:C77" si="4">C69+1</f>
+        <v>3</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="33"/>
+      <c r="O70" s="33"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="29">
+        <v>4</v>
+      </c>
+      <c r="R70" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S70" s="1"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C71" s="12">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="M71" s="33"/>
+      <c r="N71" s="33"/>
+      <c r="O71" s="33"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="25">
+        <v>5</v>
+      </c>
+      <c r="R71" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S71" s="1"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C72" s="9">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="M72" s="33"/>
+      <c r="N72" s="33"/>
+      <c r="O72" s="33"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="29">
+        <v>5</v>
+      </c>
+      <c r="R72" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S72" s="1"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C73" s="12">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="M73" s="33"/>
+      <c r="N73" s="33"/>
+      <c r="O73" s="33"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="25">
+        <v>4</v>
+      </c>
+      <c r="R73" s="19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S73" s="1"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C74" s="9">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="M74" s="33"/>
+      <c r="N74" s="33"/>
+      <c r="O74" s="33"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="29">
+        <v>0</v>
+      </c>
+      <c r="R74" s="17">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S74" s="1"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C75" s="12">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="M75" s="33"/>
+      <c r="N75" s="33"/>
+      <c r="O75" s="33"/>
+      <c r="Q75" s="52">
+        <v>4</v>
+      </c>
+      <c r="R75" s="19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S75" s="1"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C76" s="9">
+        <f>C75+1</f>
+        <v>9</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="M76" s="33"/>
+      <c r="N76" s="33"/>
+      <c r="O76" s="33"/>
+      <c r="Q76" s="51"/>
+      <c r="R76" s="33"/>
+      <c r="S76" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C10" s="12">
-        <f t="shared" si="2"/>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C77" s="12">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="M77" s="33"/>
+      <c r="N77" s="33"/>
+      <c r="O77" s="33"/>
+      <c r="Q77" s="51"/>
+      <c r="R77" s="33"/>
+      <c r="S77" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C78" s="9"/>
+      <c r="D78" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="M78" s="33"/>
+      <c r="N78" s="33"/>
+      <c r="O78" s="33"/>
+      <c r="P78" s="45"/>
+      <c r="Q78" s="51"/>
+      <c r="R78" s="33"/>
+      <c r="S78" s="1"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C79" s="12">
+        <v>11</v>
+      </c>
+      <c r="D79" s="15"/>
+      <c r="E79" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="M79" s="33"/>
+      <c r="N79" s="33"/>
+      <c r="O79" s="33"/>
+      <c r="Q79" s="52">
+        <v>2</v>
+      </c>
+      <c r="R79" s="19">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="S79" s="1"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C80" s="9">
+        <f>C79+1</f>
+        <v>12</v>
+      </c>
+      <c r="D80" s="16"/>
+      <c r="E80" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="M80" s="33"/>
+      <c r="N80" s="33"/>
+      <c r="O80" s="33"/>
+      <c r="Q80" s="50">
         <v>4</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="M10" s="27">
-        <v>1</v>
-      </c>
-      <c r="N10" s="20">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="25">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="Q10" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C11" s="9">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="M11" s="14">
-        <v>1</v>
-      </c>
-      <c r="N11" s="18">
-        <v>1</v>
-      </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="24">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="Q11" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C12" s="12">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="M12" s="27">
-        <v>1</v>
-      </c>
-      <c r="N12" s="20">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q12" s="19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C13" s="9">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="M13" s="14">
-        <v>1</v>
-      </c>
-      <c r="N13" s="18">
-        <v>1</v>
-      </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="24">
-        <f>SUM(M13:O13)</f>
-        <v>2</v>
-      </c>
-      <c r="Q13" s="17">
-        <f>2-P13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="C16" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="N25" s="4"/>
-    </row>
-    <row r="32" spans="3:14" ht="19" x14ac:dyDescent="0.2">
-      <c r="C32" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-    </row>
-    <row r="48" spans="3:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="C48" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A65" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="B65" s="56"/>
-      <c r="L65" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="M65" s="41"/>
-      <c r="N65" s="34"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q65" s="54"/>
-      <c r="R65" s="54"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A66" s="56"/>
-      <c r="B66" s="56"/>
-      <c r="C66" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D66" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="54"/>
-      <c r="J66" s="54"/>
-      <c r="K66" s="54"/>
-      <c r="L66" s="33">
-        <v>5</v>
-      </c>
-      <c r="M66" s="33"/>
-      <c r="N66" s="33"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q66" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="R66" s="30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C67" s="9">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="M67" s="33"/>
-      <c r="N67" s="33"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="29">
-        <v>5</v>
-      </c>
-      <c r="Q67" s="17">
-        <f>$L$66-P67</f>
-        <v>0</v>
-      </c>
-      <c r="R67" s="1"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C68" s="12">
-        <f>C67+1</f>
-        <v>2</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="M68" s="33"/>
-      <c r="N68" s="33"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="25">
-        <v>5</v>
-      </c>
-      <c r="Q68" s="19">
-        <f t="shared" ref="Q68:Q85" si="3">$L$66-P68</f>
-        <v>0</v>
-      </c>
-      <c r="R68" s="1"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C69" s="9">
-        <f t="shared" ref="C69:C76" si="4">C68+1</f>
-        <v>3</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="M69" s="33"/>
-      <c r="N69" s="33"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="29">
-        <v>4</v>
-      </c>
-      <c r="Q69" s="17">
+      <c r="R80" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R69" s="1"/>
+      <c r="S80" s="1"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C70" s="12">
-        <f t="shared" si="4"/>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C81" s="12">
+        <f>C80+1</f>
+        <v>13</v>
+      </c>
+      <c r="D81" s="15"/>
+      <c r="E81" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="M81" s="33"/>
+      <c r="N81" s="33"/>
+      <c r="O81" s="33"/>
+      <c r="Q81" s="52">
+        <v>1</v>
+      </c>
+      <c r="R81" s="19">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="D70" s="15" t="s">
-        <v>19</v>
+      <c r="S81" s="1"/>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C82" s="9"/>
+      <c r="D82" s="16" t="s">
+        <v>36</v>
       </c>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="M70" s="33"/>
-      <c r="N70" s="33"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="25">
-        <v>5</v>
+      <c r="E82" s="10"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="M82" s="33"/>
+      <c r="N82" s="33"/>
+      <c r="O82" s="33"/>
+      <c r="P82" s="45"/>
+      <c r="Q82" s="51"/>
+      <c r="R82" s="33"/>
+      <c r="S82" s="1"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C83" s="12">
+        <v>14</v>
       </c>
-      <c r="Q70" s="19">
+      <c r="D83" s="15"/>
+      <c r="E83" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83" s="14"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="M83" s="33"/>
+      <c r="N83" s="33"/>
+      <c r="O83" s="33"/>
+      <c r="Q83" s="52">
+        <v>3</v>
+      </c>
+      <c r="R83" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
-      <c r="R70" s="1"/>
+      <c r="S83" s="1"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C71" s="9">
-        <f t="shared" si="4"/>
-        <v>5</v>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C84" s="9">
+        <f>C83+1</f>
+        <v>15</v>
       </c>
-      <c r="D71" s="16" t="s">
-        <v>27</v>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16" t="s">
+        <v>24</v>
       </c>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="M71" s="33"/>
-      <c r="N71" s="33"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="29">
-        <v>5</v>
+      <c r="F84" s="11"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="M84" s="33"/>
+      <c r="N84" s="33"/>
+      <c r="O84" s="33"/>
+      <c r="Q84" s="50">
+        <v>1</v>
       </c>
-      <c r="Q71" s="17">
+      <c r="R84" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R71" s="1"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C72" s="12">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="M72" s="33"/>
-      <c r="N72" s="33"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="25">
         <v>4</v>
       </c>
-      <c r="Q72" s="19">
+      <c r="S84" s="1"/>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C85" s="12">
+        <f>C84+1</f>
+        <v>16</v>
+      </c>
+      <c r="D85" s="14"/>
+      <c r="E85" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="M85" s="33"/>
+      <c r="N85" s="33"/>
+      <c r="O85" s="33"/>
+      <c r="Q85" s="52">
+        <v>4</v>
+      </c>
+      <c r="R85" s="19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R72" s="1"/>
+      <c r="S85" s="1"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C73" s="9">
-        <f t="shared" si="4"/>
-        <v>7</v>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C86" s="9">
+        <f>C85+1</f>
+        <v>17</v>
       </c>
-      <c r="D73" s="16" t="s">
-        <v>31</v>
+      <c r="D86" s="10" t="s">
+        <v>37</v>
       </c>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="M73" s="33"/>
-      <c r="N73" s="33"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="29">
+      <c r="E86" s="16"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="M86" s="33"/>
+      <c r="N86" s="33"/>
+      <c r="O86" s="33"/>
+      <c r="Q86" s="50">
         <v>0</v>
       </c>
-      <c r="Q73" s="17">
+      <c r="R86" s="17">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R73" s="1"/>
+      <c r="S86" s="1"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C74" s="12">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="M74" s="33"/>
-      <c r="N74" s="33"/>
-      <c r="P74" s="52">
-        <v>4</v>
-      </c>
-      <c r="Q74" s="19">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R74" s="1"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C75" s="9">
-        <f>C74+1</f>
-        <v>9</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-      <c r="M75" s="33"/>
-      <c r="N75" s="33"/>
-      <c r="P75" s="51"/>
-      <c r="Q75" s="33"/>
-      <c r="R75" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C76" s="12">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14"/>
-      <c r="M76" s="33"/>
-      <c r="N76" s="33"/>
-      <c r="P76" s="51"/>
-      <c r="Q76" s="33"/>
-      <c r="R76" s="32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C77" s="9"/>
-      <c r="D77" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="M77" s="33"/>
-      <c r="N77" s="33"/>
-      <c r="O77" s="45"/>
-      <c r="P77" s="51"/>
-      <c r="Q77" s="33"/>
-      <c r="R77" s="1"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C78" s="12">
-        <v>11</v>
-      </c>
-      <c r="D78" s="15"/>
-      <c r="E78" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
-      <c r="M78" s="33"/>
-      <c r="N78" s="33"/>
-      <c r="P78" s="52">
-        <v>2</v>
-      </c>
-      <c r="Q78" s="19">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="R78" s="1"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C79" s="9">
-        <f>C78+1</f>
-        <v>12</v>
-      </c>
-      <c r="D79" s="16"/>
-      <c r="E79" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
-      <c r="M79" s="33"/>
-      <c r="N79" s="33"/>
-      <c r="P79" s="50">
-        <v>4</v>
-      </c>
-      <c r="Q79" s="17">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R79" s="1"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C80" s="12">
-        <f>C79+1</f>
-        <v>13</v>
-      </c>
-      <c r="D80" s="15"/>
-      <c r="E80" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-      <c r="M80" s="33"/>
-      <c r="N80" s="33"/>
-      <c r="P80" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q80" s="19">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="R80" s="1"/>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C81" s="9"/>
-      <c r="D81" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E81" s="10"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="11"/>
-      <c r="M81" s="33"/>
-      <c r="N81" s="33"/>
-      <c r="O81" s="45"/>
-      <c r="P81" s="51"/>
-      <c r="Q81" s="33"/>
-      <c r="R81" s="1"/>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C82" s="12">
-        <v>14</v>
-      </c>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F82" s="14"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="14"/>
-      <c r="M82" s="33"/>
-      <c r="N82" s="33"/>
-      <c r="P82" s="52">
-        <v>3</v>
-      </c>
-      <c r="Q82" s="19">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="R82" s="1"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C83" s="9">
-        <f>C82+1</f>
-        <v>15</v>
-      </c>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F83" s="11"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="11"/>
-      <c r="K83" s="11"/>
-      <c r="M83" s="33"/>
-      <c r="N83" s="33"/>
-      <c r="P83" s="50">
-        <v>1</v>
-      </c>
-      <c r="Q83" s="17">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="R83" s="1"/>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C84" s="12">
-        <f>C83+1</f>
-        <v>16</v>
-      </c>
-      <c r="D84" s="14"/>
-      <c r="E84" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="14"/>
-      <c r="M84" s="33"/>
-      <c r="N84" s="33"/>
-      <c r="P84" s="52">
-        <v>4</v>
-      </c>
-      <c r="Q84" s="19">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R84" s="1"/>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C85" s="9">
-        <f>C84+1</f>
-        <v>17</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E85" s="16"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="11"/>
-      <c r="K85" s="11"/>
-      <c r="M85" s="33"/>
-      <c r="N85" s="33"/>
-      <c r="P85" s="50">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="17">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="R85" s="1"/>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="33"/>
-      <c r="I86" s="33"/>
-      <c r="J86" s="33"/>
-      <c r="K86" s="33"/>
-      <c r="L86" s="33"/>
-      <c r="M86" s="33"/>
-      <c r="N86" s="33"/>
-      <c r="O86" s="51"/>
-      <c r="P86" s="51"/>
-      <c r="Q86" s="51"/>
-      <c r="R86" s="1"/>
-    </row>
-    <row r="87" spans="3:18" ht="19" x14ac:dyDescent="0.2">
-      <c r="C87" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D87" s="55"/>
-      <c r="E87" s="55"/>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
       <c r="G87" s="33"/>
       <c r="H87" s="33"/>
       <c r="I87" s="33"/>
@@ -21140,12 +21201,18 @@
       <c r="L87" s="33"/>
       <c r="M87" s="33"/>
       <c r="N87" s="33"/>
-      <c r="O87" s="51"/>
+      <c r="O87" s="33"/>
       <c r="P87" s="51"/>
       <c r="Q87" s="51"/>
-      <c r="R87" s="1"/>
+      <c r="R87" s="51"/>
+      <c r="S87" s="1"/>
     </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:19" ht="19" x14ac:dyDescent="0.2">
+      <c r="C88" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="55"/>
+      <c r="E88" s="55"/>
       <c r="G88" s="33"/>
       <c r="H88" s="33"/>
       <c r="I88" s="33"/>
@@ -21154,12 +21221,13 @@
       <c r="L88" s="33"/>
       <c r="M88" s="33"/>
       <c r="N88" s="33"/>
-      <c r="O88" s="51"/>
+      <c r="O88" s="33"/>
       <c r="P88" s="51"/>
       <c r="Q88" s="51"/>
-      <c r="R88" s="1"/>
+      <c r="R88" s="51"/>
+      <c r="S88" s="1"/>
     </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="G89" s="33"/>
       <c r="H89" s="33"/>
       <c r="I89" s="33"/>
@@ -21168,12 +21236,13 @@
       <c r="L89" s="33"/>
       <c r="M89" s="33"/>
       <c r="N89" s="33"/>
-      <c r="O89" s="51"/>
+      <c r="O89" s="33"/>
       <c r="P89" s="51"/>
       <c r="Q89" s="51"/>
-      <c r="R89" s="1"/>
+      <c r="R89" s="51"/>
+      <c r="S89" s="1"/>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="G90" s="33"/>
       <c r="H90" s="33"/>
       <c r="I90" s="33"/>
@@ -21182,12 +21251,13 @@
       <c r="L90" s="33"/>
       <c r="M90" s="33"/>
       <c r="N90" s="33"/>
-      <c r="O90" s="51"/>
+      <c r="O90" s="33"/>
       <c r="P90" s="51"/>
       <c r="Q90" s="51"/>
-      <c r="R90" s="1"/>
+      <c r="R90" s="51"/>
+      <c r="S90" s="1"/>
     </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="G91" s="33"/>
       <c r="H91" s="33"/>
       <c r="I91" s="33"/>
@@ -21196,12 +21266,13 @@
       <c r="L91" s="33"/>
       <c r="M91" s="33"/>
       <c r="N91" s="33"/>
-      <c r="O91" s="51"/>
+      <c r="O91" s="33"/>
       <c r="P91" s="51"/>
       <c r="Q91" s="51"/>
-      <c r="R91" s="1"/>
+      <c r="R91" s="51"/>
+      <c r="S91" s="1"/>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="G92" s="33"/>
       <c r="H92" s="33"/>
       <c r="I92" s="33"/>
@@ -21210,12 +21281,13 @@
       <c r="L92" s="33"/>
       <c r="M92" s="33"/>
       <c r="N92" s="33"/>
-      <c r="O92" s="51"/>
+      <c r="O92" s="33"/>
       <c r="P92" s="51"/>
       <c r="Q92" s="51"/>
-      <c r="R92" s="1"/>
+      <c r="R92" s="51"/>
+      <c r="S92" s="1"/>
     </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="G93" s="33"/>
       <c r="H93" s="33"/>
       <c r="I93" s="33"/>
@@ -21224,12 +21296,13 @@
       <c r="L93" s="33"/>
       <c r="M93" s="33"/>
       <c r="N93" s="33"/>
-      <c r="O93" s="51"/>
+      <c r="O93" s="33"/>
       <c r="P93" s="51"/>
       <c r="Q93" s="51"/>
-      <c r="R93" s="1"/>
+      <c r="R93" s="51"/>
+      <c r="S93" s="1"/>
     </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="G94" s="33"/>
       <c r="H94" s="33"/>
       <c r="I94" s="33"/>
@@ -21238,12 +21311,13 @@
       <c r="L94" s="33"/>
       <c r="M94" s="33"/>
       <c r="N94" s="33"/>
-      <c r="O94" s="51"/>
+      <c r="O94" s="33"/>
       <c r="P94" s="51"/>
       <c r="Q94" s="51"/>
-      <c r="R94" s="1"/>
+      <c r="R94" s="51"/>
+      <c r="S94" s="1"/>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="G95" s="33"/>
       <c r="H95" s="33"/>
       <c r="I95" s="33"/>
@@ -21252,12 +21326,13 @@
       <c r="L95" s="33"/>
       <c r="M95" s="33"/>
       <c r="N95" s="33"/>
-      <c r="O95" s="51"/>
+      <c r="O95" s="33"/>
       <c r="P95" s="51"/>
       <c r="Q95" s="51"/>
-      <c r="R95" s="1"/>
+      <c r="R95" s="51"/>
+      <c r="S95" s="1"/>
     </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="G96" s="33"/>
       <c r="H96" s="33"/>
       <c r="I96" s="33"/>
@@ -21266,12 +21341,13 @@
       <c r="L96" s="33"/>
       <c r="M96" s="33"/>
       <c r="N96" s="33"/>
-      <c r="O96" s="51"/>
+      <c r="O96" s="33"/>
       <c r="P96" s="51"/>
       <c r="Q96" s="51"/>
-      <c r="R96" s="1"/>
+      <c r="R96" s="51"/>
+      <c r="S96" s="1"/>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="G97" s="33"/>
       <c r="H97" s="33"/>
       <c r="I97" s="33"/>
@@ -21280,12 +21356,13 @@
       <c r="L97" s="33"/>
       <c r="M97" s="33"/>
       <c r="N97" s="33"/>
-      <c r="O97" s="51"/>
+      <c r="O97" s="33"/>
       <c r="P97" s="51"/>
       <c r="Q97" s="51"/>
-      <c r="R97" s="1"/>
+      <c r="R97" s="51"/>
+      <c r="S97" s="1"/>
     </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="G98" s="33"/>
       <c r="H98" s="33"/>
       <c r="I98" s="33"/>
@@ -21294,12 +21371,13 @@
       <c r="L98" s="33"/>
       <c r="M98" s="33"/>
       <c r="N98" s="33"/>
-      <c r="O98" s="51"/>
+      <c r="O98" s="33"/>
       <c r="P98" s="51"/>
       <c r="Q98" s="51"/>
-      <c r="R98" s="1"/>
+      <c r="R98" s="51"/>
+      <c r="S98" s="1"/>
     </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="G99" s="33"/>
       <c r="H99" s="33"/>
       <c r="I99" s="33"/>
@@ -21308,12 +21386,13 @@
       <c r="L99" s="33"/>
       <c r="M99" s="33"/>
       <c r="N99" s="33"/>
-      <c r="O99" s="51"/>
+      <c r="O99" s="33"/>
       <c r="P99" s="51"/>
       <c r="Q99" s="51"/>
-      <c r="R99" s="1"/>
+      <c r="R99" s="51"/>
+      <c r="S99" s="1"/>
     </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="G100" s="33"/>
       <c r="H100" s="33"/>
       <c r="I100" s="33"/>
@@ -21322,12 +21401,13 @@
       <c r="L100" s="33"/>
       <c r="M100" s="33"/>
       <c r="N100" s="33"/>
-      <c r="O100" s="51"/>
+      <c r="O100" s="33"/>
       <c r="P100" s="51"/>
       <c r="Q100" s="51"/>
-      <c r="R100" s="1"/>
+      <c r="R100" s="51"/>
+      <c r="S100" s="1"/>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="G101" s="33"/>
       <c r="H101" s="33"/>
       <c r="I101" s="33"/>
@@ -21336,12 +21416,13 @@
       <c r="L101" s="33"/>
       <c r="M101" s="33"/>
       <c r="N101" s="33"/>
-      <c r="O101" s="51"/>
+      <c r="O101" s="33"/>
       <c r="P101" s="51"/>
       <c r="Q101" s="51"/>
-      <c r="R101" s="1"/>
+      <c r="R101" s="51"/>
+      <c r="S101" s="1"/>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="G102" s="33"/>
       <c r="H102" s="33"/>
       <c r="I102" s="33"/>
@@ -21350,18 +21431,13 @@
       <c r="L102" s="33"/>
       <c r="M102" s="33"/>
       <c r="N102" s="33"/>
-      <c r="O102" s="51"/>
+      <c r="O102" s="33"/>
       <c r="P102" s="51"/>
       <c r="Q102" s="51"/>
-      <c r="R102" s="1"/>
+      <c r="R102" s="51"/>
+      <c r="S102" s="1"/>
     </row>
-    <row r="103" spans="3:18" ht="19" x14ac:dyDescent="0.2">
-      <c r="C103" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D103" s="55"/>
-      <c r="E103" s="55"/>
-      <c r="F103" s="55"/>
+    <row r="103" spans="3:19" x14ac:dyDescent="0.2">
       <c r="G103" s="33"/>
       <c r="H103" s="33"/>
       <c r="I103" s="33"/>
@@ -21370,12 +21446,19 @@
       <c r="L103" s="33"/>
       <c r="M103" s="33"/>
       <c r="N103" s="33"/>
-      <c r="O103" s="51"/>
+      <c r="O103" s="33"/>
       <c r="P103" s="51"/>
       <c r="Q103" s="51"/>
-      <c r="R103" s="1"/>
+      <c r="R103" s="51"/>
+      <c r="S103" s="1"/>
     </row>
-    <row r="104" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:19" ht="19" x14ac:dyDescent="0.2">
+      <c r="C104" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" s="55"/>
+      <c r="E104" s="55"/>
+      <c r="F104" s="55"/>
       <c r="G104" s="33"/>
       <c r="H104" s="33"/>
       <c r="I104" s="33"/>
@@ -21384,12 +21467,13 @@
       <c r="L104" s="33"/>
       <c r="M104" s="33"/>
       <c r="N104" s="33"/>
-      <c r="O104" s="51"/>
+      <c r="O104" s="33"/>
       <c r="P104" s="51"/>
       <c r="Q104" s="51"/>
-      <c r="R104" s="1"/>
+      <c r="R104" s="51"/>
+      <c r="S104" s="1"/>
     </row>
-    <row r="105" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:19" x14ac:dyDescent="0.2">
       <c r="G105" s="33"/>
       <c r="H105" s="33"/>
       <c r="I105" s="33"/>
@@ -21398,16 +21482,13 @@
       <c r="L105" s="33"/>
       <c r="M105" s="33"/>
       <c r="N105" s="33"/>
-      <c r="O105" s="51"/>
+      <c r="O105" s="33"/>
       <c r="P105" s="51"/>
       <c r="Q105" s="51"/>
-      <c r="R105" s="1"/>
+      <c r="R105" s="51"/>
+      <c r="S105" s="1"/>
     </row>
-    <row r="106" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
-      <c r="E106" s="33"/>
-      <c r="F106" s="33"/>
+    <row r="106" spans="3:19" x14ac:dyDescent="0.2">
       <c r="G106" s="33"/>
       <c r="H106" s="33"/>
       <c r="I106" s="33"/>
@@ -21416,12 +21497,13 @@
       <c r="L106" s="33"/>
       <c r="M106" s="33"/>
       <c r="N106" s="33"/>
-      <c r="O106" s="51"/>
+      <c r="O106" s="33"/>
       <c r="P106" s="51"/>
       <c r="Q106" s="51"/>
-      <c r="R106" s="1"/>
+      <c r="R106" s="51"/>
+      <c r="S106" s="1"/>
     </row>
-    <row r="107" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C107" s="33"/>
       <c r="D107" s="33"/>
       <c r="E107" s="33"/>
@@ -21434,12 +21516,13 @@
       <c r="L107" s="33"/>
       <c r="M107" s="33"/>
       <c r="N107" s="33"/>
-      <c r="O107" s="51"/>
+      <c r="O107" s="33"/>
       <c r="P107" s="51"/>
       <c r="Q107" s="51"/>
-      <c r="R107" s="1"/>
+      <c r="R107" s="51"/>
+      <c r="S107" s="1"/>
     </row>
-    <row r="108" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C108" s="33"/>
       <c r="D108" s="33"/>
       <c r="E108" s="33"/>
@@ -21452,12 +21535,13 @@
       <c r="L108" s="33"/>
       <c r="M108" s="33"/>
       <c r="N108" s="33"/>
-      <c r="O108" s="51"/>
+      <c r="O108" s="33"/>
       <c r="P108" s="51"/>
       <c r="Q108" s="51"/>
-      <c r="R108" s="1"/>
+      <c r="R108" s="51"/>
+      <c r="S108" s="1"/>
     </row>
-    <row r="109" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C109" s="33"/>
       <c r="D109" s="33"/>
       <c r="E109" s="33"/>
@@ -21470,12 +21554,13 @@
       <c r="L109" s="33"/>
       <c r="M109" s="33"/>
       <c r="N109" s="33"/>
-      <c r="O109" s="51"/>
+      <c r="O109" s="33"/>
       <c r="P109" s="51"/>
       <c r="Q109" s="51"/>
-      <c r="R109" s="1"/>
+      <c r="R109" s="51"/>
+      <c r="S109" s="1"/>
     </row>
-    <row r="110" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C110" s="33"/>
       <c r="D110" s="33"/>
       <c r="E110" s="33"/>
@@ -21488,12 +21573,13 @@
       <c r="L110" s="33"/>
       <c r="M110" s="33"/>
       <c r="N110" s="33"/>
-      <c r="O110" s="51"/>
+      <c r="O110" s="33"/>
       <c r="P110" s="51"/>
       <c r="Q110" s="51"/>
-      <c r="R110" s="1"/>
+      <c r="R110" s="51"/>
+      <c r="S110" s="1"/>
     </row>
-    <row r="111" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C111" s="33"/>
       <c r="D111" s="33"/>
       <c r="E111" s="33"/>
@@ -21506,12 +21592,13 @@
       <c r="L111" s="33"/>
       <c r="M111" s="33"/>
       <c r="N111" s="33"/>
-      <c r="O111" s="51"/>
+      <c r="O111" s="33"/>
       <c r="P111" s="51"/>
       <c r="Q111" s="51"/>
-      <c r="R111" s="1"/>
+      <c r="R111" s="51"/>
+      <c r="S111" s="1"/>
     </row>
-    <row r="112" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C112" s="33"/>
       <c r="D112" s="33"/>
       <c r="E112" s="33"/>
@@ -21524,12 +21611,13 @@
       <c r="L112" s="33"/>
       <c r="M112" s="33"/>
       <c r="N112" s="33"/>
-      <c r="O112" s="51"/>
+      <c r="O112" s="33"/>
       <c r="P112" s="51"/>
       <c r="Q112" s="51"/>
-      <c r="R112" s="1"/>
+      <c r="R112" s="51"/>
+      <c r="S112" s="1"/>
     </row>
-    <row r="113" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C113" s="33"/>
       <c r="D113" s="33"/>
       <c r="E113" s="33"/>
@@ -21542,12 +21630,13 @@
       <c r="L113" s="33"/>
       <c r="M113" s="33"/>
       <c r="N113" s="33"/>
-      <c r="O113" s="51"/>
+      <c r="O113" s="33"/>
       <c r="P113" s="51"/>
       <c r="Q113" s="51"/>
-      <c r="R113" s="1"/>
+      <c r="R113" s="51"/>
+      <c r="S113" s="1"/>
     </row>
-    <row r="114" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C114" s="33"/>
       <c r="D114" s="33"/>
       <c r="E114" s="33"/>
@@ -21560,12 +21649,13 @@
       <c r="L114" s="33"/>
       <c r="M114" s="33"/>
       <c r="N114" s="33"/>
-      <c r="O114" s="51"/>
+      <c r="O114" s="33"/>
       <c r="P114" s="51"/>
       <c r="Q114" s="51"/>
-      <c r="R114" s="1"/>
+      <c r="R114" s="51"/>
+      <c r="S114" s="1"/>
     </row>
-    <row r="115" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C115" s="33"/>
       <c r="D115" s="33"/>
       <c r="E115" s="33"/>
@@ -21578,12 +21668,13 @@
       <c r="L115" s="33"/>
       <c r="M115" s="33"/>
       <c r="N115" s="33"/>
-      <c r="O115" s="51"/>
+      <c r="O115" s="33"/>
       <c r="P115" s="51"/>
       <c r="Q115" s="51"/>
-      <c r="R115" s="1"/>
+      <c r="R115" s="51"/>
+      <c r="S115" s="1"/>
     </row>
-    <row r="116" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C116" s="33"/>
       <c r="D116" s="33"/>
       <c r="E116" s="33"/>
@@ -21596,12 +21687,13 @@
       <c r="L116" s="33"/>
       <c r="M116" s="33"/>
       <c r="N116" s="33"/>
-      <c r="O116" s="51"/>
+      <c r="O116" s="33"/>
       <c r="P116" s="51"/>
       <c r="Q116" s="51"/>
-      <c r="R116" s="1"/>
+      <c r="R116" s="51"/>
+      <c r="S116" s="1"/>
     </row>
-    <row r="117" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C117" s="33"/>
       <c r="D117" s="33"/>
       <c r="E117" s="33"/>
@@ -21614,12 +21706,13 @@
       <c r="L117" s="33"/>
       <c r="M117" s="33"/>
       <c r="N117" s="33"/>
-      <c r="O117" s="51"/>
+      <c r="O117" s="33"/>
       <c r="P117" s="51"/>
       <c r="Q117" s="51"/>
-      <c r="R117" s="1"/>
+      <c r="R117" s="51"/>
+      <c r="S117" s="1"/>
     </row>
-    <row r="118" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C118" s="33"/>
       <c r="D118" s="33"/>
       <c r="E118" s="33"/>
@@ -21632,15 +21725,14 @@
       <c r="L118" s="33"/>
       <c r="M118" s="33"/>
       <c r="N118" s="33"/>
-      <c r="O118" s="51"/>
+      <c r="O118" s="33"/>
       <c r="P118" s="51"/>
       <c r="Q118" s="51"/>
-      <c r="R118" s="1"/>
+      <c r="R118" s="51"/>
+      <c r="S118" s="1"/>
     </row>
-    <row r="119" spans="3:18" ht="19" x14ac:dyDescent="0.2">
-      <c r="C119" s="46" t="s">
-        <v>55</v>
-      </c>
+    <row r="119" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C119" s="33"/>
       <c r="D119" s="33"/>
       <c r="E119" s="33"/>
       <c r="F119" s="33"/>
@@ -21652,13 +21744,16 @@
       <c r="L119" s="33"/>
       <c r="M119" s="33"/>
       <c r="N119" s="33"/>
-      <c r="O119" s="51"/>
+      <c r="O119" s="33"/>
       <c r="P119" s="51"/>
       <c r="Q119" s="51"/>
-      <c r="R119" s="1"/>
+      <c r="R119" s="51"/>
+      <c r="S119" s="1"/>
     </row>
-    <row r="120" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C120" s="33"/>
+    <row r="120" spans="3:19" ht="19" x14ac:dyDescent="0.2">
+      <c r="C120" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="D120" s="33"/>
       <c r="E120" s="33"/>
       <c r="F120" s="33"/>
@@ -21670,12 +21765,13 @@
       <c r="L120" s="33"/>
       <c r="M120" s="33"/>
       <c r="N120" s="33"/>
-      <c r="O120" s="51"/>
+      <c r="O120" s="33"/>
       <c r="P120" s="51"/>
       <c r="Q120" s="51"/>
-      <c r="R120" s="1"/>
+      <c r="R120" s="51"/>
+      <c r="S120" s="1"/>
     </row>
-    <row r="121" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C121" s="33"/>
       <c r="D121" s="33"/>
       <c r="E121" s="33"/>
@@ -21688,12 +21784,13 @@
       <c r="L121" s="33"/>
       <c r="M121" s="33"/>
       <c r="N121" s="33"/>
-      <c r="O121" s="51"/>
+      <c r="O121" s="33"/>
       <c r="P121" s="51"/>
       <c r="Q121" s="51"/>
-      <c r="R121" s="1"/>
+      <c r="R121" s="51"/>
+      <c r="S121" s="1"/>
     </row>
-    <row r="122" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C122" s="33"/>
       <c r="D122" s="33"/>
       <c r="E122" s="33"/>
@@ -21706,12 +21803,13 @@
       <c r="L122" s="33"/>
       <c r="M122" s="33"/>
       <c r="N122" s="33"/>
-      <c r="O122" s="51"/>
+      <c r="O122" s="33"/>
       <c r="P122" s="51"/>
       <c r="Q122" s="51"/>
-      <c r="R122" s="1"/>
+      <c r="R122" s="51"/>
+      <c r="S122" s="1"/>
     </row>
-    <row r="123" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C123" s="33"/>
       <c r="D123" s="33"/>
       <c r="E123" s="33"/>
@@ -21724,12 +21822,13 @@
       <c r="L123" s="33"/>
       <c r="M123" s="33"/>
       <c r="N123" s="33"/>
-      <c r="O123" s="51"/>
+      <c r="O123" s="33"/>
       <c r="P123" s="51"/>
       <c r="Q123" s="51"/>
-      <c r="R123" s="1"/>
+      <c r="R123" s="51"/>
+      <c r="S123" s="1"/>
     </row>
-    <row r="124" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C124" s="33"/>
       <c r="D124" s="33"/>
       <c r="E124" s="33"/>
@@ -21742,12 +21841,13 @@
       <c r="L124" s="33"/>
       <c r="M124" s="33"/>
       <c r="N124" s="33"/>
-      <c r="O124" s="51"/>
+      <c r="O124" s="33"/>
       <c r="P124" s="51"/>
       <c r="Q124" s="51"/>
-      <c r="R124" s="1"/>
+      <c r="R124" s="51"/>
+      <c r="S124" s="1"/>
     </row>
-    <row r="125" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C125" s="33"/>
       <c r="D125" s="33"/>
       <c r="E125" s="33"/>
@@ -21760,12 +21860,13 @@
       <c r="L125" s="33"/>
       <c r="M125" s="33"/>
       <c r="N125" s="33"/>
-      <c r="O125" s="51"/>
+      <c r="O125" s="33"/>
       <c r="P125" s="51"/>
       <c r="Q125" s="51"/>
-      <c r="R125" s="1"/>
+      <c r="R125" s="51"/>
+      <c r="S125" s="1"/>
     </row>
-    <row r="126" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C126" s="33"/>
       <c r="D126" s="33"/>
       <c r="E126" s="33"/>
@@ -21778,12 +21879,13 @@
       <c r="L126" s="33"/>
       <c r="M126" s="33"/>
       <c r="N126" s="33"/>
-      <c r="O126" s="51"/>
+      <c r="O126" s="33"/>
       <c r="P126" s="51"/>
       <c r="Q126" s="51"/>
-      <c r="R126" s="1"/>
+      <c r="R126" s="51"/>
+      <c r="S126" s="1"/>
     </row>
-    <row r="127" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C127" s="33"/>
       <c r="D127" s="33"/>
       <c r="E127" s="33"/>
@@ -21796,12 +21898,13 @@
       <c r="L127" s="33"/>
       <c r="M127" s="33"/>
       <c r="N127" s="33"/>
-      <c r="O127" s="51"/>
+      <c r="O127" s="33"/>
       <c r="P127" s="51"/>
       <c r="Q127" s="51"/>
-      <c r="R127" s="1"/>
+      <c r="R127" s="51"/>
+      <c r="S127" s="1"/>
     </row>
-    <row r="128" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C128" s="33"/>
       <c r="D128" s="33"/>
       <c r="E128" s="33"/>
@@ -21814,12 +21917,13 @@
       <c r="L128" s="33"/>
       <c r="M128" s="33"/>
       <c r="N128" s="33"/>
-      <c r="O128" s="51"/>
+      <c r="O128" s="33"/>
       <c r="P128" s="51"/>
       <c r="Q128" s="51"/>
-      <c r="R128" s="1"/>
+      <c r="R128" s="51"/>
+      <c r="S128" s="1"/>
     </row>
-    <row r="129" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C129" s="33"/>
       <c r="D129" s="33"/>
       <c r="E129" s="33"/>
@@ -21832,12 +21936,13 @@
       <c r="L129" s="33"/>
       <c r="M129" s="33"/>
       <c r="N129" s="33"/>
-      <c r="O129" s="51"/>
+      <c r="O129" s="33"/>
       <c r="P129" s="51"/>
       <c r="Q129" s="51"/>
-      <c r="R129" s="1"/>
+      <c r="R129" s="51"/>
+      <c r="S129" s="1"/>
     </row>
-    <row r="130" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C130" s="33"/>
       <c r="D130" s="33"/>
       <c r="E130" s="33"/>
@@ -21850,12 +21955,13 @@
       <c r="L130" s="33"/>
       <c r="M130" s="33"/>
       <c r="N130" s="33"/>
-      <c r="O130" s="51"/>
+      <c r="O130" s="33"/>
       <c r="P130" s="51"/>
       <c r="Q130" s="51"/>
-      <c r="R130" s="1"/>
+      <c r="R130" s="51"/>
+      <c r="S130" s="1"/>
     </row>
-    <row r="131" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C131" s="33"/>
       <c r="D131" s="33"/>
       <c r="E131" s="33"/>
@@ -21868,12 +21974,13 @@
       <c r="L131" s="33"/>
       <c r="M131" s="33"/>
       <c r="N131" s="33"/>
-      <c r="O131" s="51"/>
+      <c r="O131" s="33"/>
       <c r="P131" s="51"/>
       <c r="Q131" s="51"/>
-      <c r="R131" s="1"/>
+      <c r="R131" s="51"/>
+      <c r="S131" s="1"/>
     </row>
-    <row r="132" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C132" s="33"/>
       <c r="D132" s="33"/>
       <c r="E132" s="33"/>
@@ -21886,12 +21993,13 @@
       <c r="L132" s="33"/>
       <c r="M132" s="33"/>
       <c r="N132" s="33"/>
-      <c r="O132" s="51"/>
+      <c r="O132" s="33"/>
       <c r="P132" s="51"/>
       <c r="Q132" s="51"/>
-      <c r="R132" s="1"/>
+      <c r="R132" s="51"/>
+      <c r="S132" s="1"/>
     </row>
-    <row r="133" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C133" s="33"/>
       <c r="D133" s="33"/>
       <c r="E133" s="33"/>
@@ -21904,12 +22012,13 @@
       <c r="L133" s="33"/>
       <c r="M133" s="33"/>
       <c r="N133" s="33"/>
-      <c r="O133" s="51"/>
+      <c r="O133" s="33"/>
       <c r="P133" s="51"/>
       <c r="Q133" s="51"/>
-      <c r="R133" s="1"/>
+      <c r="R133" s="51"/>
+      <c r="S133" s="1"/>
     </row>
-    <row r="134" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C134" s="33"/>
       <c r="D134" s="33"/>
       <c r="E134" s="33"/>
@@ -21922,13 +22031,14 @@
       <c r="L134" s="33"/>
       <c r="M134" s="33"/>
       <c r="N134" s="33"/>
-      <c r="O134" s="51"/>
+      <c r="O134" s="33"/>
       <c r="P134" s="51"/>
       <c r="Q134" s="51"/>
-      <c r="R134" s="1"/>
+      <c r="R134" s="51"/>
+      <c r="S134" s="1"/>
     </row>
-    <row r="135" spans="3:18" ht="19" x14ac:dyDescent="0.2">
-      <c r="C135" s="46"/>
+    <row r="135" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C135" s="33"/>
       <c r="D135" s="33"/>
       <c r="E135" s="33"/>
       <c r="F135" s="33"/>
@@ -21940,13 +22050,14 @@
       <c r="L135" s="33"/>
       <c r="M135" s="33"/>
       <c r="N135" s="33"/>
-      <c r="O135" s="51"/>
+      <c r="O135" s="33"/>
       <c r="P135" s="51"/>
       <c r="Q135" s="51"/>
-      <c r="R135" s="1"/>
+      <c r="R135" s="51"/>
+      <c r="S135" s="1"/>
     </row>
-    <row r="136" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C136" s="33"/>
+    <row r="136" spans="3:19" ht="19" x14ac:dyDescent="0.2">
+      <c r="C136" s="46"/>
       <c r="D136" s="33"/>
       <c r="E136" s="33"/>
       <c r="F136" s="33"/>
@@ -21958,12 +22069,13 @@
       <c r="L136" s="33"/>
       <c r="M136" s="33"/>
       <c r="N136" s="33"/>
-      <c r="O136" s="51"/>
+      <c r="O136" s="33"/>
       <c r="P136" s="51"/>
       <c r="Q136" s="51"/>
-      <c r="R136" s="1"/>
+      <c r="R136" s="51"/>
+      <c r="S136" s="1"/>
     </row>
-    <row r="137" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C137" s="33"/>
       <c r="D137" s="33"/>
       <c r="E137" s="33"/>
@@ -21976,12 +22088,13 @@
       <c r="L137" s="33"/>
       <c r="M137" s="33"/>
       <c r="N137" s="33"/>
-      <c r="O137" s="51"/>
+      <c r="O137" s="33"/>
       <c r="P137" s="51"/>
       <c r="Q137" s="51"/>
-      <c r="R137" s="1"/>
+      <c r="R137" s="51"/>
+      <c r="S137" s="1"/>
     </row>
-    <row r="138" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C138" s="33"/>
       <c r="D138" s="33"/>
       <c r="E138" s="33"/>
@@ -21994,12 +22107,13 @@
       <c r="L138" s="33"/>
       <c r="M138" s="33"/>
       <c r="N138" s="33"/>
-      <c r="O138" s="51"/>
+      <c r="O138" s="33"/>
       <c r="P138" s="51"/>
       <c r="Q138" s="51"/>
-      <c r="R138" s="1"/>
+      <c r="R138" s="51"/>
+      <c r="S138" s="1"/>
     </row>
-    <row r="139" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C139" s="33"/>
       <c r="D139" s="33"/>
       <c r="E139" s="33"/>
@@ -22012,12 +22126,13 @@
       <c r="L139" s="33"/>
       <c r="M139" s="33"/>
       <c r="N139" s="33"/>
-      <c r="O139" s="51"/>
+      <c r="O139" s="33"/>
       <c r="P139" s="51"/>
       <c r="Q139" s="51"/>
-      <c r="R139" s="1"/>
+      <c r="R139" s="51"/>
+      <c r="S139" s="1"/>
     </row>
-    <row r="140" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C140" s="33"/>
       <c r="D140" s="33"/>
       <c r="E140" s="33"/>
@@ -22030,12 +22145,13 @@
       <c r="L140" s="33"/>
       <c r="M140" s="33"/>
       <c r="N140" s="33"/>
-      <c r="O140" s="51"/>
+      <c r="O140" s="33"/>
       <c r="P140" s="51"/>
       <c r="Q140" s="51"/>
-      <c r="R140" s="1"/>
+      <c r="R140" s="51"/>
+      <c r="S140" s="1"/>
     </row>
-    <row r="141" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C141" s="33"/>
       <c r="D141" s="33"/>
       <c r="E141" s="33"/>
@@ -22048,12 +22164,13 @@
       <c r="L141" s="33"/>
       <c r="M141" s="33"/>
       <c r="N141" s="33"/>
-      <c r="O141" s="51"/>
+      <c r="O141" s="33"/>
       <c r="P141" s="51"/>
       <c r="Q141" s="51"/>
-      <c r="R141" s="1"/>
+      <c r="R141" s="51"/>
+      <c r="S141" s="1"/>
     </row>
-    <row r="142" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C142" s="33"/>
       <c r="D142" s="33"/>
       <c r="E142" s="33"/>
@@ -22066,12 +22183,13 @@
       <c r="L142" s="33"/>
       <c r="M142" s="33"/>
       <c r="N142" s="33"/>
-      <c r="O142" s="51"/>
+      <c r="O142" s="33"/>
       <c r="P142" s="51"/>
       <c r="Q142" s="51"/>
-      <c r="R142" s="1"/>
+      <c r="R142" s="51"/>
+      <c r="S142" s="1"/>
     </row>
-    <row r="143" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C143" s="33"/>
       <c r="D143" s="33"/>
       <c r="E143" s="33"/>
@@ -22084,12 +22202,13 @@
       <c r="L143" s="33"/>
       <c r="M143" s="33"/>
       <c r="N143" s="33"/>
-      <c r="O143" s="51"/>
+      <c r="O143" s="33"/>
       <c r="P143" s="51"/>
       <c r="Q143" s="51"/>
-      <c r="R143" s="1"/>
+      <c r="R143" s="51"/>
+      <c r="S143" s="1"/>
     </row>
-    <row r="144" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C144" s="33"/>
       <c r="D144" s="33"/>
       <c r="E144" s="33"/>
@@ -22102,12 +22221,13 @@
       <c r="L144" s="33"/>
       <c r="M144" s="33"/>
       <c r="N144" s="33"/>
-      <c r="O144" s="51"/>
+      <c r="O144" s="33"/>
       <c r="P144" s="51"/>
       <c r="Q144" s="51"/>
-      <c r="R144" s="1"/>
+      <c r="R144" s="51"/>
+      <c r="S144" s="1"/>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C145" s="33"/>
       <c r="D145" s="33"/>
       <c r="E145" s="33"/>
@@ -22120,12 +22240,13 @@
       <c r="L145" s="33"/>
       <c r="M145" s="33"/>
       <c r="N145" s="33"/>
-      <c r="O145" s="51"/>
+      <c r="O145" s="33"/>
       <c r="P145" s="51"/>
       <c r="Q145" s="51"/>
-      <c r="R145" s="1"/>
+      <c r="R145" s="51"/>
+      <c r="S145" s="1"/>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C146" s="33"/>
       <c r="D146" s="33"/>
       <c r="E146" s="33"/>
@@ -22138,12 +22259,13 @@
       <c r="L146" s="33"/>
       <c r="M146" s="33"/>
       <c r="N146" s="33"/>
-      <c r="O146" s="51"/>
+      <c r="O146" s="33"/>
       <c r="P146" s="51"/>
       <c r="Q146" s="51"/>
-      <c r="R146" s="1"/>
+      <c r="R146" s="51"/>
+      <c r="S146" s="1"/>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C147" s="33"/>
       <c r="D147" s="33"/>
       <c r="E147" s="33"/>
@@ -22156,442 +22278,459 @@
       <c r="L147" s="33"/>
       <c r="M147" s="33"/>
       <c r="N147" s="33"/>
-      <c r="O147" s="51"/>
+      <c r="O147" s="33"/>
       <c r="P147" s="51"/>
       <c r="Q147" s="51"/>
-      <c r="R147" s="1"/>
+      <c r="R147" s="51"/>
+      <c r="S147" s="1"/>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E148" s="2"/>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C148" s="33"/>
+      <c r="D148" s="33"/>
+      <c r="E148" s="33"/>
+      <c r="F148" s="33"/>
+      <c r="G148" s="33"/>
+      <c r="H148" s="33"/>
+      <c r="I148" s="33"/>
+      <c r="J148" s="33"/>
+      <c r="K148" s="33"/>
+      <c r="L148" s="33"/>
+      <c r="M148" s="33"/>
+      <c r="N148" s="33"/>
+      <c r="O148" s="33"/>
+      <c r="P148" s="51"/>
+      <c r="Q148" s="51"/>
+      <c r="R148" s="51"/>
+      <c r="S148" s="1"/>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A150" s="56" t="s">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E150" s="2"/>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A151" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B150" s="56"/>
-      <c r="L150" s="42" t="s">
+      <c r="B151" s="54"/>
+      <c r="L151" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="M150" s="41"/>
-      <c r="N150" s="34"/>
-      <c r="O150" s="1"/>
-      <c r="P150" s="54" t="s">
+      <c r="M151" s="41"/>
+      <c r="N151" s="34"/>
+      <c r="O151" s="34"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="Q150" s="54"/>
+      <c r="R151" s="53"/>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A151" s="56"/>
-      <c r="B151" s="56"/>
-      <c r="C151" s="6" t="s">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A152" s="54"/>
+      <c r="B152" s="54"/>
+      <c r="C152" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D151" s="54" t="s">
+      <c r="D152" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="E151" s="54"/>
-      <c r="F151" s="54"/>
-      <c r="G151" s="54"/>
-      <c r="H151" s="54"/>
-      <c r="I151" s="54"/>
-      <c r="J151" s="54"/>
-      <c r="K151" s="54"/>
-      <c r="L151" s="33">
+      <c r="E152" s="53"/>
+      <c r="F152" s="53"/>
+      <c r="G152" s="53"/>
+      <c r="H152" s="53"/>
+      <c r="I152" s="53"/>
+      <c r="J152" s="53"/>
+      <c r="K152" s="53"/>
+      <c r="L152" s="33">
         <v>2</v>
       </c>
-      <c r="M151" s="34"/>
-      <c r="N151" s="33"/>
-      <c r="O151" s="1"/>
-      <c r="P151" s="23" t="s">
+      <c r="M152" s="34"/>
+      <c r="N152" s="33"/>
+      <c r="O152" s="33"/>
+      <c r="P152" s="1"/>
+      <c r="Q152" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q151" s="21" t="s">
+      <c r="R152" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C152" s="9">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C153" s="9">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="D152" s="10" t="s">
+      <c r="D153" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E152" s="11"/>
-      <c r="F152" s="11"/>
-      <c r="G152" s="11"/>
-      <c r="H152" s="11"/>
-      <c r="I152" s="11"/>
-      <c r="J152" s="11"/>
-      <c r="K152" s="11"/>
-      <c r="M152" s="33" t="s">
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="11"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="11"/>
+      <c r="M153" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="N152" s="33"/>
-      <c r="O152" s="1"/>
-      <c r="P152" s="35">
+      <c r="N153" s="33"/>
+      <c r="O153" s="33"/>
+      <c r="P153" s="1"/>
+      <c r="Q153" s="35">
         <v>2</v>
       </c>
-      <c r="Q152" s="37">
-        <f>$L$151-P152</f>
+      <c r="R153" s="37">
+        <f>$L$152-Q153</f>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C153" s="12">
-        <f>C152+1</f>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C154" s="12">
+        <f>C153+1</f>
         <v>2</v>
       </c>
-      <c r="D153" s="13" t="s">
+      <c r="D154" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
-      <c r="G153" s="14"/>
-      <c r="H153" s="14"/>
-      <c r="I153" s="14"/>
-      <c r="J153" s="14"/>
-      <c r="K153" s="14"/>
-      <c r="M153" s="33" t="s">
+      <c r="E154" s="14"/>
+      <c r="F154" s="14"/>
+      <c r="G154" s="14"/>
+      <c r="H154" s="14"/>
+      <c r="I154" s="14"/>
+      <c r="J154" s="14"/>
+      <c r="K154" s="14"/>
+      <c r="M154" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="N153" s="33"/>
-      <c r="O153" s="1"/>
-      <c r="P153" s="36">
+      <c r="N154" s="33"/>
+      <c r="O154" s="33"/>
+      <c r="P154" s="1"/>
+      <c r="Q154" s="36">
         <v>2</v>
       </c>
-      <c r="Q153" s="38">
-        <f>$L$151-P153</f>
+      <c r="R154" s="38">
+        <f>$L$152-Q154</f>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C154" s="9">
-        <f t="shared" ref="C154" si="5">C153+1</f>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C155" s="9">
+        <f t="shared" ref="C155" si="5">C154+1</f>
         <v>3</v>
       </c>
-      <c r="D154" s="10" t="s">
+      <c r="D155" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E154" s="11"/>
-      <c r="F154" s="11"/>
-      <c r="G154" s="11"/>
-      <c r="H154" s="11"/>
-      <c r="I154" s="11"/>
-      <c r="J154" s="11"/>
-      <c r="K154" s="11"/>
-      <c r="M154" s="33"/>
-      <c r="N154" s="33"/>
-      <c r="O154" s="1"/>
-      <c r="P154" s="35">
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="11"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="11"/>
+      <c r="M155" s="33"/>
+      <c r="N155" s="33"/>
+      <c r="O155" s="33"/>
+      <c r="P155" s="1"/>
+      <c r="Q155" s="35">
         <v>0</v>
       </c>
-      <c r="Q154" s="37">
-        <f>$L$151-P154</f>
+      <c r="R155" s="37">
+        <f>$L$152-Q155</f>
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C155" s="12"/>
-      <c r="D155" s="15" t="s">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C156" s="12"/>
+      <c r="D156" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E155" s="13"/>
-      <c r="F155" s="14"/>
-      <c r="G155" s="15"/>
-      <c r="H155" s="14"/>
-      <c r="I155" s="14"/>
-      <c r="J155" s="14"/>
-      <c r="K155" s="14"/>
-      <c r="M155" s="33"/>
-      <c r="N155" s="33"/>
-      <c r="P155" s="43"/>
-      <c r="Q155" s="44"/>
-      <c r="R155" s="1"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="14"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="14"/>
+      <c r="I156" s="14"/>
+      <c r="J156" s="14"/>
+      <c r="K156" s="14"/>
+      <c r="M156" s="33"/>
+      <c r="N156" s="33"/>
+      <c r="O156" s="33"/>
+      <c r="Q156" s="43"/>
+      <c r="R156" s="44"/>
+      <c r="S156" s="1"/>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C156" s="9">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C157" s="9">
         <v>14</v>
       </c>
-      <c r="D156" s="16"/>
-      <c r="E156" s="16" t="s">
+      <c r="D157" s="16"/>
+      <c r="E157" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F156" s="11"/>
-      <c r="G156" s="16"/>
-      <c r="H156" s="11"/>
-      <c r="I156" s="11"/>
-      <c r="J156" s="11"/>
-      <c r="K156" s="11"/>
-      <c r="M156" s="33"/>
-      <c r="N156" s="33"/>
-      <c r="P156" s="40">
+      <c r="F157" s="11"/>
+      <c r="G157" s="16"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="11"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="11"/>
+      <c r="M157" s="33"/>
+      <c r="N157" s="33"/>
+      <c r="O157" s="33"/>
+      <c r="Q157" s="40">
         <v>2</v>
       </c>
-      <c r="Q156" s="37">
-        <f>$L$151-P156</f>
+      <c r="R157" s="37">
+        <f>$L$152-Q157</f>
         <v>0</v>
       </c>
-      <c r="R156" s="1"/>
+      <c r="S157" s="1"/>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C157" s="12">
-        <f>C156+1</f>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C158" s="12">
+        <f>C157+1</f>
         <v>15</v>
       </c>
-      <c r="D157" s="15"/>
-      <c r="E157" s="15" t="s">
+      <c r="D158" s="15"/>
+      <c r="E158" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F157" s="14"/>
-      <c r="G157" s="15"/>
-      <c r="H157" s="14"/>
-      <c r="I157" s="14"/>
-      <c r="J157" s="14"/>
-      <c r="K157" s="14"/>
-      <c r="M157" s="33"/>
-      <c r="N157" s="33"/>
-      <c r="P157" s="39">
+      <c r="F158" s="14"/>
+      <c r="G158" s="15"/>
+      <c r="H158" s="14"/>
+      <c r="I158" s="14"/>
+      <c r="J158" s="14"/>
+      <c r="K158" s="14"/>
+      <c r="M158" s="33"/>
+      <c r="N158" s="33"/>
+      <c r="O158" s="33"/>
+      <c r="Q158" s="39">
         <v>1</v>
       </c>
-      <c r="Q157" s="38">
-        <f>$L$151-P157</f>
+      <c r="R158" s="38">
+        <f>$L$152-Q158</f>
         <v>1</v>
       </c>
-      <c r="R157" s="1"/>
+      <c r="S158" s="1"/>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C158" s="9">
-        <f>C157+1</f>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C159" s="9">
+        <f>C158+1</f>
         <v>16</v>
       </c>
-      <c r="D158" s="11"/>
-      <c r="E158" s="16" t="s">
+      <c r="D159" s="11"/>
+      <c r="E159" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F158" s="11"/>
-      <c r="G158" s="11"/>
-      <c r="H158" s="11"/>
-      <c r="I158" s="11"/>
-      <c r="J158" s="11"/>
-      <c r="K158" s="11"/>
-      <c r="M158" s="33"/>
-      <c r="N158" s="33"/>
-      <c r="P158" s="40">
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="11"/>
+      <c r="J159" s="11"/>
+      <c r="K159" s="11"/>
+      <c r="M159" s="33"/>
+      <c r="N159" s="33"/>
+      <c r="O159" s="33"/>
+      <c r="Q159" s="40">
         <v>0</v>
       </c>
-      <c r="Q158" s="37">
-        <f>$L$151-P158</f>
+      <c r="R159" s="37">
+        <f>$L$152-Q159</f>
         <v>2</v>
       </c>
-      <c r="R158" s="1"/>
+      <c r="S159" s="1"/>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C159" s="12"/>
-      <c r="D159" s="13" t="s">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C160" s="12"/>
+      <c r="D160" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E159" s="14"/>
-      <c r="F159" s="14"/>
-      <c r="G159" s="14"/>
-      <c r="H159" s="14"/>
-      <c r="I159" s="14"/>
-      <c r="J159" s="14"/>
-      <c r="K159" s="14"/>
-      <c r="O159" s="1"/>
-      <c r="P159" s="44"/>
-      <c r="Q159" s="44"/>
+      <c r="E160" s="14"/>
+      <c r="F160" s="14"/>
+      <c r="G160" s="14"/>
+      <c r="H160" s="14"/>
+      <c r="I160" s="14"/>
+      <c r="J160" s="14"/>
+      <c r="K160" s="14"/>
+      <c r="P160" s="1"/>
+      <c r="Q160" s="44"/>
+      <c r="R160" s="44"/>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C160" s="9">
+    <row r="161" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C161" s="9">
         <v>17</v>
       </c>
-      <c r="D160" s="10"/>
-      <c r="E160" s="10" t="s">
+      <c r="D161" s="10"/>
+      <c r="E161" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F160" s="11"/>
-      <c r="G160" s="11"/>
-      <c r="H160" s="11"/>
-      <c r="I160" s="11"/>
-      <c r="J160" s="11"/>
-      <c r="K160" s="11"/>
-      <c r="O160" s="1"/>
-      <c r="P160" s="35">
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="11"/>
+      <c r="I161" s="11"/>
+      <c r="J161" s="11"/>
+      <c r="K161" s="11"/>
+      <c r="P161" s="1"/>
+      <c r="Q161" s="35">
         <v>2</v>
       </c>
-      <c r="Q160" s="37">
-        <f>$L$151-P160</f>
+      <c r="R161" s="37">
+        <f>$L$152-Q161</f>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C161" s="12">
-        <f>C160+1</f>
+    <row r="162" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C162" s="12">
+        <f>C161+1</f>
         <v>18</v>
       </c>
-      <c r="D161" s="13"/>
-      <c r="E161" s="13" t="s">
+      <c r="D162" s="13"/>
+      <c r="E162" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F161" s="14"/>
-      <c r="G161" s="14"/>
-      <c r="H161" s="14"/>
-      <c r="I161" s="14"/>
-      <c r="J161" s="14"/>
-      <c r="K161" s="14"/>
-      <c r="O161" s="1"/>
-      <c r="P161" s="36">
+      <c r="F162" s="14"/>
+      <c r="G162" s="14"/>
+      <c r="H162" s="14"/>
+      <c r="I162" s="14"/>
+      <c r="J162" s="14"/>
+      <c r="K162" s="14"/>
+      <c r="P162" s="1"/>
+      <c r="Q162" s="36">
         <v>2</v>
       </c>
-      <c r="Q161" s="38">
-        <f>$L$151-P161</f>
+      <c r="R162" s="38">
+        <f>$L$152-Q162</f>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C162" s="9">
-        <f t="shared" ref="C162:C164" si="6">C161+1</f>
+    <row r="163" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C163" s="9">
+        <f t="shared" ref="C163:C165" si="6">C162+1</f>
         <v>19</v>
       </c>
-      <c r="D162" s="10"/>
-      <c r="E162" s="10" t="s">
+      <c r="D163" s="10"/>
+      <c r="E163" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F162" s="11"/>
-      <c r="G162" s="11"/>
-      <c r="H162" s="11"/>
-      <c r="I162" s="11"/>
-      <c r="J162" s="11"/>
-      <c r="K162" s="11"/>
-      <c r="O162" s="1"/>
-      <c r="P162" s="35">
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
+      <c r="H163" s="11"/>
+      <c r="I163" s="11"/>
+      <c r="J163" s="11"/>
+      <c r="K163" s="11"/>
+      <c r="P163" s="1"/>
+      <c r="Q163" s="35">
         <v>2</v>
       </c>
-      <c r="Q162" s="37">
-        <f>$L$151-P162</f>
+      <c r="R163" s="37">
+        <f>$L$152-Q163</f>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C163" s="12">
+    <row r="164" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C164" s="12">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="D163" s="13"/>
-      <c r="E163" s="13" t="s">
+      <c r="D164" s="13"/>
+      <c r="E164" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F163" s="14"/>
-      <c r="G163" s="14"/>
-      <c r="H163" s="14"/>
-      <c r="I163" s="14"/>
-      <c r="J163" s="14"/>
-      <c r="K163" s="14"/>
-      <c r="O163" s="1"/>
-      <c r="P163" s="36">
+      <c r="F164" s="14"/>
+      <c r="G164" s="14"/>
+      <c r="H164" s="14"/>
+      <c r="I164" s="14"/>
+      <c r="J164" s="14"/>
+      <c r="K164" s="14"/>
+      <c r="P164" s="1"/>
+      <c r="Q164" s="36">
         <v>2</v>
       </c>
-      <c r="Q163" s="38">
-        <f>$L$151-P163</f>
+      <c r="R164" s="38">
+        <f>$L$152-Q164</f>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C164" s="9">
+    <row r="165" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C165" s="9">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="D164" s="10"/>
-      <c r="E164" s="10" t="s">
+      <c r="D165" s="10"/>
+      <c r="E165" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F164" s="11"/>
-      <c r="G164" s="11"/>
-      <c r="H164" s="11"/>
-      <c r="I164" s="11"/>
-      <c r="J164" s="11"/>
-      <c r="K164" s="11"/>
-      <c r="O164" s="1"/>
-      <c r="P164" s="35">
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="11"/>
+      <c r="I165" s="11"/>
+      <c r="J165" s="11"/>
+      <c r="K165" s="11"/>
+      <c r="P165" s="1"/>
+      <c r="Q165" s="35">
         <v>2</v>
       </c>
-      <c r="Q164" s="37">
-        <f>$L$151-P164</f>
+      <c r="R165" s="37">
+        <f>$L$152-Q165</f>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="P165" s="1"/>
-      <c r="Q165" s="1"/>
+    <row r="166" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q166" s="1"/>
+      <c r="R166" s="1"/>
     </row>
-    <row r="166" spans="3:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="C166" s="55" t="s">
+    <row r="167" spans="3:18" ht="19" x14ac:dyDescent="0.2">
+      <c r="C167" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D166" s="55"/>
-      <c r="E166" s="55"/>
+      <c r="D167" s="55"/>
+      <c r="E167" s="55"/>
     </row>
-    <row r="175" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="N175" s="4"/>
+    <row r="176" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="N176" s="4"/>
+      <c r="O176" s="4"/>
     </row>
-    <row r="182" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="C182" s="55" t="s">
+    <row r="183" spans="1:18" ht="19" x14ac:dyDescent="0.2">
+      <c r="C183" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D182" s="55"/>
-      <c r="E182" s="55"/>
-      <c r="F182" s="55"/>
+      <c r="D183" s="55"/>
+      <c r="E183" s="55"/>
+      <c r="F183" s="55"/>
     </row>
-    <row r="183" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="47"/>
-      <c r="B183" s="47"/>
-      <c r="G183" s="33"/>
-      <c r="H183" s="33"/>
-      <c r="I183" s="33"/>
-      <c r="J183" s="33"/>
-      <c r="K183" s="33"/>
-      <c r="L183" s="33"/>
-      <c r="M183" s="34"/>
-      <c r="N183" s="34"/>
-      <c r="O183" s="33"/>
-      <c r="P183" s="34"/>
-      <c r="Q183" s="34"/>
-    </row>
-    <row r="184" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="47"/>
       <c r="B184" s="47"/>
-      <c r="G184" s="34"/>
-      <c r="H184" s="34"/>
-      <c r="I184" s="34"/>
-      <c r="J184" s="34"/>
-      <c r="K184" s="34"/>
+      <c r="G184" s="33"/>
+      <c r="H184" s="33"/>
+      <c r="I184" s="33"/>
+      <c r="J184" s="33"/>
+      <c r="K184" s="33"/>
       <c r="L184" s="33"/>
-      <c r="M184" s="33"/>
-      <c r="N184" s="33"/>
-      <c r="O184" s="33"/>
+      <c r="M184" s="34"/>
+      <c r="N184" s="34"/>
+      <c r="O184" s="34"/>
       <c r="P184" s="33"/>
-      <c r="Q184" s="33"/>
+      <c r="Q184" s="34"/>
+      <c r="R184" s="34"/>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A185" s="45"/>
-      <c r="B185" s="33"/>
-      <c r="G185" s="33"/>
-      <c r="H185" s="33"/>
-      <c r="I185" s="33"/>
-      <c r="J185" s="33"/>
-      <c r="K185" s="33"/>
+    <row r="185" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="47"/>
+      <c r="B185" s="47"/>
+      <c r="G185" s="34"/>
+      <c r="H185" s="34"/>
+      <c r="I185" s="34"/>
+      <c r="J185" s="34"/>
+      <c r="K185" s="34"/>
       <c r="L185" s="33"/>
       <c r="M185" s="33"/>
       <c r="N185" s="33"/>
       <c r="O185" s="33"/>
       <c r="P185" s="33"/>
       <c r="Q185" s="33"/>
+      <c r="R185" s="33"/>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186" s="45"/>
       <c r="B186" s="33"/>
       <c r="G186" s="33"/>
@@ -22605,8 +22744,9 @@
       <c r="O186" s="33"/>
       <c r="P186" s="33"/>
       <c r="Q186" s="33"/>
+      <c r="R186" s="33"/>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A187" s="45"/>
       <c r="B187" s="33"/>
       <c r="G187" s="33"/>
@@ -22620,8 +22760,9 @@
       <c r="O187" s="33"/>
       <c r="P187" s="33"/>
       <c r="Q187" s="33"/>
+      <c r="R187" s="33"/>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A188" s="45"/>
       <c r="B188" s="33"/>
       <c r="G188" s="33"/>
@@ -22635,8 +22776,9 @@
       <c r="O188" s="33"/>
       <c r="P188" s="33"/>
       <c r="Q188" s="33"/>
+      <c r="R188" s="33"/>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A189" s="45"/>
       <c r="B189" s="33"/>
       <c r="G189" s="33"/>
@@ -22650,8 +22792,9 @@
       <c r="O189" s="33"/>
       <c r="P189" s="33"/>
       <c r="Q189" s="33"/>
+      <c r="R189" s="33"/>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A190" s="45"/>
       <c r="B190" s="33"/>
       <c r="G190" s="33"/>
@@ -22665,8 +22808,9 @@
       <c r="O190" s="33"/>
       <c r="P190" s="33"/>
       <c r="Q190" s="33"/>
+      <c r="R190" s="33"/>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A191" s="45"/>
       <c r="B191" s="33"/>
       <c r="G191" s="33"/>
@@ -22680,8 +22824,9 @@
       <c r="O191" s="33"/>
       <c r="P191" s="33"/>
       <c r="Q191" s="33"/>
+      <c r="R191" s="33"/>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A192" s="45"/>
       <c r="B192" s="33"/>
       <c r="G192" s="33"/>
@@ -22695,8 +22840,9 @@
       <c r="O192" s="33"/>
       <c r="P192" s="33"/>
       <c r="Q192" s="33"/>
+      <c r="R192" s="33"/>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A193" s="45"/>
       <c r="B193" s="33"/>
       <c r="G193" s="33"/>
@@ -22707,11 +22853,12 @@
       <c r="L193" s="33"/>
       <c r="M193" s="33"/>
       <c r="N193" s="33"/>
-      <c r="O193" s="45"/>
+      <c r="O193" s="33"/>
       <c r="P193" s="33"/>
       <c r="Q193" s="33"/>
+      <c r="R193" s="33"/>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A194" s="45"/>
       <c r="B194" s="33"/>
       <c r="G194" s="33"/>
@@ -22722,11 +22869,12 @@
       <c r="L194" s="33"/>
       <c r="M194" s="33"/>
       <c r="N194" s="33"/>
-      <c r="O194" s="45"/>
+      <c r="O194" s="33"/>
       <c r="P194" s="45"/>
-      <c r="Q194" s="45"/>
+      <c r="Q194" s="33"/>
+      <c r="R194" s="33"/>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A195" s="45"/>
       <c r="B195" s="33"/>
       <c r="G195" s="33"/>
@@ -22737,11 +22885,12 @@
       <c r="L195" s="33"/>
       <c r="M195" s="33"/>
       <c r="N195" s="33"/>
-      <c r="O195" s="45"/>
+      <c r="O195" s="33"/>
       <c r="P195" s="45"/>
       <c r="Q195" s="45"/>
+      <c r="R195" s="45"/>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A196" s="45"/>
       <c r="B196" s="33"/>
       <c r="G196" s="33"/>
@@ -22752,17 +22901,14 @@
       <c r="L196" s="33"/>
       <c r="M196" s="33"/>
       <c r="N196" s="33"/>
-      <c r="O196" s="45"/>
+      <c r="O196" s="33"/>
       <c r="P196" s="45"/>
       <c r="Q196" s="45"/>
+      <c r="R196" s="45"/>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A197" s="45"/>
       <c r="B197" s="33"/>
-      <c r="C197" s="48"/>
-      <c r="D197" s="33"/>
-      <c r="E197" s="33"/>
-      <c r="F197" s="33"/>
       <c r="G197" s="33"/>
       <c r="H197" s="33"/>
       <c r="I197" s="33"/>
@@ -22771,19 +22917,18 @@
       <c r="L197" s="33"/>
       <c r="M197" s="33"/>
       <c r="N197" s="33"/>
-      <c r="O197" s="45"/>
+      <c r="O197" s="33"/>
       <c r="P197" s="45"/>
       <c r="Q197" s="45"/>
+      <c r="R197" s="45"/>
     </row>
-    <row r="198" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A198" s="45"/>
       <c r="B198" s="33"/>
-      <c r="C198" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="D198" s="46"/>
-      <c r="E198" s="46"/>
-      <c r="F198" s="46"/>
+      <c r="C198" s="48"/>
+      <c r="D198" s="33"/>
+      <c r="E198" s="33"/>
+      <c r="F198" s="33"/>
       <c r="G198" s="33"/>
       <c r="H198" s="33"/>
       <c r="I198" s="33"/>
@@ -22792,17 +22937,20 @@
       <c r="L198" s="33"/>
       <c r="M198" s="33"/>
       <c r="N198" s="33"/>
-      <c r="O198" s="45"/>
+      <c r="O198" s="33"/>
       <c r="P198" s="45"/>
       <c r="Q198" s="45"/>
+      <c r="R198" s="45"/>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:18" ht="19" x14ac:dyDescent="0.2">
       <c r="A199" s="45"/>
       <c r="B199" s="33"/>
-      <c r="C199" s="48"/>
-      <c r="D199" s="33"/>
-      <c r="E199" s="33"/>
-      <c r="F199" s="33"/>
+      <c r="C199" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D199" s="46"/>
+      <c r="E199" s="46"/>
+      <c r="F199" s="46"/>
       <c r="G199" s="33"/>
       <c r="H199" s="33"/>
       <c r="I199" s="33"/>
@@ -22811,11 +22959,12 @@
       <c r="L199" s="33"/>
       <c r="M199" s="33"/>
       <c r="N199" s="33"/>
-      <c r="O199" s="45"/>
+      <c r="O199" s="33"/>
       <c r="P199" s="45"/>
       <c r="Q199" s="45"/>
+      <c r="R199" s="45"/>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A200" s="45"/>
       <c r="B200" s="33"/>
       <c r="C200" s="48"/>
@@ -22830,11 +22979,12 @@
       <c r="L200" s="33"/>
       <c r="M200" s="33"/>
       <c r="N200" s="33"/>
-      <c r="O200" s="45"/>
+      <c r="O200" s="33"/>
       <c r="P200" s="45"/>
       <c r="Q200" s="45"/>
+      <c r="R200" s="45"/>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A201" s="45"/>
       <c r="B201" s="33"/>
       <c r="C201" s="48"/>
@@ -22849,11 +22999,12 @@
       <c r="L201" s="33"/>
       <c r="M201" s="33"/>
       <c r="N201" s="33"/>
-      <c r="O201" s="45"/>
+      <c r="O201" s="33"/>
       <c r="P201" s="45"/>
       <c r="Q201" s="45"/>
+      <c r="R201" s="45"/>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A202" s="45"/>
       <c r="B202" s="33"/>
       <c r="C202" s="48"/>
@@ -22868,11 +23019,12 @@
       <c r="L202" s="33"/>
       <c r="M202" s="33"/>
       <c r="N202" s="33"/>
-      <c r="O202" s="45"/>
+      <c r="O202" s="33"/>
       <c r="P202" s="45"/>
       <c r="Q202" s="45"/>
+      <c r="R202" s="45"/>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A203" s="45"/>
       <c r="B203" s="33"/>
       <c r="C203" s="48"/>
@@ -22886,12 +23038,13 @@
       <c r="K203" s="33"/>
       <c r="L203" s="33"/>
       <c r="M203" s="33"/>
-      <c r="N203" s="49"/>
-      <c r="O203" s="45"/>
+      <c r="N203" s="33"/>
+      <c r="O203" s="33"/>
       <c r="P203" s="45"/>
       <c r="Q203" s="45"/>
+      <c r="R203" s="45"/>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A204" s="45"/>
       <c r="B204" s="33"/>
       <c r="C204" s="48"/>
@@ -22905,12 +23058,13 @@
       <c r="K204" s="33"/>
       <c r="L204" s="33"/>
       <c r="M204" s="33"/>
-      <c r="N204" s="33"/>
-      <c r="O204" s="45"/>
+      <c r="N204" s="49"/>
+      <c r="O204" s="49"/>
       <c r="P204" s="45"/>
       <c r="Q204" s="45"/>
+      <c r="R204" s="45"/>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A205" s="45"/>
       <c r="B205" s="33"/>
       <c r="C205" s="48"/>
@@ -22925,11 +23079,12 @@
       <c r="L205" s="33"/>
       <c r="M205" s="33"/>
       <c r="N205" s="33"/>
-      <c r="O205" s="45"/>
+      <c r="O205" s="33"/>
       <c r="P205" s="45"/>
       <c r="Q205" s="45"/>
+      <c r="R205" s="45"/>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A206" s="45"/>
       <c r="B206" s="33"/>
       <c r="C206" s="48"/>
@@ -22944,11 +23099,12 @@
       <c r="L206" s="33"/>
       <c r="M206" s="33"/>
       <c r="N206" s="33"/>
-      <c r="O206" s="45"/>
+      <c r="O206" s="33"/>
       <c r="P206" s="45"/>
       <c r="Q206" s="45"/>
+      <c r="R206" s="45"/>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A207" s="45"/>
       <c r="B207" s="33"/>
       <c r="C207" s="48"/>
@@ -22963,11 +23119,12 @@
       <c r="L207" s="33"/>
       <c r="M207" s="33"/>
       <c r="N207" s="33"/>
-      <c r="O207" s="45"/>
+      <c r="O207" s="33"/>
       <c r="P207" s="45"/>
       <c r="Q207" s="45"/>
+      <c r="R207" s="45"/>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A208" s="45"/>
       <c r="B208" s="33"/>
       <c r="C208" s="48"/>
@@ -22982,11 +23139,12 @@
       <c r="L208" s="33"/>
       <c r="M208" s="33"/>
       <c r="N208" s="33"/>
-      <c r="O208" s="45"/>
+      <c r="O208" s="33"/>
       <c r="P208" s="45"/>
       <c r="Q208" s="45"/>
+      <c r="R208" s="45"/>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A209" s="45"/>
       <c r="B209" s="33"/>
       <c r="C209" s="48"/>
@@ -23001,11 +23159,12 @@
       <c r="L209" s="33"/>
       <c r="M209" s="33"/>
       <c r="N209" s="33"/>
-      <c r="O209" s="45"/>
+      <c r="O209" s="33"/>
       <c r="P209" s="45"/>
       <c r="Q209" s="45"/>
+      <c r="R209" s="45"/>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A210" s="45"/>
       <c r="B210" s="33"/>
       <c r="C210" s="48"/>
@@ -23020,11 +23179,12 @@
       <c r="L210" s="33"/>
       <c r="M210" s="33"/>
       <c r="N210" s="33"/>
-      <c r="O210" s="45"/>
+      <c r="O210" s="33"/>
       <c r="P210" s="45"/>
       <c r="Q210" s="45"/>
+      <c r="R210" s="45"/>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A211" s="45"/>
       <c r="B211" s="33"/>
       <c r="C211" s="48"/>
@@ -23039,11 +23199,12 @@
       <c r="L211" s="33"/>
       <c r="M211" s="33"/>
       <c r="N211" s="33"/>
-      <c r="O211" s="45"/>
+      <c r="O211" s="33"/>
       <c r="P211" s="45"/>
       <c r="Q211" s="45"/>
+      <c r="R211" s="45"/>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A212" s="45"/>
       <c r="B212" s="33"/>
       <c r="C212" s="48"/>
@@ -23058,11 +23219,12 @@
       <c r="L212" s="33"/>
       <c r="M212" s="33"/>
       <c r="N212" s="33"/>
-      <c r="O212" s="45"/>
+      <c r="O212" s="33"/>
       <c r="P212" s="45"/>
       <c r="Q212" s="45"/>
+      <c r="R212" s="45"/>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A213" s="45"/>
       <c r="B213" s="33"/>
       <c r="C213" s="48"/>
@@ -23077,34 +23239,56 @@
       <c r="L213" s="33"/>
       <c r="M213" s="33"/>
       <c r="N213" s="33"/>
-      <c r="O213" s="45"/>
+      <c r="O213" s="33"/>
       <c r="P213" s="45"/>
       <c r="Q213" s="45"/>
+      <c r="R213" s="45"/>
     </row>
-    <row r="214" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="C214" s="46" t="s">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A214" s="45"/>
+      <c r="B214" s="33"/>
+      <c r="C214" s="48"/>
+      <c r="D214" s="33"/>
+      <c r="E214" s="33"/>
+      <c r="F214" s="33"/>
+      <c r="G214" s="33"/>
+      <c r="H214" s="33"/>
+      <c r="I214" s="33"/>
+      <c r="J214" s="33"/>
+      <c r="K214" s="33"/>
+      <c r="L214" s="33"/>
+      <c r="M214" s="33"/>
+      <c r="N214" s="33"/>
+      <c r="O214" s="33"/>
+      <c r="P214" s="45"/>
+      <c r="Q214" s="45"/>
+      <c r="R214" s="45"/>
+    </row>
+    <row r="215" spans="1:18" ht="19" x14ac:dyDescent="0.2">
+      <c r="C215" s="46" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="A150:B151"/>
-    <mergeCell ref="P150:Q150"/>
-    <mergeCell ref="D151:K151"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="A65:B66"/>
-    <mergeCell ref="D66:K66"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="F1:J3"/>
-    <mergeCell ref="C182:F182"/>
-    <mergeCell ref="C103:F103"/>
-    <mergeCell ref="C166:E166"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="A5:B6"/>
+  <mergeCells count="18">
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="F1:J4"/>
+    <mergeCell ref="C183:F183"/>
+    <mergeCell ref="C104:F104"/>
+    <mergeCell ref="C167:E167"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="A151:B152"/>
+    <mergeCell ref="Q151:R151"/>
+    <mergeCell ref="D152:K152"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="A66:B67"/>
+    <mergeCell ref="D67:K67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/dados dos inquéritos.xlsx
+++ b/dados dos inquéritos.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardacunha/Documents/Uni/3/PPIN/FEUP-PPIN/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>Inquéritos p/ o Projeto de Inovação</t>
   </si>
@@ -208,14 +203,27 @@
   <si>
     <t>Dr Daniel Oliveira</t>
   </si>
+  <si>
+    <t>Clínica Veterinária Animal Especial</t>
+  </si>
+  <si>
+    <t>Dra Luísa Pereira</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -269,7 +277,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,6 +392,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -394,12 +408,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -410,7 +425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -482,7 +497,7 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -534,16 +549,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -559,12 +574,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -573,10 +585,17 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+  <cellStyles count="4">
+    <cellStyle name="20% - Cor1" xfId="3" builtinId="30"/>
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -591,17 +610,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -630,7 +639,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -638,28 +646,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -669,7 +656,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -684,7 +670,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -718,24 +703,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -749,7 +726,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -774,13 +750,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -804,12 +779,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -817,17 +792,7 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -861,7 +826,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -869,28 +833,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -900,7 +843,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -915,7 +857,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -949,24 +890,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -980,7 +913,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1005,13 +937,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1035,12 +966,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1048,17 +979,7 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1086,7 +1007,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1094,34 +1015,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1145,7 +1044,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(Sheet1!$E$157,Sheet1!$E$158,Sheet1!$E$159)</c:f>
@@ -1170,13 +1068,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1205,7 +1103,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(Sheet1!$E$157,Sheet1!$E$158,Sheet1!$E$159)</c:f>
@@ -1230,41 +1127,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1612235680"/>
-        <c:axId val="1612238432"/>
+        <c:axId val="106387328"/>
+        <c:axId val="106388864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1612235680"/>
+        <c:axId val="106387328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1296,22 +1184,19 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1612238432"/>
+        <c:crossAx val="106388864"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1612238432"/>
+        <c:axId val="106388864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1327,8 +1212,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1354,10 +1239,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1612235680"/>
+        <c:crossAx val="106387328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1371,7 +1256,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1396,13 +1281,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1426,12 +1310,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1439,17 +1323,7 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1478,7 +1352,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1486,34 +1359,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1537,7 +1388,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(Sheet1!$E$161,Sheet1!$E$162,Sheet1!$E$163,Sheet1!$E$164,Sheet1!$E$165)</c:f>
@@ -1568,19 +1418,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1609,7 +1459,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(Sheet1!$E$161,Sheet1!$E$162,Sheet1!$E$163,Sheet1!$E$164,Sheet1!$E$165)</c:f>
@@ -1640,47 +1489,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1612270448"/>
-        <c:axId val="1612273200"/>
+        <c:axId val="106443520"/>
+        <c:axId val="106445056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1612270448"/>
+        <c:axId val="106443520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1712,22 +1552,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1612273200"/>
+        <c:crossAx val="106445056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1612273200"/>
+        <c:axId val="106445056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1743,8 +1581,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1770,10 +1608,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1612270448"/>
+        <c:crossAx val="106443520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1788,7 +1626,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1813,13 +1650,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1843,12 +1679,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1856,17 +1692,7 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1895,7 +1721,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1903,28 +1728,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -1934,7 +1738,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1949,7 +1752,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -1983,24 +1785,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -2014,7 +1808,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2039,13 +1832,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2069,12 +1861,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2082,17 +1874,7 @@
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2126,7 +1908,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2134,28 +1915,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2165,7 +1925,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2180,7 +1939,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -2214,24 +1972,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -2245,7 +1995,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2270,13 +2019,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2300,12 +2048,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2313,17 +2061,7 @@
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2352,7 +2090,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2360,28 +2097,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2391,7 +2107,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2406,7 +2121,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -2440,24 +2154,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -2471,7 +2177,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2496,13 +2201,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2526,12 +2230,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2539,17 +2243,7 @@
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2578,7 +2272,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2586,28 +2279,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2617,7 +2289,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2632,7 +2303,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -2666,24 +2336,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -2697,7 +2359,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2722,13 +2383,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2752,12 +2412,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2765,17 +2425,7 @@
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2804,7 +2454,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2812,28 +2461,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2843,7 +2471,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2858,7 +2485,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -2892,24 +2518,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -2923,7 +2541,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2948,13 +2565,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2978,12 +2594,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2991,17 +2607,7 @@
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3030,7 +2636,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3038,28 +2643,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -3069,7 +2653,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -3084,7 +2667,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -3118,24 +2700,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -3149,7 +2723,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3174,13 +2747,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3204,12 +2776,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3217,17 +2789,7 @@
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3256,7 +2818,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3264,28 +2825,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -3295,7 +2835,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -3310,7 +2849,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -3344,24 +2882,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -3375,7 +2905,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3400,13 +2929,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3430,12 +2958,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3443,17 +2971,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3482,7 +3000,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3490,28 +3007,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -3521,7 +3017,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -3536,7 +3031,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -3570,24 +3064,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -3601,7 +3087,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3626,13 +3111,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3656,12 +3140,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3669,17 +3153,7 @@
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3713,7 +3187,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3721,28 +3194,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -3752,7 +3204,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -3767,7 +3218,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -3801,24 +3251,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -3832,7 +3274,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3857,13 +3298,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3887,12 +3327,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3900,17 +3340,7 @@
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3939,7 +3369,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3947,34 +3376,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3998,7 +3405,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(Sheet1!$E$79,Sheet1!$E$80,Sheet1!$E$81)</c:f>
@@ -4023,13 +3429,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4058,7 +3464,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(Sheet1!$E$79,Sheet1!$E$80,Sheet1!$E$81)</c:f>
@@ -4083,41 +3488,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1612355632"/>
-        <c:axId val="1612358384"/>
+        <c:axId val="106788352"/>
+        <c:axId val="106789888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1612355632"/>
+        <c:axId val="106788352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4149,22 +3545,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1612358384"/>
+        <c:crossAx val="106789888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1612358384"/>
+        <c:axId val="106789888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4180,8 +3574,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4207,10 +3601,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1612355632"/>
+        <c:crossAx val="106788352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4225,7 +3619,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4250,13 +3643,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4280,12 +3672,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4293,17 +3685,7 @@
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4332,7 +3714,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4340,34 +3721,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4391,7 +3750,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(Sheet1!$E$83,Sheet1!$E$84,Sheet1!$E$85)</c:f>
@@ -4416,13 +3774,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4451,7 +3809,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(Sheet1!$E$83,Sheet1!$E$84,Sheet1!$E$85)</c:f>
@@ -4476,41 +3833,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1612382752"/>
-        <c:axId val="1612385504"/>
+        <c:axId val="106643840"/>
+        <c:axId val="106645376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1612382752"/>
+        <c:axId val="106643840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4542,22 +3890,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1612385504"/>
+        <c:crossAx val="106645376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1612385504"/>
+        <c:axId val="106645376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4573,8 +3919,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4600,10 +3946,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1612382752"/>
+        <c:crossAx val="106643840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4618,7 +3964,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4643,13 +3988,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4673,12 +4017,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4686,17 +4030,7 @@
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4725,7 +4059,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4733,28 +4066,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -4764,7 +4076,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -4779,7 +4090,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -4813,24 +4123,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -4844,7 +4146,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4869,13 +4170,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4899,12 +4199,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4912,17 +4212,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4956,7 +4246,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4964,28 +4253,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -4995,7 +4263,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -5010,7 +4277,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -5044,24 +4310,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -5075,7 +4333,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5100,13 +4357,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5130,12 +4386,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5143,17 +4399,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5182,7 +4428,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5190,28 +4435,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -5221,7 +4445,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -5236,7 +4459,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -5270,24 +4492,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -5301,7 +4515,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5326,13 +4539,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5356,12 +4568,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5369,17 +4581,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5408,7 +4610,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5416,28 +4617,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -5447,7 +4627,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -5462,7 +4641,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -5496,24 +4674,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -5527,7 +4697,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5552,13 +4721,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5582,12 +4750,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5595,17 +4763,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5634,7 +4792,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5642,28 +4799,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -5673,7 +4809,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -5688,7 +4823,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -5722,24 +4856,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -5753,7 +4879,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5778,13 +4903,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5808,12 +4932,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5821,17 +4945,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5860,7 +4974,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5868,28 +4981,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -5899,7 +4991,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -5914,7 +5005,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -5948,24 +5038,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -5979,7 +5061,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6004,13 +5085,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6034,12 +5114,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6047,17 +5127,7 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6086,7 +5156,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6094,28 +5163,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -6125,7 +5173,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -6140,7 +5187,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -6174,24 +5220,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -6205,7 +5243,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6230,13 +5267,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6260,12 +5296,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6273,17 +5309,7 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6312,7 +5338,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6320,28 +5345,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -6351,7 +5355,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -6366,7 +5369,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -6386,24 +5388,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -6417,7 +5411,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6442,13 +5435,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6472,12 +5464,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -20014,7 +19006,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -20049,7 +19041,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -20226,49 +19218,50 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="89" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="89" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="10.83203125" style="5"/>
-    <col min="4" max="10" width="10.83203125" style="1"/>
-    <col min="11" max="11" width="23.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="1"/>
-    <col min="13" max="15" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1"/>
+    <col min="3" max="3" width="10.875" style="5"/>
+    <col min="4" max="10" width="10.875" style="1"/>
+    <col min="11" max="11" width="23.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" style="1"/>
+    <col min="13" max="15" width="17.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F1" s="56" t="s">
+    <row r="1" spans="1:18">
+      <c r="F1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
       <c r="M1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+    <row r="2" spans="1:18">
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
       <c r="M2" s="1">
         <v>1</v>
       </c>
@@ -20277,12 +19270,12 @@
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
+    <row r="3" spans="1:18">
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
       <c r="M3" s="1">
         <v>0</v>
       </c>
@@ -20291,44 +19284,46 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+    <row r="4" spans="1:18">
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="M5" s="58" t="s">
+    <row r="5" spans="1:18">
+      <c r="M5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="58"/>
-      <c r="O5" s="57" t="s">
+      <c r="N5" s="57"/>
+      <c r="O5" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="P5" s="1"/>
+      <c r="P5" s="59" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:18">
+      <c r="A6" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="55"/>
       <c r="L6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="1"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="59"/>
       <c r="Q6" s="53" t="s">
         <v>14</v>
       </c>
       <c r="R6" s="53"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
+    <row r="7" spans="1:18">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
@@ -20354,7 +19349,9 @@
       <c r="O7" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="P7" s="1"/>
+      <c r="P7" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="Q7" s="23" t="s">
         <v>11</v>
       </c>
@@ -20362,7 +19359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="C8" s="9">
         <f>1</f>
         <v>1</v>
@@ -20378,7 +19375,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" s="14">
         <v>1</v>
@@ -20389,17 +19386,19 @@
       <c r="O8" s="14">
         <v>1</v>
       </c>
-      <c r="P8" s="1"/>
+      <c r="P8" s="18">
+        <v>1</v>
+      </c>
       <c r="Q8" s="24">
-        <f>SUM(M8:P8)</f>
+        <f>SUM(M8:O8)</f>
         <v>3</v>
       </c>
       <c r="R8" s="17">
         <f>$L$8-Q8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="C9" s="12">
         <f>C8+1</f>
         <v>2</v>
@@ -20423,17 +19422,19 @@
       <c r="O9" s="27">
         <v>1</v>
       </c>
-      <c r="P9" s="1"/>
+      <c r="P9" s="20">
+        <v>1</v>
+      </c>
       <c r="Q9" s="25">
         <f t="shared" ref="Q9:Q13" si="0">SUM(M9:P9)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R9" s="19">
         <f t="shared" ref="R9:R14" si="1">$L$8-Q9</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="C10" s="9">
         <f t="shared" ref="C10:C14" si="2">C9+1</f>
         <v>3</v>
@@ -20457,17 +19458,19 @@
       <c r="O10" s="14">
         <v>1</v>
       </c>
-      <c r="P10" s="1"/>
+      <c r="P10" s="18">
+        <v>0</v>
+      </c>
       <c r="Q10" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="R10" s="17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="C11" s="12">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -20491,17 +19494,19 @@
       <c r="O11" s="27">
         <v>1</v>
       </c>
-      <c r="P11" s="1"/>
+      <c r="P11" s="20">
+        <v>1</v>
+      </c>
       <c r="Q11" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="C12" s="9">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -20525,17 +19530,19 @@
       <c r="O12" s="14">
         <v>0</v>
       </c>
-      <c r="P12" s="1"/>
+      <c r="P12" s="18">
+        <v>0</v>
+      </c>
       <c r="Q12" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="R12" s="17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="C13" s="12">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -20559,17 +19566,19 @@
       <c r="O13" s="27">
         <v>0</v>
       </c>
-      <c r="P13" s="1"/>
+      <c r="P13" s="20">
+        <v>0</v>
+      </c>
       <c r="Q13" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R13" s="19">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="C14" s="9">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -20593,45 +19602,46 @@
       <c r="O14" s="14">
         <v>0</v>
       </c>
-      <c r="P14" s="1"/>
+      <c r="P14" s="18">
+        <v>1</v>
+      </c>
       <c r="Q14" s="24">
         <f>SUM(M14:P14)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R14" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="P15" s="1"/>
+    <row r="15" spans="1:18">
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="3:15" ht="19" x14ac:dyDescent="0.2">
-      <c r="C17" s="55" t="s">
+    <row r="17" spans="3:15" ht="18.75">
+      <c r="C17" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:15">
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
     </row>
-    <row r="33" spans="3:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="C33" s="55" t="s">
+    <row r="33" spans="3:6" ht="18.75">
+      <c r="C33" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
     </row>
-    <row r="49" spans="3:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:6" ht="18.75">
       <c r="C49" s="28" t="s">
         <v>17</v>
       </c>
@@ -20639,11 +19649,14 @@
       <c r="E49" s="28"/>
       <c r="F49" s="28"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A66" s="54" t="s">
+    <row r="65" spans="1:19">
+      <c r="P65" s="1"/>
+    </row>
+    <row r="66" spans="1:19">
+      <c r="A66" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B66" s="54"/>
+      <c r="B66" s="55"/>
       <c r="L66" s="42" t="s">
         <v>54</v>
       </c>
@@ -20657,9 +19670,9 @@
       <c r="R66" s="53"/>
       <c r="S66" s="53"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
+    <row r="67" spans="1:19">
+      <c r="A67" s="55"/>
+      <c r="B67" s="55"/>
       <c r="C67" s="6" t="s">
         <v>28</v>
       </c>
@@ -20690,7 +19703,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19">
       <c r="C68" s="9">
         <f>1</f>
         <v>1</v>
@@ -20718,7 +19731,7 @@
       </c>
       <c r="S68" s="1"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19">
       <c r="C69" s="12">
         <f>C68+1</f>
         <v>2</v>
@@ -20746,7 +19759,7 @@
       </c>
       <c r="S69" s="1"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19">
       <c r="C70" s="9">
         <f t="shared" ref="C70:C77" si="4">C69+1</f>
         <v>3</v>
@@ -20774,7 +19787,7 @@
       </c>
       <c r="S70" s="1"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19">
       <c r="C71" s="12">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -20802,7 +19815,7 @@
       </c>
       <c r="S71" s="1"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19">
       <c r="C72" s="9">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -20830,7 +19843,7 @@
       </c>
       <c r="S72" s="1"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19">
       <c r="C73" s="12">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -20858,7 +19871,7 @@
       </c>
       <c r="S73" s="1"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19">
       <c r="C74" s="9">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -20876,7 +19889,6 @@
       <c r="M74" s="33"/>
       <c r="N74" s="33"/>
       <c r="O74" s="33"/>
-      <c r="P74" s="1"/>
       <c r="Q74" s="29">
         <v>0</v>
       </c>
@@ -20886,7 +19898,7 @@
       </c>
       <c r="S74" s="1"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19">
       <c r="C75" s="12">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -20913,7 +19925,7 @@
       </c>
       <c r="S75" s="1"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19">
       <c r="C76" s="9">
         <f>C75+1</f>
         <v>9</v>
@@ -20937,7 +19949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19">
       <c r="C77" s="12">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -20955,13 +19967,14 @@
       <c r="M77" s="33"/>
       <c r="N77" s="33"/>
       <c r="O77" s="33"/>
+      <c r="P77" s="45"/>
       <c r="Q77" s="51"/>
       <c r="R77" s="33"/>
       <c r="S77" s="32">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19">
       <c r="C78" s="9"/>
       <c r="D78" s="16" t="s">
         <v>35</v>
@@ -20976,12 +19989,11 @@
       <c r="M78" s="33"/>
       <c r="N78" s="33"/>
       <c r="O78" s="33"/>
-      <c r="P78" s="45"/>
       <c r="Q78" s="51"/>
       <c r="R78" s="33"/>
       <c r="S78" s="1"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19">
       <c r="C79" s="12">
         <v>11</v>
       </c>
@@ -21007,7 +20019,7 @@
       </c>
       <c r="S79" s="1"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19">
       <c r="C80" s="9">
         <f>C79+1</f>
         <v>12</v>
@@ -21034,7 +20046,7 @@
       </c>
       <c r="S80" s="1"/>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19">
       <c r="C81" s="12">
         <f>C80+1</f>
         <v>13</v>
@@ -21052,6 +20064,7 @@
       <c r="M81" s="33"/>
       <c r="N81" s="33"/>
       <c r="O81" s="33"/>
+      <c r="P81" s="45"/>
       <c r="Q81" s="52">
         <v>1</v>
       </c>
@@ -21061,7 +20074,7 @@
       </c>
       <c r="S81" s="1"/>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19">
       <c r="C82" s="9"/>
       <c r="D82" s="16" t="s">
         <v>36</v>
@@ -21076,12 +20089,11 @@
       <c r="M82" s="33"/>
       <c r="N82" s="33"/>
       <c r="O82" s="33"/>
-      <c r="P82" s="45"/>
       <c r="Q82" s="51"/>
       <c r="R82" s="33"/>
       <c r="S82" s="1"/>
     </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:19">
       <c r="C83" s="12">
         <v>14</v>
       </c>
@@ -21107,7 +20119,7 @@
       </c>
       <c r="S83" s="1"/>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19">
       <c r="C84" s="9">
         <f>C83+1</f>
         <v>15</v>
@@ -21134,7 +20146,7 @@
       </c>
       <c r="S84" s="1"/>
     </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:19">
       <c r="C85" s="12">
         <f>C84+1</f>
         <v>16</v>
@@ -21161,7 +20173,7 @@
       </c>
       <c r="S85" s="1"/>
     </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:19">
       <c r="C86" s="9">
         <f>C85+1</f>
         <v>17</v>
@@ -21179,6 +20191,7 @@
       <c r="M86" s="33"/>
       <c r="N86" s="33"/>
       <c r="O86" s="33"/>
+      <c r="P86" s="51"/>
       <c r="Q86" s="50">
         <v>0</v>
       </c>
@@ -21188,7 +20201,7 @@
       </c>
       <c r="S86" s="1"/>
     </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:19">
       <c r="C87" s="33"/>
       <c r="D87" s="33"/>
       <c r="E87" s="33"/>
@@ -21207,12 +20220,12 @@
       <c r="R87" s="51"/>
       <c r="S87" s="1"/>
     </row>
-    <row r="88" spans="3:19" ht="19" x14ac:dyDescent="0.2">
-      <c r="C88" s="55" t="s">
+    <row r="88" spans="3:19" ht="18.75">
+      <c r="C88" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="55"/>
-      <c r="E88" s="55"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="54"/>
       <c r="G88" s="33"/>
       <c r="H88" s="33"/>
       <c r="I88" s="33"/>
@@ -21227,7 +20240,7 @@
       <c r="R88" s="51"/>
       <c r="S88" s="1"/>
     </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:19">
       <c r="G89" s="33"/>
       <c r="H89" s="33"/>
       <c r="I89" s="33"/>
@@ -21242,7 +20255,7 @@
       <c r="R89" s="51"/>
       <c r="S89" s="1"/>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19">
       <c r="G90" s="33"/>
       <c r="H90" s="33"/>
       <c r="I90" s="33"/>
@@ -21257,7 +20270,7 @@
       <c r="R90" s="51"/>
       <c r="S90" s="1"/>
     </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:19">
       <c r="G91" s="33"/>
       <c r="H91" s="33"/>
       <c r="I91" s="33"/>
@@ -21272,7 +20285,7 @@
       <c r="R91" s="51"/>
       <c r="S91" s="1"/>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19">
       <c r="G92" s="33"/>
       <c r="H92" s="33"/>
       <c r="I92" s="33"/>
@@ -21287,7 +20300,7 @@
       <c r="R92" s="51"/>
       <c r="S92" s="1"/>
     </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:19">
       <c r="G93" s="33"/>
       <c r="H93" s="33"/>
       <c r="I93" s="33"/>
@@ -21302,7 +20315,7 @@
       <c r="R93" s="51"/>
       <c r="S93" s="1"/>
     </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:19">
       <c r="G94" s="33"/>
       <c r="H94" s="33"/>
       <c r="I94" s="33"/>
@@ -21317,7 +20330,7 @@
       <c r="R94" s="51"/>
       <c r="S94" s="1"/>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19">
       <c r="G95" s="33"/>
       <c r="H95" s="33"/>
       <c r="I95" s="33"/>
@@ -21332,7 +20345,7 @@
       <c r="R95" s="51"/>
       <c r="S95" s="1"/>
     </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:19">
       <c r="G96" s="33"/>
       <c r="H96" s="33"/>
       <c r="I96" s="33"/>
@@ -21347,7 +20360,7 @@
       <c r="R96" s="51"/>
       <c r="S96" s="1"/>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19">
       <c r="G97" s="33"/>
       <c r="H97" s="33"/>
       <c r="I97" s="33"/>
@@ -21362,7 +20375,7 @@
       <c r="R97" s="51"/>
       <c r="S97" s="1"/>
     </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:19">
       <c r="G98" s="33"/>
       <c r="H98" s="33"/>
       <c r="I98" s="33"/>
@@ -21377,7 +20390,7 @@
       <c r="R98" s="51"/>
       <c r="S98" s="1"/>
     </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:19">
       <c r="G99" s="33"/>
       <c r="H99" s="33"/>
       <c r="I99" s="33"/>
@@ -21392,7 +20405,7 @@
       <c r="R99" s="51"/>
       <c r="S99" s="1"/>
     </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:19">
       <c r="G100" s="33"/>
       <c r="H100" s="33"/>
       <c r="I100" s="33"/>
@@ -21407,7 +20420,7 @@
       <c r="R100" s="51"/>
       <c r="S100" s="1"/>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19">
       <c r="G101" s="33"/>
       <c r="H101" s="33"/>
       <c r="I101" s="33"/>
@@ -21422,7 +20435,7 @@
       <c r="R101" s="51"/>
       <c r="S101" s="1"/>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19">
       <c r="G102" s="33"/>
       <c r="H102" s="33"/>
       <c r="I102" s="33"/>
@@ -21437,7 +20450,7 @@
       <c r="R102" s="51"/>
       <c r="S102" s="1"/>
     </row>
-    <row r="103" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:19">
       <c r="G103" s="33"/>
       <c r="H103" s="33"/>
       <c r="I103" s="33"/>
@@ -21452,13 +20465,13 @@
       <c r="R103" s="51"/>
       <c r="S103" s="1"/>
     </row>
-    <row r="104" spans="3:19" ht="19" x14ac:dyDescent="0.2">
-      <c r="C104" s="55" t="s">
+    <row r="104" spans="3:19" ht="18.75">
+      <c r="C104" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D104" s="55"/>
-      <c r="E104" s="55"/>
-      <c r="F104" s="55"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="54"/>
+      <c r="F104" s="54"/>
       <c r="G104" s="33"/>
       <c r="H104" s="33"/>
       <c r="I104" s="33"/>
@@ -21473,7 +20486,7 @@
       <c r="R104" s="51"/>
       <c r="S104" s="1"/>
     </row>
-    <row r="105" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:19">
       <c r="G105" s="33"/>
       <c r="H105" s="33"/>
       <c r="I105" s="33"/>
@@ -21488,7 +20501,7 @@
       <c r="R105" s="51"/>
       <c r="S105" s="1"/>
     </row>
-    <row r="106" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:19">
       <c r="G106" s="33"/>
       <c r="H106" s="33"/>
       <c r="I106" s="33"/>
@@ -21503,7 +20516,7 @@
       <c r="R106" s="51"/>
       <c r="S106" s="1"/>
     </row>
-    <row r="107" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:19">
       <c r="C107" s="33"/>
       <c r="D107" s="33"/>
       <c r="E107" s="33"/>
@@ -21522,7 +20535,7 @@
       <c r="R107" s="51"/>
       <c r="S107" s="1"/>
     </row>
-    <row r="108" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:19">
       <c r="C108" s="33"/>
       <c r="D108" s="33"/>
       <c r="E108" s="33"/>
@@ -21541,7 +20554,7 @@
       <c r="R108" s="51"/>
       <c r="S108" s="1"/>
     </row>
-    <row r="109" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:19">
       <c r="C109" s="33"/>
       <c r="D109" s="33"/>
       <c r="E109" s="33"/>
@@ -21560,7 +20573,7 @@
       <c r="R109" s="51"/>
       <c r="S109" s="1"/>
     </row>
-    <row r="110" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:19">
       <c r="C110" s="33"/>
       <c r="D110" s="33"/>
       <c r="E110" s="33"/>
@@ -21579,7 +20592,7 @@
       <c r="R110" s="51"/>
       <c r="S110" s="1"/>
     </row>
-    <row r="111" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:19">
       <c r="C111" s="33"/>
       <c r="D111" s="33"/>
       <c r="E111" s="33"/>
@@ -21598,7 +20611,7 @@
       <c r="R111" s="51"/>
       <c r="S111" s="1"/>
     </row>
-    <row r="112" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:19">
       <c r="C112" s="33"/>
       <c r="D112" s="33"/>
       <c r="E112" s="33"/>
@@ -21617,7 +20630,7 @@
       <c r="R112" s="51"/>
       <c r="S112" s="1"/>
     </row>
-    <row r="113" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:19">
       <c r="C113" s="33"/>
       <c r="D113" s="33"/>
       <c r="E113" s="33"/>
@@ -21636,7 +20649,7 @@
       <c r="R113" s="51"/>
       <c r="S113" s="1"/>
     </row>
-    <row r="114" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:19">
       <c r="C114" s="33"/>
       <c r="D114" s="33"/>
       <c r="E114" s="33"/>
@@ -21655,7 +20668,7 @@
       <c r="R114" s="51"/>
       <c r="S114" s="1"/>
     </row>
-    <row r="115" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:19">
       <c r="C115" s="33"/>
       <c r="D115" s="33"/>
       <c r="E115" s="33"/>
@@ -21674,7 +20687,7 @@
       <c r="R115" s="51"/>
       <c r="S115" s="1"/>
     </row>
-    <row r="116" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:19">
       <c r="C116" s="33"/>
       <c r="D116" s="33"/>
       <c r="E116" s="33"/>
@@ -21693,7 +20706,7 @@
       <c r="R116" s="51"/>
       <c r="S116" s="1"/>
     </row>
-    <row r="117" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:19">
       <c r="C117" s="33"/>
       <c r="D117" s="33"/>
       <c r="E117" s="33"/>
@@ -21712,7 +20725,7 @@
       <c r="R117" s="51"/>
       <c r="S117" s="1"/>
     </row>
-    <row r="118" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:19">
       <c r="C118" s="33"/>
       <c r="D118" s="33"/>
       <c r="E118" s="33"/>
@@ -21731,7 +20744,7 @@
       <c r="R118" s="51"/>
       <c r="S118" s="1"/>
     </row>
-    <row r="119" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:19">
       <c r="C119" s="33"/>
       <c r="D119" s="33"/>
       <c r="E119" s="33"/>
@@ -21750,7 +20763,7 @@
       <c r="R119" s="51"/>
       <c r="S119" s="1"/>
     </row>
-    <row r="120" spans="3:19" ht="19" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:19" ht="18.75">
       <c r="C120" s="46" t="s">
         <v>55</v>
       </c>
@@ -21771,7 +20784,7 @@
       <c r="R120" s="51"/>
       <c r="S120" s="1"/>
     </row>
-    <row r="121" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:19">
       <c r="C121" s="33"/>
       <c r="D121" s="33"/>
       <c r="E121" s="33"/>
@@ -21790,7 +20803,7 @@
       <c r="R121" s="51"/>
       <c r="S121" s="1"/>
     </row>
-    <row r="122" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:19">
       <c r="C122" s="33"/>
       <c r="D122" s="33"/>
       <c r="E122" s="33"/>
@@ -21809,7 +20822,7 @@
       <c r="R122" s="51"/>
       <c r="S122" s="1"/>
     </row>
-    <row r="123" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:19">
       <c r="C123" s="33"/>
       <c r="D123" s="33"/>
       <c r="E123" s="33"/>
@@ -21828,7 +20841,7 @@
       <c r="R123" s="51"/>
       <c r="S123" s="1"/>
     </row>
-    <row r="124" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:19">
       <c r="C124" s="33"/>
       <c r="D124" s="33"/>
       <c r="E124" s="33"/>
@@ -21847,7 +20860,7 @@
       <c r="R124" s="51"/>
       <c r="S124" s="1"/>
     </row>
-    <row r="125" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:19">
       <c r="C125" s="33"/>
       <c r="D125" s="33"/>
       <c r="E125" s="33"/>
@@ -21866,7 +20879,7 @@
       <c r="R125" s="51"/>
       <c r="S125" s="1"/>
     </row>
-    <row r="126" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:19">
       <c r="C126" s="33"/>
       <c r="D126" s="33"/>
       <c r="E126" s="33"/>
@@ -21885,7 +20898,7 @@
       <c r="R126" s="51"/>
       <c r="S126" s="1"/>
     </row>
-    <row r="127" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:19">
       <c r="C127" s="33"/>
       <c r="D127" s="33"/>
       <c r="E127" s="33"/>
@@ -21904,7 +20917,7 @@
       <c r="R127" s="51"/>
       <c r="S127" s="1"/>
     </row>
-    <row r="128" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:19">
       <c r="C128" s="33"/>
       <c r="D128" s="33"/>
       <c r="E128" s="33"/>
@@ -21923,7 +20936,7 @@
       <c r="R128" s="51"/>
       <c r="S128" s="1"/>
     </row>
-    <row r="129" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:19">
       <c r="C129" s="33"/>
       <c r="D129" s="33"/>
       <c r="E129" s="33"/>
@@ -21942,7 +20955,7 @@
       <c r="R129" s="51"/>
       <c r="S129" s="1"/>
     </row>
-    <row r="130" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:19">
       <c r="C130" s="33"/>
       <c r="D130" s="33"/>
       <c r="E130" s="33"/>
@@ -21961,7 +20974,7 @@
       <c r="R130" s="51"/>
       <c r="S130" s="1"/>
     </row>
-    <row r="131" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:19">
       <c r="C131" s="33"/>
       <c r="D131" s="33"/>
       <c r="E131" s="33"/>
@@ -21980,7 +20993,7 @@
       <c r="R131" s="51"/>
       <c r="S131" s="1"/>
     </row>
-    <row r="132" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:19">
       <c r="C132" s="33"/>
       <c r="D132" s="33"/>
       <c r="E132" s="33"/>
@@ -21999,7 +21012,7 @@
       <c r="R132" s="51"/>
       <c r="S132" s="1"/>
     </row>
-    <row r="133" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:19">
       <c r="C133" s="33"/>
       <c r="D133" s="33"/>
       <c r="E133" s="33"/>
@@ -22018,7 +21031,7 @@
       <c r="R133" s="51"/>
       <c r="S133" s="1"/>
     </row>
-    <row r="134" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:19">
       <c r="C134" s="33"/>
       <c r="D134" s="33"/>
       <c r="E134" s="33"/>
@@ -22037,7 +21050,7 @@
       <c r="R134" s="51"/>
       <c r="S134" s="1"/>
     </row>
-    <row r="135" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:19">
       <c r="C135" s="33"/>
       <c r="D135" s="33"/>
       <c r="E135" s="33"/>
@@ -22056,7 +21069,7 @@
       <c r="R135" s="51"/>
       <c r="S135" s="1"/>
     </row>
-    <row r="136" spans="3:19" ht="19" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:19" ht="18.75">
       <c r="C136" s="46"/>
       <c r="D136" s="33"/>
       <c r="E136" s="33"/>
@@ -22075,7 +21088,7 @@
       <c r="R136" s="51"/>
       <c r="S136" s="1"/>
     </row>
-    <row r="137" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:19">
       <c r="C137" s="33"/>
       <c r="D137" s="33"/>
       <c r="E137" s="33"/>
@@ -22094,7 +21107,7 @@
       <c r="R137" s="51"/>
       <c r="S137" s="1"/>
     </row>
-    <row r="138" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:19">
       <c r="C138" s="33"/>
       <c r="D138" s="33"/>
       <c r="E138" s="33"/>
@@ -22113,7 +21126,7 @@
       <c r="R138" s="51"/>
       <c r="S138" s="1"/>
     </row>
-    <row r="139" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:19">
       <c r="C139" s="33"/>
       <c r="D139" s="33"/>
       <c r="E139" s="33"/>
@@ -22132,7 +21145,7 @@
       <c r="R139" s="51"/>
       <c r="S139" s="1"/>
     </row>
-    <row r="140" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:19">
       <c r="C140" s="33"/>
       <c r="D140" s="33"/>
       <c r="E140" s="33"/>
@@ -22151,7 +21164,7 @@
       <c r="R140" s="51"/>
       <c r="S140" s="1"/>
     </row>
-    <row r="141" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:19">
       <c r="C141" s="33"/>
       <c r="D141" s="33"/>
       <c r="E141" s="33"/>
@@ -22170,7 +21183,7 @@
       <c r="R141" s="51"/>
       <c r="S141" s="1"/>
     </row>
-    <row r="142" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:19">
       <c r="C142" s="33"/>
       <c r="D142" s="33"/>
       <c r="E142" s="33"/>
@@ -22189,7 +21202,7 @@
       <c r="R142" s="51"/>
       <c r="S142" s="1"/>
     </row>
-    <row r="143" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:19">
       <c r="C143" s="33"/>
       <c r="D143" s="33"/>
       <c r="E143" s="33"/>
@@ -22208,7 +21221,7 @@
       <c r="R143" s="51"/>
       <c r="S143" s="1"/>
     </row>
-    <row r="144" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:19">
       <c r="C144" s="33"/>
       <c r="D144" s="33"/>
       <c r="E144" s="33"/>
@@ -22227,7 +21240,7 @@
       <c r="R144" s="51"/>
       <c r="S144" s="1"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19">
       <c r="C145" s="33"/>
       <c r="D145" s="33"/>
       <c r="E145" s="33"/>
@@ -22246,7 +21259,7 @@
       <c r="R145" s="51"/>
       <c r="S145" s="1"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19">
       <c r="C146" s="33"/>
       <c r="D146" s="33"/>
       <c r="E146" s="33"/>
@@ -22265,7 +21278,7 @@
       <c r="R146" s="51"/>
       <c r="S146" s="1"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19">
       <c r="C147" s="33"/>
       <c r="D147" s="33"/>
       <c r="E147" s="33"/>
@@ -22284,7 +21297,7 @@
       <c r="R147" s="51"/>
       <c r="S147" s="1"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19">
       <c r="C148" s="33"/>
       <c r="D148" s="33"/>
       <c r="E148" s="33"/>
@@ -22298,22 +21311,22 @@
       <c r="M148" s="33"/>
       <c r="N148" s="33"/>
       <c r="O148" s="33"/>
-      <c r="P148" s="51"/>
       <c r="Q148" s="51"/>
       <c r="R148" s="51"/>
       <c r="S148" s="1"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19">
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19">
       <c r="E150" s="2"/>
+      <c r="P150" s="1"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A151" s="54" t="s">
+    <row r="151" spans="1:19">
+      <c r="A151" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="B151" s="54"/>
+      <c r="B151" s="55"/>
       <c r="L151" s="42" t="s">
         <v>50</v>
       </c>
@@ -22326,9 +21339,9 @@
       </c>
       <c r="R151" s="53"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A152" s="54"/>
-      <c r="B152" s="54"/>
+    <row r="152" spans="1:19">
+      <c r="A152" s="55"/>
+      <c r="B152" s="55"/>
       <c r="C152" s="6" t="s">
         <v>28</v>
       </c>
@@ -22356,7 +21369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19">
       <c r="C153" s="9">
         <f>1</f>
         <v>1</v>
@@ -22385,7 +21398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19">
       <c r="C154" s="12">
         <f>C153+1</f>
         <v>2</v>
@@ -22414,7 +21427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19">
       <c r="C155" s="9">
         <f t="shared" ref="C155" si="5">C154+1</f>
         <v>3</v>
@@ -22432,7 +21445,6 @@
       <c r="M155" s="33"/>
       <c r="N155" s="33"/>
       <c r="O155" s="33"/>
-      <c r="P155" s="1"/>
       <c r="Q155" s="35">
         <v>0</v>
       </c>
@@ -22441,7 +21453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19">
       <c r="C156" s="12"/>
       <c r="D156" s="15" t="s">
         <v>40</v>
@@ -22460,7 +21472,7 @@
       <c r="R156" s="44"/>
       <c r="S156" s="1"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19">
       <c r="C157" s="9">
         <v>14</v>
       </c>
@@ -22486,7 +21498,7 @@
       </c>
       <c r="S157" s="1"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19">
       <c r="C158" s="12">
         <f>C157+1</f>
         <v>15</v>
@@ -22513,7 +21525,7 @@
       </c>
       <c r="S158" s="1"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19">
       <c r="C159" s="9">
         <f>C158+1</f>
         <v>16</v>
@@ -22531,6 +21543,7 @@
       <c r="M159" s="33"/>
       <c r="N159" s="33"/>
       <c r="O159" s="33"/>
+      <c r="P159" s="1"/>
       <c r="Q159" s="40">
         <v>0</v>
       </c>
@@ -22540,7 +21553,7 @@
       </c>
       <c r="S159" s="1"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19">
       <c r="C160" s="12"/>
       <c r="D160" s="13" t="s">
         <v>44</v>
@@ -22556,7 +21569,7 @@
       <c r="Q160" s="44"/>
       <c r="R160" s="44"/>
     </row>
-    <row r="161" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:18">
       <c r="C161" s="9">
         <v>17</v>
       </c>
@@ -22579,7 +21592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:18">
       <c r="C162" s="12">
         <f>C161+1</f>
         <v>18</v>
@@ -22603,7 +21616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:18">
       <c r="C163" s="9">
         <f t="shared" ref="C163:C165" si="6">C162+1</f>
         <v>19</v>
@@ -22627,7 +21640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:18">
       <c r="C164" s="12">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -22651,7 +21664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:18">
       <c r="C165" s="9">
         <f t="shared" si="6"/>
         <v>21</v>
@@ -22666,7 +21679,6 @@
       <c r="I165" s="11"/>
       <c r="J165" s="11"/>
       <c r="K165" s="11"/>
-      <c r="P165" s="1"/>
       <c r="Q165" s="35">
         <v>2</v>
       </c>
@@ -22675,30 +21687,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:18">
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
     </row>
-    <row r="167" spans="3:18" ht="19" x14ac:dyDescent="0.2">
-      <c r="C167" s="55" t="s">
+    <row r="167" spans="3:18" ht="18.75">
+      <c r="C167" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D167" s="55"/>
-      <c r="E167" s="55"/>
+      <c r="D167" s="54"/>
+      <c r="E167" s="54"/>
     </row>
-    <row r="176" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:18">
       <c r="N176" s="4"/>
       <c r="O176" s="4"/>
     </row>
-    <row r="183" spans="1:18" ht="19" x14ac:dyDescent="0.2">
-      <c r="C183" s="55" t="s">
+    <row r="183" spans="1:18" ht="18.75">
+      <c r="C183" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D183" s="55"/>
-      <c r="E183" s="55"/>
-      <c r="F183" s="55"/>
+      <c r="D183" s="54"/>
+      <c r="E183" s="54"/>
+      <c r="F183" s="54"/>
+      <c r="P183" s="33"/>
     </row>
-    <row r="184" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:18" ht="15.95" customHeight="1">
       <c r="A184" s="47"/>
       <c r="B184" s="47"/>
       <c r="G184" s="33"/>
@@ -22714,7 +21727,7 @@
       <c r="Q184" s="34"/>
       <c r="R184" s="34"/>
     </row>
-    <row r="185" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:18" ht="15.95" customHeight="1">
       <c r="A185" s="47"/>
       <c r="B185" s="47"/>
       <c r="G185" s="34"/>
@@ -22730,7 +21743,7 @@
       <c r="Q185" s="33"/>
       <c r="R185" s="33"/>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:18">
       <c r="A186" s="45"/>
       <c r="B186" s="33"/>
       <c r="G186" s="33"/>
@@ -22746,7 +21759,7 @@
       <c r="Q186" s="33"/>
       <c r="R186" s="33"/>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:18">
       <c r="A187" s="45"/>
       <c r="B187" s="33"/>
       <c r="G187" s="33"/>
@@ -22762,7 +21775,7 @@
       <c r="Q187" s="33"/>
       <c r="R187" s="33"/>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:18">
       <c r="A188" s="45"/>
       <c r="B188" s="33"/>
       <c r="G188" s="33"/>
@@ -22778,7 +21791,7 @@
       <c r="Q188" s="33"/>
       <c r="R188" s="33"/>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:18">
       <c r="A189" s="45"/>
       <c r="B189" s="33"/>
       <c r="G189" s="33"/>
@@ -22794,7 +21807,7 @@
       <c r="Q189" s="33"/>
       <c r="R189" s="33"/>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:18">
       <c r="A190" s="45"/>
       <c r="B190" s="33"/>
       <c r="G190" s="33"/>
@@ -22810,7 +21823,7 @@
       <c r="Q190" s="33"/>
       <c r="R190" s="33"/>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:18">
       <c r="A191" s="45"/>
       <c r="B191" s="33"/>
       <c r="G191" s="33"/>
@@ -22826,7 +21839,7 @@
       <c r="Q191" s="33"/>
       <c r="R191" s="33"/>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:18">
       <c r="A192" s="45"/>
       <c r="B192" s="33"/>
       <c r="G192" s="33"/>
@@ -22842,7 +21855,7 @@
       <c r="Q192" s="33"/>
       <c r="R192" s="33"/>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:18">
       <c r="A193" s="45"/>
       <c r="B193" s="33"/>
       <c r="G193" s="33"/>
@@ -22854,11 +21867,11 @@
       <c r="M193" s="33"/>
       <c r="N193" s="33"/>
       <c r="O193" s="33"/>
-      <c r="P193" s="33"/>
+      <c r="P193" s="45"/>
       <c r="Q193" s="33"/>
       <c r="R193" s="33"/>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:18">
       <c r="A194" s="45"/>
       <c r="B194" s="33"/>
       <c r="G194" s="33"/>
@@ -22874,7 +21887,7 @@
       <c r="Q194" s="33"/>
       <c r="R194" s="33"/>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:18">
       <c r="A195" s="45"/>
       <c r="B195" s="33"/>
       <c r="G195" s="33"/>
@@ -22890,7 +21903,7 @@
       <c r="Q195" s="45"/>
       <c r="R195" s="45"/>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:18">
       <c r="A196" s="45"/>
       <c r="B196" s="33"/>
       <c r="G196" s="33"/>
@@ -22906,7 +21919,7 @@
       <c r="Q196" s="45"/>
       <c r="R196" s="45"/>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:18">
       <c r="A197" s="45"/>
       <c r="B197" s="33"/>
       <c r="G197" s="33"/>
@@ -22922,7 +21935,7 @@
       <c r="Q197" s="45"/>
       <c r="R197" s="45"/>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:18">
       <c r="A198" s="45"/>
       <c r="B198" s="33"/>
       <c r="C198" s="48"/>
@@ -22942,7 +21955,7 @@
       <c r="Q198" s="45"/>
       <c r="R198" s="45"/>
     </row>
-    <row r="199" spans="1:18" ht="19" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:18" ht="18.75">
       <c r="A199" s="45"/>
       <c r="B199" s="33"/>
       <c r="C199" s="46" t="s">
@@ -22964,7 +21977,7 @@
       <c r="Q199" s="45"/>
       <c r="R199" s="45"/>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:18">
       <c r="A200" s="45"/>
       <c r="B200" s="33"/>
       <c r="C200" s="48"/>
@@ -22984,7 +21997,7 @@
       <c r="Q200" s="45"/>
       <c r="R200" s="45"/>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:18">
       <c r="A201" s="45"/>
       <c r="B201" s="33"/>
       <c r="C201" s="48"/>
@@ -23004,7 +22017,7 @@
       <c r="Q201" s="45"/>
       <c r="R201" s="45"/>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:18">
       <c r="A202" s="45"/>
       <c r="B202" s="33"/>
       <c r="C202" s="48"/>
@@ -23024,7 +22037,7 @@
       <c r="Q202" s="45"/>
       <c r="R202" s="45"/>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:18">
       <c r="A203" s="45"/>
       <c r="B203" s="33"/>
       <c r="C203" s="48"/>
@@ -23044,7 +22057,7 @@
       <c r="Q203" s="45"/>
       <c r="R203" s="45"/>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:18">
       <c r="A204" s="45"/>
       <c r="B204" s="33"/>
       <c r="C204" s="48"/>
@@ -23064,7 +22077,7 @@
       <c r="Q204" s="45"/>
       <c r="R204" s="45"/>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:18">
       <c r="A205" s="45"/>
       <c r="B205" s="33"/>
       <c r="C205" s="48"/>
@@ -23084,7 +22097,7 @@
       <c r="Q205" s="45"/>
       <c r="R205" s="45"/>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:18">
       <c r="A206" s="45"/>
       <c r="B206" s="33"/>
       <c r="C206" s="48"/>
@@ -23104,7 +22117,7 @@
       <c r="Q206" s="45"/>
       <c r="R206" s="45"/>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:18">
       <c r="A207" s="45"/>
       <c r="B207" s="33"/>
       <c r="C207" s="48"/>
@@ -23124,7 +22137,7 @@
       <c r="Q207" s="45"/>
       <c r="R207" s="45"/>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:18">
       <c r="A208" s="45"/>
       <c r="B208" s="33"/>
       <c r="C208" s="48"/>
@@ -23144,7 +22157,7 @@
       <c r="Q208" s="45"/>
       <c r="R208" s="45"/>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:18">
       <c r="A209" s="45"/>
       <c r="B209" s="33"/>
       <c r="C209" s="48"/>
@@ -23164,7 +22177,7 @@
       <c r="Q209" s="45"/>
       <c r="R209" s="45"/>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:18">
       <c r="A210" s="45"/>
       <c r="B210" s="33"/>
       <c r="C210" s="48"/>
@@ -23184,7 +22197,7 @@
       <c r="Q210" s="45"/>
       <c r="R210" s="45"/>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:18">
       <c r="A211" s="45"/>
       <c r="B211" s="33"/>
       <c r="C211" s="48"/>
@@ -23204,7 +22217,7 @@
       <c r="Q211" s="45"/>
       <c r="R211" s="45"/>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:18">
       <c r="A212" s="45"/>
       <c r="B212" s="33"/>
       <c r="C212" s="48"/>
@@ -23224,7 +22237,7 @@
       <c r="Q212" s="45"/>
       <c r="R212" s="45"/>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:18">
       <c r="A213" s="45"/>
       <c r="B213" s="33"/>
       <c r="C213" s="48"/>
@@ -23244,7 +22257,7 @@
       <c r="Q213" s="45"/>
       <c r="R213" s="45"/>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:18">
       <c r="A214" s="45"/>
       <c r="B214" s="33"/>
       <c r="C214" s="48"/>
@@ -23260,17 +22273,28 @@
       <c r="M214" s="33"/>
       <c r="N214" s="33"/>
       <c r="O214" s="33"/>
-      <c r="P214" s="45"/>
       <c r="Q214" s="45"/>
       <c r="R214" s="45"/>
     </row>
-    <row r="215" spans="1:18" ht="19" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:18" ht="18.75">
       <c r="C215" s="46" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="A151:B152"/>
+    <mergeCell ref="Q151:R151"/>
+    <mergeCell ref="D152:K152"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="A66:B67"/>
+    <mergeCell ref="D67:K67"/>
+    <mergeCell ref="F1:J4"/>
+    <mergeCell ref="C183:F183"/>
+    <mergeCell ref="C104:F104"/>
+    <mergeCell ref="C167:E167"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C33:F33"/>
@@ -23278,20 +22302,9 @@
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="M5:N6"/>
     <mergeCell ref="D7:K7"/>
-    <mergeCell ref="F1:J4"/>
-    <mergeCell ref="C183:F183"/>
-    <mergeCell ref="C104:F104"/>
-    <mergeCell ref="C167:E167"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="A151:B152"/>
-    <mergeCell ref="Q151:R151"/>
-    <mergeCell ref="D152:K152"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="A66:B67"/>
-    <mergeCell ref="D67:K67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dados dos inquéritos.xlsx
+++ b/dados dos inquéritos.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardacunha/Documents/Uni/3/PPIN/FEUP-PPIN/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -204,26 +209,19 @@
     <t>Dr Daniel Oliveira</t>
   </si>
   <si>
-    <t>Clínica Veterinária Animal Especial</t>
+    <t>Dra Luísa Pereira</t>
   </si>
   <si>
-    <t>Dra Luísa Pereira</t>
+    <t>Clínica Veterinária Animal Especial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -277,7 +275,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,12 +390,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -408,13 +400,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -425,7 +416,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -497,7 +488,7 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -549,16 +540,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -570,13 +561,16 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -585,17 +579,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="20% - Cor1" xfId="3" builtinId="30"/>
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="2" builtinId="9" hidden="1"/>
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -610,7 +597,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-PT"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -620,6 +617,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -639,6 +641,7 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -646,7 +649,33 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -656,6 +685,7 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -670,6 +700,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -684,7 +715,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Q$7:$R$7</c:f>
+              <c:f>Sheet1!$R$7:$S$7</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -698,21 +729,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$8:$R$8</c:f>
+              <c:f>Sheet1!$R$8:$S$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -726,6 +765,7 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -739,6 +779,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -750,24 +795,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -777,14 +816,20 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -792,7 +837,17 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-PT"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -802,6 +857,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -815,17 +875,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Ajuda</a:t>
+              <a:t>Ajuda Monetária</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Monetária</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -833,7 +888,33 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -843,6 +924,7 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -857,6 +939,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -871,7 +954,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Q$152:$R$152</c:f>
+              <c:f>Sheet1!$R$166:$S$166</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -885,21 +968,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$155:$R$155</c:f>
+              <c:f>Sheet1!$R$169:$S$169</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -912,7 +1003,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -926,6 +1017,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -937,24 +1033,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -964,14 +1054,20 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -979,7 +1075,17 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-PT"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -989,6 +1095,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1007,7 +1118,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1015,18 +1126,45 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$152</c:f>
+              <c:f>Sheet1!$R$166</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1044,9 +1182,10 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(Sheet1!$E$157,Sheet1!$E$158,Sheet1!$E$159)</c:f>
+              <c:f>(Sheet1!$E$171,Sheet1!$E$172,Sheet1!$E$173)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1063,18 +1202,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$157:$Q$159</c:f>
+              <c:f>Sheet1!$R$171:$R$173</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1085,7 +1224,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$152</c:f>
+              <c:f>Sheet1!$S$166</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1103,9 +1242,10 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(Sheet1!$E$157,Sheet1!$E$158,Sheet1!$E$159)</c:f>
+              <c:f>(Sheet1!$E$171,Sheet1!$E$172,Sheet1!$E$173)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1122,37 +1262,46 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$157:$R$159</c:f>
+              <c:f>Sheet1!$S$171:$S$173</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="106387328"/>
-        <c:axId val="106388864"/>
+        <c:axId val="1252558864"/>
+        <c:axId val="1252560912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106387328"/>
+        <c:axId val="1252558864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1173,6 +1322,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1184,19 +1338,22 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106388864"/>
+        <c:crossAx val="1252560912"/>
         <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106388864"/>
+        <c:axId val="1252560912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1212,8 +1369,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1228,6 +1385,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1239,10 +1401,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106387328"/>
+        <c:crossAx val="1252558864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1256,7 +1418,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1270,6 +1432,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1281,24 +1448,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1308,14 +1469,20 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1323,7 +1490,17 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-PT"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1333,6 +1510,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1351,7 +1533,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1359,18 +1541,45 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$152</c:f>
+              <c:f>Sheet1!$R$166</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1388,9 +1597,10 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(Sheet1!$E$161,Sheet1!$E$162,Sheet1!$E$163,Sheet1!$E$164,Sheet1!$E$165)</c:f>
+              <c:f>(Sheet1!$E$175,Sheet1!$E$176,Sheet1!$E$177,Sheet1!$E$178,Sheet1!$E$179)</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1413,24 +1623,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$161:$Q$165</c:f>
+              <c:f>Sheet1!$R$175:$R$179</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1441,7 +1651,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$152</c:f>
+              <c:f>Sheet1!$S$166</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1459,9 +1669,10 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(Sheet1!$E$161,Sheet1!$E$162,Sheet1!$E$163,Sheet1!$E$164,Sheet1!$E$165)</c:f>
+              <c:f>(Sheet1!$E$175,Sheet1!$E$176,Sheet1!$E$177,Sheet1!$E$178,Sheet1!$E$179)</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1484,43 +1695,52 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$161:$R$165</c:f>
+              <c:f>Sheet1!$S$175:$S$179</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="106443520"/>
-        <c:axId val="106445056"/>
+        <c:axId val="1167222192"/>
+        <c:axId val="1167224512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106443520"/>
+        <c:axId val="1167222192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1541,6 +1761,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1552,20 +1777,22 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106445056"/>
+        <c:crossAx val="1167224512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106445056"/>
+        <c:axId val="1167224512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1581,8 +1808,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1597,6 +1824,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1608,10 +1840,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106443520"/>
+        <c:crossAx val="1167222192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1625,7 +1857,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1639,6 +1871,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1650,24 +1887,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1677,14 +1908,20 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1692,7 +1929,17 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-PT"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1702,6 +1949,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1720,7 +1972,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1728,7 +1980,33 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -1738,6 +2016,7 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1752,6 +2031,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -1766,7 +2046,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Q$67:$R$67</c:f>
+              <c:f>Sheet1!$R$67:$S$67</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1780,21 +2060,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$68:$R$68</c:f>
+              <c:f>Sheet1!$R$68:$S$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -1807,7 +2095,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1821,6 +2109,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1832,24 +2125,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1859,14 +2146,20 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1874,7 +2167,17 @@
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-PT"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1884,6 +2187,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1897,17 +2205,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Impacto</a:t>
+              <a:t>Impacto Positivo na Sobrelotação</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Positivo na Sobrelotação</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1915,7 +2218,33 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -1925,6 +2254,7 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1939,6 +2269,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -1953,7 +2284,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Q$67:$R$67</c:f>
+              <c:f>Sheet1!$R$67:$S$67</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1967,21 +2298,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$69:$R$69</c:f>
+              <c:f>Sheet1!$R$69:$S$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -1994,7 +2333,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2008,6 +2347,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2019,24 +2363,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2046,14 +2384,20 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2061,7 +2405,17 @@
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-PT"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2071,6 +2425,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2089,7 +2448,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2097,7 +2456,33 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2107,6 +2492,7 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2121,6 +2507,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -2135,7 +2522,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Q$67:$R$67</c:f>
+              <c:f>Sheet1!$R$67:$S$67</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2149,21 +2536,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$70:$R$70</c:f>
+              <c:f>Sheet1!$R$70:$S$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -2176,7 +2571,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2190,6 +2585,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2201,24 +2601,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2228,14 +2622,20 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2243,7 +2643,17 @@
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-PT"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2253,6 +2663,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2271,7 +2686,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2279,7 +2694,33 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2289,6 +2730,7 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2303,6 +2745,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -2317,7 +2760,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Q$67:$R$67</c:f>
+              <c:f>Sheet1!$R$67:$S$67</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2331,21 +2774,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$71:$R$71</c:f>
+              <c:f>Sheet1!$R$71:$S$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -2358,7 +2809,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2372,6 +2823,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2383,24 +2839,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2410,14 +2860,20 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2425,7 +2881,17 @@
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-PT"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2435,6 +2901,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2453,7 +2924,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2461,7 +2932,33 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2471,6 +2968,7 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2485,6 +2983,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -2499,7 +2998,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Q$67:$R$67</c:f>
+              <c:f>Sheet1!$R$67:$S$67</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2513,21 +3012,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$72:$R$72</c:f>
+              <c:f>Sheet1!$R$72:$S$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -2540,7 +3047,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2554,6 +3061,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2565,24 +3077,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2592,14 +3098,20 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2607,7 +3119,17 @@
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-PT"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2617,6 +3139,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2635,7 +3162,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2643,7 +3170,33 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2653,6 +3206,7 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2667,6 +3221,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -2681,7 +3236,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Q$67:$R$67</c:f>
+              <c:f>Sheet1!$R$67:$S$67</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2695,21 +3250,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$73:$R$73</c:f>
+              <c:f>Sheet1!$R$73:$S$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -2722,7 +3285,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2736,6 +3299,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2747,24 +3315,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2774,14 +3336,20 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2789,7 +3357,17 @@
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-PT"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2799,6 +3377,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2817,7 +3400,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2825,7 +3408,33 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2835,6 +3444,7 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2849,6 +3459,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -2863,7 +3474,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Q$67:$R$67</c:f>
+              <c:f>Sheet1!$R$67:$S$67</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2877,21 +3488,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$74:$R$74</c:f>
+              <c:f>Sheet1!$R$74:$S$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -2904,7 +3523,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2918,6 +3537,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2929,24 +3553,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2956,14 +3574,20 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2971,7 +3595,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-PT"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2981,6 +3615,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3000,6 +3639,7 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3007,7 +3647,33 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -3017,6 +3683,7 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -3031,6 +3698,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -3045,7 +3713,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Q$7:$R$7</c:f>
+              <c:f>Sheet1!$R$7:$S$7</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3059,21 +3727,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$9:$R$9</c:f>
+              <c:f>Sheet1!$R$9:$S$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -3087,6 +3763,7 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3100,6 +3777,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3111,24 +3793,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3138,14 +3814,20 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3153,7 +3835,17 @@
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-PT"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3163,6 +3855,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3176,17 +3873,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Falta</a:t>
+              <a:t>Falta de Medicação</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> de Medicação</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3194,7 +3886,33 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -3204,6 +3922,7 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -3218,6 +3937,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -3232,7 +3952,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Q$67:$R$67</c:f>
+              <c:f>Sheet1!$R$67:$S$67</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3246,21 +3966,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$75:$R$75</c:f>
+              <c:f>Sheet1!$R$75:$S$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -3273,7 +4001,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3287,6 +4015,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3298,24 +4031,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3325,14 +4052,20 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3340,7 +4073,17 @@
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-PT"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3350,6 +4093,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3368,7 +4116,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3376,18 +4124,45 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$67</c:f>
+              <c:f>Sheet1!$R$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3405,65 +4180,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Sheet1!$E$79,Sheet1!$E$80,Sheet1!$E$81)</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>chegam pela primeira vez ao canil para fazer despiste de doenças</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>aparentam estar doentes</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>regularmente</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$Q$79:$Q$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$R$67</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Não</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(Sheet1!$E$79,Sheet1!$E$80,Sheet1!$E$81)</c:f>
@@ -3488,32 +4205,101 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Não</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$E$79,Sheet1!$E$80,Sheet1!$E$81)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>chegam pela primeira vez ao canil para fazer despiste de doenças</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aparentam estar doentes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>regularmente</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$79:$S$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="106788352"/>
-        <c:axId val="106789888"/>
+        <c:axId val="1251825168"/>
+        <c:axId val="1251950912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106788352"/>
+        <c:axId val="1251825168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3534,6 +4320,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3545,20 +4336,22 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106789888"/>
+        <c:crossAx val="1251950912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106789888"/>
+        <c:axId val="1251950912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3574,8 +4367,9 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3590,6 +4384,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3601,10 +4400,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106788352"/>
+        <c:crossAx val="1251825168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3618,7 +4417,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3632,6 +4431,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3643,24 +4447,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3670,14 +4468,20 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3685,7 +4489,17 @@
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-PT"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3695,6 +4509,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3713,7 +4532,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3721,18 +4540,45 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$67</c:f>
+              <c:f>Sheet1!$R$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3750,65 +4596,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Sheet1!$E$83,Sheet1!$E$84,Sheet1!$E$85)</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>entidades privadas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>serviço voluntário</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>câmara</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$Q$83:$Q$85</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$R$67</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Não</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(Sheet1!$E$83,Sheet1!$E$84,Sheet1!$E$85)</c:f>
@@ -3833,32 +4621,101 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Não</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$E$83,Sheet1!$E$84,Sheet1!$E$85)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>entidades privadas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>serviço voluntário</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>câmara</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$83:$S$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="106643840"/>
-        <c:axId val="106645376"/>
+        <c:axId val="1167303856"/>
+        <c:axId val="1167305632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106643840"/>
+        <c:axId val="1167303856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3879,6 +4736,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3890,20 +4752,22 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106645376"/>
+        <c:crossAx val="1167305632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106645376"/>
+        <c:axId val="1167305632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3919,8 +4783,9 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3935,6 +4800,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3946,10 +4816,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106643840"/>
+        <c:crossAx val="1167303856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3963,7 +4833,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3977,6 +4847,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3988,24 +4863,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4015,14 +4884,20 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4030,7 +4905,17 @@
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-PT"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4040,6 +4925,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4058,7 +4948,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4066,7 +4956,33 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -4076,6 +4992,7 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -4090,6 +5007,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -4104,7 +5022,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Q$67:$R$67</c:f>
+              <c:f>Sheet1!$R$67:$S$67</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4118,21 +5036,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$86:$R$86</c:f>
+              <c:f>Sheet1!$R$86:$S$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -4145,7 +5071,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4159,6 +5085,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4170,24 +5101,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4197,14 +5122,20 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4212,7 +5143,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-PT"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4222,6 +5163,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4235,17 +5181,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Ajuda</a:t>
+              <a:t>Ajuda monetária</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> monetária</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4253,7 +5195,33 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -4263,6 +5231,7 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -4277,6 +5246,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -4291,7 +5261,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Q$7:$R$7</c:f>
+              <c:f>Sheet1!$R$7:$S$7</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4305,21 +5275,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$10:$R$10</c:f>
+              <c:f>Sheet1!$R$10:$S$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -4333,6 +5311,7 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4346,6 +5325,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4357,24 +5341,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4384,14 +5362,20 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4399,7 +5383,17 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-PT"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4409,6 +5403,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4428,6 +5427,7 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4435,7 +5435,33 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -4445,6 +5471,7 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -4459,6 +5486,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -4473,7 +5501,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Q$7:$R$7</c:f>
+              <c:f>Sheet1!$R$7:$S$7</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4487,21 +5515,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$11:$R$11</c:f>
+              <c:f>Sheet1!$R$11:$S$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -4515,6 +5551,7 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4528,6 +5565,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4539,24 +5581,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4566,14 +5602,20 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4581,7 +5623,17 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-PT"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4591,6 +5643,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4610,6 +5667,7 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4617,7 +5675,33 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -4627,6 +5711,7 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -4641,6 +5726,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -4655,7 +5741,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Q$7:$R$7</c:f>
+              <c:f>Sheet1!$R$7:$S$7</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4669,21 +5755,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$12:$R$12</c:f>
+              <c:f>Sheet1!$R$12:$S$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -4697,6 +5791,7 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4710,6 +5805,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4721,24 +5821,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4748,14 +5842,20 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4763,7 +5863,17 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-PT"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4773,6 +5883,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4791,7 +5906,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4799,7 +5914,33 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -4809,6 +5950,7 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -4823,6 +5965,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -4837,7 +5980,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Q$7:$R$7</c:f>
+              <c:f>Sheet1!$R$7:$S$7</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4851,21 +5994,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$13:$R$13</c:f>
+              <c:f>Sheet1!$R$13:$S$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -4878,7 +6029,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4892,6 +6043,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4903,24 +6059,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4930,14 +6080,20 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4945,7 +6101,17 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-PT"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4955,6 +6121,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4973,7 +6144,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4981,7 +6152,33 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -4991,6 +6188,7 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -5005,6 +6203,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -5019,7 +6218,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Q$7:$R$7</c:f>
+              <c:f>Sheet1!$R$7:$S$7</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5033,21 +6232,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$14:$R$14</c:f>
+              <c:f>Sheet1!$R$14:$S$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -5060,7 +6267,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5074,6 +6281,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5085,24 +6297,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -5112,14 +6318,20 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5127,7 +6339,17 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-PT"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5137,6 +6359,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5155,7 +6382,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5163,7 +6390,33 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -5173,6 +6426,7 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -5187,6 +6441,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -5201,7 +6456,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Q$152:$R$152</c:f>
+              <c:f>Sheet1!$R$166:$S$166</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5215,21 +6470,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$153:$R$153</c:f>
+              <c:f>Sheet1!$R$167:$S$167</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -5242,7 +6505,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5256,6 +6519,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5267,24 +6535,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -5294,14 +6556,20 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5309,7 +6577,17 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-PT"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5319,6 +6597,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5337,7 +6620,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5345,7 +6628,33 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -5355,6 +6664,7 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -5369,6 +6679,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -5381,23 +6692,45 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$166:$S$166</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Sim</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Não</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$154:$R$154</c:f>
+              <c:f>Sheet1!$R$168:$S$168</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -5410,7 +6743,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5424,6 +6757,11 @@
         <a:p>
           <a:pPr rtl="0">
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5435,24 +6773,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -5462,14 +6794,20 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -18272,16 +19610,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>822159</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>23057</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>9803</xdr:rowOff>
+      <xdr:rowOff>66882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>11141</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>146161</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>39680</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>3464</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18302,16 +19640,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>8912</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>243751</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>94530</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>58245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1740899</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>135021</xdr:rowOff>
+      <xdr:rowOff>192100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18364,8 +19702,8 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>822156</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>243753</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1169</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -18393,13 +19731,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>822159</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>243752</xdr:rowOff>
+      <xdr:colOff>822160</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1168</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>302219</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>716641</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>179583</xdr:rowOff>
     </xdr:to>
@@ -18422,16 +19760,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>822158</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>9802</xdr:rowOff>
+      <xdr:rowOff>52611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>11140</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>146160</xdr:rowOff>
+      <xdr:rowOff>188969</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18452,16 +19790,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>822159</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>243751</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>408338</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>43975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>299662</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>135021</xdr:rowOff>
+      <xdr:rowOff>177830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18484,13 +19822,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>822159</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>243750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>135020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -18514,13 +19852,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>822158</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>243751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>11140</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>135021</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -18542,16 +19880,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>8913</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>243751</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>665317</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>29707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>135021</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>656404</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>163561</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18574,13 +19912,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>18176</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>21319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>474255</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>156926</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -18604,13 +19942,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>824786</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>12558</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>430943</xdr:colOff>
-      <xdr:row>228</xdr:row>
+      <xdr:row>242</xdr:row>
       <xdr:rowOff>158680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -18752,16 +20090,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>11415</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>240873</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>39954</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>98176</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28539</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>144410</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57078</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>44522</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18782,16 +20120,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>32820</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>240873</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>89898</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>112446</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>144410</xdr:rowOff>
+      <xdr:colOff>1712359</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>58792</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18812,16 +20150,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>824785</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>12559</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25684</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>198065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>672466</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>158680</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>815163</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18842,16 +20180,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>682089</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>240872</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>11415</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>69635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>444152</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>144409</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>20054</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>172948</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18872,16 +20210,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>824786</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>155253</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>496583</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>98174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>430943</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>58790</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>102740</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>44520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18903,15 +20241,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>425235</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>140984</xdr:rowOff>
+      <xdr:colOff>781977</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>98174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>744875</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>44521</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>273977</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>44520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18932,16 +20270,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>460910</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>240872</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>717764</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>69636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>422748</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>144409</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>565444</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>172949</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19006,7 +20344,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -19041,7 +20379,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -19218,125 +20556,126 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S215"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="89" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="89" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.875" style="1"/>
-    <col min="3" max="3" width="10.875" style="5"/>
-    <col min="4" max="10" width="10.875" style="1"/>
-    <col min="11" max="11" width="23.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.875" style="1"/>
-    <col min="13" max="15" width="17.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="10.83203125" style="5"/>
+    <col min="4" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="23.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="1"/>
+    <col min="13" max="16" width="17.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="F1" s="58" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
       <c r="M1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:18">
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
       <c r="M2" s="1">
         <v>1</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:18">
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
       <c r="M3" s="1">
         <v>0</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:18">
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="P4" s="1"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:18">
-      <c r="M5" s="57" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="57"/>
-      <c r="O5" s="56" t="s">
+      <c r="N5" s="58"/>
+      <c r="O5" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="P5" s="59" t="s">
-        <v>60</v>
+      <c r="P5" s="58" t="s">
+        <v>61</v>
       </c>
+      <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="55" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="53"/>
       <c r="L6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="53" t="s">
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="53"/>
+      <c r="S6" s="54"/>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="55"/>
-      <c r="B7" s="55"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
       <c r="L7" s="8" t="s">
         <v>1</v>
       </c>
@@ -19350,16 +20689,17 @@
         <v>59</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
-      <c r="Q7" s="23" t="s">
+      <c r="Q7" s="1"/>
+      <c r="R7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="R7" s="21" t="s">
+      <c r="S7" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="9">
         <f>1</f>
         <v>1</v>
@@ -19389,16 +20729,17 @@
       <c r="P8" s="18">
         <v>1</v>
       </c>
-      <c r="Q8" s="24">
-        <f>SUM(M8:O8)</f>
-        <v>3</v>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="24">
+        <f t="shared" ref="R8:R14" si="0">SUM(M8:Q8)</f>
+        <v>4</v>
       </c>
-      <c r="R8" s="17">
-        <f>$L$8-Q8</f>
-        <v>1</v>
+      <c r="S8" s="17">
+        <f>$L$8-R8</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="12">
         <f>C8+1</f>
         <v>2</v>
@@ -19425,16 +20766,17 @@
       <c r="P9" s="20">
         <v>1</v>
       </c>
-      <c r="Q9" s="25">
-        <f t="shared" ref="Q9:Q13" si="0">SUM(M9:P9)</f>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="25">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R9" s="19">
-        <f t="shared" ref="R9:R14" si="1">$L$8-Q9</f>
+      <c r="S9" s="19">
+        <f t="shared" ref="S9:S14" si="1">$L$8-R9</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="9">
         <f t="shared" ref="C10:C14" si="2">C9+1</f>
         <v>3</v>
@@ -19461,16 +20803,17 @@
       <c r="P10" s="18">
         <v>0</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="Q10" s="1"/>
+      <c r="R10" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="R10" s="17">
+      <c r="S10" s="17">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="12">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -19497,16 +20840,17 @@
       <c r="P11" s="20">
         <v>1</v>
       </c>
-      <c r="Q11" s="25">
+      <c r="Q11" s="1"/>
+      <c r="R11" s="25">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="R11" s="19">
+      <c r="S11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="9">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -19533,16 +20877,17 @@
       <c r="P12" s="18">
         <v>0</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12" s="1"/>
+      <c r="R12" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="R12" s="17">
+      <c r="S12" s="17">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="12">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -19569,16 +20914,17 @@
       <c r="P13" s="20">
         <v>0</v>
       </c>
-      <c r="Q13" s="25">
+      <c r="Q13" s="1"/>
+      <c r="R13" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R13" s="19">
+      <c r="S13" s="19">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="9">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -19605,43 +20951,46 @@
       <c r="P14" s="18">
         <v>1</v>
       </c>
-      <c r="Q14" s="24">
-        <f>SUM(M14:P14)</f>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="24">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R14" s="17">
+      <c r="S14" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:18">
-      <c r="Q16" s="1"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="3:15" ht="18.75">
-      <c r="C17" s="54" t="s">
+    <row r="17" spans="3:16" ht="19" x14ac:dyDescent="0.2">
+      <c r="C17" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
     </row>
-    <row r="26" spans="3:15">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
     </row>
-    <row r="33" spans="3:6" ht="18.75">
-      <c r="C33" s="54" t="s">
+    <row r="33" spans="3:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="C33" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
     </row>
-    <row r="49" spans="3:6" ht="18.75">
+    <row r="49" spans="3:6" ht="19" x14ac:dyDescent="0.2">
       <c r="C49" s="28" t="s">
         <v>17</v>
       </c>
@@ -19649,61 +20998,60 @@
       <c r="E49" s="28"/>
       <c r="F49" s="28"/>
     </row>
-    <row r="65" spans="1:19">
-      <c r="P65" s="1"/>
-    </row>
-    <row r="66" spans="1:19">
-      <c r="A66" s="55" t="s">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A66" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B66" s="55"/>
+      <c r="B66" s="53"/>
       <c r="L66" s="42" t="s">
         <v>54</v>
       </c>
       <c r="M66" s="41"/>
       <c r="N66" s="34"/>
       <c r="O66" s="34"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="53" t="s">
+      <c r="P66" s="34"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="R66" s="53"/>
-      <c r="S66" s="53"/>
+      <c r="S66" s="54"/>
+      <c r="T66" s="54"/>
     </row>
-    <row r="67" spans="1:19">
-      <c r="A67" s="55"/>
-      <c r="B67" s="55"/>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A67" s="53"/>
+      <c r="B67" s="53"/>
       <c r="C67" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="53" t="s">
+      <c r="D67" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="E67" s="53"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="53"/>
-      <c r="I67" s="53"/>
-      <c r="J67" s="53"/>
-      <c r="K67" s="53"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="54"/>
       <c r="L67" s="33">
         <v>5</v>
       </c>
       <c r="M67" s="33"/>
       <c r="N67" s="33"/>
       <c r="O67" s="33"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="23" t="s">
+      <c r="P67" s="33"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="R67" s="21" t="s">
+      <c r="S67" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="S67" s="30" t="s">
+      <c r="T67" s="30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C68" s="9">
         <f>1</f>
         <v>1</v>
@@ -19721,17 +21069,18 @@
       <c r="M68" s="33"/>
       <c r="N68" s="33"/>
       <c r="O68" s="33"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="29">
+      <c r="P68" s="33"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="29">
         <v>5</v>
       </c>
-      <c r="R68" s="17">
-        <f>$L$67-Q68</f>
+      <c r="S68" s="17">
+        <f>$L$67-R68</f>
         <v>0</v>
       </c>
-      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C69" s="12">
         <f>C68+1</f>
         <v>2</v>
@@ -19749,17 +21098,18 @@
       <c r="M69" s="33"/>
       <c r="N69" s="33"/>
       <c r="O69" s="33"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="25">
+      <c r="P69" s="33"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="25">
         <v>5</v>
       </c>
-      <c r="R69" s="19">
-        <f t="shared" ref="R69:R86" si="3">$L$67-Q69</f>
+      <c r="S69" s="19">
+        <f t="shared" ref="S69:S86" si="3">$L$67-R69</f>
         <v>0</v>
       </c>
-      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C70" s="9">
         <f t="shared" ref="C70:C77" si="4">C69+1</f>
         <v>3</v>
@@ -19777,17 +21127,18 @@
       <c r="M70" s="33"/>
       <c r="N70" s="33"/>
       <c r="O70" s="33"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="29">
+      <c r="P70" s="33"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="29">
         <v>4</v>
       </c>
-      <c r="R70" s="17">
+      <c r="S70" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C71" s="12">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -19805,17 +21156,18 @@
       <c r="M71" s="33"/>
       <c r="N71" s="33"/>
       <c r="O71" s="33"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="25">
+      <c r="P71" s="33"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="25">
         <v>5</v>
       </c>
-      <c r="R71" s="19">
+      <c r="S71" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C72" s="9">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -19833,17 +21185,18 @@
       <c r="M72" s="33"/>
       <c r="N72" s="33"/>
       <c r="O72" s="33"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="29">
+      <c r="P72" s="33"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="29">
         <v>5</v>
       </c>
-      <c r="R72" s="17">
+      <c r="S72" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C73" s="12">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -19861,17 +21214,18 @@
       <c r="M73" s="33"/>
       <c r="N73" s="33"/>
       <c r="O73" s="33"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="25">
+      <c r="P73" s="33"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="25">
         <v>4</v>
       </c>
-      <c r="R73" s="19">
+      <c r="S73" s="19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C74" s="9">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -19889,16 +21243,18 @@
       <c r="M74" s="33"/>
       <c r="N74" s="33"/>
       <c r="O74" s="33"/>
-      <c r="Q74" s="29">
+      <c r="P74" s="33"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="29">
         <v>0</v>
       </c>
-      <c r="R74" s="17">
+      <c r="S74" s="17">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C75" s="12">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -19916,16 +21272,17 @@
       <c r="M75" s="33"/>
       <c r="N75" s="33"/>
       <c r="O75" s="33"/>
-      <c r="Q75" s="52">
+      <c r="P75" s="33"/>
+      <c r="R75" s="52">
         <v>4</v>
       </c>
-      <c r="R75" s="19">
+      <c r="S75" s="19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C76" s="9">
         <f>C75+1</f>
         <v>9</v>
@@ -19943,13 +21300,14 @@
       <c r="M76" s="33"/>
       <c r="N76" s="33"/>
       <c r="O76" s="33"/>
-      <c r="Q76" s="51"/>
-      <c r="R76" s="33"/>
-      <c r="S76" s="31">
+      <c r="P76" s="33"/>
+      <c r="R76" s="51"/>
+      <c r="S76" s="33"/>
+      <c r="T76" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C77" s="12">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -19967,14 +21325,14 @@
       <c r="M77" s="33"/>
       <c r="N77" s="33"/>
       <c r="O77" s="33"/>
-      <c r="P77" s="45"/>
-      <c r="Q77" s="51"/>
-      <c r="R77" s="33"/>
-      <c r="S77" s="32">
+      <c r="P77" s="33"/>
+      <c r="R77" s="51"/>
+      <c r="S77" s="33"/>
+      <c r="T77" s="32">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C78" s="9"/>
       <c r="D78" s="16" t="s">
         <v>35</v>
@@ -19989,11 +21347,13 @@
       <c r="M78" s="33"/>
       <c r="N78" s="33"/>
       <c r="O78" s="33"/>
-      <c r="Q78" s="51"/>
-      <c r="R78" s="33"/>
-      <c r="S78" s="1"/>
+      <c r="P78" s="33"/>
+      <c r="Q78" s="45"/>
+      <c r="R78" s="51"/>
+      <c r="S78" s="33"/>
+      <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C79" s="12">
         <v>11</v>
       </c>
@@ -20010,16 +21370,17 @@
       <c r="M79" s="33"/>
       <c r="N79" s="33"/>
       <c r="O79" s="33"/>
-      <c r="Q79" s="52">
+      <c r="P79" s="33"/>
+      <c r="R79" s="52">
         <v>2</v>
       </c>
-      <c r="R79" s="19">
+      <c r="S79" s="19">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C80" s="9">
         <f>C79+1</f>
         <v>12</v>
@@ -20037,16 +21398,17 @@
       <c r="M80" s="33"/>
       <c r="N80" s="33"/>
       <c r="O80" s="33"/>
-      <c r="Q80" s="50">
+      <c r="P80" s="33"/>
+      <c r="R80" s="50">
         <v>4</v>
       </c>
-      <c r="R80" s="17">
+      <c r="S80" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="3:19">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="12">
         <f>C80+1</f>
         <v>13</v>
@@ -20064,17 +21426,17 @@
       <c r="M81" s="33"/>
       <c r="N81" s="33"/>
       <c r="O81" s="33"/>
-      <c r="P81" s="45"/>
-      <c r="Q81" s="52">
+      <c r="P81" s="33"/>
+      <c r="R81" s="52">
         <v>1</v>
       </c>
-      <c r="R81" s="19">
+      <c r="S81" s="19">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="3:19">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="9"/>
       <c r="D82" s="16" t="s">
         <v>36</v>
@@ -20089,11 +21451,13 @@
       <c r="M82" s="33"/>
       <c r="N82" s="33"/>
       <c r="O82" s="33"/>
-      <c r="Q82" s="51"/>
-      <c r="R82" s="33"/>
-      <c r="S82" s="1"/>
+      <c r="P82" s="33"/>
+      <c r="Q82" s="45"/>
+      <c r="R82" s="51"/>
+      <c r="S82" s="33"/>
+      <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="3:19">
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="12">
         <v>14</v>
       </c>
@@ -20110,16 +21474,17 @@
       <c r="M83" s="33"/>
       <c r="N83" s="33"/>
       <c r="O83" s="33"/>
-      <c r="Q83" s="52">
+      <c r="P83" s="33"/>
+      <c r="R83" s="52">
         <v>3</v>
       </c>
-      <c r="R83" s="19">
+      <c r="S83" s="19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="3:19">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="9">
         <f>C83+1</f>
         <v>15</v>
@@ -20137,16 +21502,17 @@
       <c r="M84" s="33"/>
       <c r="N84" s="33"/>
       <c r="O84" s="33"/>
-      <c r="Q84" s="50">
+      <c r="P84" s="33"/>
+      <c r="R84" s="50">
         <v>1</v>
       </c>
-      <c r="R84" s="17">
+      <c r="S84" s="17">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="3:19">
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="12">
         <f>C84+1</f>
         <v>16</v>
@@ -20164,16 +21530,17 @@
       <c r="M85" s="33"/>
       <c r="N85" s="33"/>
       <c r="O85" s="33"/>
-      <c r="Q85" s="52">
+      <c r="P85" s="33"/>
+      <c r="R85" s="52">
         <v>4</v>
       </c>
-      <c r="R85" s="19">
+      <c r="S85" s="19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="3:19">
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="9">
         <f>C85+1</f>
         <v>17</v>
@@ -20191,17 +21558,17 @@
       <c r="M86" s="33"/>
       <c r="N86" s="33"/>
       <c r="O86" s="33"/>
-      <c r="P86" s="51"/>
-      <c r="Q86" s="50">
+      <c r="P86" s="33"/>
+      <c r="R86" s="50">
         <v>0</v>
       </c>
-      <c r="R86" s="17">
+      <c r="S86" s="17">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="3:19">
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="33"/>
       <c r="D87" s="33"/>
       <c r="E87" s="33"/>
@@ -20215,17 +21582,18 @@
       <c r="M87" s="33"/>
       <c r="N87" s="33"/>
       <c r="O87" s="33"/>
-      <c r="P87" s="51"/>
+      <c r="P87" s="33"/>
       <c r="Q87" s="51"/>
       <c r="R87" s="51"/>
-      <c r="S87" s="1"/>
+      <c r="S87" s="51"/>
+      <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="3:19" ht="18.75">
-      <c r="C88" s="54" t="s">
+    <row r="88" spans="3:20" ht="19" x14ac:dyDescent="0.2">
+      <c r="C88" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="54"/>
-      <c r="E88" s="54"/>
+      <c r="D88" s="55"/>
+      <c r="E88" s="55"/>
       <c r="G88" s="33"/>
       <c r="H88" s="33"/>
       <c r="I88" s="33"/>
@@ -20235,12 +21603,13 @@
       <c r="M88" s="33"/>
       <c r="N88" s="33"/>
       <c r="O88" s="33"/>
-      <c r="P88" s="51"/>
+      <c r="P88" s="33"/>
       <c r="Q88" s="51"/>
       <c r="R88" s="51"/>
-      <c r="S88" s="1"/>
+      <c r="S88" s="51"/>
+      <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="3:19">
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="G89" s="33"/>
       <c r="H89" s="33"/>
       <c r="I89" s="33"/>
@@ -20250,12 +21619,13 @@
       <c r="M89" s="33"/>
       <c r="N89" s="33"/>
       <c r="O89" s="33"/>
-      <c r="P89" s="51"/>
+      <c r="P89" s="33"/>
       <c r="Q89" s="51"/>
       <c r="R89" s="51"/>
-      <c r="S89" s="1"/>
+      <c r="S89" s="51"/>
+      <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="3:19">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="G90" s="33"/>
       <c r="H90" s="33"/>
       <c r="I90" s="33"/>
@@ -20265,12 +21635,13 @@
       <c r="M90" s="33"/>
       <c r="N90" s="33"/>
       <c r="O90" s="33"/>
-      <c r="P90" s="51"/>
+      <c r="P90" s="33"/>
       <c r="Q90" s="51"/>
       <c r="R90" s="51"/>
-      <c r="S90" s="1"/>
+      <c r="S90" s="51"/>
+      <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="3:19">
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="G91" s="33"/>
       <c r="H91" s="33"/>
       <c r="I91" s="33"/>
@@ -20280,12 +21651,13 @@
       <c r="M91" s="33"/>
       <c r="N91" s="33"/>
       <c r="O91" s="33"/>
-      <c r="P91" s="51"/>
+      <c r="P91" s="33"/>
       <c r="Q91" s="51"/>
       <c r="R91" s="51"/>
-      <c r="S91" s="1"/>
+      <c r="S91" s="51"/>
+      <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="3:19">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="G92" s="33"/>
       <c r="H92" s="33"/>
       <c r="I92" s="33"/>
@@ -20295,12 +21667,13 @@
       <c r="M92" s="33"/>
       <c r="N92" s="33"/>
       <c r="O92" s="33"/>
-      <c r="P92" s="51"/>
+      <c r="P92" s="33"/>
       <c r="Q92" s="51"/>
       <c r="R92" s="51"/>
-      <c r="S92" s="1"/>
+      <c r="S92" s="51"/>
+      <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="3:19">
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="G93" s="33"/>
       <c r="H93" s="33"/>
       <c r="I93" s="33"/>
@@ -20310,12 +21683,13 @@
       <c r="M93" s="33"/>
       <c r="N93" s="33"/>
       <c r="O93" s="33"/>
-      <c r="P93" s="51"/>
+      <c r="P93" s="33"/>
       <c r="Q93" s="51"/>
       <c r="R93" s="51"/>
-      <c r="S93" s="1"/>
+      <c r="S93" s="51"/>
+      <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="3:19">
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="G94" s="33"/>
       <c r="H94" s="33"/>
       <c r="I94" s="33"/>
@@ -20325,12 +21699,13 @@
       <c r="M94" s="33"/>
       <c r="N94" s="33"/>
       <c r="O94" s="33"/>
-      <c r="P94" s="51"/>
+      <c r="P94" s="33"/>
       <c r="Q94" s="51"/>
       <c r="R94" s="51"/>
-      <c r="S94" s="1"/>
+      <c r="S94" s="51"/>
+      <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="3:19">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="G95" s="33"/>
       <c r="H95" s="33"/>
       <c r="I95" s="33"/>
@@ -20340,12 +21715,13 @@
       <c r="M95" s="33"/>
       <c r="N95" s="33"/>
       <c r="O95" s="33"/>
-      <c r="P95" s="51"/>
+      <c r="P95" s="33"/>
       <c r="Q95" s="51"/>
       <c r="R95" s="51"/>
-      <c r="S95" s="1"/>
+      <c r="S95" s="51"/>
+      <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="3:19">
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="G96" s="33"/>
       <c r="H96" s="33"/>
       <c r="I96" s="33"/>
@@ -20355,12 +21731,13 @@
       <c r="M96" s="33"/>
       <c r="N96" s="33"/>
       <c r="O96" s="33"/>
-      <c r="P96" s="51"/>
+      <c r="P96" s="33"/>
       <c r="Q96" s="51"/>
       <c r="R96" s="51"/>
-      <c r="S96" s="1"/>
+      <c r="S96" s="51"/>
+      <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="3:19">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="G97" s="33"/>
       <c r="H97" s="33"/>
       <c r="I97" s="33"/>
@@ -20370,12 +21747,13 @@
       <c r="M97" s="33"/>
       <c r="N97" s="33"/>
       <c r="O97" s="33"/>
-      <c r="P97" s="51"/>
+      <c r="P97" s="33"/>
       <c r="Q97" s="51"/>
       <c r="R97" s="51"/>
-      <c r="S97" s="1"/>
+      <c r="S97" s="51"/>
+      <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="3:19">
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="G98" s="33"/>
       <c r="H98" s="33"/>
       <c r="I98" s="33"/>
@@ -20385,12 +21763,13 @@
       <c r="M98" s="33"/>
       <c r="N98" s="33"/>
       <c r="O98" s="33"/>
-      <c r="P98" s="51"/>
+      <c r="P98" s="33"/>
       <c r="Q98" s="51"/>
       <c r="R98" s="51"/>
-      <c r="S98" s="1"/>
+      <c r="S98" s="51"/>
+      <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="3:19">
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="G99" s="33"/>
       <c r="H99" s="33"/>
       <c r="I99" s="33"/>
@@ -20400,12 +21779,13 @@
       <c r="M99" s="33"/>
       <c r="N99" s="33"/>
       <c r="O99" s="33"/>
-      <c r="P99" s="51"/>
+      <c r="P99" s="33"/>
       <c r="Q99" s="51"/>
       <c r="R99" s="51"/>
-      <c r="S99" s="1"/>
+      <c r="S99" s="51"/>
+      <c r="T99" s="1"/>
     </row>
-    <row r="100" spans="3:19">
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="G100" s="33"/>
       <c r="H100" s="33"/>
       <c r="I100" s="33"/>
@@ -20415,12 +21795,13 @@
       <c r="M100" s="33"/>
       <c r="N100" s="33"/>
       <c r="O100" s="33"/>
-      <c r="P100" s="51"/>
+      <c r="P100" s="33"/>
       <c r="Q100" s="51"/>
       <c r="R100" s="51"/>
-      <c r="S100" s="1"/>
+      <c r="S100" s="51"/>
+      <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="3:19">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="G101" s="33"/>
       <c r="H101" s="33"/>
       <c r="I101" s="33"/>
@@ -20430,12 +21811,13 @@
       <c r="M101" s="33"/>
       <c r="N101" s="33"/>
       <c r="O101" s="33"/>
-      <c r="P101" s="51"/>
+      <c r="P101" s="33"/>
       <c r="Q101" s="51"/>
       <c r="R101" s="51"/>
-      <c r="S101" s="1"/>
+      <c r="S101" s="51"/>
+      <c r="T101" s="1"/>
     </row>
-    <row r="102" spans="3:19">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="G102" s="33"/>
       <c r="H102" s="33"/>
       <c r="I102" s="33"/>
@@ -20445,12 +21827,13 @@
       <c r="M102" s="33"/>
       <c r="N102" s="33"/>
       <c r="O102" s="33"/>
-      <c r="P102" s="51"/>
+      <c r="P102" s="33"/>
       <c r="Q102" s="51"/>
       <c r="R102" s="51"/>
-      <c r="S102" s="1"/>
+      <c r="S102" s="51"/>
+      <c r="T102" s="1"/>
     </row>
-    <row r="103" spans="3:19">
+    <row r="103" spans="3:20" x14ac:dyDescent="0.2">
       <c r="G103" s="33"/>
       <c r="H103" s="33"/>
       <c r="I103" s="33"/>
@@ -20460,18 +21843,19 @@
       <c r="M103" s="33"/>
       <c r="N103" s="33"/>
       <c r="O103" s="33"/>
-      <c r="P103" s="51"/>
+      <c r="P103" s="33"/>
       <c r="Q103" s="51"/>
       <c r="R103" s="51"/>
-      <c r="S103" s="1"/>
+      <c r="S103" s="51"/>
+      <c r="T103" s="1"/>
     </row>
-    <row r="104" spans="3:19" ht="18.75">
-      <c r="C104" s="54" t="s">
+    <row r="104" spans="3:20" ht="19" x14ac:dyDescent="0.2">
+      <c r="C104" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D104" s="54"/>
-      <c r="E104" s="54"/>
-      <c r="F104" s="54"/>
+      <c r="D104" s="55"/>
+      <c r="E104" s="55"/>
+      <c r="F104" s="55"/>
       <c r="G104" s="33"/>
       <c r="H104" s="33"/>
       <c r="I104" s="33"/>
@@ -20481,12 +21865,13 @@
       <c r="M104" s="33"/>
       <c r="N104" s="33"/>
       <c r="O104" s="33"/>
-      <c r="P104" s="51"/>
+      <c r="P104" s="33"/>
       <c r="Q104" s="51"/>
       <c r="R104" s="51"/>
-      <c r="S104" s="1"/>
+      <c r="S104" s="51"/>
+      <c r="T104" s="1"/>
     </row>
-    <row r="105" spans="3:19">
+    <row r="105" spans="3:20" x14ac:dyDescent="0.2">
       <c r="G105" s="33"/>
       <c r="H105" s="33"/>
       <c r="I105" s="33"/>
@@ -20496,12 +21881,13 @@
       <c r="M105" s="33"/>
       <c r="N105" s="33"/>
       <c r="O105" s="33"/>
-      <c r="P105" s="51"/>
+      <c r="P105" s="33"/>
       <c r="Q105" s="51"/>
       <c r="R105" s="51"/>
-      <c r="S105" s="1"/>
+      <c r="S105" s="51"/>
+      <c r="T105" s="1"/>
     </row>
-    <row r="106" spans="3:19">
+    <row r="106" spans="3:20" x14ac:dyDescent="0.2">
       <c r="G106" s="33"/>
       <c r="H106" s="33"/>
       <c r="I106" s="33"/>
@@ -20511,12 +21897,13 @@
       <c r="M106" s="33"/>
       <c r="N106" s="33"/>
       <c r="O106" s="33"/>
-      <c r="P106" s="51"/>
+      <c r="P106" s="33"/>
       <c r="Q106" s="51"/>
       <c r="R106" s="51"/>
-      <c r="S106" s="1"/>
+      <c r="S106" s="51"/>
+      <c r="T106" s="1"/>
     </row>
-    <row r="107" spans="3:19">
+    <row r="107" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C107" s="33"/>
       <c r="D107" s="33"/>
       <c r="E107" s="33"/>
@@ -20530,12 +21917,13 @@
       <c r="M107" s="33"/>
       <c r="N107" s="33"/>
       <c r="O107" s="33"/>
-      <c r="P107" s="51"/>
+      <c r="P107" s="33"/>
       <c r="Q107" s="51"/>
       <c r="R107" s="51"/>
-      <c r="S107" s="1"/>
+      <c r="S107" s="51"/>
+      <c r="T107" s="1"/>
     </row>
-    <row r="108" spans="3:19">
+    <row r="108" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C108" s="33"/>
       <c r="D108" s="33"/>
       <c r="E108" s="33"/>
@@ -20549,12 +21937,13 @@
       <c r="M108" s="33"/>
       <c r="N108" s="33"/>
       <c r="O108" s="33"/>
-      <c r="P108" s="51"/>
+      <c r="P108" s="33"/>
       <c r="Q108" s="51"/>
       <c r="R108" s="51"/>
-      <c r="S108" s="1"/>
+      <c r="S108" s="51"/>
+      <c r="T108" s="1"/>
     </row>
-    <row r="109" spans="3:19">
+    <row r="109" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C109" s="33"/>
       <c r="D109" s="33"/>
       <c r="E109" s="33"/>
@@ -20568,12 +21957,13 @@
       <c r="M109" s="33"/>
       <c r="N109" s="33"/>
       <c r="O109" s="33"/>
-      <c r="P109" s="51"/>
+      <c r="P109" s="33"/>
       <c r="Q109" s="51"/>
       <c r="R109" s="51"/>
-      <c r="S109" s="1"/>
+      <c r="S109" s="51"/>
+      <c r="T109" s="1"/>
     </row>
-    <row r="110" spans="3:19">
+    <row r="110" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C110" s="33"/>
       <c r="D110" s="33"/>
       <c r="E110" s="33"/>
@@ -20587,12 +21977,13 @@
       <c r="M110" s="33"/>
       <c r="N110" s="33"/>
       <c r="O110" s="33"/>
-      <c r="P110" s="51"/>
+      <c r="P110" s="33"/>
       <c r="Q110" s="51"/>
       <c r="R110" s="51"/>
-      <c r="S110" s="1"/>
+      <c r="S110" s="51"/>
+      <c r="T110" s="1"/>
     </row>
-    <row r="111" spans="3:19">
+    <row r="111" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C111" s="33"/>
       <c r="D111" s="33"/>
       <c r="E111" s="33"/>
@@ -20606,12 +21997,13 @@
       <c r="M111" s="33"/>
       <c r="N111" s="33"/>
       <c r="O111" s="33"/>
-      <c r="P111" s="51"/>
+      <c r="P111" s="33"/>
       <c r="Q111" s="51"/>
       <c r="R111" s="51"/>
-      <c r="S111" s="1"/>
+      <c r="S111" s="51"/>
+      <c r="T111" s="1"/>
     </row>
-    <row r="112" spans="3:19">
+    <row r="112" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C112" s="33"/>
       <c r="D112" s="33"/>
       <c r="E112" s="33"/>
@@ -20625,12 +22017,13 @@
       <c r="M112" s="33"/>
       <c r="N112" s="33"/>
       <c r="O112" s="33"/>
-      <c r="P112" s="51"/>
+      <c r="P112" s="33"/>
       <c r="Q112" s="51"/>
       <c r="R112" s="51"/>
-      <c r="S112" s="1"/>
+      <c r="S112" s="51"/>
+      <c r="T112" s="1"/>
     </row>
-    <row r="113" spans="3:19">
+    <row r="113" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C113" s="33"/>
       <c r="D113" s="33"/>
       <c r="E113" s="33"/>
@@ -20644,12 +22037,13 @@
       <c r="M113" s="33"/>
       <c r="N113" s="33"/>
       <c r="O113" s="33"/>
-      <c r="P113" s="51"/>
+      <c r="P113" s="33"/>
       <c r="Q113" s="51"/>
       <c r="R113" s="51"/>
-      <c r="S113" s="1"/>
+      <c r="S113" s="51"/>
+      <c r="T113" s="1"/>
     </row>
-    <row r="114" spans="3:19">
+    <row r="114" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C114" s="33"/>
       <c r="D114" s="33"/>
       <c r="E114" s="33"/>
@@ -20663,12 +22057,13 @@
       <c r="M114" s="33"/>
       <c r="N114" s="33"/>
       <c r="O114" s="33"/>
-      <c r="P114" s="51"/>
+      <c r="P114" s="33"/>
       <c r="Q114" s="51"/>
       <c r="R114" s="51"/>
-      <c r="S114" s="1"/>
+      <c r="S114" s="51"/>
+      <c r="T114" s="1"/>
     </row>
-    <row r="115" spans="3:19">
+    <row r="115" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C115" s="33"/>
       <c r="D115" s="33"/>
       <c r="E115" s="33"/>
@@ -20682,12 +22077,13 @@
       <c r="M115" s="33"/>
       <c r="N115" s="33"/>
       <c r="O115" s="33"/>
-      <c r="P115" s="51"/>
+      <c r="P115" s="33"/>
       <c r="Q115" s="51"/>
       <c r="R115" s="51"/>
-      <c r="S115" s="1"/>
+      <c r="S115" s="51"/>
+      <c r="T115" s="1"/>
     </row>
-    <row r="116" spans="3:19">
+    <row r="116" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C116" s="33"/>
       <c r="D116" s="33"/>
       <c r="E116" s="33"/>
@@ -20701,12 +22097,13 @@
       <c r="M116" s="33"/>
       <c r="N116" s="33"/>
       <c r="O116" s="33"/>
-      <c r="P116" s="51"/>
+      <c r="P116" s="33"/>
       <c r="Q116" s="51"/>
       <c r="R116" s="51"/>
-      <c r="S116" s="1"/>
+      <c r="S116" s="51"/>
+      <c r="T116" s="1"/>
     </row>
-    <row r="117" spans="3:19">
+    <row r="117" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C117" s="33"/>
       <c r="D117" s="33"/>
       <c r="E117" s="33"/>
@@ -20720,12 +22117,13 @@
       <c r="M117" s="33"/>
       <c r="N117" s="33"/>
       <c r="O117" s="33"/>
-      <c r="P117" s="51"/>
+      <c r="P117" s="33"/>
       <c r="Q117" s="51"/>
       <c r="R117" s="51"/>
-      <c r="S117" s="1"/>
+      <c r="S117" s="51"/>
+      <c r="T117" s="1"/>
     </row>
-    <row r="118" spans="3:19">
+    <row r="118" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C118" s="33"/>
       <c r="D118" s="33"/>
       <c r="E118" s="33"/>
@@ -20739,12 +22137,13 @@
       <c r="M118" s="33"/>
       <c r="N118" s="33"/>
       <c r="O118" s="33"/>
-      <c r="P118" s="51"/>
+      <c r="P118" s="33"/>
       <c r="Q118" s="51"/>
       <c r="R118" s="51"/>
-      <c r="S118" s="1"/>
+      <c r="S118" s="51"/>
+      <c r="T118" s="1"/>
     </row>
-    <row r="119" spans="3:19">
+    <row r="119" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C119" s="33"/>
       <c r="D119" s="33"/>
       <c r="E119" s="33"/>
@@ -20758,12 +22157,13 @@
       <c r="M119" s="33"/>
       <c r="N119" s="33"/>
       <c r="O119" s="33"/>
-      <c r="P119" s="51"/>
+      <c r="P119" s="33"/>
       <c r="Q119" s="51"/>
       <c r="R119" s="51"/>
-      <c r="S119" s="1"/>
+      <c r="S119" s="51"/>
+      <c r="T119" s="1"/>
     </row>
-    <row r="120" spans="3:19" ht="18.75">
+    <row r="120" spans="3:20" ht="19" x14ac:dyDescent="0.2">
       <c r="C120" s="46" t="s">
         <v>55</v>
       </c>
@@ -20779,12 +22179,13 @@
       <c r="M120" s="33"/>
       <c r="N120" s="33"/>
       <c r="O120" s="33"/>
-      <c r="P120" s="51"/>
+      <c r="P120" s="33"/>
       <c r="Q120" s="51"/>
       <c r="R120" s="51"/>
-      <c r="S120" s="1"/>
+      <c r="S120" s="51"/>
+      <c r="T120" s="1"/>
     </row>
-    <row r="121" spans="3:19">
+    <row r="121" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C121" s="33"/>
       <c r="D121" s="33"/>
       <c r="E121" s="33"/>
@@ -20798,12 +22199,13 @@
       <c r="M121" s="33"/>
       <c r="N121" s="33"/>
       <c r="O121" s="33"/>
-      <c r="P121" s="51"/>
+      <c r="P121" s="33"/>
       <c r="Q121" s="51"/>
       <c r="R121" s="51"/>
-      <c r="S121" s="1"/>
+      <c r="S121" s="51"/>
+      <c r="T121" s="1"/>
     </row>
-    <row r="122" spans="3:19">
+    <row r="122" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C122" s="33"/>
       <c r="D122" s="33"/>
       <c r="E122" s="33"/>
@@ -20817,12 +22219,13 @@
       <c r="M122" s="33"/>
       <c r="N122" s="33"/>
       <c r="O122" s="33"/>
-      <c r="P122" s="51"/>
+      <c r="P122" s="33"/>
       <c r="Q122" s="51"/>
       <c r="R122" s="51"/>
-      <c r="S122" s="1"/>
+      <c r="S122" s="51"/>
+      <c r="T122" s="1"/>
     </row>
-    <row r="123" spans="3:19">
+    <row r="123" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C123" s="33"/>
       <c r="D123" s="33"/>
       <c r="E123" s="33"/>
@@ -20836,12 +22239,13 @@
       <c r="M123" s="33"/>
       <c r="N123" s="33"/>
       <c r="O123" s="33"/>
-      <c r="P123" s="51"/>
+      <c r="P123" s="33"/>
       <c r="Q123" s="51"/>
       <c r="R123" s="51"/>
-      <c r="S123" s="1"/>
+      <c r="S123" s="51"/>
+      <c r="T123" s="1"/>
     </row>
-    <row r="124" spans="3:19">
+    <row r="124" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C124" s="33"/>
       <c r="D124" s="33"/>
       <c r="E124" s="33"/>
@@ -20855,12 +22259,13 @@
       <c r="M124" s="33"/>
       <c r="N124" s="33"/>
       <c r="O124" s="33"/>
-      <c r="P124" s="51"/>
+      <c r="P124" s="33"/>
       <c r="Q124" s="51"/>
       <c r="R124" s="51"/>
-      <c r="S124" s="1"/>
+      <c r="S124" s="51"/>
+      <c r="T124" s="1"/>
     </row>
-    <row r="125" spans="3:19">
+    <row r="125" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C125" s="33"/>
       <c r="D125" s="33"/>
       <c r="E125" s="33"/>
@@ -20874,12 +22279,13 @@
       <c r="M125" s="33"/>
       <c r="N125" s="33"/>
       <c r="O125" s="33"/>
-      <c r="P125" s="51"/>
+      <c r="P125" s="33"/>
       <c r="Q125" s="51"/>
       <c r="R125" s="51"/>
-      <c r="S125" s="1"/>
+      <c r="S125" s="51"/>
+      <c r="T125" s="1"/>
     </row>
-    <row r="126" spans="3:19">
+    <row r="126" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C126" s="33"/>
       <c r="D126" s="33"/>
       <c r="E126" s="33"/>
@@ -20893,12 +22299,13 @@
       <c r="M126" s="33"/>
       <c r="N126" s="33"/>
       <c r="O126" s="33"/>
-      <c r="P126" s="51"/>
+      <c r="P126" s="33"/>
       <c r="Q126" s="51"/>
       <c r="R126" s="51"/>
-      <c r="S126" s="1"/>
+      <c r="S126" s="51"/>
+      <c r="T126" s="1"/>
     </row>
-    <row r="127" spans="3:19">
+    <row r="127" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C127" s="33"/>
       <c r="D127" s="33"/>
       <c r="E127" s="33"/>
@@ -20912,12 +22319,13 @@
       <c r="M127" s="33"/>
       <c r="N127" s="33"/>
       <c r="O127" s="33"/>
-      <c r="P127" s="51"/>
+      <c r="P127" s="33"/>
       <c r="Q127" s="51"/>
       <c r="R127" s="51"/>
-      <c r="S127" s="1"/>
+      <c r="S127" s="51"/>
+      <c r="T127" s="1"/>
     </row>
-    <row r="128" spans="3:19">
+    <row r="128" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C128" s="33"/>
       <c r="D128" s="33"/>
       <c r="E128" s="33"/>
@@ -20931,12 +22339,13 @@
       <c r="M128" s="33"/>
       <c r="N128" s="33"/>
       <c r="O128" s="33"/>
-      <c r="P128" s="51"/>
+      <c r="P128" s="33"/>
       <c r="Q128" s="51"/>
       <c r="R128" s="51"/>
-      <c r="S128" s="1"/>
+      <c r="S128" s="51"/>
+      <c r="T128" s="1"/>
     </row>
-    <row r="129" spans="3:19">
+    <row r="129" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C129" s="33"/>
       <c r="D129" s="33"/>
       <c r="E129" s="33"/>
@@ -20950,12 +22359,13 @@
       <c r="M129" s="33"/>
       <c r="N129" s="33"/>
       <c r="O129" s="33"/>
-      <c r="P129" s="51"/>
+      <c r="P129" s="33"/>
       <c r="Q129" s="51"/>
       <c r="R129" s="51"/>
-      <c r="S129" s="1"/>
+      <c r="S129" s="51"/>
+      <c r="T129" s="1"/>
     </row>
-    <row r="130" spans="3:19">
+    <row r="130" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C130" s="33"/>
       <c r="D130" s="33"/>
       <c r="E130" s="33"/>
@@ -20969,12 +22379,13 @@
       <c r="M130" s="33"/>
       <c r="N130" s="33"/>
       <c r="O130" s="33"/>
-      <c r="P130" s="51"/>
+      <c r="P130" s="33"/>
       <c r="Q130" s="51"/>
       <c r="R130" s="51"/>
-      <c r="S130" s="1"/>
+      <c r="S130" s="51"/>
+      <c r="T130" s="1"/>
     </row>
-    <row r="131" spans="3:19">
+    <row r="131" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C131" s="33"/>
       <c r="D131" s="33"/>
       <c r="E131" s="33"/>
@@ -20988,12 +22399,13 @@
       <c r="M131" s="33"/>
       <c r="N131" s="33"/>
       <c r="O131" s="33"/>
-      <c r="P131" s="51"/>
+      <c r="P131" s="33"/>
       <c r="Q131" s="51"/>
       <c r="R131" s="51"/>
-      <c r="S131" s="1"/>
+      <c r="S131" s="51"/>
+      <c r="T131" s="1"/>
     </row>
-    <row r="132" spans="3:19">
+    <row r="132" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C132" s="33"/>
       <c r="D132" s="33"/>
       <c r="E132" s="33"/>
@@ -21007,12 +22419,13 @@
       <c r="M132" s="33"/>
       <c r="N132" s="33"/>
       <c r="O132" s="33"/>
-      <c r="P132" s="51"/>
+      <c r="P132" s="33"/>
       <c r="Q132" s="51"/>
       <c r="R132" s="51"/>
-      <c r="S132" s="1"/>
+      <c r="S132" s="51"/>
+      <c r="T132" s="1"/>
     </row>
-    <row r="133" spans="3:19">
+    <row r="133" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C133" s="33"/>
       <c r="D133" s="33"/>
       <c r="E133" s="33"/>
@@ -21026,12 +22439,13 @@
       <c r="M133" s="33"/>
       <c r="N133" s="33"/>
       <c r="O133" s="33"/>
-      <c r="P133" s="51"/>
+      <c r="P133" s="33"/>
       <c r="Q133" s="51"/>
       <c r="R133" s="51"/>
-      <c r="S133" s="1"/>
+      <c r="S133" s="51"/>
+      <c r="T133" s="1"/>
     </row>
-    <row r="134" spans="3:19">
+    <row r="134" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C134" s="33"/>
       <c r="D134" s="33"/>
       <c r="E134" s="33"/>
@@ -21045,12 +22459,13 @@
       <c r="M134" s="33"/>
       <c r="N134" s="33"/>
       <c r="O134" s="33"/>
-      <c r="P134" s="51"/>
+      <c r="P134" s="33"/>
       <c r="Q134" s="51"/>
       <c r="R134" s="51"/>
-      <c r="S134" s="1"/>
+      <c r="S134" s="51"/>
+      <c r="T134" s="1"/>
     </row>
-    <row r="135" spans="3:19">
+    <row r="135" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C135" s="33"/>
       <c r="D135" s="33"/>
       <c r="E135" s="33"/>
@@ -21064,12 +22479,13 @@
       <c r="M135" s="33"/>
       <c r="N135" s="33"/>
       <c r="O135" s="33"/>
-      <c r="P135" s="51"/>
+      <c r="P135" s="33"/>
       <c r="Q135" s="51"/>
       <c r="R135" s="51"/>
-      <c r="S135" s="1"/>
+      <c r="S135" s="51"/>
+      <c r="T135" s="1"/>
     </row>
-    <row r="136" spans="3:19" ht="18.75">
+    <row r="136" spans="3:20" ht="19" x14ac:dyDescent="0.2">
       <c r="C136" s="46"/>
       <c r="D136" s="33"/>
       <c r="E136" s="33"/>
@@ -21083,12 +22499,13 @@
       <c r="M136" s="33"/>
       <c r="N136" s="33"/>
       <c r="O136" s="33"/>
-      <c r="P136" s="51"/>
+      <c r="P136" s="33"/>
       <c r="Q136" s="51"/>
       <c r="R136" s="51"/>
-      <c r="S136" s="1"/>
+      <c r="S136" s="51"/>
+      <c r="T136" s="1"/>
     </row>
-    <row r="137" spans="3:19">
+    <row r="137" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C137" s="33"/>
       <c r="D137" s="33"/>
       <c r="E137" s="33"/>
@@ -21102,12 +22519,13 @@
       <c r="M137" s="33"/>
       <c r="N137" s="33"/>
       <c r="O137" s="33"/>
-      <c r="P137" s="51"/>
+      <c r="P137" s="33"/>
       <c r="Q137" s="51"/>
       <c r="R137" s="51"/>
-      <c r="S137" s="1"/>
+      <c r="S137" s="51"/>
+      <c r="T137" s="1"/>
     </row>
-    <row r="138" spans="3:19">
+    <row r="138" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C138" s="33"/>
       <c r="D138" s="33"/>
       <c r="E138" s="33"/>
@@ -21121,12 +22539,13 @@
       <c r="M138" s="33"/>
       <c r="N138" s="33"/>
       <c r="O138" s="33"/>
-      <c r="P138" s="51"/>
+      <c r="P138" s="33"/>
       <c r="Q138" s="51"/>
       <c r="R138" s="51"/>
-      <c r="S138" s="1"/>
+      <c r="S138" s="51"/>
+      <c r="T138" s="1"/>
     </row>
-    <row r="139" spans="3:19">
+    <row r="139" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C139" s="33"/>
       <c r="D139" s="33"/>
       <c r="E139" s="33"/>
@@ -21140,12 +22559,13 @@
       <c r="M139" s="33"/>
       <c r="N139" s="33"/>
       <c r="O139" s="33"/>
-      <c r="P139" s="51"/>
+      <c r="P139" s="33"/>
       <c r="Q139" s="51"/>
       <c r="R139" s="51"/>
-      <c r="S139" s="1"/>
+      <c r="S139" s="51"/>
+      <c r="T139" s="1"/>
     </row>
-    <row r="140" spans="3:19">
+    <row r="140" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C140" s="33"/>
       <c r="D140" s="33"/>
       <c r="E140" s="33"/>
@@ -21159,12 +22579,13 @@
       <c r="M140" s="33"/>
       <c r="N140" s="33"/>
       <c r="O140" s="33"/>
-      <c r="P140" s="51"/>
+      <c r="P140" s="33"/>
       <c r="Q140" s="51"/>
       <c r="R140" s="51"/>
-      <c r="S140" s="1"/>
+      <c r="S140" s="51"/>
+      <c r="T140" s="1"/>
     </row>
-    <row r="141" spans="3:19">
+    <row r="141" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C141" s="33"/>
       <c r="D141" s="33"/>
       <c r="E141" s="33"/>
@@ -21178,12 +22599,13 @@
       <c r="M141" s="33"/>
       <c r="N141" s="33"/>
       <c r="O141" s="33"/>
-      <c r="P141" s="51"/>
+      <c r="P141" s="33"/>
       <c r="Q141" s="51"/>
       <c r="R141" s="51"/>
-      <c r="S141" s="1"/>
+      <c r="S141" s="51"/>
+      <c r="T141" s="1"/>
     </row>
-    <row r="142" spans="3:19">
+    <row r="142" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C142" s="33"/>
       <c r="D142" s="33"/>
       <c r="E142" s="33"/>
@@ -21197,12 +22619,13 @@
       <c r="M142" s="33"/>
       <c r="N142" s="33"/>
       <c r="O142" s="33"/>
-      <c r="P142" s="51"/>
+      <c r="P142" s="33"/>
       <c r="Q142" s="51"/>
       <c r="R142" s="51"/>
-      <c r="S142" s="1"/>
+      <c r="S142" s="51"/>
+      <c r="T142" s="1"/>
     </row>
-    <row r="143" spans="3:19">
+    <row r="143" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C143" s="33"/>
       <c r="D143" s="33"/>
       <c r="E143" s="33"/>
@@ -21216,12 +22639,13 @@
       <c r="M143" s="33"/>
       <c r="N143" s="33"/>
       <c r="O143" s="33"/>
-      <c r="P143" s="51"/>
+      <c r="P143" s="33"/>
       <c r="Q143" s="51"/>
       <c r="R143" s="51"/>
-      <c r="S143" s="1"/>
+      <c r="S143" s="51"/>
+      <c r="T143" s="1"/>
     </row>
-    <row r="144" spans="3:19">
+    <row r="144" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C144" s="33"/>
       <c r="D144" s="33"/>
       <c r="E144" s="33"/>
@@ -21235,12 +22659,13 @@
       <c r="M144" s="33"/>
       <c r="N144" s="33"/>
       <c r="O144" s="33"/>
-      <c r="P144" s="51"/>
+      <c r="P144" s="33"/>
       <c r="Q144" s="51"/>
       <c r="R144" s="51"/>
-      <c r="S144" s="1"/>
+      <c r="S144" s="51"/>
+      <c r="T144" s="1"/>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C145" s="33"/>
       <c r="D145" s="33"/>
       <c r="E145" s="33"/>
@@ -21254,12 +22679,13 @@
       <c r="M145" s="33"/>
       <c r="N145" s="33"/>
       <c r="O145" s="33"/>
-      <c r="P145" s="51"/>
+      <c r="P145" s="33"/>
       <c r="Q145" s="51"/>
       <c r="R145" s="51"/>
-      <c r="S145" s="1"/>
+      <c r="S145" s="51"/>
+      <c r="T145" s="1"/>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C146" s="33"/>
       <c r="D146" s="33"/>
       <c r="E146" s="33"/>
@@ -21273,12 +22699,13 @@
       <c r="M146" s="33"/>
       <c r="N146" s="33"/>
       <c r="O146" s="33"/>
-      <c r="P146" s="51"/>
+      <c r="P146" s="33"/>
       <c r="Q146" s="51"/>
       <c r="R146" s="51"/>
-      <c r="S146" s="1"/>
+      <c r="S146" s="51"/>
+      <c r="T146" s="1"/>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C147" s="33"/>
       <c r="D147" s="33"/>
       <c r="E147" s="33"/>
@@ -21292,12 +22719,13 @@
       <c r="M147" s="33"/>
       <c r="N147" s="33"/>
       <c r="O147" s="33"/>
-      <c r="P147" s="51"/>
+      <c r="P147" s="33"/>
       <c r="Q147" s="51"/>
       <c r="R147" s="51"/>
-      <c r="S147" s="1"/>
+      <c r="S147" s="51"/>
+      <c r="T147" s="1"/>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C148" s="33"/>
       <c r="D148" s="33"/>
       <c r="E148" s="33"/>
@@ -21311,679 +22739,734 @@
       <c r="M148" s="33"/>
       <c r="N148" s="33"/>
       <c r="O148" s="33"/>
+      <c r="P148" s="33"/>
       <c r="Q148" s="51"/>
       <c r="R148" s="51"/>
-      <c r="S148" s="1"/>
+      <c r="S148" s="51"/>
+      <c r="T148" s="1"/>
     </row>
-    <row r="149" spans="1:19">
-      <c r="E149" s="2"/>
+    <row r="149" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C149" s="33"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="33"/>
+      <c r="F149" s="33"/>
+      <c r="G149" s="33"/>
+      <c r="H149" s="33"/>
+      <c r="I149" s="33"/>
+      <c r="J149" s="33"/>
+      <c r="K149" s="33"/>
+      <c r="L149" s="33"/>
+      <c r="M149" s="33"/>
+      <c r="N149" s="33"/>
+      <c r="O149" s="33"/>
+      <c r="P149" s="33"/>
+      <c r="Q149" s="51"/>
+      <c r="R149" s="51"/>
+      <c r="S149" s="51"/>
+      <c r="T149" s="1"/>
     </row>
-    <row r="150" spans="1:19">
-      <c r="E150" s="2"/>
-      <c r="P150" s="1"/>
+    <row r="150" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C150" s="33"/>
+      <c r="D150" s="33"/>
+      <c r="E150" s="33"/>
+      <c r="F150" s="33"/>
+      <c r="G150" s="33"/>
+      <c r="H150" s="33"/>
+      <c r="I150" s="33"/>
+      <c r="J150" s="33"/>
+      <c r="K150" s="33"/>
+      <c r="L150" s="33"/>
+      <c r="M150" s="33"/>
+      <c r="N150" s="33"/>
+      <c r="O150" s="33"/>
+      <c r="P150" s="33"/>
+      <c r="Q150" s="51"/>
+      <c r="R150" s="51"/>
+      <c r="S150" s="51"/>
+      <c r="T150" s="1"/>
     </row>
-    <row r="151" spans="1:19">
-      <c r="A151" s="55" t="s">
+    <row r="151" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C151" s="33"/>
+      <c r="D151" s="33"/>
+      <c r="E151" s="33"/>
+      <c r="F151" s="33"/>
+      <c r="G151" s="33"/>
+      <c r="H151" s="33"/>
+      <c r="I151" s="33"/>
+      <c r="J151" s="33"/>
+      <c r="K151" s="33"/>
+      <c r="L151" s="33"/>
+      <c r="M151" s="33"/>
+      <c r="N151" s="33"/>
+      <c r="O151" s="33"/>
+      <c r="P151" s="33"/>
+      <c r="Q151" s="51"/>
+      <c r="R151" s="51"/>
+      <c r="S151" s="51"/>
+      <c r="T151" s="1"/>
+    </row>
+    <row r="152" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C152" s="33"/>
+      <c r="D152" s="33"/>
+      <c r="E152" s="33"/>
+      <c r="F152" s="33"/>
+      <c r="G152" s="33"/>
+      <c r="H152" s="33"/>
+      <c r="I152" s="33"/>
+      <c r="J152" s="33"/>
+      <c r="K152" s="33"/>
+      <c r="L152" s="33"/>
+      <c r="M152" s="33"/>
+      <c r="N152" s="33"/>
+      <c r="O152" s="33"/>
+      <c r="P152" s="33"/>
+      <c r="Q152" s="51"/>
+      <c r="R152" s="51"/>
+      <c r="S152" s="51"/>
+      <c r="T152" s="1"/>
+    </row>
+    <row r="153" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C153" s="33"/>
+      <c r="D153" s="33"/>
+      <c r="E153" s="33"/>
+      <c r="F153" s="33"/>
+      <c r="G153" s="33"/>
+      <c r="H153" s="33"/>
+      <c r="I153" s="33"/>
+      <c r="J153" s="33"/>
+      <c r="K153" s="33"/>
+      <c r="L153" s="33"/>
+      <c r="M153" s="33"/>
+      <c r="N153" s="33"/>
+      <c r="O153" s="33"/>
+      <c r="P153" s="33"/>
+      <c r="Q153" s="51"/>
+      <c r="R153" s="51"/>
+      <c r="S153" s="51"/>
+      <c r="T153" s="1"/>
+    </row>
+    <row r="154" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C154" s="33"/>
+      <c r="D154" s="33"/>
+      <c r="E154" s="33"/>
+      <c r="F154" s="33"/>
+      <c r="G154" s="33"/>
+      <c r="H154" s="33"/>
+      <c r="I154" s="33"/>
+      <c r="J154" s="33"/>
+      <c r="K154" s="33"/>
+      <c r="L154" s="33"/>
+      <c r="M154" s="33"/>
+      <c r="N154" s="33"/>
+      <c r="O154" s="33"/>
+      <c r="P154" s="33"/>
+      <c r="Q154" s="51"/>
+      <c r="R154" s="51"/>
+      <c r="S154" s="51"/>
+      <c r="T154" s="1"/>
+    </row>
+    <row r="155" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C155" s="33"/>
+      <c r="D155" s="33"/>
+      <c r="E155" s="33"/>
+      <c r="F155" s="33"/>
+      <c r="G155" s="33"/>
+      <c r="H155" s="33"/>
+      <c r="I155" s="33"/>
+      <c r="J155" s="33"/>
+      <c r="K155" s="33"/>
+      <c r="L155" s="33"/>
+      <c r="M155" s="33"/>
+      <c r="N155" s="33"/>
+      <c r="O155" s="33"/>
+      <c r="P155" s="33"/>
+      <c r="Q155" s="51"/>
+      <c r="R155" s="51"/>
+      <c r="S155" s="51"/>
+      <c r="T155" s="1"/>
+    </row>
+    <row r="156" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C156" s="33"/>
+      <c r="D156" s="33"/>
+      <c r="E156" s="33"/>
+      <c r="F156" s="33"/>
+      <c r="G156" s="33"/>
+      <c r="H156" s="33"/>
+      <c r="I156" s="33"/>
+      <c r="J156" s="33"/>
+      <c r="K156" s="33"/>
+      <c r="L156" s="33"/>
+      <c r="M156" s="33"/>
+      <c r="N156" s="33"/>
+      <c r="O156" s="33"/>
+      <c r="P156" s="33"/>
+      <c r="Q156" s="51"/>
+      <c r="R156" s="51"/>
+      <c r="S156" s="51"/>
+      <c r="T156" s="1"/>
+    </row>
+    <row r="157" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C157" s="33"/>
+      <c r="D157" s="33"/>
+      <c r="E157" s="33"/>
+      <c r="F157" s="33"/>
+      <c r="G157" s="33"/>
+      <c r="H157" s="33"/>
+      <c r="I157" s="33"/>
+      <c r="J157" s="33"/>
+      <c r="K157" s="33"/>
+      <c r="L157" s="33"/>
+      <c r="M157" s="33"/>
+      <c r="N157" s="33"/>
+      <c r="O157" s="33"/>
+      <c r="P157" s="33"/>
+      <c r="Q157" s="51"/>
+      <c r="R157" s="51"/>
+      <c r="S157" s="51"/>
+      <c r="T157" s="1"/>
+    </row>
+    <row r="158" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C158" s="33"/>
+      <c r="D158" s="33"/>
+      <c r="E158" s="33"/>
+      <c r="F158" s="33"/>
+      <c r="G158" s="33"/>
+      <c r="H158" s="33"/>
+      <c r="I158" s="33"/>
+      <c r="J158" s="33"/>
+      <c r="K158" s="33"/>
+      <c r="L158" s="33"/>
+      <c r="M158" s="33"/>
+      <c r="N158" s="33"/>
+      <c r="O158" s="33"/>
+      <c r="P158" s="33"/>
+      <c r="Q158" s="51"/>
+      <c r="R158" s="51"/>
+      <c r="S158" s="51"/>
+      <c r="T158" s="1"/>
+    </row>
+    <row r="159" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C159" s="33"/>
+      <c r="D159" s="33"/>
+      <c r="E159" s="33"/>
+      <c r="F159" s="33"/>
+      <c r="G159" s="33"/>
+      <c r="H159" s="33"/>
+      <c r="I159" s="33"/>
+      <c r="J159" s="33"/>
+      <c r="K159" s="33"/>
+      <c r="L159" s="33"/>
+      <c r="M159" s="33"/>
+      <c r="N159" s="33"/>
+      <c r="O159" s="33"/>
+      <c r="P159" s="33"/>
+      <c r="Q159" s="51"/>
+      <c r="R159" s="51"/>
+      <c r="S159" s="51"/>
+      <c r="T159" s="1"/>
+    </row>
+    <row r="160" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C160" s="33"/>
+      <c r="D160" s="33"/>
+      <c r="E160" s="33"/>
+      <c r="F160" s="33"/>
+      <c r="G160" s="33"/>
+      <c r="H160" s="33"/>
+      <c r="I160" s="33"/>
+      <c r="J160" s="33"/>
+      <c r="K160" s="33"/>
+      <c r="L160" s="33"/>
+      <c r="M160" s="33"/>
+      <c r="N160" s="33"/>
+      <c r="O160" s="33"/>
+      <c r="P160" s="33"/>
+      <c r="Q160" s="51"/>
+      <c r="R160" s="51"/>
+      <c r="S160" s="51"/>
+      <c r="T160" s="1"/>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C161" s="33"/>
+      <c r="D161" s="33"/>
+      <c r="E161" s="33"/>
+      <c r="F161" s="33"/>
+      <c r="G161" s="33"/>
+      <c r="H161" s="33"/>
+      <c r="I161" s="33"/>
+      <c r="J161" s="33"/>
+      <c r="K161" s="33"/>
+      <c r="L161" s="33"/>
+      <c r="M161" s="33"/>
+      <c r="N161" s="33"/>
+      <c r="O161" s="33"/>
+      <c r="P161" s="33"/>
+      <c r="Q161" s="51"/>
+      <c r="R161" s="51"/>
+      <c r="S161" s="51"/>
+      <c r="T161" s="1"/>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C162" s="33"/>
+      <c r="D162" s="33"/>
+      <c r="E162" s="33"/>
+      <c r="F162" s="33"/>
+      <c r="G162" s="33"/>
+      <c r="H162" s="33"/>
+      <c r="I162" s="33"/>
+      <c r="J162" s="33"/>
+      <c r="K162" s="33"/>
+      <c r="L162" s="33"/>
+      <c r="M162" s="33"/>
+      <c r="N162" s="33"/>
+      <c r="O162" s="33"/>
+      <c r="P162" s="33"/>
+      <c r="Q162" s="51"/>
+      <c r="R162" s="51"/>
+      <c r="S162" s="51"/>
+      <c r="T162" s="1"/>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E163" s="2"/>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E164" s="2"/>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A165" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="B151" s="55"/>
-      <c r="L151" s="42" t="s">
+      <c r="B165" s="53"/>
+      <c r="L165" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="M151" s="41"/>
-      <c r="N151" s="34"/>
-      <c r="O151" s="34"/>
-      <c r="P151" s="1"/>
-      <c r="Q151" s="53" t="s">
+      <c r="M165" s="41"/>
+      <c r="N165" s="34"/>
+      <c r="O165" s="34"/>
+      <c r="P165" s="34"/>
+      <c r="Q165" s="1"/>
+      <c r="R165" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="R151" s="53"/>
+      <c r="S165" s="54"/>
     </row>
-    <row r="152" spans="1:19">
-      <c r="A152" s="55"/>
-      <c r="B152" s="55"/>
-      <c r="C152" s="6" t="s">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A166" s="53"/>
+      <c r="B166" s="53"/>
+      <c r="C166" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D152" s="53" t="s">
+      <c r="D166" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="E152" s="53"/>
-      <c r="F152" s="53"/>
-      <c r="G152" s="53"/>
-      <c r="H152" s="53"/>
-      <c r="I152" s="53"/>
-      <c r="J152" s="53"/>
-      <c r="K152" s="53"/>
-      <c r="L152" s="33">
+      <c r="E166" s="54"/>
+      <c r="F166" s="54"/>
+      <c r="G166" s="54"/>
+      <c r="H166" s="54"/>
+      <c r="I166" s="54"/>
+      <c r="J166" s="54"/>
+      <c r="K166" s="54"/>
+      <c r="L166" s="33">
         <v>2</v>
       </c>
-      <c r="M152" s="34"/>
-      <c r="N152" s="33"/>
-      <c r="O152" s="33"/>
-      <c r="P152" s="1"/>
-      <c r="Q152" s="23" t="s">
+      <c r="M166" s="34"/>
+      <c r="N166" s="33"/>
+      <c r="O166" s="33"/>
+      <c r="P166" s="33"/>
+      <c r="Q166" s="1"/>
+      <c r="R166" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="R152" s="21" t="s">
+      <c r="S166" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:19">
-      <c r="C153" s="9">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C167" s="9">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="D153" s="10" t="s">
+      <c r="D167" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E153" s="11"/>
-      <c r="F153" s="11"/>
-      <c r="G153" s="11"/>
-      <c r="H153" s="11"/>
-      <c r="I153" s="11"/>
-      <c r="J153" s="11"/>
-      <c r="K153" s="11"/>
-      <c r="M153" s="33" t="s">
+      <c r="E167" s="11"/>
+      <c r="F167" s="11"/>
+      <c r="G167" s="11"/>
+      <c r="H167" s="11"/>
+      <c r="I167" s="11"/>
+      <c r="J167" s="11"/>
+      <c r="K167" s="11"/>
+      <c r="M167" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="N153" s="33"/>
-      <c r="O153" s="33"/>
-      <c r="P153" s="1"/>
-      <c r="Q153" s="35">
+      <c r="N167" s="33"/>
+      <c r="O167" s="33"/>
+      <c r="P167" s="33"/>
+      <c r="Q167" s="1"/>
+      <c r="R167" s="35">
         <v>2</v>
       </c>
-      <c r="R153" s="37">
-        <f>$L$152-Q153</f>
+      <c r="S167" s="37">
+        <f>$L$166-R167</f>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:19">
-      <c r="C154" s="12">
-        <f>C153+1</f>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C168" s="12">
+        <f>C167+1</f>
         <v>2</v>
       </c>
-      <c r="D154" s="13" t="s">
+      <c r="D168" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E154" s="14"/>
-      <c r="F154" s="14"/>
-      <c r="G154" s="14"/>
-      <c r="H154" s="14"/>
-      <c r="I154" s="14"/>
-      <c r="J154" s="14"/>
-      <c r="K154" s="14"/>
-      <c r="M154" s="33" t="s">
+      <c r="E168" s="14"/>
+      <c r="F168" s="14"/>
+      <c r="G168" s="14"/>
+      <c r="H168" s="14"/>
+      <c r="I168" s="14"/>
+      <c r="J168" s="14"/>
+      <c r="K168" s="14"/>
+      <c r="M168" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="N154" s="33"/>
-      <c r="O154" s="33"/>
-      <c r="P154" s="1"/>
-      <c r="Q154" s="36">
+      <c r="N168" s="33"/>
+      <c r="O168" s="33"/>
+      <c r="P168" s="33"/>
+      <c r="Q168" s="1"/>
+      <c r="R168" s="36">
         <v>2</v>
       </c>
-      <c r="R154" s="38">
-        <f>$L$152-Q154</f>
+      <c r="S168" s="38">
+        <f>$L$166-R168</f>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:19">
-      <c r="C155" s="9">
-        <f t="shared" ref="C155" si="5">C154+1</f>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C169" s="9">
+        <f t="shared" ref="C169" si="5">C168+1</f>
         <v>3</v>
       </c>
-      <c r="D155" s="10" t="s">
+      <c r="D169" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E155" s="11"/>
-      <c r="F155" s="11"/>
-      <c r="G155" s="11"/>
-      <c r="H155" s="11"/>
-      <c r="I155" s="11"/>
-      <c r="J155" s="11"/>
-      <c r="K155" s="11"/>
-      <c r="M155" s="33"/>
-      <c r="N155" s="33"/>
-      <c r="O155" s="33"/>
-      <c r="Q155" s="35">
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="11"/>
+      <c r="J169" s="11"/>
+      <c r="K169" s="11"/>
+      <c r="M169" s="33"/>
+      <c r="N169" s="33"/>
+      <c r="O169" s="33"/>
+      <c r="P169" s="33"/>
+      <c r="Q169" s="1"/>
+      <c r="R169" s="35">
         <v>0</v>
       </c>
-      <c r="R155" s="37">
-        <f>$L$152-Q155</f>
+      <c r="S169" s="37">
+        <f>$L$166-R169</f>
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:19">
-      <c r="C156" s="12"/>
-      <c r="D156" s="15" t="s">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C170" s="12"/>
+      <c r="D170" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E156" s="13"/>
-      <c r="F156" s="14"/>
-      <c r="G156" s="15"/>
-      <c r="H156" s="14"/>
-      <c r="I156" s="14"/>
-      <c r="J156" s="14"/>
-      <c r="K156" s="14"/>
-      <c r="M156" s="33"/>
-      <c r="N156" s="33"/>
-      <c r="O156" s="33"/>
-      <c r="Q156" s="43"/>
-      <c r="R156" s="44"/>
-      <c r="S156" s="1"/>
+      <c r="E170" s="13"/>
+      <c r="F170" s="14"/>
+      <c r="G170" s="15"/>
+      <c r="H170" s="14"/>
+      <c r="I170" s="14"/>
+      <c r="J170" s="14"/>
+      <c r="K170" s="14"/>
+      <c r="M170" s="33"/>
+      <c r="N170" s="33"/>
+      <c r="O170" s="33"/>
+      <c r="P170" s="33"/>
+      <c r="R170" s="43"/>
+      <c r="S170" s="44"/>
+      <c r="T170" s="1"/>
     </row>
-    <row r="157" spans="1:19">
-      <c r="C157" s="9">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C171" s="9">
         <v>14</v>
       </c>
-      <c r="D157" s="16"/>
-      <c r="E157" s="16" t="s">
+      <c r="D171" s="16"/>
+      <c r="E171" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F157" s="11"/>
-      <c r="G157" s="16"/>
-      <c r="H157" s="11"/>
-      <c r="I157" s="11"/>
-      <c r="J157" s="11"/>
-      <c r="K157" s="11"/>
-      <c r="M157" s="33"/>
-      <c r="N157" s="33"/>
-      <c r="O157" s="33"/>
-      <c r="Q157" s="40">
+      <c r="F171" s="11"/>
+      <c r="G171" s="16"/>
+      <c r="H171" s="11"/>
+      <c r="I171" s="11"/>
+      <c r="J171" s="11"/>
+      <c r="K171" s="11"/>
+      <c r="M171" s="33"/>
+      <c r="N171" s="33"/>
+      <c r="O171" s="33"/>
+      <c r="P171" s="33"/>
+      <c r="R171" s="40">
         <v>2</v>
       </c>
-      <c r="R157" s="37">
-        <f>$L$152-Q157</f>
+      <c r="S171" s="37">
+        <f>$L$166-R171</f>
         <v>0</v>
       </c>
-      <c r="S157" s="1"/>
+      <c r="T171" s="1"/>
     </row>
-    <row r="158" spans="1:19">
-      <c r="C158" s="12">
-        <f>C157+1</f>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C172" s="12">
+        <f>C171+1</f>
         <v>15</v>
       </c>
-      <c r="D158" s="15"/>
-      <c r="E158" s="15" t="s">
+      <c r="D172" s="15"/>
+      <c r="E172" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F158" s="14"/>
-      <c r="G158" s="15"/>
-      <c r="H158" s="14"/>
-      <c r="I158" s="14"/>
-      <c r="J158" s="14"/>
-      <c r="K158" s="14"/>
-      <c r="M158" s="33"/>
-      <c r="N158" s="33"/>
-      <c r="O158" s="33"/>
-      <c r="Q158" s="39">
+      <c r="F172" s="14"/>
+      <c r="G172" s="15"/>
+      <c r="H172" s="14"/>
+      <c r="I172" s="14"/>
+      <c r="J172" s="14"/>
+      <c r="K172" s="14"/>
+      <c r="M172" s="33"/>
+      <c r="N172" s="33"/>
+      <c r="O172" s="33"/>
+      <c r="P172" s="33"/>
+      <c r="R172" s="39">
         <v>1</v>
       </c>
-      <c r="R158" s="38">
-        <f>$L$152-Q158</f>
+      <c r="S172" s="38">
+        <f>$L$166-R172</f>
         <v>1</v>
       </c>
-      <c r="S158" s="1"/>
+      <c r="T172" s="1"/>
     </row>
-    <row r="159" spans="1:19">
-      <c r="C159" s="9">
-        <f>C158+1</f>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C173" s="9">
+        <f>C172+1</f>
         <v>16</v>
       </c>
-      <c r="D159" s="11"/>
-      <c r="E159" s="16" t="s">
+      <c r="D173" s="11"/>
+      <c r="E173" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F159" s="11"/>
-      <c r="G159" s="11"/>
-      <c r="H159" s="11"/>
-      <c r="I159" s="11"/>
-      <c r="J159" s="11"/>
-      <c r="K159" s="11"/>
-      <c r="M159" s="33"/>
-      <c r="N159" s="33"/>
-      <c r="O159" s="33"/>
-      <c r="P159" s="1"/>
-      <c r="Q159" s="40">
+      <c r="F173" s="11"/>
+      <c r="G173" s="11"/>
+      <c r="H173" s="11"/>
+      <c r="I173" s="11"/>
+      <c r="J173" s="11"/>
+      <c r="K173" s="11"/>
+      <c r="M173" s="33"/>
+      <c r="N173" s="33"/>
+      <c r="O173" s="33"/>
+      <c r="P173" s="33"/>
+      <c r="R173" s="40">
         <v>0</v>
       </c>
-      <c r="R159" s="37">
-        <f>$L$152-Q159</f>
+      <c r="S173" s="37">
+        <f>$L$166-R173</f>
         <v>2</v>
       </c>
-      <c r="S159" s="1"/>
+      <c r="T173" s="1"/>
     </row>
-    <row r="160" spans="1:19">
-      <c r="C160" s="12"/>
-      <c r="D160" s="13" t="s">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C174" s="12"/>
+      <c r="D174" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E160" s="14"/>
-      <c r="F160" s="14"/>
-      <c r="G160" s="14"/>
-      <c r="H160" s="14"/>
-      <c r="I160" s="14"/>
-      <c r="J160" s="14"/>
-      <c r="K160" s="14"/>
-      <c r="P160" s="1"/>
-      <c r="Q160" s="44"/>
-      <c r="R160" s="44"/>
+      <c r="E174" s="14"/>
+      <c r="F174" s="14"/>
+      <c r="G174" s="14"/>
+      <c r="H174" s="14"/>
+      <c r="I174" s="14"/>
+      <c r="J174" s="14"/>
+      <c r="K174" s="14"/>
+      <c r="Q174" s="1"/>
+      <c r="R174" s="44"/>
+      <c r="S174" s="44"/>
     </row>
-    <row r="161" spans="3:18">
-      <c r="C161" s="9">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C175" s="9">
         <v>17</v>
       </c>
-      <c r="D161" s="10"/>
-      <c r="E161" s="10" t="s">
+      <c r="D175" s="10"/>
+      <c r="E175" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F161" s="11"/>
-      <c r="G161" s="11"/>
-      <c r="H161" s="11"/>
-      <c r="I161" s="11"/>
-      <c r="J161" s="11"/>
-      <c r="K161" s="11"/>
-      <c r="P161" s="1"/>
-      <c r="Q161" s="35">
+      <c r="F175" s="11"/>
+      <c r="G175" s="11"/>
+      <c r="H175" s="11"/>
+      <c r="I175" s="11"/>
+      <c r="J175" s="11"/>
+      <c r="K175" s="11"/>
+      <c r="Q175" s="1"/>
+      <c r="R175" s="35">
         <v>2</v>
       </c>
-      <c r="R161" s="37">
-        <f>$L$152-Q161</f>
+      <c r="S175" s="37">
+        <f>$L$166-R175</f>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:18">
-      <c r="C162" s="12">
-        <f>C161+1</f>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C176" s="12">
+        <f>C175+1</f>
         <v>18</v>
       </c>
-      <c r="D162" s="13"/>
-      <c r="E162" s="13" t="s">
+      <c r="D176" s="13"/>
+      <c r="E176" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F162" s="14"/>
-      <c r="G162" s="14"/>
-      <c r="H162" s="14"/>
-      <c r="I162" s="14"/>
-      <c r="J162" s="14"/>
-      <c r="K162" s="14"/>
-      <c r="P162" s="1"/>
-      <c r="Q162" s="36">
+      <c r="F176" s="14"/>
+      <c r="G176" s="14"/>
+      <c r="H176" s="14"/>
+      <c r="I176" s="14"/>
+      <c r="J176" s="14"/>
+      <c r="K176" s="14"/>
+      <c r="Q176" s="1"/>
+      <c r="R176" s="36">
         <v>2</v>
       </c>
-      <c r="R162" s="38">
-        <f>$L$152-Q162</f>
+      <c r="S176" s="38">
+        <f>$L$166-R176</f>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:18">
-      <c r="C163" s="9">
-        <f t="shared" ref="C163:C165" si="6">C162+1</f>
+    <row r="177" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C177" s="9">
+        <f t="shared" ref="C177:C179" si="6">C176+1</f>
         <v>19</v>
       </c>
-      <c r="D163" s="10"/>
-      <c r="E163" s="10" t="s">
+      <c r="D177" s="10"/>
+      <c r="E177" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F163" s="11"/>
-      <c r="G163" s="11"/>
-      <c r="H163" s="11"/>
-      <c r="I163" s="11"/>
-      <c r="J163" s="11"/>
-      <c r="K163" s="11"/>
-      <c r="P163" s="1"/>
-      <c r="Q163" s="35">
+      <c r="F177" s="11"/>
+      <c r="G177" s="11"/>
+      <c r="H177" s="11"/>
+      <c r="I177" s="11"/>
+      <c r="J177" s="11"/>
+      <c r="K177" s="11"/>
+      <c r="Q177" s="1"/>
+      <c r="R177" s="35">
         <v>2</v>
       </c>
-      <c r="R163" s="37">
-        <f>$L$152-Q163</f>
+      <c r="S177" s="37">
+        <f>$L$166-R177</f>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:18">
-      <c r="C164" s="12">
+    <row r="178" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C178" s="12">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="D164" s="13"/>
-      <c r="E164" s="13" t="s">
+      <c r="D178" s="13"/>
+      <c r="E178" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F164" s="14"/>
-      <c r="G164" s="14"/>
-      <c r="H164" s="14"/>
-      <c r="I164" s="14"/>
-      <c r="J164" s="14"/>
-      <c r="K164" s="14"/>
-      <c r="P164" s="1"/>
-      <c r="Q164" s="36">
+      <c r="F178" s="14"/>
+      <c r="G178" s="14"/>
+      <c r="H178" s="14"/>
+      <c r="I178" s="14"/>
+      <c r="J178" s="14"/>
+      <c r="K178" s="14"/>
+      <c r="Q178" s="1"/>
+      <c r="R178" s="36">
         <v>2</v>
       </c>
-      <c r="R164" s="38">
-        <f>$L$152-Q164</f>
+      <c r="S178" s="38">
+        <f>$L$166-R178</f>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:18">
-      <c r="C165" s="9">
+    <row r="179" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C179" s="9">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="D165" s="10"/>
-      <c r="E165" s="10" t="s">
+      <c r="D179" s="10"/>
+      <c r="E179" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F165" s="11"/>
-      <c r="G165" s="11"/>
-      <c r="H165" s="11"/>
-      <c r="I165" s="11"/>
-      <c r="J165" s="11"/>
-      <c r="K165" s="11"/>
-      <c r="Q165" s="35">
+      <c r="F179" s="11"/>
+      <c r="G179" s="11"/>
+      <c r="H179" s="11"/>
+      <c r="I179" s="11"/>
+      <c r="J179" s="11"/>
+      <c r="K179" s="11"/>
+      <c r="Q179" s="1"/>
+      <c r="R179" s="35">
         <v>2</v>
       </c>
-      <c r="R165" s="37">
-        <f>$L$152-Q165</f>
+      <c r="S179" s="37">
+        <f>$L$166-R179</f>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:18">
-      <c r="Q166" s="1"/>
-      <c r="R166" s="1"/>
+    <row r="180" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R180" s="1"/>
+      <c r="S180" s="1"/>
     </row>
-    <row r="167" spans="3:18" ht="18.75">
-      <c r="C167" s="54" t="s">
+    <row r="181" spans="3:19" ht="19" x14ac:dyDescent="0.2">
+      <c r="C181" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D167" s="54"/>
-      <c r="E167" s="54"/>
+      <c r="D181" s="55"/>
+      <c r="E181" s="55"/>
     </row>
-    <row r="176" spans="3:18">
-      <c r="N176" s="4"/>
-      <c r="O176" s="4"/>
+    <row r="190" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="N190" s="4"/>
+      <c r="O190" s="4"/>
+      <c r="P190" s="4"/>
     </row>
-    <row r="183" spans="1:18" ht="18.75">
-      <c r="C183" s="54" t="s">
+    <row r="197" spans="1:19" ht="19" x14ac:dyDescent="0.2">
+      <c r="C197" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D183" s="54"/>
-      <c r="E183" s="54"/>
-      <c r="F183" s="54"/>
-      <c r="P183" s="33"/>
+      <c r="D197" s="55"/>
+      <c r="E197" s="55"/>
+      <c r="F197" s="55"/>
     </row>
-    <row r="184" spans="1:18" ht="15.95" customHeight="1">
-      <c r="A184" s="47"/>
-      <c r="B184" s="47"/>
-      <c r="G184" s="33"/>
-      <c r="H184" s="33"/>
-      <c r="I184" s="33"/>
-      <c r="J184" s="33"/>
-      <c r="K184" s="33"/>
-      <c r="L184" s="33"/>
-      <c r="M184" s="34"/>
-      <c r="N184" s="34"/>
-      <c r="O184" s="34"/>
-      <c r="P184" s="33"/>
-      <c r="Q184" s="34"/>
-      <c r="R184" s="34"/>
-    </row>
-    <row r="185" spans="1:18" ht="15.95" customHeight="1">
-      <c r="A185" s="47"/>
-      <c r="B185" s="47"/>
-      <c r="G185" s="34"/>
-      <c r="H185" s="34"/>
-      <c r="I185" s="34"/>
-      <c r="J185" s="34"/>
-      <c r="K185" s="34"/>
-      <c r="L185" s="33"/>
-      <c r="M185" s="33"/>
-      <c r="N185" s="33"/>
-      <c r="O185" s="33"/>
-      <c r="P185" s="33"/>
-      <c r="Q185" s="33"/>
-      <c r="R185" s="33"/>
-    </row>
-    <row r="186" spans="1:18">
-      <c r="A186" s="45"/>
-      <c r="B186" s="33"/>
-      <c r="G186" s="33"/>
-      <c r="H186" s="33"/>
-      <c r="I186" s="33"/>
-      <c r="J186" s="33"/>
-      <c r="K186" s="33"/>
-      <c r="L186" s="33"/>
-      <c r="M186" s="33"/>
-      <c r="N186" s="33"/>
-      <c r="O186" s="33"/>
-      <c r="P186" s="33"/>
-      <c r="Q186" s="33"/>
-      <c r="R186" s="33"/>
-    </row>
-    <row r="187" spans="1:18">
-      <c r="A187" s="45"/>
-      <c r="B187" s="33"/>
-      <c r="G187" s="33"/>
-      <c r="H187" s="33"/>
-      <c r="I187" s="33"/>
-      <c r="J187" s="33"/>
-      <c r="K187" s="33"/>
-      <c r="L187" s="33"/>
-      <c r="M187" s="33"/>
-      <c r="N187" s="33"/>
-      <c r="O187" s="33"/>
-      <c r="P187" s="33"/>
-      <c r="Q187" s="33"/>
-      <c r="R187" s="33"/>
-    </row>
-    <row r="188" spans="1:18">
-      <c r="A188" s="45"/>
-      <c r="B188" s="33"/>
-      <c r="G188" s="33"/>
-      <c r="H188" s="33"/>
-      <c r="I188" s="33"/>
-      <c r="J188" s="33"/>
-      <c r="K188" s="33"/>
-      <c r="L188" s="33"/>
-      <c r="M188" s="33"/>
-      <c r="N188" s="33"/>
-      <c r="O188" s="33"/>
-      <c r="P188" s="33"/>
-      <c r="Q188" s="33"/>
-      <c r="R188" s="33"/>
-    </row>
-    <row r="189" spans="1:18">
-      <c r="A189" s="45"/>
-      <c r="B189" s="33"/>
-      <c r="G189" s="33"/>
-      <c r="H189" s="33"/>
-      <c r="I189" s="33"/>
-      <c r="J189" s="33"/>
-      <c r="K189" s="33"/>
-      <c r="L189" s="33"/>
-      <c r="M189" s="33"/>
-      <c r="N189" s="33"/>
-      <c r="O189" s="33"/>
-      <c r="P189" s="33"/>
-      <c r="Q189" s="33"/>
-      <c r="R189" s="33"/>
-    </row>
-    <row r="190" spans="1:18">
-      <c r="A190" s="45"/>
-      <c r="B190" s="33"/>
-      <c r="G190" s="33"/>
-      <c r="H190" s="33"/>
-      <c r="I190" s="33"/>
-      <c r="J190" s="33"/>
-      <c r="K190" s="33"/>
-      <c r="L190" s="33"/>
-      <c r="M190" s="33"/>
-      <c r="N190" s="33"/>
-      <c r="O190" s="33"/>
-      <c r="P190" s="33"/>
-      <c r="Q190" s="33"/>
-      <c r="R190" s="33"/>
-    </row>
-    <row r="191" spans="1:18">
-      <c r="A191" s="45"/>
-      <c r="B191" s="33"/>
-      <c r="G191" s="33"/>
-      <c r="H191" s="33"/>
-      <c r="I191" s="33"/>
-      <c r="J191" s="33"/>
-      <c r="K191" s="33"/>
-      <c r="L191" s="33"/>
-      <c r="M191" s="33"/>
-      <c r="N191" s="33"/>
-      <c r="O191" s="33"/>
-      <c r="P191" s="33"/>
-      <c r="Q191" s="33"/>
-      <c r="R191" s="33"/>
-    </row>
-    <row r="192" spans="1:18">
-      <c r="A192" s="45"/>
-      <c r="B192" s="33"/>
-      <c r="G192" s="33"/>
-      <c r="H192" s="33"/>
-      <c r="I192" s="33"/>
-      <c r="J192" s="33"/>
-      <c r="K192" s="33"/>
-      <c r="L192" s="33"/>
-      <c r="M192" s="33"/>
-      <c r="N192" s="33"/>
-      <c r="O192" s="33"/>
-      <c r="P192" s="33"/>
-      <c r="Q192" s="33"/>
-      <c r="R192" s="33"/>
-    </row>
-    <row r="193" spans="1:18">
-      <c r="A193" s="45"/>
-      <c r="B193" s="33"/>
-      <c r="G193" s="33"/>
-      <c r="H193" s="33"/>
-      <c r="I193" s="33"/>
-      <c r="J193" s="33"/>
-      <c r="K193" s="33"/>
-      <c r="L193" s="33"/>
-      <c r="M193" s="33"/>
-      <c r="N193" s="33"/>
-      <c r="O193" s="33"/>
-      <c r="P193" s="45"/>
-      <c r="Q193" s="33"/>
-      <c r="R193" s="33"/>
-    </row>
-    <row r="194" spans="1:18">
-      <c r="A194" s="45"/>
-      <c r="B194" s="33"/>
-      <c r="G194" s="33"/>
-      <c r="H194" s="33"/>
-      <c r="I194" s="33"/>
-      <c r="J194" s="33"/>
-      <c r="K194" s="33"/>
-      <c r="L194" s="33"/>
-      <c r="M194" s="33"/>
-      <c r="N194" s="33"/>
-      <c r="O194" s="33"/>
-      <c r="P194" s="45"/>
-      <c r="Q194" s="33"/>
-      <c r="R194" s="33"/>
-    </row>
-    <row r="195" spans="1:18">
-      <c r="A195" s="45"/>
-      <c r="B195" s="33"/>
-      <c r="G195" s="33"/>
-      <c r="H195" s="33"/>
-      <c r="I195" s="33"/>
-      <c r="J195" s="33"/>
-      <c r="K195" s="33"/>
-      <c r="L195" s="33"/>
-      <c r="M195" s="33"/>
-      <c r="N195" s="33"/>
-      <c r="O195" s="33"/>
-      <c r="P195" s="45"/>
-      <c r="Q195" s="45"/>
-      <c r="R195" s="45"/>
-    </row>
-    <row r="196" spans="1:18">
-      <c r="A196" s="45"/>
-      <c r="B196" s="33"/>
-      <c r="G196" s="33"/>
-      <c r="H196" s="33"/>
-      <c r="I196" s="33"/>
-      <c r="J196" s="33"/>
-      <c r="K196" s="33"/>
-      <c r="L196" s="33"/>
-      <c r="M196" s="33"/>
-      <c r="N196" s="33"/>
-      <c r="O196" s="33"/>
-      <c r="P196" s="45"/>
-      <c r="Q196" s="45"/>
-      <c r="R196" s="45"/>
-    </row>
-    <row r="197" spans="1:18">
-      <c r="A197" s="45"/>
-      <c r="B197" s="33"/>
-      <c r="G197" s="33"/>
-      <c r="H197" s="33"/>
-      <c r="I197" s="33"/>
-      <c r="J197" s="33"/>
-      <c r="K197" s="33"/>
-      <c r="L197" s="33"/>
-      <c r="M197" s="33"/>
-      <c r="N197" s="33"/>
-      <c r="O197" s="33"/>
-      <c r="P197" s="45"/>
-      <c r="Q197" s="45"/>
-      <c r="R197" s="45"/>
-    </row>
-    <row r="198" spans="1:18">
-      <c r="A198" s="45"/>
-      <c r="B198" s="33"/>
-      <c r="C198" s="48"/>
-      <c r="D198" s="33"/>
-      <c r="E198" s="33"/>
-      <c r="F198" s="33"/>
+    <row r="198" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="47"/>
+      <c r="B198" s="47"/>
       <c r="G198" s="33"/>
       <c r="H198" s="33"/>
       <c r="I198" s="33"/>
       <c r="J198" s="33"/>
       <c r="K198" s="33"/>
       <c r="L198" s="33"/>
-      <c r="M198" s="33"/>
-      <c r="N198" s="33"/>
-      <c r="O198" s="33"/>
-      <c r="P198" s="45"/>
-      <c r="Q198" s="45"/>
-      <c r="R198" s="45"/>
+      <c r="M198" s="34"/>
+      <c r="N198" s="34"/>
+      <c r="O198" s="34"/>
+      <c r="P198" s="34"/>
+      <c r="Q198" s="33"/>
+      <c r="R198" s="34"/>
+      <c r="S198" s="34"/>
     </row>
-    <row r="199" spans="1:18" ht="18.75">
-      <c r="A199" s="45"/>
-      <c r="B199" s="33"/>
-      <c r="C199" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="D199" s="46"/>
-      <c r="E199" s="46"/>
-      <c r="F199" s="46"/>
-      <c r="G199" s="33"/>
-      <c r="H199" s="33"/>
-      <c r="I199" s="33"/>
-      <c r="J199" s="33"/>
-      <c r="K199" s="33"/>
+    <row r="199" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="47"/>
+      <c r="B199" s="47"/>
+      <c r="G199" s="34"/>
+      <c r="H199" s="34"/>
+      <c r="I199" s="34"/>
+      <c r="J199" s="34"/>
+      <c r="K199" s="34"/>
       <c r="L199" s="33"/>
       <c r="M199" s="33"/>
       <c r="N199" s="33"/>
       <c r="O199" s="33"/>
-      <c r="P199" s="45"/>
-      <c r="Q199" s="45"/>
-      <c r="R199" s="45"/>
+      <c r="P199" s="33"/>
+      <c r="Q199" s="33"/>
+      <c r="R199" s="33"/>
+      <c r="S199" s="33"/>
     </row>
-    <row r="200" spans="1:18">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200" s="45"/>
       <c r="B200" s="33"/>
-      <c r="C200" s="48"/>
-      <c r="D200" s="33"/>
-      <c r="E200" s="33"/>
-      <c r="F200" s="33"/>
       <c r="G200" s="33"/>
       <c r="H200" s="33"/>
       <c r="I200" s="33"/>
@@ -21993,17 +23476,14 @@
       <c r="M200" s="33"/>
       <c r="N200" s="33"/>
       <c r="O200" s="33"/>
-      <c r="P200" s="45"/>
-      <c r="Q200" s="45"/>
-      <c r="R200" s="45"/>
+      <c r="P200" s="33"/>
+      <c r="Q200" s="33"/>
+      <c r="R200" s="33"/>
+      <c r="S200" s="33"/>
     </row>
-    <row r="201" spans="1:18">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A201" s="45"/>
       <c r="B201" s="33"/>
-      <c r="C201" s="48"/>
-      <c r="D201" s="33"/>
-      <c r="E201" s="33"/>
-      <c r="F201" s="33"/>
       <c r="G201" s="33"/>
       <c r="H201" s="33"/>
       <c r="I201" s="33"/>
@@ -22013,17 +23493,14 @@
       <c r="M201" s="33"/>
       <c r="N201" s="33"/>
       <c r="O201" s="33"/>
-      <c r="P201" s="45"/>
-      <c r="Q201" s="45"/>
-      <c r="R201" s="45"/>
+      <c r="P201" s="33"/>
+      <c r="Q201" s="33"/>
+      <c r="R201" s="33"/>
+      <c r="S201" s="33"/>
     </row>
-    <row r="202" spans="1:18">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A202" s="45"/>
       <c r="B202" s="33"/>
-      <c r="C202" s="48"/>
-      <c r="D202" s="33"/>
-      <c r="E202" s="33"/>
-      <c r="F202" s="33"/>
       <c r="G202" s="33"/>
       <c r="H202" s="33"/>
       <c r="I202" s="33"/>
@@ -22033,17 +23510,14 @@
       <c r="M202" s="33"/>
       <c r="N202" s="33"/>
       <c r="O202" s="33"/>
-      <c r="P202" s="45"/>
-      <c r="Q202" s="45"/>
-      <c r="R202" s="45"/>
+      <c r="P202" s="33"/>
+      <c r="Q202" s="33"/>
+      <c r="R202" s="33"/>
+      <c r="S202" s="33"/>
     </row>
-    <row r="203" spans="1:18">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A203" s="45"/>
       <c r="B203" s="33"/>
-      <c r="C203" s="48"/>
-      <c r="D203" s="33"/>
-      <c r="E203" s="33"/>
-      <c r="F203" s="33"/>
       <c r="G203" s="33"/>
       <c r="H203" s="33"/>
       <c r="I203" s="33"/>
@@ -22053,17 +23527,14 @@
       <c r="M203" s="33"/>
       <c r="N203" s="33"/>
       <c r="O203" s="33"/>
-      <c r="P203" s="45"/>
-      <c r="Q203" s="45"/>
-      <c r="R203" s="45"/>
+      <c r="P203" s="33"/>
+      <c r="Q203" s="33"/>
+      <c r="R203" s="33"/>
+      <c r="S203" s="33"/>
     </row>
-    <row r="204" spans="1:18">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A204" s="45"/>
       <c r="B204" s="33"/>
-      <c r="C204" s="48"/>
-      <c r="D204" s="33"/>
-      <c r="E204" s="33"/>
-      <c r="F204" s="33"/>
       <c r="G204" s="33"/>
       <c r="H204" s="33"/>
       <c r="I204" s="33"/>
@@ -22071,19 +23542,16 @@
       <c r="K204" s="33"/>
       <c r="L204" s="33"/>
       <c r="M204" s="33"/>
-      <c r="N204" s="49"/>
-      <c r="O204" s="49"/>
-      <c r="P204" s="45"/>
-      <c r="Q204" s="45"/>
-      <c r="R204" s="45"/>
+      <c r="N204" s="33"/>
+      <c r="O204" s="33"/>
+      <c r="P204" s="33"/>
+      <c r="Q204" s="33"/>
+      <c r="R204" s="33"/>
+      <c r="S204" s="33"/>
     </row>
-    <row r="205" spans="1:18">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A205" s="45"/>
       <c r="B205" s="33"/>
-      <c r="C205" s="48"/>
-      <c r="D205" s="33"/>
-      <c r="E205" s="33"/>
-      <c r="F205" s="33"/>
       <c r="G205" s="33"/>
       <c r="H205" s="33"/>
       <c r="I205" s="33"/>
@@ -22093,17 +23561,14 @@
       <c r="M205" s="33"/>
       <c r="N205" s="33"/>
       <c r="O205" s="33"/>
-      <c r="P205" s="45"/>
-      <c r="Q205" s="45"/>
-      <c r="R205" s="45"/>
+      <c r="P205" s="33"/>
+      <c r="Q205" s="33"/>
+      <c r="R205" s="33"/>
+      <c r="S205" s="33"/>
     </row>
-    <row r="206" spans="1:18">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206" s="45"/>
       <c r="B206" s="33"/>
-      <c r="C206" s="48"/>
-      <c r="D206" s="33"/>
-      <c r="E206" s="33"/>
-      <c r="F206" s="33"/>
       <c r="G206" s="33"/>
       <c r="H206" s="33"/>
       <c r="I206" s="33"/>
@@ -22113,17 +23578,14 @@
       <c r="M206" s="33"/>
       <c r="N206" s="33"/>
       <c r="O206" s="33"/>
-      <c r="P206" s="45"/>
-      <c r="Q206" s="45"/>
-      <c r="R206" s="45"/>
+      <c r="P206" s="33"/>
+      <c r="Q206" s="33"/>
+      <c r="R206" s="33"/>
+      <c r="S206" s="33"/>
     </row>
-    <row r="207" spans="1:18">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207" s="45"/>
       <c r="B207" s="33"/>
-      <c r="C207" s="48"/>
-      <c r="D207" s="33"/>
-      <c r="E207" s="33"/>
-      <c r="F207" s="33"/>
       <c r="G207" s="33"/>
       <c r="H207" s="33"/>
       <c r="I207" s="33"/>
@@ -22133,17 +23595,14 @@
       <c r="M207" s="33"/>
       <c r="N207" s="33"/>
       <c r="O207" s="33"/>
-      <c r="P207" s="45"/>
-      <c r="Q207" s="45"/>
-      <c r="R207" s="45"/>
+      <c r="P207" s="33"/>
+      <c r="Q207" s="33"/>
+      <c r="R207" s="33"/>
+      <c r="S207" s="33"/>
     </row>
-    <row r="208" spans="1:18">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A208" s="45"/>
       <c r="B208" s="33"/>
-      <c r="C208" s="48"/>
-      <c r="D208" s="33"/>
-      <c r="E208" s="33"/>
-      <c r="F208" s="33"/>
       <c r="G208" s="33"/>
       <c r="H208" s="33"/>
       <c r="I208" s="33"/>
@@ -22153,17 +23612,14 @@
       <c r="M208" s="33"/>
       <c r="N208" s="33"/>
       <c r="O208" s="33"/>
-      <c r="P208" s="45"/>
+      <c r="P208" s="33"/>
       <c r="Q208" s="45"/>
-      <c r="R208" s="45"/>
+      <c r="R208" s="33"/>
+      <c r="S208" s="33"/>
     </row>
-    <row r="209" spans="1:18">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A209" s="45"/>
       <c r="B209" s="33"/>
-      <c r="C209" s="48"/>
-      <c r="D209" s="33"/>
-      <c r="E209" s="33"/>
-      <c r="F209" s="33"/>
       <c r="G209" s="33"/>
       <c r="H209" s="33"/>
       <c r="I209" s="33"/>
@@ -22173,17 +23629,14 @@
       <c r="M209" s="33"/>
       <c r="N209" s="33"/>
       <c r="O209" s="33"/>
-      <c r="P209" s="45"/>
+      <c r="P209" s="33"/>
       <c r="Q209" s="45"/>
       <c r="R209" s="45"/>
+      <c r="S209" s="45"/>
     </row>
-    <row r="210" spans="1:18">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A210" s="45"/>
       <c r="B210" s="33"/>
-      <c r="C210" s="48"/>
-      <c r="D210" s="33"/>
-      <c r="E210" s="33"/>
-      <c r="F210" s="33"/>
       <c r="G210" s="33"/>
       <c r="H210" s="33"/>
       <c r="I210" s="33"/>
@@ -22193,17 +23646,14 @@
       <c r="M210" s="33"/>
       <c r="N210" s="33"/>
       <c r="O210" s="33"/>
-      <c r="P210" s="45"/>
+      <c r="P210" s="33"/>
       <c r="Q210" s="45"/>
       <c r="R210" s="45"/>
+      <c r="S210" s="45"/>
     </row>
-    <row r="211" spans="1:18">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A211" s="45"/>
       <c r="B211" s="33"/>
-      <c r="C211" s="48"/>
-      <c r="D211" s="33"/>
-      <c r="E211" s="33"/>
-      <c r="F211" s="33"/>
       <c r="G211" s="33"/>
       <c r="H211" s="33"/>
       <c r="I211" s="33"/>
@@ -22213,11 +23663,12 @@
       <c r="M211" s="33"/>
       <c r="N211" s="33"/>
       <c r="O211" s="33"/>
-      <c r="P211" s="45"/>
+      <c r="P211" s="33"/>
       <c r="Q211" s="45"/>
       <c r="R211" s="45"/>
+      <c r="S211" s="45"/>
     </row>
-    <row r="212" spans="1:18">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A212" s="45"/>
       <c r="B212" s="33"/>
       <c r="C212" s="48"/>
@@ -22233,17 +23684,20 @@
       <c r="M212" s="33"/>
       <c r="N212" s="33"/>
       <c r="O212" s="33"/>
-      <c r="P212" s="45"/>
+      <c r="P212" s="33"/>
       <c r="Q212" s="45"/>
       <c r="R212" s="45"/>
+      <c r="S212" s="45"/>
     </row>
-    <row r="213" spans="1:18">
+    <row r="213" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A213" s="45"/>
       <c r="B213" s="33"/>
-      <c r="C213" s="48"/>
-      <c r="D213" s="33"/>
-      <c r="E213" s="33"/>
-      <c r="F213" s="33"/>
+      <c r="C213" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D213" s="46"/>
+      <c r="E213" s="46"/>
+      <c r="F213" s="46"/>
       <c r="G213" s="33"/>
       <c r="H213" s="33"/>
       <c r="I213" s="33"/>
@@ -22253,11 +23707,12 @@
       <c r="M213" s="33"/>
       <c r="N213" s="33"/>
       <c r="O213" s="33"/>
-      <c r="P213" s="45"/>
+      <c r="P213" s="33"/>
       <c r="Q213" s="45"/>
       <c r="R213" s="45"/>
+      <c r="S213" s="45"/>
     </row>
-    <row r="214" spans="1:18">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A214" s="45"/>
       <c r="B214" s="33"/>
       <c r="C214" s="48"/>
@@ -22273,38 +23728,334 @@
       <c r="M214" s="33"/>
       <c r="N214" s="33"/>
       <c r="O214" s="33"/>
+      <c r="P214" s="33"/>
       <c r="Q214" s="45"/>
       <c r="R214" s="45"/>
+      <c r="S214" s="45"/>
     </row>
-    <row r="215" spans="1:18" ht="18.75">
-      <c r="C215" s="46" t="s">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A215" s="45"/>
+      <c r="B215" s="33"/>
+      <c r="C215" s="48"/>
+      <c r="D215" s="33"/>
+      <c r="E215" s="33"/>
+      <c r="F215" s="33"/>
+      <c r="G215" s="33"/>
+      <c r="H215" s="33"/>
+      <c r="I215" s="33"/>
+      <c r="J215" s="33"/>
+      <c r="K215" s="33"/>
+      <c r="L215" s="33"/>
+      <c r="M215" s="33"/>
+      <c r="N215" s="33"/>
+      <c r="O215" s="33"/>
+      <c r="P215" s="33"/>
+      <c r="Q215" s="45"/>
+      <c r="R215" s="45"/>
+      <c r="S215" s="45"/>
+    </row>
+    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A216" s="45"/>
+      <c r="B216" s="33"/>
+      <c r="C216" s="48"/>
+      <c r="D216" s="33"/>
+      <c r="E216" s="33"/>
+      <c r="F216" s="33"/>
+      <c r="G216" s="33"/>
+      <c r="H216" s="33"/>
+      <c r="I216" s="33"/>
+      <c r="J216" s="33"/>
+      <c r="K216" s="33"/>
+      <c r="L216" s="33"/>
+      <c r="M216" s="33"/>
+      <c r="N216" s="33"/>
+      <c r="O216" s="33"/>
+      <c r="P216" s="33"/>
+      <c r="Q216" s="45"/>
+      <c r="R216" s="45"/>
+      <c r="S216" s="45"/>
+    </row>
+    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A217" s="45"/>
+      <c r="B217" s="33"/>
+      <c r="C217" s="48"/>
+      <c r="D217" s="33"/>
+      <c r="E217" s="33"/>
+      <c r="F217" s="33"/>
+      <c r="G217" s="33"/>
+      <c r="H217" s="33"/>
+      <c r="I217" s="33"/>
+      <c r="J217" s="33"/>
+      <c r="K217" s="33"/>
+      <c r="L217" s="33"/>
+      <c r="M217" s="33"/>
+      <c r="N217" s="33"/>
+      <c r="O217" s="33"/>
+      <c r="P217" s="33"/>
+      <c r="Q217" s="45"/>
+      <c r="R217" s="45"/>
+      <c r="S217" s="45"/>
+    </row>
+    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A218" s="45"/>
+      <c r="B218" s="33"/>
+      <c r="C218" s="48"/>
+      <c r="D218" s="33"/>
+      <c r="E218" s="33"/>
+      <c r="F218" s="33"/>
+      <c r="G218" s="33"/>
+      <c r="H218" s="33"/>
+      <c r="I218" s="33"/>
+      <c r="J218" s="33"/>
+      <c r="K218" s="33"/>
+      <c r="L218" s="33"/>
+      <c r="M218" s="33"/>
+      <c r="N218" s="49"/>
+      <c r="O218" s="49"/>
+      <c r="P218" s="49"/>
+      <c r="Q218" s="45"/>
+      <c r="R218" s="45"/>
+      <c r="S218" s="45"/>
+    </row>
+    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A219" s="45"/>
+      <c r="B219" s="33"/>
+      <c r="C219" s="48"/>
+      <c r="D219" s="33"/>
+      <c r="E219" s="33"/>
+      <c r="F219" s="33"/>
+      <c r="G219" s="33"/>
+      <c r="H219" s="33"/>
+      <c r="I219" s="33"/>
+      <c r="J219" s="33"/>
+      <c r="K219" s="33"/>
+      <c r="L219" s="33"/>
+      <c r="M219" s="33"/>
+      <c r="N219" s="33"/>
+      <c r="O219" s="33"/>
+      <c r="P219" s="33"/>
+      <c r="Q219" s="45"/>
+      <c r="R219" s="45"/>
+      <c r="S219" s="45"/>
+    </row>
+    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A220" s="45"/>
+      <c r="B220" s="33"/>
+      <c r="C220" s="48"/>
+      <c r="D220" s="33"/>
+      <c r="E220" s="33"/>
+      <c r="F220" s="33"/>
+      <c r="G220" s="33"/>
+      <c r="H220" s="33"/>
+      <c r="I220" s="33"/>
+      <c r="J220" s="33"/>
+      <c r="K220" s="33"/>
+      <c r="L220" s="33"/>
+      <c r="M220" s="33"/>
+      <c r="N220" s="33"/>
+      <c r="O220" s="33"/>
+      <c r="P220" s="33"/>
+      <c r="Q220" s="45"/>
+      <c r="R220" s="45"/>
+      <c r="S220" s="45"/>
+    </row>
+    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A221" s="45"/>
+      <c r="B221" s="33"/>
+      <c r="C221" s="48"/>
+      <c r="D221" s="33"/>
+      <c r="E221" s="33"/>
+      <c r="F221" s="33"/>
+      <c r="G221" s="33"/>
+      <c r="H221" s="33"/>
+      <c r="I221" s="33"/>
+      <c r="J221" s="33"/>
+      <c r="K221" s="33"/>
+      <c r="L221" s="33"/>
+      <c r="M221" s="33"/>
+      <c r="N221" s="33"/>
+      <c r="O221" s="33"/>
+      <c r="P221" s="33"/>
+      <c r="Q221" s="45"/>
+      <c r="R221" s="45"/>
+      <c r="S221" s="45"/>
+    </row>
+    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A222" s="45"/>
+      <c r="B222" s="33"/>
+      <c r="C222" s="48"/>
+      <c r="D222" s="33"/>
+      <c r="E222" s="33"/>
+      <c r="F222" s="33"/>
+      <c r="G222" s="33"/>
+      <c r="H222" s="33"/>
+      <c r="I222" s="33"/>
+      <c r="J222" s="33"/>
+      <c r="K222" s="33"/>
+      <c r="L222" s="33"/>
+      <c r="M222" s="33"/>
+      <c r="N222" s="33"/>
+      <c r="O222" s="33"/>
+      <c r="P222" s="33"/>
+      <c r="Q222" s="45"/>
+      <c r="R222" s="45"/>
+      <c r="S222" s="45"/>
+    </row>
+    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A223" s="45"/>
+      <c r="B223" s="33"/>
+      <c r="C223" s="48"/>
+      <c r="D223" s="33"/>
+      <c r="E223" s="33"/>
+      <c r="F223" s="33"/>
+      <c r="G223" s="33"/>
+      <c r="H223" s="33"/>
+      <c r="I223" s="33"/>
+      <c r="J223" s="33"/>
+      <c r="K223" s="33"/>
+      <c r="L223" s="33"/>
+      <c r="M223" s="33"/>
+      <c r="N223" s="33"/>
+      <c r="O223" s="33"/>
+      <c r="P223" s="33"/>
+      <c r="Q223" s="45"/>
+      <c r="R223" s="45"/>
+      <c r="S223" s="45"/>
+    </row>
+    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A224" s="45"/>
+      <c r="B224" s="33"/>
+      <c r="C224" s="48"/>
+      <c r="D224" s="33"/>
+      <c r="E224" s="33"/>
+      <c r="F224" s="33"/>
+      <c r="G224" s="33"/>
+      <c r="H224" s="33"/>
+      <c r="I224" s="33"/>
+      <c r="J224" s="33"/>
+      <c r="K224" s="33"/>
+      <c r="L224" s="33"/>
+      <c r="M224" s="33"/>
+      <c r="N224" s="33"/>
+      <c r="O224" s="33"/>
+      <c r="P224" s="33"/>
+      <c r="Q224" s="45"/>
+      <c r="R224" s="45"/>
+      <c r="S224" s="45"/>
+    </row>
+    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A225" s="45"/>
+      <c r="B225" s="33"/>
+      <c r="C225" s="48"/>
+      <c r="D225" s="33"/>
+      <c r="E225" s="33"/>
+      <c r="F225" s="33"/>
+      <c r="G225" s="33"/>
+      <c r="H225" s="33"/>
+      <c r="I225" s="33"/>
+      <c r="J225" s="33"/>
+      <c r="K225" s="33"/>
+      <c r="L225" s="33"/>
+      <c r="M225" s="33"/>
+      <c r="N225" s="33"/>
+      <c r="O225" s="33"/>
+      <c r="P225" s="33"/>
+      <c r="Q225" s="45"/>
+      <c r="R225" s="45"/>
+      <c r="S225" s="45"/>
+    </row>
+    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A226" s="45"/>
+      <c r="B226" s="33"/>
+      <c r="C226" s="48"/>
+      <c r="D226" s="33"/>
+      <c r="E226" s="33"/>
+      <c r="F226" s="33"/>
+      <c r="G226" s="33"/>
+      <c r="H226" s="33"/>
+      <c r="I226" s="33"/>
+      <c r="J226" s="33"/>
+      <c r="K226" s="33"/>
+      <c r="L226" s="33"/>
+      <c r="M226" s="33"/>
+      <c r="N226" s="33"/>
+      <c r="O226" s="33"/>
+      <c r="P226" s="33"/>
+      <c r="Q226" s="45"/>
+      <c r="R226" s="45"/>
+      <c r="S226" s="45"/>
+    </row>
+    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A227" s="45"/>
+      <c r="B227" s="33"/>
+      <c r="C227" s="48"/>
+      <c r="D227" s="33"/>
+      <c r="E227" s="33"/>
+      <c r="F227" s="33"/>
+      <c r="G227" s="33"/>
+      <c r="H227" s="33"/>
+      <c r="I227" s="33"/>
+      <c r="J227" s="33"/>
+      <c r="K227" s="33"/>
+      <c r="L227" s="33"/>
+      <c r="M227" s="33"/>
+      <c r="N227" s="33"/>
+      <c r="O227" s="33"/>
+      <c r="P227" s="33"/>
+      <c r="Q227" s="45"/>
+      <c r="R227" s="45"/>
+      <c r="S227" s="45"/>
+    </row>
+    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A228" s="45"/>
+      <c r="B228" s="33"/>
+      <c r="C228" s="48"/>
+      <c r="D228" s="33"/>
+      <c r="E228" s="33"/>
+      <c r="F228" s="33"/>
+      <c r="G228" s="33"/>
+      <c r="H228" s="33"/>
+      <c r="I228" s="33"/>
+      <c r="J228" s="33"/>
+      <c r="K228" s="33"/>
+      <c r="L228" s="33"/>
+      <c r="M228" s="33"/>
+      <c r="N228" s="33"/>
+      <c r="O228" s="33"/>
+      <c r="P228" s="33"/>
+      <c r="Q228" s="45"/>
+      <c r="R228" s="45"/>
+      <c r="S228" s="45"/>
+    </row>
+    <row r="229" spans="1:19" ht="19" x14ac:dyDescent="0.2">
+      <c r="C229" s="46" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A151:B152"/>
-    <mergeCell ref="Q151:R151"/>
-    <mergeCell ref="D152:K152"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="A66:B67"/>
-    <mergeCell ref="D67:K67"/>
-    <mergeCell ref="F1:J4"/>
-    <mergeCell ref="C183:F183"/>
-    <mergeCell ref="C104:F104"/>
-    <mergeCell ref="C167:E167"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C33:F33"/>
     <mergeCell ref="A6:B7"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="M5:N6"/>
     <mergeCell ref="D7:K7"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="F1:J4"/>
+    <mergeCell ref="C197:F197"/>
+    <mergeCell ref="C104:F104"/>
+    <mergeCell ref="C181:E181"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="A165:B166"/>
+    <mergeCell ref="R165:S165"/>
+    <mergeCell ref="D166:K166"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="A66:B67"/>
+    <mergeCell ref="D67:K67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/dados dos inquéritos.xlsx
+++ b/dados dos inquéritos.xlsx
@@ -564,20 +564,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1289,11 +1289,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1252558864"/>
-        <c:axId val="1252560912"/>
+        <c:axId val="1252555712"/>
+        <c:axId val="1252949520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1252558864"/>
+        <c:axId val="1252555712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1341,7 +1341,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1252560912"/>
+        <c:crossAx val="1252949520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1349,7 +1349,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1252560912"/>
+        <c:axId val="1252949520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1404,7 +1404,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1252558864"/>
+        <c:crossAx val="1252555712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1728,11 +1728,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1167222192"/>
-        <c:axId val="1167224512"/>
+        <c:axId val="1166086560"/>
+        <c:axId val="1251257552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1167222192"/>
+        <c:axId val="1166086560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,7 +1780,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1167224512"/>
+        <c:crossAx val="1251257552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1788,7 +1788,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1167224512"/>
+        <c:axId val="1251257552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1843,7 +1843,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1167222192"/>
+        <c:crossAx val="1166086560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1972,6 +1972,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2095,6 +2096,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2210,6 +2212,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2333,6 +2336,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2448,6 +2452,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2571,6 +2576,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2686,6 +2692,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2809,6 +2816,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2924,6 +2932,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3047,6 +3056,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3162,6 +3172,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3285,6 +3296,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3400,6 +3412,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3523,6 +3536,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3878,6 +3892,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4001,6 +4016,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4116,6 +4132,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4287,11 +4304,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1251825168"/>
-        <c:axId val="1251950912"/>
+        <c:axId val="1252206496"/>
+        <c:axId val="1252558864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1251825168"/>
+        <c:axId val="1252206496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4339,7 +4356,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1251950912"/>
+        <c:crossAx val="1252558864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4347,7 +4364,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1251950912"/>
+        <c:axId val="1252558864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4403,7 +4420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1251825168"/>
+        <c:crossAx val="1252206496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4417,6 +4434,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4532,6 +4550,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4703,11 +4722,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1167303856"/>
-        <c:axId val="1167305632"/>
+        <c:axId val="1252078672"/>
+        <c:axId val="1252594368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1167303856"/>
+        <c:axId val="1252078672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4755,7 +4774,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1167305632"/>
+        <c:crossAx val="1252594368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4763,7 +4782,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1167305632"/>
+        <c:axId val="1252594368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4819,7 +4838,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1167303856"/>
+        <c:crossAx val="1252078672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4833,6 +4852,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4948,6 +4968,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5071,6 +5092,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5906,6 +5928,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6029,6 +6052,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6144,6 +6168,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6267,6 +6292,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6382,6 +6408,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6505,6 +6532,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6620,6 +6648,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6743,6 +6772,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20566,8 +20596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="89" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="89" workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20581,24 +20611,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
       <c r="M1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
       <c r="M2" s="1">
         <v>1</v>
       </c>
@@ -20608,11 +20638,11 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
       <c r="M3" s="1">
         <v>0</v>
       </c>
@@ -20622,22 +20652,22 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="M5" s="58" t="s">
+      <c r="M5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="58"/>
-      <c r="O5" s="57" t="s">
+      <c r="N5" s="55"/>
+      <c r="O5" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="P5" s="58" t="s">
+      <c r="P5" s="55" t="s">
         <v>61</v>
       </c>
       <c r="Q5" s="1"/>
@@ -20650,15 +20680,15 @@
       <c r="L6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="58"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="55"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="54" t="s">
+      <c r="R6" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="S6" s="54"/>
+      <c r="S6" s="56"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="53"/>
@@ -20666,16 +20696,16 @@
       <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
       <c r="L7" s="8" t="s">
         <v>1</v>
       </c>
@@ -20971,11 +21001,11 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="3:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
     </row>
     <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="N26" s="4"/>
@@ -20983,12 +21013,12 @@
       <c r="P26" s="4"/>
     </row>
     <row r="33" spans="3:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
     </row>
     <row r="49" spans="3:6" ht="19" x14ac:dyDescent="0.2">
       <c r="C49" s="28" t="s">
@@ -21011,11 +21041,11 @@
       <c r="O66" s="34"/>
       <c r="P66" s="34"/>
       <c r="Q66" s="1"/>
-      <c r="R66" s="54" t="s">
+      <c r="R66" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="S66" s="54"/>
-      <c r="T66" s="54"/>
+      <c r="S66" s="56"/>
+      <c r="T66" s="56"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="53"/>
@@ -21023,16 +21053,16 @@
       <c r="C67" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="54" t="s">
+      <c r="D67" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="54"/>
-      <c r="K67" s="54"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="56"/>
+      <c r="K67" s="56"/>
       <c r="L67" s="33">
         <v>5</v>
       </c>
@@ -21589,11 +21619,11 @@
       <c r="T87" s="1"/>
     </row>
     <row r="88" spans="3:20" ht="19" x14ac:dyDescent="0.2">
-      <c r="C88" s="55" t="s">
+      <c r="C88" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="55"/>
-      <c r="E88" s="55"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
       <c r="G88" s="33"/>
       <c r="H88" s="33"/>
       <c r="I88" s="33"/>
@@ -21850,12 +21880,12 @@
       <c r="T103" s="1"/>
     </row>
     <row r="104" spans="3:20" ht="19" x14ac:dyDescent="0.2">
-      <c r="C104" s="55" t="s">
+      <c r="C104" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D104" s="55"/>
-      <c r="E104" s="55"/>
-      <c r="F104" s="55"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="58"/>
+      <c r="F104" s="58"/>
       <c r="G104" s="33"/>
       <c r="H104" s="33"/>
       <c r="I104" s="33"/>
@@ -23044,10 +23074,10 @@
       <c r="O165" s="34"/>
       <c r="P165" s="34"/>
       <c r="Q165" s="1"/>
-      <c r="R165" s="54" t="s">
+      <c r="R165" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="S165" s="54"/>
+      <c r="S165" s="56"/>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" s="53"/>
@@ -23055,16 +23085,16 @@
       <c r="C166" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D166" s="54" t="s">
+      <c r="D166" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E166" s="54"/>
-      <c r="F166" s="54"/>
-      <c r="G166" s="54"/>
-      <c r="H166" s="54"/>
-      <c r="I166" s="54"/>
-      <c r="J166" s="54"/>
-      <c r="K166" s="54"/>
+      <c r="E166" s="56"/>
+      <c r="F166" s="56"/>
+      <c r="G166" s="56"/>
+      <c r="H166" s="56"/>
+      <c r="I166" s="56"/>
+      <c r="J166" s="56"/>
+      <c r="K166" s="56"/>
       <c r="L166" s="33">
         <v>2</v>
       </c>
@@ -23411,11 +23441,11 @@
       <c r="S180" s="1"/>
     </row>
     <row r="181" spans="3:19" ht="19" x14ac:dyDescent="0.2">
-      <c r="C181" s="55" t="s">
+      <c r="C181" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D181" s="55"/>
-      <c r="E181" s="55"/>
+      <c r="D181" s="58"/>
+      <c r="E181" s="58"/>
     </row>
     <row r="190" spans="3:19" x14ac:dyDescent="0.2">
       <c r="N190" s="4"/>
@@ -23423,12 +23453,12 @@
       <c r="P190" s="4"/>
     </row>
     <row r="197" spans="1:19" ht="19" x14ac:dyDescent="0.2">
-      <c r="C197" s="55" t="s">
+      <c r="C197" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D197" s="55"/>
-      <c r="E197" s="55"/>
-      <c r="F197" s="55"/>
+      <c r="D197" s="58"/>
+      <c r="E197" s="58"/>
+      <c r="F197" s="58"/>
     </row>
     <row r="198" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="47"/>
@@ -24034,11 +24064,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="M5:N6"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="A165:B166"/>
+    <mergeCell ref="R165:S165"/>
+    <mergeCell ref="D166:K166"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="A66:B67"/>
+    <mergeCell ref="D67:K67"/>
     <mergeCell ref="F1:J4"/>
     <mergeCell ref="C197:F197"/>
     <mergeCell ref="C104:F104"/>
@@ -24047,12 +24078,11 @@
     <mergeCell ref="R6:S6"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C33:F33"/>
-    <mergeCell ref="A165:B166"/>
-    <mergeCell ref="R165:S165"/>
-    <mergeCell ref="D166:K166"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="A66:B67"/>
-    <mergeCell ref="D67:K67"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/dados dos inquéritos.xlsx
+++ b/dados dos inquéritos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>Inquéritos p/ o Projeto de Inovação</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>Clínica Veterinária Animal Especial</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -564,20 +567,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -880,6 +883,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -976,7 +980,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1003,6 +1007,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1118,6 +1123,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1207,7 +1213,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0</c:v>
@@ -1270,10 +1276,10 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1289,11 +1295,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1252555712"/>
-        <c:axId val="1252949520"/>
+        <c:axId val="501961520"/>
+        <c:axId val="502737872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1252555712"/>
+        <c:axId val="501961520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1341,7 +1347,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1252949520"/>
+        <c:crossAx val="502737872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1349,7 +1355,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1252949520"/>
+        <c:axId val="502737872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1404,7 +1410,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1252555712"/>
+        <c:crossAx val="501961520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1418,6 +1424,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1533,6 +1540,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1628,10 +1636,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.0</c:v>
@@ -1706,13 +1714,13 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1728,11 +1736,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1166086560"/>
-        <c:axId val="1251257552"/>
+        <c:axId val="588301248"/>
+        <c:axId val="588304000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1166086560"/>
+        <c:axId val="588301248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,7 +1788,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1251257552"/>
+        <c:crossAx val="588304000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1788,7 +1796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1251257552"/>
+        <c:axId val="588304000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1843,7 +1851,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1166086560"/>
+        <c:crossAx val="588301248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1857,6 +1865,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2066,7 +2075,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
@@ -2306,10 +2315,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2546,10 +2555,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2786,10 +2795,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3026,10 +3035,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3266,10 +3275,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3506,10 +3515,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3986,10 +3995,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4222,13 +4231,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4282,13 +4291,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4304,11 +4313,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1252206496"/>
-        <c:axId val="1252558864"/>
+        <c:axId val="588441568"/>
+        <c:axId val="588444320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1252206496"/>
+        <c:axId val="588441568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4356,7 +4365,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1252558864"/>
+        <c:crossAx val="588444320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4364,7 +4373,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1252558864"/>
+        <c:axId val="588444320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4420,7 +4429,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1252206496"/>
+        <c:crossAx val="588441568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4640,13 +4649,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4700,13 +4709,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4722,11 +4731,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1252078672"/>
-        <c:axId val="1252594368"/>
+        <c:axId val="588474112"/>
+        <c:axId val="588476864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1252078672"/>
+        <c:axId val="588474112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4774,7 +4783,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1252594368"/>
+        <c:crossAx val="588476864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4782,7 +4791,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1252594368"/>
+        <c:axId val="588476864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4838,7 +4847,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1252078672"/>
+        <c:crossAx val="588474112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5065,7 +5074,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6502,7 +6511,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
@@ -6742,7 +6751,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
@@ -20596,8 +20605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="89" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="89" workbookViewId="0">
+      <selection activeCell="M175" sqref="M175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20611,24 +20620,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
       <c r="M1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
       <c r="M2" s="1">
         <v>1</v>
       </c>
@@ -20638,11 +20647,11 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
       <c r="M3" s="1">
         <v>0</v>
       </c>
@@ -20652,22 +20661,22 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="M5" s="55" t="s">
+      <c r="M5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="55"/>
-      <c r="O5" s="54" t="s">
+      <c r="N5" s="58"/>
+      <c r="O5" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="P5" s="55" t="s">
+      <c r="P5" s="58" t="s">
         <v>61</v>
       </c>
       <c r="Q5" s="1"/>
@@ -20680,15 +20689,15 @@
       <c r="L6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="55"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="58"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="56" t="s">
+      <c r="R6" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="S6" s="56"/>
+      <c r="S6" s="54"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="53"/>
@@ -20696,16 +20705,16 @@
       <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
       <c r="L7" s="8" t="s">
         <v>1</v>
       </c>
@@ -21001,11 +21010,11 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="3:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
     </row>
     <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="N26" s="4"/>
@@ -21013,12 +21022,12 @@
       <c r="P26" s="4"/>
     </row>
     <row r="33" spans="3:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
     </row>
     <row r="49" spans="3:6" ht="19" x14ac:dyDescent="0.2">
       <c r="C49" s="28" t="s">
@@ -21041,11 +21050,11 @@
       <c r="O66" s="34"/>
       <c r="P66" s="34"/>
       <c r="Q66" s="1"/>
-      <c r="R66" s="56" t="s">
+      <c r="R66" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="S66" s="56"/>
-      <c r="T66" s="56"/>
+      <c r="S66" s="54"/>
+      <c r="T66" s="54"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="53"/>
@@ -21053,18 +21062,18 @@
       <c r="C67" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="56" t="s">
+      <c r="D67" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="56"/>
-      <c r="K67" s="56"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="54"/>
       <c r="L67" s="33">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="M67" s="33"/>
       <c r="N67" s="33"/>
@@ -21102,7 +21111,7 @@
       <c r="P68" s="33"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="29">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="S68" s="17">
         <f>$L$67-R68</f>
@@ -21131,11 +21140,11 @@
       <c r="P69" s="33"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="25">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="S69" s="19">
         <f t="shared" ref="S69:S86" si="3">$L$67-R69</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T69" s="1"/>
     </row>
@@ -21160,11 +21169,11 @@
       <c r="P70" s="33"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="29">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S70" s="17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="T70" s="1"/>
     </row>
@@ -21189,11 +21198,11 @@
       <c r="P71" s="33"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="25">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="S71" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T71" s="1"/>
     </row>
@@ -21218,11 +21227,11 @@
       <c r="P72" s="33"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="29">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="S72" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T72" s="1"/>
     </row>
@@ -21247,11 +21256,11 @@
       <c r="P73" s="33"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S73" s="19">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T73" s="1"/>
     </row>
@@ -21276,11 +21285,11 @@
       <c r="P74" s="33"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S74" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="T74" s="1"/>
     </row>
@@ -21304,11 +21313,11 @@
       <c r="O75" s="33"/>
       <c r="P75" s="33"/>
       <c r="R75" s="52">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S75" s="19">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T75" s="1"/>
     </row>
@@ -21402,11 +21411,11 @@
       <c r="O79" s="33"/>
       <c r="P79" s="33"/>
       <c r="R79" s="52">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S79" s="19">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="T79" s="1"/>
     </row>
@@ -21430,11 +21439,11 @@
       <c r="O80" s="33"/>
       <c r="P80" s="33"/>
       <c r="R80" s="50">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="S80" s="17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T80" s="1"/>
     </row>
@@ -21458,11 +21467,11 @@
       <c r="O81" s="33"/>
       <c r="P81" s="33"/>
       <c r="R81" s="52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S81" s="19">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="T81" s="1"/>
     </row>
@@ -21506,11 +21515,11 @@
       <c r="O83" s="33"/>
       <c r="P83" s="33"/>
       <c r="R83" s="52">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="S83" s="19">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T83" s="1"/>
     </row>
@@ -21534,11 +21543,11 @@
       <c r="O84" s="33"/>
       <c r="P84" s="33"/>
       <c r="R84" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S84" s="17">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="T84" s="1"/>
     </row>
@@ -21562,11 +21571,11 @@
       <c r="O85" s="33"/>
       <c r="P85" s="33"/>
       <c r="R85" s="52">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="S85" s="19">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T85" s="1"/>
     </row>
@@ -21594,7 +21603,7 @@
       </c>
       <c r="S86" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="T86" s="1"/>
     </row>
@@ -21619,11 +21628,11 @@
       <c r="T87" s="1"/>
     </row>
     <row r="88" spans="3:20" ht="19" x14ac:dyDescent="0.2">
-      <c r="C88" s="58" t="s">
+      <c r="C88" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="58"/>
-      <c r="E88" s="58"/>
+      <c r="D88" s="55"/>
+      <c r="E88" s="55"/>
       <c r="G88" s="33"/>
       <c r="H88" s="33"/>
       <c r="I88" s="33"/>
@@ -21880,12 +21889,12 @@
       <c r="T103" s="1"/>
     </row>
     <row r="104" spans="3:20" ht="19" x14ac:dyDescent="0.2">
-      <c r="C104" s="58" t="s">
+      <c r="C104" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D104" s="58"/>
-      <c r="E104" s="58"/>
-      <c r="F104" s="58"/>
+      <c r="D104" s="55"/>
+      <c r="E104" s="55"/>
+      <c r="F104" s="55"/>
       <c r="G104" s="33"/>
       <c r="H104" s="33"/>
       <c r="I104" s="33"/>
@@ -23074,10 +23083,10 @@
       <c r="O165" s="34"/>
       <c r="P165" s="34"/>
       <c r="Q165" s="1"/>
-      <c r="R165" s="56" t="s">
+      <c r="R165" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="S165" s="56"/>
+      <c r="S165" s="54"/>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" s="53"/>
@@ -23085,18 +23094,18 @@
       <c r="C166" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D166" s="56" t="s">
+      <c r="D166" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="E166" s="56"/>
-      <c r="F166" s="56"/>
-      <c r="G166" s="56"/>
-      <c r="H166" s="56"/>
-      <c r="I166" s="56"/>
-      <c r="J166" s="56"/>
-      <c r="K166" s="56"/>
+      <c r="E166" s="54"/>
+      <c r="F166" s="54"/>
+      <c r="G166" s="54"/>
+      <c r="H166" s="54"/>
+      <c r="I166" s="54"/>
+      <c r="J166" s="54"/>
+      <c r="K166" s="54"/>
       <c r="L166" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M166" s="34"/>
       <c r="N166" s="33"/>
@@ -23133,7 +23142,7 @@
       <c r="P167" s="33"/>
       <c r="Q167" s="1"/>
       <c r="R167" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S167" s="37">
         <f>$L$166-R167</f>
@@ -23163,7 +23172,7 @@
       <c r="P168" s="33"/>
       <c r="Q168" s="1"/>
       <c r="R168" s="36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S168" s="38">
         <f>$L$166-R168</f>
@@ -23185,7 +23194,9 @@
       <c r="I169" s="11"/>
       <c r="J169" s="11"/>
       <c r="K169" s="11"/>
-      <c r="M169" s="33"/>
+      <c r="M169" s="33" t="s">
+        <v>62</v>
+      </c>
       <c r="N169" s="33"/>
       <c r="O169" s="33"/>
       <c r="P169" s="33"/>
@@ -23195,7 +23206,7 @@
       </c>
       <c r="S169" s="37">
         <f>$L$166-R169</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.2">
@@ -23237,7 +23248,7 @@
       <c r="O171" s="33"/>
       <c r="P171" s="33"/>
       <c r="R171" s="40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S171" s="37">
         <f>$L$166-R171</f>
@@ -23269,7 +23280,7 @@
       </c>
       <c r="S172" s="38">
         <f>$L$166-R172</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T172" s="1"/>
     </row>
@@ -23297,7 +23308,7 @@
       </c>
       <c r="S173" s="37">
         <f>$L$166-R173</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T173" s="1"/>
     </row>
@@ -23333,7 +23344,7 @@
       <c r="K175" s="11"/>
       <c r="Q175" s="1"/>
       <c r="R175" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S175" s="37">
         <f>$L$166-R175</f>
@@ -23357,7 +23368,7 @@
       <c r="K176" s="14"/>
       <c r="Q176" s="1"/>
       <c r="R176" s="36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S176" s="38">
         <f>$L$166-R176</f>
@@ -23385,7 +23396,7 @@
       </c>
       <c r="S177" s="37">
         <f>$L$166-R177</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="3:19" x14ac:dyDescent="0.2">
@@ -23409,7 +23420,7 @@
       </c>
       <c r="S178" s="38">
         <f>$L$166-R178</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="3:19" x14ac:dyDescent="0.2">
@@ -23433,7 +23444,7 @@
       </c>
       <c r="S179" s="37">
         <f>$L$166-R179</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="3:19" x14ac:dyDescent="0.2">
@@ -23441,11 +23452,11 @@
       <c r="S180" s="1"/>
     </row>
     <row r="181" spans="3:19" ht="19" x14ac:dyDescent="0.2">
-      <c r="C181" s="58" t="s">
+      <c r="C181" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D181" s="58"/>
-      <c r="E181" s="58"/>
+      <c r="D181" s="55"/>
+      <c r="E181" s="55"/>
     </row>
     <row r="190" spans="3:19" x14ac:dyDescent="0.2">
       <c r="N190" s="4"/>
@@ -23453,12 +23464,12 @@
       <c r="P190" s="4"/>
     </row>
     <row r="197" spans="1:19" ht="19" x14ac:dyDescent="0.2">
-      <c r="C197" s="58" t="s">
+      <c r="C197" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D197" s="58"/>
-      <c r="E197" s="58"/>
-      <c r="F197" s="58"/>
+      <c r="D197" s="55"/>
+      <c r="E197" s="55"/>
+      <c r="F197" s="55"/>
     </row>
     <row r="198" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="47"/>
@@ -24064,12 +24075,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A165:B166"/>
-    <mergeCell ref="R165:S165"/>
-    <mergeCell ref="D166:K166"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="A66:B67"/>
-    <mergeCell ref="D67:K67"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="P5:P6"/>
     <mergeCell ref="F1:J4"/>
     <mergeCell ref="C197:F197"/>
     <mergeCell ref="C104:F104"/>
@@ -24078,11 +24088,12 @@
     <mergeCell ref="R6:S6"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C33:F33"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="M5:N6"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="A165:B166"/>
+    <mergeCell ref="R165:S165"/>
+    <mergeCell ref="D166:K166"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="A66:B67"/>
+    <mergeCell ref="D67:K67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/dados dos inquéritos.xlsx
+++ b/dados dos inquéritos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
   <si>
     <t>Inquéritos p/ o Projeto de Inovação</t>
   </si>
@@ -216,6 +216,42 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Indivíduo Comum</t>
+  </si>
+  <si>
+    <t>Tens, tiveste ou gostavas de ter um animal de estimação?</t>
+  </si>
+  <si>
+    <t>Se quisesses um animal, preferias:</t>
+  </si>
+  <si>
+    <t>Procurar um criador</t>
+  </si>
+  <si>
+    <t>Recorrer a uma plataforma deste tipo</t>
+  </si>
+  <si>
+    <t>Visitar um canil diretamente</t>
+  </si>
+  <si>
+    <t>Tens noção das consequências da criação de animais?</t>
+  </si>
+  <si>
+    <t>Agora que tens alguma ideia dos efeitos nocivos da criação privada de animais:</t>
+  </si>
+  <si>
+    <t>Continuaria a procurar um criador</t>
+  </si>
+  <si>
+    <t>Recorreria a uma plataforma deste tipo</t>
+  </si>
+  <si>
+    <t>Visitaria um canil diretamente</t>
+  </si>
+  <si>
+    <t>Que funcionalidades achas que seriam úteis para incluir nesta plataforma?</t>
   </si>
 </sst>
 </file>
@@ -408,7 +444,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -567,20 +603,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1295,11 +1334,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="501961520"/>
-        <c:axId val="502737872"/>
+        <c:axId val="965664288"/>
+        <c:axId val="965667040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="501961520"/>
+        <c:axId val="965664288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1347,7 +1386,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502737872"/>
+        <c:crossAx val="965667040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1355,7 +1394,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="502737872"/>
+        <c:axId val="965667040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,7 +1449,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501961520"/>
+        <c:crossAx val="965664288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1736,11 +1775,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="588301248"/>
-        <c:axId val="588304000"/>
+        <c:axId val="929275744"/>
+        <c:axId val="929278064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="588301248"/>
+        <c:axId val="929275744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1788,7 +1827,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588304000"/>
+        <c:crossAx val="929278064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1796,7 +1835,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="588304000"/>
+        <c:axId val="929278064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1851,7 +1890,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588301248"/>
+        <c:crossAx val="929275744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2461,7 +2500,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2585,7 +2623,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2701,7 +2738,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2825,7 +2861,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4313,11 +4348,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="588441568"/>
-        <c:axId val="588444320"/>
+        <c:axId val="998313136"/>
+        <c:axId val="998315888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="588441568"/>
+        <c:axId val="998313136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4365,7 +4400,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588444320"/>
+        <c:crossAx val="998315888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4373,7 +4408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="588444320"/>
+        <c:axId val="998315888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4429,7 +4464,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588441568"/>
+        <c:crossAx val="998313136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4731,11 +4766,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="588474112"/>
-        <c:axId val="588476864"/>
+        <c:axId val="998341392"/>
+        <c:axId val="929284976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="588474112"/>
+        <c:axId val="998341392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4783,7 +4818,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588476864"/>
+        <c:crossAx val="929284976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4791,7 +4826,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="588476864"/>
+        <c:axId val="929284976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4847,7 +4882,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588474112"/>
+        <c:crossAx val="998341392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5160,6 +5195,449 @@
             </a:solidFill>
           </a:ln>
         </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Útil</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$246:$S$246</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Sim</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Não</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$247:$S$247</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>282.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Impacto</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Positivo na Sobrelotação</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$246:$S$246</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Sim</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Não</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$248:$S$248</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>237.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -7492,6 +7970,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -15494,6 +16052,1044 @@
 </file>
 
 <file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20337,6 +21933,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>810517</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>12558</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>819155</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>158679</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25685</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>212333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>34324</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>115870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -20603,10 +22259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T229"/>
+  <dimension ref="A1:X267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="89" workbookViewId="0">
-      <selection activeCell="M175" sqref="M175"/>
+    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="89" workbookViewId="0">
+      <selection activeCell="K276" sqref="K276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20620,24 +22276,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
       <c r="M1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
       <c r="M2" s="1">
         <v>1</v>
       </c>
@@ -20647,11 +22303,11 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
       <c r="M3" s="1">
         <v>0</v>
       </c>
@@ -20661,22 +22317,22 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="M5" s="58" t="s">
+      <c r="M5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="58"/>
-      <c r="O5" s="57" t="s">
+      <c r="N5" s="55"/>
+      <c r="O5" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="P5" s="58" t="s">
+      <c r="P5" s="55" t="s">
         <v>61</v>
       </c>
       <c r="Q5" s="1"/>
@@ -20689,15 +22345,15 @@
       <c r="L6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="58"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="55"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="54" t="s">
+      <c r="R6" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="S6" s="54"/>
+      <c r="S6" s="56"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="53"/>
@@ -20705,16 +22361,16 @@
       <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
       <c r="L7" s="8" t="s">
         <v>1</v>
       </c>
@@ -21010,11 +22666,11 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="3:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
     </row>
     <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="N26" s="4"/>
@@ -21022,12 +22678,12 @@
       <c r="P26" s="4"/>
     </row>
     <row r="33" spans="3:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
     </row>
     <row r="49" spans="3:6" ht="19" x14ac:dyDescent="0.2">
       <c r="C49" s="28" t="s">
@@ -21050,11 +22706,11 @@
       <c r="O66" s="34"/>
       <c r="P66" s="34"/>
       <c r="Q66" s="1"/>
-      <c r="R66" s="54" t="s">
+      <c r="R66" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="S66" s="54"/>
-      <c r="T66" s="54"/>
+      <c r="S66" s="56"/>
+      <c r="T66" s="56"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="53"/>
@@ -21062,16 +22718,16 @@
       <c r="C67" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="54" t="s">
+      <c r="D67" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="54"/>
-      <c r="K67" s="54"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="56"/>
+      <c r="K67" s="56"/>
       <c r="L67" s="33">
         <v>21</v>
       </c>
@@ -21628,11 +23284,11 @@
       <c r="T87" s="1"/>
     </row>
     <row r="88" spans="3:20" ht="19" x14ac:dyDescent="0.2">
-      <c r="C88" s="55" t="s">
+      <c r="C88" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="55"/>
-      <c r="E88" s="55"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
       <c r="G88" s="33"/>
       <c r="H88" s="33"/>
       <c r="I88" s="33"/>
@@ -21889,12 +23545,12 @@
       <c r="T103" s="1"/>
     </row>
     <row r="104" spans="3:20" ht="19" x14ac:dyDescent="0.2">
-      <c r="C104" s="55" t="s">
+      <c r="C104" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D104" s="55"/>
-      <c r="E104" s="55"/>
-      <c r="F104" s="55"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="58"/>
+      <c r="F104" s="58"/>
       <c r="G104" s="33"/>
       <c r="H104" s="33"/>
       <c r="I104" s="33"/>
@@ -23083,10 +24739,10 @@
       <c r="O165" s="34"/>
       <c r="P165" s="34"/>
       <c r="Q165" s="1"/>
-      <c r="R165" s="54" t="s">
+      <c r="R165" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="S165" s="54"/>
+      <c r="S165" s="56"/>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" s="53"/>
@@ -23094,16 +24750,16 @@
       <c r="C166" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D166" s="54" t="s">
+      <c r="D166" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E166" s="54"/>
-      <c r="F166" s="54"/>
-      <c r="G166" s="54"/>
-      <c r="H166" s="54"/>
-      <c r="I166" s="54"/>
-      <c r="J166" s="54"/>
-      <c r="K166" s="54"/>
+      <c r="E166" s="56"/>
+      <c r="F166" s="56"/>
+      <c r="G166" s="56"/>
+      <c r="H166" s="56"/>
+      <c r="I166" s="56"/>
+      <c r="J166" s="56"/>
+      <c r="K166" s="56"/>
       <c r="L166" s="33">
         <v>3</v>
       </c>
@@ -23452,11 +25108,11 @@
       <c r="S180" s="1"/>
     </row>
     <row r="181" spans="3:19" ht="19" x14ac:dyDescent="0.2">
-      <c r="C181" s="55" t="s">
+      <c r="C181" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D181" s="55"/>
-      <c r="E181" s="55"/>
+      <c r="D181" s="58"/>
+      <c r="E181" s="58"/>
     </row>
     <row r="190" spans="3:19" x14ac:dyDescent="0.2">
       <c r="N190" s="4"/>
@@ -23464,12 +25120,12 @@
       <c r="P190" s="4"/>
     </row>
     <row r="197" spans="1:19" ht="19" x14ac:dyDescent="0.2">
-      <c r="C197" s="55" t="s">
+      <c r="C197" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D197" s="55"/>
-      <c r="E197" s="55"/>
-      <c r="F197" s="55"/>
+      <c r="D197" s="58"/>
+      <c r="E197" s="58"/>
+      <c r="F197" s="58"/>
     </row>
     <row r="198" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="47"/>
@@ -24073,13 +25729,625 @@
         <v>53</v>
       </c>
     </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A245" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B245" s="53"/>
+      <c r="L245" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="M245" s="41"/>
+      <c r="N245" s="34"/>
+      <c r="O245" s="34"/>
+      <c r="P245" s="34"/>
+      <c r="Q245" s="1"/>
+      <c r="R245" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="S245" s="56"/>
+      <c r="T245" s="34"/>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A246" s="53"/>
+      <c r="B246" s="53"/>
+      <c r="C246" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D246" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E246" s="56"/>
+      <c r="F246" s="56"/>
+      <c r="G246" s="56"/>
+      <c r="H246" s="56"/>
+      <c r="I246" s="56"/>
+      <c r="J246" s="56"/>
+      <c r="K246" s="56"/>
+      <c r="L246" s="33">
+        <v>291</v>
+      </c>
+      <c r="M246" s="33"/>
+      <c r="N246" s="33"/>
+      <c r="O246" s="33"/>
+      <c r="P246" s="33"/>
+      <c r="Q246" s="1"/>
+      <c r="R246" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="S246" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="T246" s="44"/>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C247" s="9">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="D247" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E247" s="11"/>
+      <c r="F247" s="11"/>
+      <c r="G247" s="11"/>
+      <c r="H247" s="11"/>
+      <c r="I247" s="11"/>
+      <c r="J247" s="11"/>
+      <c r="K247" s="11"/>
+      <c r="M247" s="33"/>
+      <c r="N247" s="33"/>
+      <c r="O247" s="33"/>
+      <c r="P247" s="33"/>
+      <c r="Q247" s="1"/>
+      <c r="R247" s="29">
+        <v>282</v>
+      </c>
+      <c r="S247" s="17">
+        <f>$L$246-R247</f>
+        <v>9</v>
+      </c>
+      <c r="T247" s="33"/>
+    </row>
+    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C248" s="12">
+        <f>C247+1</f>
+        <v>2</v>
+      </c>
+      <c r="D248" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E248" s="14"/>
+      <c r="F248" s="14"/>
+      <c r="G248" s="14"/>
+      <c r="H248" s="14"/>
+      <c r="I248" s="14"/>
+      <c r="J248" s="14"/>
+      <c r="K248" s="14"/>
+      <c r="M248" s="33"/>
+      <c r="N248" s="33"/>
+      <c r="O248" s="33"/>
+      <c r="P248" s="33"/>
+      <c r="Q248" s="1"/>
+      <c r="R248" s="25">
+        <v>237</v>
+      </c>
+      <c r="S248" s="19">
+        <f t="shared" ref="S248:S265" si="7">$L$246-R248</f>
+        <v>54</v>
+      </c>
+      <c r="T248" s="33"/>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C249" s="9">
+        <f t="shared" ref="C249:C256" si="8">C248+1</f>
+        <v>3</v>
+      </c>
+      <c r="D249" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E249" s="11"/>
+      <c r="F249" s="11"/>
+      <c r="G249" s="11"/>
+      <c r="H249" s="11"/>
+      <c r="I249" s="11"/>
+      <c r="J249" s="11"/>
+      <c r="K249" s="11"/>
+      <c r="M249" s="33"/>
+      <c r="N249" s="33"/>
+      <c r="O249" s="33"/>
+      <c r="P249" s="33"/>
+      <c r="Q249" s="1"/>
+      <c r="R249" s="29">
+        <v>274</v>
+      </c>
+      <c r="S249" s="17">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="T249" s="33"/>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C250" s="12"/>
+      <c r="D250" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E250" s="14"/>
+      <c r="F250" s="14"/>
+      <c r="G250" s="14"/>
+      <c r="H250" s="14"/>
+      <c r="I250" s="14"/>
+      <c r="J250" s="14"/>
+      <c r="K250" s="14"/>
+      <c r="M250" s="33"/>
+      <c r="N250" s="33"/>
+      <c r="O250" s="33"/>
+      <c r="P250" s="33"/>
+      <c r="Q250" s="1"/>
+      <c r="R250" s="33"/>
+      <c r="S250" s="33"/>
+      <c r="T250" s="33"/>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C251" s="9">
+        <v>4</v>
+      </c>
+      <c r="D251" s="16"/>
+      <c r="E251" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F251" s="11"/>
+      <c r="G251" s="11"/>
+      <c r="H251" s="11"/>
+      <c r="I251" s="11"/>
+      <c r="J251" s="11"/>
+      <c r="K251" s="11"/>
+      <c r="M251" s="33"/>
+      <c r="N251" s="33"/>
+      <c r="O251" s="33"/>
+      <c r="P251" s="33"/>
+      <c r="Q251" s="1"/>
+      <c r="R251" s="29">
+        <v>12</v>
+      </c>
+      <c r="S251" s="17">
+        <f t="shared" si="7"/>
+        <v>279</v>
+      </c>
+      <c r="T251" s="33"/>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C252" s="12">
+        <f>C251+1</f>
+        <v>5</v>
+      </c>
+      <c r="D252" s="15"/>
+      <c r="E252" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F252" s="14"/>
+      <c r="G252" s="14"/>
+      <c r="H252" s="14"/>
+      <c r="I252" s="14"/>
+      <c r="J252" s="14"/>
+      <c r="K252" s="14"/>
+      <c r="M252" s="33"/>
+      <c r="N252" s="33"/>
+      <c r="O252" s="33"/>
+      <c r="P252" s="33"/>
+      <c r="Q252" s="1"/>
+      <c r="R252" s="25">
+        <v>173</v>
+      </c>
+      <c r="S252" s="19">
+        <f t="shared" si="7"/>
+        <v>118</v>
+      </c>
+      <c r="T252" s="33"/>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C253" s="9">
+        <f>C252+1</f>
+        <v>6</v>
+      </c>
+      <c r="D253" s="16"/>
+      <c r="E253" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F253" s="11"/>
+      <c r="G253" s="11"/>
+      <c r="H253" s="11"/>
+      <c r="I253" s="11"/>
+      <c r="J253" s="11"/>
+      <c r="K253" s="11"/>
+      <c r="M253" s="33"/>
+      <c r="N253" s="33"/>
+      <c r="O253" s="33"/>
+      <c r="P253" s="33"/>
+      <c r="Q253" s="1"/>
+      <c r="R253" s="29">
+        <v>106</v>
+      </c>
+      <c r="S253" s="17">
+        <f t="shared" si="7"/>
+        <v>185</v>
+      </c>
+      <c r="T253" s="33"/>
+    </row>
+    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C254" s="12">
+        <f>C253+1</f>
+        <v>7</v>
+      </c>
+      <c r="D254" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E254" s="14"/>
+      <c r="F254" s="14"/>
+      <c r="G254" s="14"/>
+      <c r="H254" s="14"/>
+      <c r="I254" s="14"/>
+      <c r="J254" s="14"/>
+      <c r="K254" s="14"/>
+      <c r="M254" s="33"/>
+      <c r="N254" s="33"/>
+      <c r="O254" s="33"/>
+      <c r="P254" s="33"/>
+      <c r="Q254">
+        <v>12</v>
+      </c>
+      <c r="R254" s="52">
+        <v>9</v>
+      </c>
+      <c r="S254" s="19">
+        <f>Q254-R254</f>
+        <v>3</v>
+      </c>
+      <c r="T254" s="33"/>
+    </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C255" s="9"/>
+      <c r="D255" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E255" s="11"/>
+      <c r="F255" s="11"/>
+      <c r="G255" s="11"/>
+      <c r="H255" s="11"/>
+      <c r="I255" s="11"/>
+      <c r="J255" s="11"/>
+      <c r="K255" s="11"/>
+      <c r="M255" s="33"/>
+      <c r="N255" s="33"/>
+      <c r="O255" s="33"/>
+      <c r="P255" s="33"/>
+      <c r="R255" s="51"/>
+      <c r="S255" s="33"/>
+      <c r="T255" s="33"/>
+    </row>
+    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C256" s="12">
+        <v>8</v>
+      </c>
+      <c r="D256" s="15"/>
+      <c r="E256" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F256" s="14"/>
+      <c r="G256" s="14"/>
+      <c r="H256" s="14"/>
+      <c r="I256" s="14"/>
+      <c r="J256" s="14"/>
+      <c r="K256" s="14"/>
+      <c r="M256" s="33"/>
+      <c r="N256" s="33"/>
+      <c r="O256" s="33"/>
+      <c r="P256" s="33"/>
+      <c r="Q256">
+        <v>3</v>
+      </c>
+      <c r="R256" s="52">
+        <v>1</v>
+      </c>
+      <c r="S256" s="19">
+        <f>$Q$256-R256</f>
+        <v>2</v>
+      </c>
+      <c r="T256" s="33"/>
+    </row>
+    <row r="257" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C257" s="9">
+        <f>C256+1</f>
+        <v>9</v>
+      </c>
+      <c r="D257" s="16"/>
+      <c r="E257" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F257" s="11"/>
+      <c r="G257" s="11"/>
+      <c r="H257" s="11"/>
+      <c r="I257" s="11"/>
+      <c r="J257" s="11"/>
+      <c r="K257" s="11"/>
+      <c r="M257" s="33"/>
+      <c r="N257" s="33"/>
+      <c r="O257" s="33"/>
+      <c r="P257" s="33"/>
+      <c r="Q257" s="45"/>
+      <c r="R257" s="50">
+        <v>1</v>
+      </c>
+      <c r="S257" s="17">
+        <f t="shared" ref="S257:S258" si="9">$Q$256-R257</f>
+        <v>2</v>
+      </c>
+      <c r="T257" s="33"/>
+    </row>
+    <row r="258" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C258" s="12">
+        <v>10</v>
+      </c>
+      <c r="D258" s="15"/>
+      <c r="E258" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F258" s="14"/>
+      <c r="G258" s="14"/>
+      <c r="H258" s="14"/>
+      <c r="I258" s="14"/>
+      <c r="J258" s="14"/>
+      <c r="K258" s="14"/>
+      <c r="M258" s="33"/>
+      <c r="N258" s="33"/>
+      <c r="O258" s="33"/>
+      <c r="P258" s="33"/>
+      <c r="R258" s="52">
+        <v>1</v>
+      </c>
+      <c r="S258" s="19">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="T258" s="33"/>
+    </row>
+    <row r="259" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C259" s="9"/>
+      <c r="D259" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E259" s="14"/>
+      <c r="F259" s="11"/>
+      <c r="G259" s="11"/>
+      <c r="H259" s="11"/>
+      <c r="I259" s="11"/>
+      <c r="J259" s="11"/>
+      <c r="K259" s="11"/>
+      <c r="M259" s="33"/>
+      <c r="N259" s="33"/>
+      <c r="O259" s="33"/>
+      <c r="P259" s="33"/>
+      <c r="R259" s="51"/>
+      <c r="S259" s="33"/>
+      <c r="T259" s="33"/>
+    </row>
+    <row r="260" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C260" s="12">
+        <v>11</v>
+      </c>
+      <c r="D260" s="10"/>
+      <c r="E260" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F260" s="14"/>
+      <c r="G260" s="14"/>
+      <c r="H260" s="14"/>
+      <c r="I260" s="14"/>
+      <c r="J260" s="14"/>
+      <c r="K260" s="14"/>
+      <c r="M260" s="33"/>
+      <c r="N260" s="33"/>
+      <c r="O260" s="33"/>
+      <c r="P260" s="33"/>
+      <c r="R260" s="52">
+        <v>226</v>
+      </c>
+      <c r="S260" s="19">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="T260" s="1"/>
+    </row>
+    <row r="261" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C261" s="9">
+        <v>12</v>
+      </c>
+      <c r="D261" s="13"/>
+      <c r="E261" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F261" s="11"/>
+      <c r="G261" s="16"/>
+      <c r="H261" s="11"/>
+      <c r="I261" s="11"/>
+      <c r="J261" s="11"/>
+      <c r="K261" s="11"/>
+      <c r="M261" s="33"/>
+      <c r="N261" s="33"/>
+      <c r="O261" s="33"/>
+      <c r="P261" s="33"/>
+      <c r="Q261" s="45"/>
+      <c r="R261" s="50">
+        <v>241</v>
+      </c>
+      <c r="S261" s="17">
+        <f>$L$246-R261</f>
+        <v>50</v>
+      </c>
+      <c r="T261" s="1"/>
+    </row>
+    <row r="262" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C262" s="12">
+        <v>13</v>
+      </c>
+      <c r="D262" s="10"/>
+      <c r="E262" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F262" s="14"/>
+      <c r="G262" s="15"/>
+      <c r="H262" s="14"/>
+      <c r="I262" s="14"/>
+      <c r="J262" s="14"/>
+      <c r="K262" s="14"/>
+      <c r="M262" s="33"/>
+      <c r="N262" s="33"/>
+      <c r="O262" s="33"/>
+      <c r="P262" s="33"/>
+      <c r="R262" s="52">
+        <v>229</v>
+      </c>
+      <c r="S262" s="19">
+        <f t="shared" si="7"/>
+        <v>62</v>
+      </c>
+      <c r="T262" s="1"/>
+    </row>
+    <row r="263" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C263" s="9">
+        <v>14</v>
+      </c>
+      <c r="D263" s="13"/>
+      <c r="E263" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F263" s="11"/>
+      <c r="G263" s="16"/>
+      <c r="H263" s="11"/>
+      <c r="I263" s="11"/>
+      <c r="J263" s="11"/>
+      <c r="K263" s="11"/>
+      <c r="M263" s="33"/>
+      <c r="N263" s="33"/>
+      <c r="O263" s="33"/>
+      <c r="P263" s="33"/>
+      <c r="R263" s="50">
+        <v>201</v>
+      </c>
+      <c r="S263" s="17">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="T263" s="1"/>
+    </row>
+    <row r="264" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C264" s="12">
+        <v>15</v>
+      </c>
+      <c r="D264" s="10"/>
+      <c r="E264" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F264" s="14"/>
+      <c r="G264" s="14"/>
+      <c r="H264" s="14"/>
+      <c r="I264" s="14"/>
+      <c r="J264" s="14"/>
+      <c r="K264" s="14"/>
+      <c r="M264" s="33"/>
+      <c r="N264" s="33"/>
+      <c r="O264" s="33"/>
+      <c r="P264" s="33"/>
+      <c r="R264" s="52">
+        <v>148</v>
+      </c>
+      <c r="S264" s="19">
+        <f t="shared" si="7"/>
+        <v>143</v>
+      </c>
+      <c r="T264" s="1"/>
+    </row>
+    <row r="265" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C265" s="48"/>
+      <c r="D265" s="59"/>
+      <c r="E265" s="34"/>
+      <c r="F265" s="33"/>
+      <c r="G265" s="33"/>
+      <c r="H265" s="33"/>
+      <c r="I265" s="33"/>
+      <c r="J265" s="33"/>
+      <c r="K265" s="33"/>
+      <c r="L265" s="33"/>
+      <c r="M265" s="33"/>
+      <c r="N265" s="33"/>
+      <c r="O265" s="33"/>
+      <c r="P265" s="33"/>
+      <c r="Q265" s="45"/>
+      <c r="R265" s="51"/>
+      <c r="S265" s="33"/>
+      <c r="T265" s="33"/>
+      <c r="U265" s="45"/>
+      <c r="V265" s="45"/>
+      <c r="W265" s="45"/>
+      <c r="X265" s="45"/>
+    </row>
+    <row r="266" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C266" s="33"/>
+      <c r="D266" s="33"/>
+      <c r="E266" s="33"/>
+      <c r="F266" s="33"/>
+      <c r="G266" s="33"/>
+      <c r="H266" s="33"/>
+      <c r="I266" s="33"/>
+      <c r="J266" s="33"/>
+      <c r="K266" s="33"/>
+      <c r="L266" s="33"/>
+      <c r="M266" s="33"/>
+      <c r="N266" s="33"/>
+      <c r="O266" s="33"/>
+      <c r="P266" s="33"/>
+      <c r="Q266" s="51"/>
+      <c r="R266" s="51"/>
+      <c r="S266" s="51"/>
+      <c r="T266" s="33"/>
+      <c r="U266" s="45"/>
+      <c r="V266" s="45"/>
+      <c r="W266" s="45"/>
+      <c r="X266" s="45"/>
+    </row>
+    <row r="267" spans="3:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="C267" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D267" s="58"/>
+      <c r="E267" s="58"/>
+      <c r="G267" s="33"/>
+      <c r="H267" s="33"/>
+      <c r="I267" s="33"/>
+      <c r="J267" s="33"/>
+      <c r="K267" s="33"/>
+      <c r="L267" s="33"/>
+      <c r="M267" s="33"/>
+      <c r="N267" s="33"/>
+      <c r="O267" s="33"/>
+      <c r="P267" s="33"/>
+      <c r="Q267" s="51"/>
+      <c r="R267" s="51"/>
+      <c r="S267" s="51"/>
+      <c r="T267" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="M5:N6"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="P5:P6"/>
+  <mergeCells count="23">
+    <mergeCell ref="A245:B246"/>
+    <mergeCell ref="D246:K246"/>
+    <mergeCell ref="C267:E267"/>
+    <mergeCell ref="R245:S245"/>
+    <mergeCell ref="A165:B166"/>
+    <mergeCell ref="R165:S165"/>
+    <mergeCell ref="D166:K166"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="A66:B67"/>
+    <mergeCell ref="D67:K67"/>
     <mergeCell ref="F1:J4"/>
     <mergeCell ref="C197:F197"/>
     <mergeCell ref="C104:F104"/>
@@ -24088,12 +26356,11 @@
     <mergeCell ref="R6:S6"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C33:F33"/>
-    <mergeCell ref="A165:B166"/>
-    <mergeCell ref="R165:S165"/>
-    <mergeCell ref="D166:K166"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="A66:B67"/>
-    <mergeCell ref="D67:K67"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/dados dos inquéritos.xlsx
+++ b/dados dos inquéritos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
   <si>
     <t>Inquéritos p/ o Projeto de Inovação</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>Que funcionalidades achas que seriam úteis para incluir nesta plataforma?</t>
+  </si>
+  <si>
+    <t>Perfil de Simpatização</t>
   </si>
 </sst>
 </file>
@@ -661,14 +664,11 @@
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FFC000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -699,14 +699,11 @@
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -823,14 +820,11 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -861,9 +855,12 @@
         <a:defRPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFC000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -901,14 +898,11 @@
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FFC000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -939,14 +933,11 @@
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1063,14 +1054,11 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1101,9 +1089,12 @@
         <a:defRPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFC000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -1141,14 +1132,11 @@
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FFC000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1179,14 +1167,11 @@
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1369,14 +1354,11 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FFC000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1432,14 +1414,11 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FFC000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1480,14 +1459,11 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1518,9 +1494,12 @@
         <a:defRPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFC000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -1558,14 +1537,11 @@
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FFC000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1596,14 +1572,11 @@
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1810,14 +1783,11 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FFC000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1873,14 +1843,11 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FFC000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1921,14 +1888,11 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1959,9 +1923,12 @@
         <a:defRPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFC000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -1999,14 +1966,11 @@
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FFC000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2037,14 +2001,11 @@
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2161,14 +2122,11 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2199,9 +2157,12 @@
         <a:defRPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFC000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -2239,14 +2200,11 @@
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FFC000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2277,14 +2235,11 @@
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2401,14 +2356,11 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2439,9 +2391,12 @@
         <a:defRPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFC000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -2479,14 +2434,11 @@
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FFC000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2500,6 +2452,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2516,14 +2469,11 @@
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2623,6 +2573,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2639,14 +2590,11 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2677,9 +2625,12 @@
         <a:defRPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFC000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -2717,14 +2668,11 @@
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FFC000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2738,6 +2686,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2754,14 +2703,11 @@
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2861,6 +2807,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2877,14 +2824,11 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2915,9 +2859,12 @@
         <a:defRPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFC000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -2955,14 +2902,11 @@
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FFC000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2993,14 +2937,11 @@
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3117,14 +3058,11 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3155,9 +3093,12 @@
         <a:defRPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFC000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -3195,14 +3136,11 @@
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FFC000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3233,14 +3171,11 @@
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3357,14 +3292,11 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3395,9 +3327,12 @@
         <a:defRPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFC000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -3435,14 +3370,11 @@
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FFC000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3473,14 +3405,11 @@
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3597,14 +3526,11 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3635,9 +3561,12 @@
         <a:defRPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFC000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -3675,14 +3604,11 @@
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FFC000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3713,14 +3639,11 @@
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3837,14 +3760,11 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3875,9 +3795,12 @@
         <a:defRPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFC000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -3915,14 +3838,11 @@
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FFC000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3953,14 +3873,11 @@
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -4077,14 +3994,11 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -4115,9 +4029,12 @@
         <a:defRPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFC000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -4155,14 +4072,11 @@
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FFC000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4193,14 +4107,11 @@
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -4383,14 +4294,11 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FFC000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4447,14 +4355,11 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FFC000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4495,14 +4400,11 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -4533,9 +4435,12 @@
         <a:defRPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFC000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -4573,14 +4478,11 @@
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FFC000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4611,14 +4513,11 @@
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -4801,14 +4700,11 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FFC000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4865,14 +4761,11 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FFC000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4913,14 +4806,11 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -4951,9 +4841,12 @@
         <a:defRPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFC000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -4991,14 +4884,11 @@
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FFC000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5029,14 +4919,11 @@
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -5153,14 +5040,11 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -5191,9 +5075,12 @@
         <a:defRPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFC000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -5229,11 +5116,13 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5262,11 +5151,13 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -5381,11 +5272,13 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -5413,7 +5306,16 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -5448,11 +5350,13 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5461,13 +5365,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Impacto</a:t>
+              <a:t>Impacto Positivo na Sobrelotação</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Positivo na Sobrelotação</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5486,11 +5385,13 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -5605,11 +5506,13 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -5637,7 +5540,250 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Teve, Tem ou Gostaria de Ter</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$246:$S$246</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Sim</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Não</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$249:$S$249</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>274.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -5674,14 +5820,11 @@
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FFC000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5712,14 +5855,11 @@
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -5836,14 +5976,11 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -5874,9 +6011,12 @@
         <a:defRPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFC000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -5914,14 +6054,11 @@
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FFC000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5952,14 +6089,11 @@
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -6076,14 +6210,11 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -6114,9 +6245,12 @@
         <a:defRPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFC000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -6154,14 +6288,11 @@
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FFC000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6192,14 +6323,11 @@
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -6316,14 +6444,11 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -6354,9 +6479,12 @@
         <a:defRPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFC000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -6394,14 +6522,11 @@
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FFC000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6432,14 +6557,11 @@
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -6556,14 +6678,11 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -6594,9 +6713,12 @@
         <a:defRPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFC000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -6634,14 +6756,11 @@
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FFC000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6672,14 +6791,11 @@
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -6796,14 +6912,11 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -6834,9 +6947,12 @@
         <a:defRPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFC000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -6874,14 +6990,11 @@
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FFC000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6912,14 +7025,11 @@
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -7036,14 +7146,11 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -7074,9 +7181,12 @@
         <a:defRPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFC000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -7114,14 +7224,11 @@
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FFC000"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -7152,14 +7259,11 @@
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -7276,14 +7380,11 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -7314,9 +7415,12 @@
         <a:defRPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFC000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -8050,6 +8154,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -17090,6 +17234,525 @@
 </file>
 
 <file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21993,6 +22656,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>39955</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>69636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>48593</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>15982</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -22259,10 +22952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X267"/>
+  <dimension ref="A1:X282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="89" workbookViewId="0">
-      <selection activeCell="K276" sqref="K276"/>
+    <sheetView tabSelected="1" topLeftCell="A246" zoomScale="89" workbookViewId="0">
+      <selection activeCell="O146" sqref="O146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26336,8 +27029,16 @@
       <c r="S267" s="51"/>
       <c r="T267" s="1"/>
     </row>
+    <row r="282" spans="3:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="C282" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="D282" s="58"/>
+      <c r="E282" s="58"/>
+    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="C282:E282"/>
     <mergeCell ref="A245:B246"/>
     <mergeCell ref="D246:K246"/>
     <mergeCell ref="C267:E267"/>
@@ -26365,5 +27066,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
+  <picture r:id="rId2"/>
 </worksheet>
 </file>
--- a/dados dos inquéritos.xlsx
+++ b/dados dos inquéritos.xlsx
@@ -603,6 +603,9 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -619,9 +622,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -916,7 +916,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1037,7 +1036,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1150,7 +1148,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1319,11 +1316,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="965664288"/>
-        <c:axId val="965667040"/>
+        <c:axId val="353031136"/>
+        <c:axId val="353033888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="965664288"/>
+        <c:axId val="353031136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1368,7 +1365,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="965667040"/>
+        <c:crossAx val="353033888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1376,7 +1373,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="965667040"/>
+        <c:axId val="353033888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1428,7 +1425,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="965664288"/>
+        <c:crossAx val="353031136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1442,7 +1439,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1748,11 +1744,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="929275744"/>
-        <c:axId val="929278064"/>
+        <c:axId val="353057120"/>
+        <c:axId val="353059872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="929275744"/>
+        <c:axId val="353057120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1797,7 +1793,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="929278064"/>
+        <c:crossAx val="353059872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1805,7 +1801,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="929278064"/>
+        <c:axId val="353059872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1857,7 +1853,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="929275744"/>
+        <c:crossAx val="353057120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4259,11 +4255,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="998313136"/>
-        <c:axId val="998315888"/>
+        <c:axId val="394492384"/>
+        <c:axId val="394495136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="998313136"/>
+        <c:axId val="394492384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4287,7 +4283,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -4308,7 +4304,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="998315888"/>
+        <c:crossAx val="394495136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4316,7 +4312,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="998315888"/>
+        <c:axId val="394495136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4369,7 +4365,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="998313136"/>
+        <c:crossAx val="394492384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4665,11 +4661,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="998341392"/>
-        <c:axId val="929284976"/>
+        <c:axId val="318434544"/>
+        <c:axId val="318437024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="998341392"/>
+        <c:axId val="318434544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4714,7 +4710,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="929284976"/>
+        <c:crossAx val="318437024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4722,7 +4718,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="929284976"/>
+        <c:axId val="318437024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4775,7 +4771,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="998341392"/>
+        <c:crossAx val="318434544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22954,8 +22950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" zoomScale="89" workbookViewId="0">
-      <selection activeCell="O146" sqref="O146"/>
+    <sheetView tabSelected="1" topLeftCell="A239" zoomScale="89" workbookViewId="0">
+      <selection activeCell="I252" sqref="I252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22969,24 +22965,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
       <c r="M1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
       <c r="M2" s="1">
         <v>1</v>
       </c>
@@ -22996,11 +22992,11 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
       <c r="M3" s="1">
         <v>0</v>
       </c>
@@ -23010,60 +23006,60 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="M5" s="55" t="s">
+      <c r="M5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="55"/>
-      <c r="O5" s="54" t="s">
+      <c r="N5" s="56"/>
+      <c r="O5" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="P5" s="55" t="s">
+      <c r="P5" s="56" t="s">
         <v>61</v>
       </c>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="54"/>
       <c r="L6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="55"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="56"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="56" t="s">
+      <c r="R6" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="S6" s="56"/>
+      <c r="S6" s="57"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
       <c r="L7" s="8" t="s">
         <v>1</v>
       </c>
@@ -23359,11 +23355,11 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="3:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
     </row>
     <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="N26" s="4"/>
@@ -23371,12 +23367,12 @@
       <c r="P26" s="4"/>
     </row>
     <row r="33" spans="3:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
     </row>
     <row r="49" spans="3:6" ht="19" x14ac:dyDescent="0.2">
       <c r="C49" s="28" t="s">
@@ -23387,10 +23383,10 @@
       <c r="F49" s="28"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A66" s="53" t="s">
+      <c r="A66" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B66" s="53"/>
+      <c r="B66" s="54"/>
       <c r="L66" s="42" t="s">
         <v>54</v>
       </c>
@@ -23399,28 +23395,28 @@
       <c r="O66" s="34"/>
       <c r="P66" s="34"/>
       <c r="Q66" s="1"/>
-      <c r="R66" s="56" t="s">
+      <c r="R66" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="S66" s="56"/>
-      <c r="T66" s="56"/>
+      <c r="S66" s="57"/>
+      <c r="T66" s="57"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A67" s="53"/>
-      <c r="B67" s="53"/>
+      <c r="A67" s="54"/>
+      <c r="B67" s="54"/>
       <c r="C67" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="56" t="s">
+      <c r="D67" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="56"/>
-      <c r="K67" s="56"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="57"/>
+      <c r="K67" s="57"/>
       <c r="L67" s="33">
         <v>21</v>
       </c>
@@ -23977,11 +23973,11 @@
       <c r="T87" s="1"/>
     </row>
     <row r="88" spans="3:20" ht="19" x14ac:dyDescent="0.2">
-      <c r="C88" s="58" t="s">
+      <c r="C88" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="58"/>
-      <c r="E88" s="58"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="59"/>
       <c r="G88" s="33"/>
       <c r="H88" s="33"/>
       <c r="I88" s="33"/>
@@ -24238,12 +24234,12 @@
       <c r="T103" s="1"/>
     </row>
     <row r="104" spans="3:20" ht="19" x14ac:dyDescent="0.2">
-      <c r="C104" s="58" t="s">
+      <c r="C104" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D104" s="58"/>
-      <c r="E104" s="58"/>
-      <c r="F104" s="58"/>
+      <c r="D104" s="59"/>
+      <c r="E104" s="59"/>
+      <c r="F104" s="59"/>
       <c r="G104" s="33"/>
       <c r="H104" s="33"/>
       <c r="I104" s="33"/>
@@ -25420,10 +25416,10 @@
       <c r="E164" s="2"/>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A165" s="53" t="s">
+      <c r="A165" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B165" s="53"/>
+      <c r="B165" s="54"/>
       <c r="L165" s="42" t="s">
         <v>50</v>
       </c>
@@ -25432,27 +25428,27 @@
       <c r="O165" s="34"/>
       <c r="P165" s="34"/>
       <c r="Q165" s="1"/>
-      <c r="R165" s="56" t="s">
+      <c r="R165" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="S165" s="56"/>
+      <c r="S165" s="57"/>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A166" s="53"/>
-      <c r="B166" s="53"/>
+      <c r="A166" s="54"/>
+      <c r="B166" s="54"/>
       <c r="C166" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D166" s="56" t="s">
+      <c r="D166" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="E166" s="56"/>
-      <c r="F166" s="56"/>
-      <c r="G166" s="56"/>
-      <c r="H166" s="56"/>
-      <c r="I166" s="56"/>
-      <c r="J166" s="56"/>
-      <c r="K166" s="56"/>
+      <c r="E166" s="57"/>
+      <c r="F166" s="57"/>
+      <c r="G166" s="57"/>
+      <c r="H166" s="57"/>
+      <c r="I166" s="57"/>
+      <c r="J166" s="57"/>
+      <c r="K166" s="57"/>
       <c r="L166" s="33">
         <v>3</v>
       </c>
@@ -25801,11 +25797,11 @@
       <c r="S180" s="1"/>
     </row>
     <row r="181" spans="3:19" ht="19" x14ac:dyDescent="0.2">
-      <c r="C181" s="58" t="s">
+      <c r="C181" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D181" s="58"/>
-      <c r="E181" s="58"/>
+      <c r="D181" s="59"/>
+      <c r="E181" s="59"/>
     </row>
     <row r="190" spans="3:19" x14ac:dyDescent="0.2">
       <c r="N190" s="4"/>
@@ -25813,12 +25809,12 @@
       <c r="P190" s="4"/>
     </row>
     <row r="197" spans="1:19" ht="19" x14ac:dyDescent="0.2">
-      <c r="C197" s="58" t="s">
+      <c r="C197" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D197" s="58"/>
-      <c r="E197" s="58"/>
-      <c r="F197" s="58"/>
+      <c r="D197" s="59"/>
+      <c r="E197" s="59"/>
+      <c r="F197" s="59"/>
     </row>
     <row r="198" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="47"/>
@@ -26423,10 +26419,10 @@
       </c>
     </row>
     <row r="245" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A245" s="53" t="s">
+      <c r="A245" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="B245" s="53"/>
+      <c r="B245" s="54"/>
       <c r="L245" s="42" t="s">
         <v>54</v>
       </c>
@@ -26435,28 +26431,28 @@
       <c r="O245" s="34"/>
       <c r="P245" s="34"/>
       <c r="Q245" s="1"/>
-      <c r="R245" s="56" t="s">
+      <c r="R245" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="S245" s="56"/>
+      <c r="S245" s="57"/>
       <c r="T245" s="34"/>
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A246" s="53"/>
-      <c r="B246" s="53"/>
+      <c r="A246" s="54"/>
+      <c r="B246" s="54"/>
       <c r="C246" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D246" s="56" t="s">
+      <c r="D246" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="E246" s="56"/>
-      <c r="F246" s="56"/>
-      <c r="G246" s="56"/>
-      <c r="H246" s="56"/>
-      <c r="I246" s="56"/>
-      <c r="J246" s="56"/>
-      <c r="K246" s="56"/>
+      <c r="E246" s="57"/>
+      <c r="F246" s="57"/>
+      <c r="G246" s="57"/>
+      <c r="H246" s="57"/>
+      <c r="I246" s="57"/>
+      <c r="J246" s="57"/>
+      <c r="K246" s="57"/>
       <c r="L246" s="33">
         <v>291</v>
       </c>
@@ -26526,14 +26522,14 @@
         <v>237</v>
       </c>
       <c r="S248" s="19">
-        <f t="shared" ref="S248:S265" si="7">$L$246-R248</f>
+        <f t="shared" ref="S248:S264" si="7">$L$246-R248</f>
         <v>54</v>
       </c>
       <c r="T248" s="33"/>
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C249" s="9">
-        <f t="shared" ref="C249:C256" si="8">C248+1</f>
+        <f t="shared" ref="C249" si="8">C248+1</f>
         <v>3</v>
       </c>
       <c r="D249" s="16" t="s">
@@ -26962,7 +26958,7 @@
     </row>
     <row r="265" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C265" s="48"/>
-      <c r="D265" s="59"/>
+      <c r="D265" s="53"/>
       <c r="E265" s="34"/>
       <c r="F265" s="33"/>
       <c r="G265" s="33"/>
@@ -27009,11 +27005,11 @@
       <c r="X266" s="45"/>
     </row>
     <row r="267" spans="3:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="C267" s="58" t="s">
+      <c r="C267" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D267" s="58"/>
-      <c r="E267" s="58"/>
+      <c r="D267" s="59"/>
+      <c r="E267" s="59"/>
       <c r="G267" s="33"/>
       <c r="H267" s="33"/>
       <c r="I267" s="33"/>
@@ -27030,11 +27026,11 @@
       <c r="T267" s="1"/>
     </row>
     <row r="282" spans="3:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="C282" s="58" t="s">
+      <c r="C282" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="D282" s="58"/>
-      <c r="E282" s="58"/>
+      <c r="D282" s="59"/>
+      <c r="E282" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="24">

--- a/dados dos inquéritos.xlsx
+++ b/dados dos inquéritos.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardacunha/Documents/Uni/3/PPIN/FEUP-PPIN/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
   <si>
     <t>Inquéritos p/ o Projeto de Inovação</t>
   </si>
@@ -256,12 +251,18 @@
   <si>
     <t>Perfil de Simpatização</t>
   </si>
+  <si>
+    <t>AniEsp</t>
+  </si>
+  <si>
+    <t>Em relação ao abate, foi-me dito que entrou em vigor uma lei que aboliu o abate em 1 de janeiro de 2018</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -606,7 +607,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -615,19 +625,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -642,17 +643,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -683,7 +674,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -691,30 +681,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -724,7 +691,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -739,7 +705,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -773,24 +738,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -804,7 +761,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -831,13 +787,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -863,12 +818,12 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -876,17 +831,7 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -916,7 +861,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -924,30 +869,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -957,7 +879,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -972,7 +893,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -1006,24 +926,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -1036,7 +948,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1063,13 +975,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -1095,12 +1006,12 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1108,17 +1019,7 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1148,7 +1049,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1156,36 +1057,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1209,7 +1086,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(Sheet1!$E$171,Sheet1!$E$172,Sheet1!$E$173)</c:f>
@@ -1234,13 +1110,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1269,7 +1145,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(Sheet1!$E$171,Sheet1!$E$172,Sheet1!$E$173)</c:f>
@@ -1294,41 +1169,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="353031136"/>
-        <c:axId val="353033888"/>
+        <c:axId val="89491712"/>
+        <c:axId val="89509888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="353031136"/>
+        <c:axId val="89491712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1362,22 +1228,19 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353033888"/>
+        <c:crossAx val="89509888"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="353033888"/>
+        <c:axId val="89509888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1393,8 +1256,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1422,10 +1285,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353031136"/>
+        <c:crossAx val="89491712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1439,7 +1302,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1466,13 +1329,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -1498,12 +1360,12 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1511,17 +1373,7 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1552,7 +1404,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1560,36 +1411,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1613,7 +1440,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(Sheet1!$E$175,Sheet1!$E$176,Sheet1!$E$177,Sheet1!$E$178,Sheet1!$E$179)</c:f>
@@ -1644,19 +1470,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1685,7 +1511,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(Sheet1!$E$175,Sheet1!$E$176,Sheet1!$E$177,Sheet1!$E$178,Sheet1!$E$179)</c:f>
@@ -1716,47 +1541,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="353057120"/>
-        <c:axId val="353059872"/>
+        <c:axId val="100181120"/>
+        <c:axId val="100182656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="353057120"/>
+        <c:axId val="100181120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1790,22 +1606,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353059872"/>
+        <c:crossAx val="100182656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="353059872"/>
+        <c:axId val="100182656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1821,8 +1635,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1850,10 +1664,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353057120"/>
+        <c:crossAx val="100181120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1868,7 +1682,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1895,13 +1708,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -1927,12 +1739,12 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1940,17 +1752,7 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1981,7 +1783,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1989,30 +1790,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2022,7 +1800,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2037,7 +1814,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -2071,24 +1847,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -2102,7 +1870,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2129,13 +1896,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -2161,12 +1927,12 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2174,17 +1940,7 @@
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2215,7 +1971,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2223,30 +1978,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2256,7 +1988,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2271,7 +2002,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -2305,24 +2035,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -2336,7 +2058,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2363,13 +2084,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -2395,12 +2115,12 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2408,17 +2128,7 @@
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2449,7 +2159,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2457,30 +2166,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2490,7 +2176,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2505,7 +2190,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -2539,24 +2223,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -2570,7 +2246,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2597,13 +2272,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -2629,12 +2303,12 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2642,17 +2316,7 @@
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2683,7 +2347,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2691,30 +2354,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2724,7 +2364,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2739,7 +2378,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -2773,24 +2411,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -2804,7 +2434,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2831,13 +2460,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -2863,12 +2491,12 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2876,17 +2504,7 @@
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2917,7 +2535,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2925,30 +2542,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2958,7 +2552,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2973,7 +2566,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -3007,24 +2599,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -3038,7 +2622,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3065,13 +2648,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -3097,12 +2679,12 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3110,17 +2692,7 @@
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3151,7 +2723,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3159,30 +2730,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -3192,7 +2740,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -3207,7 +2754,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -3241,24 +2787,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -3272,7 +2810,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3299,13 +2836,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -3331,12 +2867,12 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3344,17 +2880,7 @@
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3385,7 +2911,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3393,30 +2918,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -3426,7 +2928,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -3441,7 +2942,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -3475,24 +2975,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -3506,7 +2998,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3533,13 +3024,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -3565,12 +3055,12 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3578,17 +3068,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3619,7 +3099,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3627,30 +3106,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -3660,7 +3116,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -3675,7 +3130,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -3709,24 +3163,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -3740,7 +3186,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3767,13 +3212,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -3799,12 +3243,12 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3812,17 +3256,7 @@
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3853,7 +3287,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3861,30 +3294,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -3894,7 +3304,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -3909,7 +3318,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -3943,24 +3351,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -3974,7 +3374,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4001,13 +3400,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -4033,12 +3431,12 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4046,17 +3444,7 @@
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4087,7 +3475,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4095,36 +3482,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4148,7 +3511,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(Sheet1!$E$79,Sheet1!$E$80,Sheet1!$E$81)</c:f>
@@ -4173,13 +3535,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4208,7 +3570,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(Sheet1!$E$79,Sheet1!$E$80,Sheet1!$E$81)</c:f>
@@ -4233,41 +3594,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="394492384"/>
-        <c:axId val="394495136"/>
+        <c:axId val="101558144"/>
+        <c:axId val="101559680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="394492384"/>
+        <c:axId val="101558144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4301,22 +3653,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394495136"/>
+        <c:crossAx val="101559680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="394495136"/>
+        <c:axId val="101559680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4334,7 +3684,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4362,10 +3711,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394492384"/>
+        <c:crossAx val="101558144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4380,7 +3729,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4407,13 +3755,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -4439,12 +3786,12 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4452,17 +3799,7 @@
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4493,7 +3830,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4501,36 +3837,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4554,7 +3866,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(Sheet1!$E$83,Sheet1!$E$84,Sheet1!$E$85)</c:f>
@@ -4579,13 +3890,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4614,7 +3925,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(Sheet1!$E$83,Sheet1!$E$84,Sheet1!$E$85)</c:f>
@@ -4639,41 +3949,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="318434544"/>
-        <c:axId val="318437024"/>
+        <c:axId val="101634816"/>
+        <c:axId val="101636352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="318434544"/>
+        <c:axId val="101634816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4707,22 +4008,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318437024"/>
+        <c:crossAx val="101636352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="318437024"/>
+        <c:axId val="101636352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4740,7 +4039,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4768,10 +4066,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318434544"/>
+        <c:crossAx val="101634816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4786,7 +4084,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4813,13 +4110,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -4845,12 +4141,12 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4858,17 +4154,7 @@
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4899,7 +4185,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4907,30 +4192,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -4940,7 +4202,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -4955,7 +4216,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -4989,24 +4249,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -5020,7 +4272,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5047,13 +4298,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -5079,12 +4329,12 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5092,17 +4342,7 @@
 
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5133,7 +4373,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5141,30 +4380,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -5174,7 +4390,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -5189,7 +4404,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -5223,24 +4437,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>282.0</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -5254,7 +4460,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5281,13 +4486,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -5313,12 +4517,12 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5326,17 +4530,7 @@
 
 <file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5367,7 +4561,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5375,30 +4568,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -5408,7 +4578,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -5423,7 +4592,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -5457,24 +4625,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>237.0</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -5488,7 +4648,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5515,13 +4674,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -5547,12 +4705,12 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5560,17 +4718,7 @@
 
 <file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5601,7 +4749,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5609,30 +4756,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -5642,7 +4766,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -5657,7 +4780,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -5691,24 +4813,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>274.0</c:v>
+                  <c:v>274</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -5722,7 +4836,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5749,13 +4862,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -5781,12 +4893,12 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5794,17 +4906,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5835,7 +4937,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5843,30 +4944,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -5876,7 +4954,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -5891,7 +4968,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -5925,24 +5001,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -5956,7 +5024,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5983,13 +5050,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -6015,12 +5081,12 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6028,17 +5094,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6069,7 +5125,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6077,30 +5132,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -6110,7 +5142,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -6125,7 +5156,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -6159,24 +5189,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -6190,7 +5212,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6217,13 +5238,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -6249,12 +5269,12 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6262,17 +5282,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6303,7 +5313,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6311,30 +5320,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -6344,7 +5330,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -6359,7 +5344,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -6393,24 +5377,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -6424,7 +5400,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6451,13 +5426,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -6483,12 +5457,12 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6496,17 +5470,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6537,7 +5501,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6545,30 +5508,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -6578,7 +5518,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -6593,7 +5532,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -6627,24 +5565,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -6658,7 +5588,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6685,13 +5614,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -6717,12 +5645,12 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6730,17 +5658,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6771,7 +5689,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6779,30 +5696,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -6812,7 +5706,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -6827,7 +5720,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -6861,24 +5753,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -6892,7 +5776,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6919,13 +5802,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -6951,12 +5833,12 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6964,17 +5846,7 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -7005,7 +5877,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7013,30 +5884,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -7046,7 +5894,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -7061,7 +5908,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -7095,24 +5941,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -7126,7 +5964,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7153,13 +5990,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -7185,12 +6021,12 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7198,17 +6034,7 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="pt-PT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -7239,7 +6065,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7247,30 +6072,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -7280,7 +6082,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -7295,7 +6096,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -7329,24 +6129,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -7360,7 +6152,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7387,13 +6178,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -7419,12 +6209,12 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -22728,7 +21518,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -22763,7 +21553,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -22940,49 +21730,49 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" zoomScale="89" workbookViewId="0">
-      <selection activeCell="I252" sqref="I252"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="O179" sqref="O179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="10.83203125" style="5"/>
-    <col min="4" max="10" width="10.83203125" style="1"/>
-    <col min="11" max="11" width="23.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="1"/>
-    <col min="13" max="16" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1"/>
+    <col min="3" max="3" width="10.875" style="5"/>
+    <col min="4" max="10" width="10.875" style="1"/>
+    <col min="11" max="11" width="23.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" style="1"/>
+    <col min="13" max="16" width="17.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F1" s="58" t="s">
+    <row r="1" spans="1:19">
+      <c r="F1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
       <c r="M1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
+    <row r="2" spans="1:19">
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
       <c r="M2" s="1">
         <v>1</v>
       </c>
@@ -22991,12 +21781,12 @@
       </c>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
+    <row r="3" spans="1:19">
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
       <c r="M3" s="1">
         <v>0</v>
       </c>
@@ -23005,61 +21795,61 @@
       </c>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
+    <row r="4" spans="1:19">
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="M5" s="56" t="s">
+    <row r="5" spans="1:19">
+      <c r="M5" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="56"/>
-      <c r="O5" s="55" t="s">
+      <c r="N5" s="59"/>
+      <c r="O5" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="P5" s="56" t="s">
+      <c r="P5" s="59" t="s">
         <v>61</v>
       </c>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:19">
+      <c r="A6" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="55"/>
       <c r="L6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="56"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="59"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="57" t="s">
+      <c r="R6" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="S6" s="57"/>
+      <c r="S6" s="56"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
+    <row r="7" spans="1:19">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
       <c r="L7" s="8" t="s">
         <v>1</v>
       </c>
@@ -23083,7 +21873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="C8" s="9">
         <f>1</f>
         <v>1</v>
@@ -23123,7 +21913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="C9" s="12">
         <f>C8+1</f>
         <v>2</v>
@@ -23160,7 +21950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="C10" s="9">
         <f t="shared" ref="C10:C14" si="2">C9+1</f>
         <v>3</v>
@@ -23197,7 +21987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="C11" s="12">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -23234,7 +22024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="C12" s="9">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -23271,7 +22061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="C13" s="12">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -23308,7 +22098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="C14" s="9">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -23345,36 +22135,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="3:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="C17" s="59" t="s">
+    <row r="17" spans="3:16" ht="18.75">
+      <c r="C17" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:16">
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
     </row>
-    <row r="33" spans="3:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="C33" s="59" t="s">
+    <row r="33" spans="3:6" ht="18.75">
+      <c r="C33" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
     </row>
-    <row r="49" spans="3:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:6" ht="18.75">
       <c r="C49" s="28" t="s">
         <v>17</v>
       </c>
@@ -23382,11 +22172,11 @@
       <c r="E49" s="28"/>
       <c r="F49" s="28"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A66" s="54" t="s">
+    <row r="66" spans="1:20">
+      <c r="A66" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B66" s="54"/>
+      <c r="B66" s="55"/>
       <c r="L66" s="42" t="s">
         <v>54</v>
       </c>
@@ -23395,28 +22185,28 @@
       <c r="O66" s="34"/>
       <c r="P66" s="34"/>
       <c r="Q66" s="1"/>
-      <c r="R66" s="57" t="s">
+      <c r="R66" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="S66" s="57"/>
-      <c r="T66" s="57"/>
+      <c r="S66" s="56"/>
+      <c r="T66" s="56"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
+    <row r="67" spans="1:20">
+      <c r="A67" s="55"/>
+      <c r="B67" s="55"/>
       <c r="C67" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="57" t="s">
+      <c r="D67" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E67" s="57"/>
-      <c r="F67" s="57"/>
-      <c r="G67" s="57"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="57"/>
-      <c r="J67" s="57"/>
-      <c r="K67" s="57"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="56"/>
+      <c r="K67" s="56"/>
       <c r="L67" s="33">
         <v>21</v>
       </c>
@@ -23435,7 +22225,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20">
       <c r="C68" s="9">
         <f>1</f>
         <v>1</v>
@@ -23464,7 +22254,7 @@
       </c>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20">
       <c r="C69" s="12">
         <f>C68+1</f>
         <v>2</v>
@@ -23493,7 +22283,7 @@
       </c>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20">
       <c r="C70" s="9">
         <f t="shared" ref="C70:C77" si="4">C69+1</f>
         <v>3</v>
@@ -23522,7 +22312,7 @@
       </c>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20">
       <c r="C71" s="12">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -23551,7 +22341,7 @@
       </c>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20">
       <c r="C72" s="9">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -23580,7 +22370,7 @@
       </c>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20">
       <c r="C73" s="12">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -23609,7 +22399,7 @@
       </c>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20">
       <c r="C74" s="9">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -23638,7 +22428,7 @@
       </c>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20">
       <c r="C75" s="12">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -23666,7 +22456,7 @@
       </c>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20">
       <c r="C76" s="9">
         <f>C75+1</f>
         <v>9</v>
@@ -23691,7 +22481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20">
       <c r="C77" s="12">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -23716,7 +22506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20">
       <c r="C78" s="9"/>
       <c r="D78" s="16" t="s">
         <v>35</v>
@@ -23737,7 +22527,7 @@
       <c r="S78" s="33"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20">
       <c r="C79" s="12">
         <v>11</v>
       </c>
@@ -23764,7 +22554,7 @@
       </c>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20">
       <c r="C80" s="9">
         <f>C79+1</f>
         <v>12</v>
@@ -23792,7 +22582,7 @@
       </c>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20">
       <c r="C81" s="12">
         <f>C80+1</f>
         <v>13</v>
@@ -23820,7 +22610,7 @@
       </c>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20">
       <c r="C82" s="9"/>
       <c r="D82" s="16" t="s">
         <v>36</v>
@@ -23841,7 +22631,7 @@
       <c r="S82" s="33"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:20">
       <c r="C83" s="12">
         <v>14</v>
       </c>
@@ -23868,7 +22658,7 @@
       </c>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20">
       <c r="C84" s="9">
         <f>C83+1</f>
         <v>15</v>
@@ -23896,7 +22686,7 @@
       </c>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:20">
       <c r="C85" s="12">
         <f>C84+1</f>
         <v>16</v>
@@ -23924,7 +22714,7 @@
       </c>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:20">
       <c r="C86" s="9">
         <f>C85+1</f>
         <v>17</v>
@@ -23952,7 +22742,7 @@
       </c>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:20">
       <c r="C87" s="33"/>
       <c r="D87" s="33"/>
       <c r="E87" s="33"/>
@@ -23972,12 +22762,12 @@
       <c r="S87" s="51"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="3:20" ht="19" x14ac:dyDescent="0.2">
-      <c r="C88" s="59" t="s">
+    <row r="88" spans="3:20" ht="18.75">
+      <c r="C88" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="59"/>
-      <c r="E88" s="59"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="54"/>
       <c r="G88" s="33"/>
       <c r="H88" s="33"/>
       <c r="I88" s="33"/>
@@ -23993,7 +22783,7 @@
       <c r="S88" s="51"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:20">
       <c r="G89" s="33"/>
       <c r="H89" s="33"/>
       <c r="I89" s="33"/>
@@ -24009,7 +22799,7 @@
       <c r="S89" s="51"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20">
       <c r="G90" s="33"/>
       <c r="H90" s="33"/>
       <c r="I90" s="33"/>
@@ -24025,7 +22815,7 @@
       <c r="S90" s="51"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:20">
       <c r="G91" s="33"/>
       <c r="H91" s="33"/>
       <c r="I91" s="33"/>
@@ -24041,7 +22831,7 @@
       <c r="S91" s="51"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20">
       <c r="G92" s="33"/>
       <c r="H92" s="33"/>
       <c r="I92" s="33"/>
@@ -24057,7 +22847,7 @@
       <c r="S92" s="51"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:20">
       <c r="G93" s="33"/>
       <c r="H93" s="33"/>
       <c r="I93" s="33"/>
@@ -24073,7 +22863,7 @@
       <c r="S93" s="51"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:20">
       <c r="G94" s="33"/>
       <c r="H94" s="33"/>
       <c r="I94" s="33"/>
@@ -24089,7 +22879,7 @@
       <c r="S94" s="51"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20">
       <c r="G95" s="33"/>
       <c r="H95" s="33"/>
       <c r="I95" s="33"/>
@@ -24105,7 +22895,7 @@
       <c r="S95" s="51"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:20">
       <c r="G96" s="33"/>
       <c r="H96" s="33"/>
       <c r="I96" s="33"/>
@@ -24121,7 +22911,7 @@
       <c r="S96" s="51"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20">
       <c r="G97" s="33"/>
       <c r="H97" s="33"/>
       <c r="I97" s="33"/>
@@ -24137,7 +22927,7 @@
       <c r="S97" s="51"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:20">
       <c r="G98" s="33"/>
       <c r="H98" s="33"/>
       <c r="I98" s="33"/>
@@ -24153,7 +22943,7 @@
       <c r="S98" s="51"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:20">
       <c r="G99" s="33"/>
       <c r="H99" s="33"/>
       <c r="I99" s="33"/>
@@ -24169,7 +22959,7 @@
       <c r="S99" s="51"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:20">
       <c r="G100" s="33"/>
       <c r="H100" s="33"/>
       <c r="I100" s="33"/>
@@ -24185,7 +22975,7 @@
       <c r="S100" s="51"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20">
       <c r="G101" s="33"/>
       <c r="H101" s="33"/>
       <c r="I101" s="33"/>
@@ -24201,7 +22991,7 @@
       <c r="S101" s="51"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20">
       <c r="G102" s="33"/>
       <c r="H102" s="33"/>
       <c r="I102" s="33"/>
@@ -24217,7 +23007,7 @@
       <c r="S102" s="51"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:20">
       <c r="G103" s="33"/>
       <c r="H103" s="33"/>
       <c r="I103" s="33"/>
@@ -24233,13 +23023,13 @@
       <c r="S103" s="51"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104" spans="3:20" ht="19" x14ac:dyDescent="0.2">
-      <c r="C104" s="59" t="s">
+    <row r="104" spans="3:20" ht="18.75">
+      <c r="C104" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D104" s="59"/>
-      <c r="E104" s="59"/>
-      <c r="F104" s="59"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="54"/>
+      <c r="F104" s="54"/>
       <c r="G104" s="33"/>
       <c r="H104" s="33"/>
       <c r="I104" s="33"/>
@@ -24255,7 +23045,7 @@
       <c r="S104" s="51"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:20">
       <c r="G105" s="33"/>
       <c r="H105" s="33"/>
       <c r="I105" s="33"/>
@@ -24271,7 +23061,7 @@
       <c r="S105" s="51"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:20">
       <c r="G106" s="33"/>
       <c r="H106" s="33"/>
       <c r="I106" s="33"/>
@@ -24287,7 +23077,7 @@
       <c r="S106" s="51"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:20">
       <c r="C107" s="33"/>
       <c r="D107" s="33"/>
       <c r="E107" s="33"/>
@@ -24307,7 +23097,7 @@
       <c r="S107" s="51"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:20">
       <c r="C108" s="33"/>
       <c r="D108" s="33"/>
       <c r="E108" s="33"/>
@@ -24327,7 +23117,7 @@
       <c r="S108" s="51"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:20">
       <c r="C109" s="33"/>
       <c r="D109" s="33"/>
       <c r="E109" s="33"/>
@@ -24347,7 +23137,7 @@
       <c r="S109" s="51"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:20">
       <c r="C110" s="33"/>
       <c r="D110" s="33"/>
       <c r="E110" s="33"/>
@@ -24367,7 +23157,7 @@
       <c r="S110" s="51"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:20">
       <c r="C111" s="33"/>
       <c r="D111" s="33"/>
       <c r="E111" s="33"/>
@@ -24387,7 +23177,7 @@
       <c r="S111" s="51"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:20">
       <c r="C112" s="33"/>
       <c r="D112" s="33"/>
       <c r="E112" s="33"/>
@@ -24407,7 +23197,7 @@
       <c r="S112" s="51"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:20">
       <c r="C113" s="33"/>
       <c r="D113" s="33"/>
       <c r="E113" s="33"/>
@@ -24427,7 +23217,7 @@
       <c r="S113" s="51"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:20">
       <c r="C114" s="33"/>
       <c r="D114" s="33"/>
       <c r="E114" s="33"/>
@@ -24447,7 +23237,7 @@
       <c r="S114" s="51"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:20">
       <c r="C115" s="33"/>
       <c r="D115" s="33"/>
       <c r="E115" s="33"/>
@@ -24467,7 +23257,7 @@
       <c r="S115" s="51"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:20">
       <c r="C116" s="33"/>
       <c r="D116" s="33"/>
       <c r="E116" s="33"/>
@@ -24487,7 +23277,7 @@
       <c r="S116" s="51"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:20">
       <c r="C117" s="33"/>
       <c r="D117" s="33"/>
       <c r="E117" s="33"/>
@@ -24507,7 +23297,7 @@
       <c r="S117" s="51"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:20">
       <c r="C118" s="33"/>
       <c r="D118" s="33"/>
       <c r="E118" s="33"/>
@@ -24527,7 +23317,7 @@
       <c r="S118" s="51"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:20">
       <c r="C119" s="33"/>
       <c r="D119" s="33"/>
       <c r="E119" s="33"/>
@@ -24547,7 +23337,7 @@
       <c r="S119" s="51"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120" spans="3:20" ht="19" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:20" ht="18.75">
       <c r="C120" s="46" t="s">
         <v>55</v>
       </c>
@@ -24569,7 +23359,7 @@
       <c r="S120" s="51"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:20">
       <c r="C121" s="33"/>
       <c r="D121" s="33"/>
       <c r="E121" s="33"/>
@@ -24589,7 +23379,7 @@
       <c r="S121" s="51"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:20">
       <c r="C122" s="33"/>
       <c r="D122" s="33"/>
       <c r="E122" s="33"/>
@@ -24609,7 +23399,7 @@
       <c r="S122" s="51"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:20">
       <c r="C123" s="33"/>
       <c r="D123" s="33"/>
       <c r="E123" s="33"/>
@@ -24629,7 +23419,7 @@
       <c r="S123" s="51"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:20">
       <c r="C124" s="33"/>
       <c r="D124" s="33"/>
       <c r="E124" s="33"/>
@@ -24649,7 +23439,7 @@
       <c r="S124" s="51"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:20">
       <c r="C125" s="33"/>
       <c r="D125" s="33"/>
       <c r="E125" s="33"/>
@@ -24669,7 +23459,7 @@
       <c r="S125" s="51"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:20">
       <c r="C126" s="33"/>
       <c r="D126" s="33"/>
       <c r="E126" s="33"/>
@@ -24689,7 +23479,7 @@
       <c r="S126" s="51"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:20">
       <c r="C127" s="33"/>
       <c r="D127" s="33"/>
       <c r="E127" s="33"/>
@@ -24709,7 +23499,7 @@
       <c r="S127" s="51"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:20">
       <c r="C128" s="33"/>
       <c r="D128" s="33"/>
       <c r="E128" s="33"/>
@@ -24729,7 +23519,7 @@
       <c r="S128" s="51"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:20">
       <c r="C129" s="33"/>
       <c r="D129" s="33"/>
       <c r="E129" s="33"/>
@@ -24749,7 +23539,7 @@
       <c r="S129" s="51"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:20">
       <c r="C130" s="33"/>
       <c r="D130" s="33"/>
       <c r="E130" s="33"/>
@@ -24769,7 +23559,7 @@
       <c r="S130" s="51"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:20">
       <c r="C131" s="33"/>
       <c r="D131" s="33"/>
       <c r="E131" s="33"/>
@@ -24789,7 +23579,7 @@
       <c r="S131" s="51"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:20">
       <c r="C132" s="33"/>
       <c r="D132" s="33"/>
       <c r="E132" s="33"/>
@@ -24809,7 +23599,7 @@
       <c r="S132" s="51"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:20">
       <c r="C133" s="33"/>
       <c r="D133" s="33"/>
       <c r="E133" s="33"/>
@@ -24829,7 +23619,7 @@
       <c r="S133" s="51"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:20">
       <c r="C134" s="33"/>
       <c r="D134" s="33"/>
       <c r="E134" s="33"/>
@@ -24849,7 +23639,7 @@
       <c r="S134" s="51"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:20">
       <c r="C135" s="33"/>
       <c r="D135" s="33"/>
       <c r="E135" s="33"/>
@@ -24869,7 +23659,7 @@
       <c r="S135" s="51"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136" spans="3:20" ht="19" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:20" ht="18.75">
       <c r="C136" s="46"/>
       <c r="D136" s="33"/>
       <c r="E136" s="33"/>
@@ -24889,7 +23679,7 @@
       <c r="S136" s="51"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:20">
       <c r="C137" s="33"/>
       <c r="D137" s="33"/>
       <c r="E137" s="33"/>
@@ -24909,7 +23699,7 @@
       <c r="S137" s="51"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:20">
       <c r="C138" s="33"/>
       <c r="D138" s="33"/>
       <c r="E138" s="33"/>
@@ -24929,7 +23719,7 @@
       <c r="S138" s="51"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:20">
       <c r="C139" s="33"/>
       <c r="D139" s="33"/>
       <c r="E139" s="33"/>
@@ -24949,7 +23739,7 @@
       <c r="S139" s="51"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:20">
       <c r="C140" s="33"/>
       <c r="D140" s="33"/>
       <c r="E140" s="33"/>
@@ -24969,7 +23759,7 @@
       <c r="S140" s="51"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:20">
       <c r="C141" s="33"/>
       <c r="D141" s="33"/>
       <c r="E141" s="33"/>
@@ -24989,7 +23779,7 @@
       <c r="S141" s="51"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:20">
       <c r="C142" s="33"/>
       <c r="D142" s="33"/>
       <c r="E142" s="33"/>
@@ -25009,7 +23799,7 @@
       <c r="S142" s="51"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:20">
       <c r="C143" s="33"/>
       <c r="D143" s="33"/>
       <c r="E143" s="33"/>
@@ -25029,7 +23819,7 @@
       <c r="S143" s="51"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:20">
       <c r="C144" s="33"/>
       <c r="D144" s="33"/>
       <c r="E144" s="33"/>
@@ -25049,7 +23839,7 @@
       <c r="S144" s="51"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:20">
       <c r="C145" s="33"/>
       <c r="D145" s="33"/>
       <c r="E145" s="33"/>
@@ -25069,7 +23859,7 @@
       <c r="S145" s="51"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:20">
       <c r="C146" s="33"/>
       <c r="D146" s="33"/>
       <c r="E146" s="33"/>
@@ -25089,7 +23879,7 @@
       <c r="S146" s="51"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:20">
       <c r="C147" s="33"/>
       <c r="D147" s="33"/>
       <c r="E147" s="33"/>
@@ -25109,7 +23899,7 @@
       <c r="S147" s="51"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:20">
       <c r="C148" s="33"/>
       <c r="D148" s="33"/>
       <c r="E148" s="33"/>
@@ -25129,7 +23919,7 @@
       <c r="S148" s="51"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:20">
       <c r="C149" s="33"/>
       <c r="D149" s="33"/>
       <c r="E149" s="33"/>
@@ -25149,7 +23939,7 @@
       <c r="S149" s="51"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:20">
       <c r="C150" s="33"/>
       <c r="D150" s="33"/>
       <c r="E150" s="33"/>
@@ -25169,7 +23959,7 @@
       <c r="S150" s="51"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:20">
       <c r="C151" s="33"/>
       <c r="D151" s="33"/>
       <c r="E151" s="33"/>
@@ -25189,7 +23979,7 @@
       <c r="S151" s="51"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:20">
       <c r="C152" s="33"/>
       <c r="D152" s="33"/>
       <c r="E152" s="33"/>
@@ -25209,7 +23999,7 @@
       <c r="S152" s="51"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:20">
       <c r="C153" s="33"/>
       <c r="D153" s="33"/>
       <c r="E153" s="33"/>
@@ -25229,7 +24019,7 @@
       <c r="S153" s="51"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:20">
       <c r="C154" s="33"/>
       <c r="D154" s="33"/>
       <c r="E154" s="33"/>
@@ -25249,7 +24039,7 @@
       <c r="S154" s="51"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:20">
       <c r="C155" s="33"/>
       <c r="D155" s="33"/>
       <c r="E155" s="33"/>
@@ -25269,7 +24059,7 @@
       <c r="S155" s="51"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:20">
       <c r="C156" s="33"/>
       <c r="D156" s="33"/>
       <c r="E156" s="33"/>
@@ -25289,7 +24079,7 @@
       <c r="S156" s="51"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:20">
       <c r="C157" s="33"/>
       <c r="D157" s="33"/>
       <c r="E157" s="33"/>
@@ -25309,7 +24099,7 @@
       <c r="S157" s="51"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:20">
       <c r="C158" s="33"/>
       <c r="D158" s="33"/>
       <c r="E158" s="33"/>
@@ -25329,7 +24119,7 @@
       <c r="S158" s="51"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:20">
       <c r="C159" s="33"/>
       <c r="D159" s="33"/>
       <c r="E159" s="33"/>
@@ -25349,7 +24139,7 @@
       <c r="S159" s="51"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:20">
       <c r="C160" s="33"/>
       <c r="D160" s="33"/>
       <c r="E160" s="33"/>
@@ -25369,7 +24159,7 @@
       <c r="S160" s="51"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20">
       <c r="C161" s="33"/>
       <c r="D161" s="33"/>
       <c r="E161" s="33"/>
@@ -25389,7 +24179,7 @@
       <c r="S161" s="51"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20">
       <c r="C162" s="33"/>
       <c r="D162" s="33"/>
       <c r="E162" s="33"/>
@@ -25409,17 +24199,17 @@
       <c r="S162" s="51"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20">
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20">
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A165" s="54" t="s">
+    <row r="165" spans="1:20">
+      <c r="A165" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="B165" s="54"/>
+      <c r="B165" s="55"/>
       <c r="L165" s="42" t="s">
         <v>50</v>
       </c>
@@ -25428,29 +24218,29 @@
       <c r="O165" s="34"/>
       <c r="P165" s="34"/>
       <c r="Q165" s="1"/>
-      <c r="R165" s="57" t="s">
+      <c r="R165" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="S165" s="57"/>
+      <c r="S165" s="56"/>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A166" s="54"/>
-      <c r="B166" s="54"/>
+    <row r="166" spans="1:20">
+      <c r="A166" s="55"/>
+      <c r="B166" s="55"/>
       <c r="C166" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D166" s="57" t="s">
+      <c r="D166" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E166" s="57"/>
-      <c r="F166" s="57"/>
-      <c r="G166" s="57"/>
-      <c r="H166" s="57"/>
-      <c r="I166" s="57"/>
-      <c r="J166" s="57"/>
-      <c r="K166" s="57"/>
+      <c r="E166" s="56"/>
+      <c r="F166" s="56"/>
+      <c r="G166" s="56"/>
+      <c r="H166" s="56"/>
+      <c r="I166" s="56"/>
+      <c r="J166" s="56"/>
+      <c r="K166" s="56"/>
       <c r="L166" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M166" s="34"/>
       <c r="N166" s="33"/>
@@ -25464,7 +24254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20">
       <c r="C167" s="9">
         <f>1</f>
         <v>1</v>
@@ -25487,14 +24277,14 @@
       <c r="P167" s="33"/>
       <c r="Q167" s="1"/>
       <c r="R167" s="35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S167" s="37">
         <f>$L$166-R167</f>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20">
       <c r="C168" s="12">
         <f>C167+1</f>
         <v>2</v>
@@ -25517,14 +24307,14 @@
       <c r="P168" s="33"/>
       <c r="Q168" s="1"/>
       <c r="R168" s="36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S168" s="38">
         <f>$L$166-R168</f>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20">
       <c r="C169" s="9">
         <f t="shared" ref="C169" si="5">C168+1</f>
         <v>3</v>
@@ -25551,10 +24341,10 @@
       </c>
       <c r="S169" s="37">
         <f>$L$166-R169</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20">
       <c r="C170" s="12"/>
       <c r="D170" s="15" t="s">
         <v>40</v>
@@ -25566,7 +24356,9 @@
       <c r="I170" s="14"/>
       <c r="J170" s="14"/>
       <c r="K170" s="14"/>
-      <c r="M170" s="33"/>
+      <c r="M170" s="33" t="s">
+        <v>76</v>
+      </c>
       <c r="N170" s="33"/>
       <c r="O170" s="33"/>
       <c r="P170" s="33"/>
@@ -25574,7 +24366,7 @@
       <c r="S170" s="44"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20">
       <c r="C171" s="9">
         <v>14</v>
       </c>
@@ -25593,7 +24385,7 @@
       <c r="O171" s="33"/>
       <c r="P171" s="33"/>
       <c r="R171" s="40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S171" s="37">
         <f>$L$166-R171</f>
@@ -25601,7 +24393,7 @@
       </c>
       <c r="T171" s="1"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20">
       <c r="C172" s="12">
         <f>C171+1</f>
         <v>15</v>
@@ -25617,7 +24409,9 @@
       <c r="J172" s="14"/>
       <c r="K172" s="14"/>
       <c r="M172" s="33"/>
-      <c r="N172" s="33"/>
+      <c r="N172" s="33" t="s">
+        <v>77</v>
+      </c>
       <c r="O172" s="33"/>
       <c r="P172" s="33"/>
       <c r="R172" s="39">
@@ -25625,11 +24419,11 @@
       </c>
       <c r="S172" s="38">
         <f>$L$166-R172</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T172" s="1"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20">
       <c r="C173" s="9">
         <f>C172+1</f>
         <v>16</v>
@@ -25649,7 +24443,7 @@
       <c r="O173" s="33"/>
       <c r="P173" s="33"/>
       <c r="R173" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S173" s="37">
         <f>$L$166-R173</f>
@@ -25657,7 +24451,7 @@
       </c>
       <c r="T173" s="1"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20">
       <c r="C174" s="12"/>
       <c r="D174" s="13" t="s">
         <v>44</v>
@@ -25673,7 +24467,7 @@
       <c r="R174" s="44"/>
       <c r="S174" s="44"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20">
       <c r="C175" s="9">
         <v>17</v>
       </c>
@@ -25689,14 +24483,14 @@
       <c r="K175" s="11"/>
       <c r="Q175" s="1"/>
       <c r="R175" s="35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S175" s="37">
         <f>$L$166-R175</f>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20">
       <c r="C176" s="12">
         <f>C175+1</f>
         <v>18</v>
@@ -25713,14 +24507,14 @@
       <c r="K176" s="14"/>
       <c r="Q176" s="1"/>
       <c r="R176" s="36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S176" s="38">
         <f>$L$166-R176</f>
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:19">
       <c r="C177" s="9">
         <f t="shared" ref="C177:C179" si="6">C176+1</f>
         <v>19</v>
@@ -25737,14 +24531,14 @@
       <c r="K177" s="11"/>
       <c r="Q177" s="1"/>
       <c r="R177" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S177" s="37">
         <f>$L$166-R177</f>
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:19">
       <c r="C178" s="12">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -25761,14 +24555,14 @@
       <c r="K178" s="14"/>
       <c r="Q178" s="1"/>
       <c r="R178" s="36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S178" s="38">
         <f>$L$166-R178</f>
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:19">
       <c r="C179" s="9">
         <f t="shared" si="6"/>
         <v>21</v>
@@ -25785,38 +24579,38 @@
       <c r="K179" s="11"/>
       <c r="Q179" s="1"/>
       <c r="R179" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S179" s="37">
         <f>$L$166-R179</f>
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:19">
       <c r="R180" s="1"/>
       <c r="S180" s="1"/>
     </row>
-    <row r="181" spans="3:19" ht="19" x14ac:dyDescent="0.2">
-      <c r="C181" s="59" t="s">
+    <row r="181" spans="3:19" ht="18.75">
+      <c r="C181" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D181" s="59"/>
-      <c r="E181" s="59"/>
+      <c r="D181" s="54"/>
+      <c r="E181" s="54"/>
     </row>
-    <row r="190" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:19">
       <c r="N190" s="4"/>
       <c r="O190" s="4"/>
       <c r="P190" s="4"/>
     </row>
-    <row r="197" spans="1:19" ht="19" x14ac:dyDescent="0.2">
-      <c r="C197" s="59" t="s">
+    <row r="197" spans="1:19" ht="18.75">
+      <c r="C197" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D197" s="59"/>
-      <c r="E197" s="59"/>
-      <c r="F197" s="59"/>
+      <c r="D197" s="54"/>
+      <c r="E197" s="54"/>
+      <c r="F197" s="54"/>
     </row>
-    <row r="198" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:19" ht="15.95" customHeight="1">
       <c r="A198" s="47"/>
       <c r="B198" s="47"/>
       <c r="G198" s="33"/>
@@ -25833,7 +24627,7 @@
       <c r="R198" s="34"/>
       <c r="S198" s="34"/>
     </row>
-    <row r="199" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:19" ht="15.95" customHeight="1">
       <c r="A199" s="47"/>
       <c r="B199" s="47"/>
       <c r="G199" s="34"/>
@@ -25850,7 +24644,7 @@
       <c r="R199" s="33"/>
       <c r="S199" s="33"/>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:19">
       <c r="A200" s="45"/>
       <c r="B200" s="33"/>
       <c r="G200" s="33"/>
@@ -25867,7 +24661,7 @@
       <c r="R200" s="33"/>
       <c r="S200" s="33"/>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:19">
       <c r="A201" s="45"/>
       <c r="B201" s="33"/>
       <c r="G201" s="33"/>
@@ -25884,7 +24678,7 @@
       <c r="R201" s="33"/>
       <c r="S201" s="33"/>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:19">
       <c r="A202" s="45"/>
       <c r="B202" s="33"/>
       <c r="G202" s="33"/>
@@ -25901,7 +24695,7 @@
       <c r="R202" s="33"/>
       <c r="S202" s="33"/>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:19">
       <c r="A203" s="45"/>
       <c r="B203" s="33"/>
       <c r="G203" s="33"/>
@@ -25918,7 +24712,7 @@
       <c r="R203" s="33"/>
       <c r="S203" s="33"/>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:19">
       <c r="A204" s="45"/>
       <c r="B204" s="33"/>
       <c r="G204" s="33"/>
@@ -25935,7 +24729,7 @@
       <c r="R204" s="33"/>
       <c r="S204" s="33"/>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:19">
       <c r="A205" s="45"/>
       <c r="B205" s="33"/>
       <c r="G205" s="33"/>
@@ -25952,7 +24746,7 @@
       <c r="R205" s="33"/>
       <c r="S205" s="33"/>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:19">
       <c r="A206" s="45"/>
       <c r="B206" s="33"/>
       <c r="G206" s="33"/>
@@ -25969,7 +24763,7 @@
       <c r="R206" s="33"/>
       <c r="S206" s="33"/>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:19">
       <c r="A207" s="45"/>
       <c r="B207" s="33"/>
       <c r="G207" s="33"/>
@@ -25986,7 +24780,7 @@
       <c r="R207" s="33"/>
       <c r="S207" s="33"/>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:19">
       <c r="A208" s="45"/>
       <c r="B208" s="33"/>
       <c r="G208" s="33"/>
@@ -26003,7 +24797,7 @@
       <c r="R208" s="33"/>
       <c r="S208" s="33"/>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:19">
       <c r="A209" s="45"/>
       <c r="B209" s="33"/>
       <c r="G209" s="33"/>
@@ -26020,7 +24814,7 @@
       <c r="R209" s="45"/>
       <c r="S209" s="45"/>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:19">
       <c r="A210" s="45"/>
       <c r="B210" s="33"/>
       <c r="G210" s="33"/>
@@ -26037,7 +24831,7 @@
       <c r="R210" s="45"/>
       <c r="S210" s="45"/>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:19">
       <c r="A211" s="45"/>
       <c r="B211" s="33"/>
       <c r="G211" s="33"/>
@@ -26054,7 +24848,7 @@
       <c r="R211" s="45"/>
       <c r="S211" s="45"/>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:19">
       <c r="A212" s="45"/>
       <c r="B212" s="33"/>
       <c r="C212" s="48"/>
@@ -26075,7 +24869,7 @@
       <c r="R212" s="45"/>
       <c r="S212" s="45"/>
     </row>
-    <row r="213" spans="1:19" ht="19" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:19" ht="18.75">
       <c r="A213" s="45"/>
       <c r="B213" s="33"/>
       <c r="C213" s="46" t="s">
@@ -26098,7 +24892,7 @@
       <c r="R213" s="45"/>
       <c r="S213" s="45"/>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:19">
       <c r="A214" s="45"/>
       <c r="B214" s="33"/>
       <c r="C214" s="48"/>
@@ -26119,7 +24913,7 @@
       <c r="R214" s="45"/>
       <c r="S214" s="45"/>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:19">
       <c r="A215" s="45"/>
       <c r="B215" s="33"/>
       <c r="C215" s="48"/>
@@ -26140,7 +24934,7 @@
       <c r="R215" s="45"/>
       <c r="S215" s="45"/>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:19">
       <c r="A216" s="45"/>
       <c r="B216" s="33"/>
       <c r="C216" s="48"/>
@@ -26161,7 +24955,7 @@
       <c r="R216" s="45"/>
       <c r="S216" s="45"/>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:19">
       <c r="A217" s="45"/>
       <c r="B217" s="33"/>
       <c r="C217" s="48"/>
@@ -26182,7 +24976,7 @@
       <c r="R217" s="45"/>
       <c r="S217" s="45"/>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:19">
       <c r="A218" s="45"/>
       <c r="B218" s="33"/>
       <c r="C218" s="48"/>
@@ -26203,7 +24997,7 @@
       <c r="R218" s="45"/>
       <c r="S218" s="45"/>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:19">
       <c r="A219" s="45"/>
       <c r="B219" s="33"/>
       <c r="C219" s="48"/>
@@ -26224,7 +25018,7 @@
       <c r="R219" s="45"/>
       <c r="S219" s="45"/>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:19">
       <c r="A220" s="45"/>
       <c r="B220" s="33"/>
       <c r="C220" s="48"/>
@@ -26245,7 +25039,7 @@
       <c r="R220" s="45"/>
       <c r="S220" s="45"/>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:19">
       <c r="A221" s="45"/>
       <c r="B221" s="33"/>
       <c r="C221" s="48"/>
@@ -26266,7 +25060,7 @@
       <c r="R221" s="45"/>
       <c r="S221" s="45"/>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:19">
       <c r="A222" s="45"/>
       <c r="B222" s="33"/>
       <c r="C222" s="48"/>
@@ -26287,7 +25081,7 @@
       <c r="R222" s="45"/>
       <c r="S222" s="45"/>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:19">
       <c r="A223" s="45"/>
       <c r="B223" s="33"/>
       <c r="C223" s="48"/>
@@ -26308,7 +25102,7 @@
       <c r="R223" s="45"/>
       <c r="S223" s="45"/>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:19">
       <c r="A224" s="45"/>
       <c r="B224" s="33"/>
       <c r="C224" s="48"/>
@@ -26329,7 +25123,7 @@
       <c r="R224" s="45"/>
       <c r="S224" s="45"/>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:19">
       <c r="A225" s="45"/>
       <c r="B225" s="33"/>
       <c r="C225" s="48"/>
@@ -26350,7 +25144,7 @@
       <c r="R225" s="45"/>
       <c r="S225" s="45"/>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:19">
       <c r="A226" s="45"/>
       <c r="B226" s="33"/>
       <c r="C226" s="48"/>
@@ -26371,7 +25165,7 @@
       <c r="R226" s="45"/>
       <c r="S226" s="45"/>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:19">
       <c r="A227" s="45"/>
       <c r="B227" s="33"/>
       <c r="C227" s="48"/>
@@ -26392,7 +25186,7 @@
       <c r="R227" s="45"/>
       <c r="S227" s="45"/>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:19">
       <c r="A228" s="45"/>
       <c r="B228" s="33"/>
       <c r="C228" s="48"/>
@@ -26413,16 +25207,16 @@
       <c r="R228" s="45"/>
       <c r="S228" s="45"/>
     </row>
-    <row r="229" spans="1:19" ht="19" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:19" ht="18.75">
       <c r="C229" s="46" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A245" s="54" t="s">
+    <row r="245" spans="1:20">
+      <c r="A245" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="B245" s="54"/>
+      <c r="B245" s="55"/>
       <c r="L245" s="42" t="s">
         <v>54</v>
       </c>
@@ -26431,28 +25225,28 @@
       <c r="O245" s="34"/>
       <c r="P245" s="34"/>
       <c r="Q245" s="1"/>
-      <c r="R245" s="57" t="s">
+      <c r="R245" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="S245" s="57"/>
+      <c r="S245" s="56"/>
       <c r="T245" s="34"/>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A246" s="54"/>
-      <c r="B246" s="54"/>
+    <row r="246" spans="1:20">
+      <c r="A246" s="55"/>
+      <c r="B246" s="55"/>
       <c r="C246" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D246" s="57" t="s">
+      <c r="D246" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E246" s="57"/>
-      <c r="F246" s="57"/>
-      <c r="G246" s="57"/>
-      <c r="H246" s="57"/>
-      <c r="I246" s="57"/>
-      <c r="J246" s="57"/>
-      <c r="K246" s="57"/>
+      <c r="E246" s="56"/>
+      <c r="F246" s="56"/>
+      <c r="G246" s="56"/>
+      <c r="H246" s="56"/>
+      <c r="I246" s="56"/>
+      <c r="J246" s="56"/>
+      <c r="K246" s="56"/>
       <c r="L246" s="33">
         <v>291</v>
       </c>
@@ -26469,7 +25263,7 @@
       </c>
       <c r="T246" s="44"/>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:20">
       <c r="C247" s="9">
         <f>1</f>
         <v>1</v>
@@ -26498,7 +25292,7 @@
       </c>
       <c r="T247" s="33"/>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:20">
       <c r="C248" s="12">
         <f>C247+1</f>
         <v>2</v>
@@ -26527,7 +25321,7 @@
       </c>
       <c r="T248" s="33"/>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:20">
       <c r="C249" s="9">
         <f t="shared" ref="C249" si="8">C248+1</f>
         <v>3</v>
@@ -26556,7 +25350,7 @@
       </c>
       <c r="T249" s="33"/>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:20">
       <c r="C250" s="12"/>
       <c r="D250" s="15" t="s">
         <v>65</v>
@@ -26577,7 +25371,7 @@
       <c r="S250" s="33"/>
       <c r="T250" s="33"/>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:20">
       <c r="C251" s="9">
         <v>4</v>
       </c>
@@ -26605,7 +25399,7 @@
       </c>
       <c r="T251" s="33"/>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:20">
       <c r="C252" s="12">
         <f>C251+1</f>
         <v>5</v>
@@ -26634,7 +25428,7 @@
       </c>
       <c r="T252" s="33"/>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:20">
       <c r="C253" s="9">
         <f>C252+1</f>
         <v>6</v>
@@ -26663,7 +25457,7 @@
       </c>
       <c r="T253" s="33"/>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:20">
       <c r="C254" s="12">
         <f>C253+1</f>
         <v>7</v>
@@ -26694,7 +25488,7 @@
       </c>
       <c r="T254" s="33"/>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:20">
       <c r="C255" s="9"/>
       <c r="D255" s="16" t="s">
         <v>70</v>
@@ -26714,7 +25508,7 @@
       <c r="S255" s="33"/>
       <c r="T255" s="33"/>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:20">
       <c r="C256" s="12">
         <v>8</v>
       </c>
@@ -26744,7 +25538,7 @@
       </c>
       <c r="T256" s="33"/>
     </row>
-    <row r="257" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="257" spans="3:24">
       <c r="C257" s="9">
         <f>C256+1</f>
         <v>9</v>
@@ -26773,7 +25567,7 @@
       </c>
       <c r="T257" s="33"/>
     </row>
-    <row r="258" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="258" spans="3:24">
       <c r="C258" s="12">
         <v>10</v>
       </c>
@@ -26800,7 +25594,7 @@
       </c>
       <c r="T258" s="33"/>
     </row>
-    <row r="259" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="259" spans="3:24">
       <c r="C259" s="9"/>
       <c r="D259" s="13" t="s">
         <v>74</v>
@@ -26820,7 +25614,7 @@
       <c r="S259" s="33"/>
       <c r="T259" s="33"/>
     </row>
-    <row r="260" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="260" spans="3:24">
       <c r="C260" s="12">
         <v>11</v>
       </c>
@@ -26847,7 +25641,7 @@
       </c>
       <c r="T260" s="1"/>
     </row>
-    <row r="261" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="261" spans="3:24">
       <c r="C261" s="9">
         <v>12</v>
       </c>
@@ -26875,7 +25669,7 @@
       </c>
       <c r="T261" s="1"/>
     </row>
-    <row r="262" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="262" spans="3:24">
       <c r="C262" s="12">
         <v>13</v>
       </c>
@@ -26902,7 +25696,7 @@
       </c>
       <c r="T262" s="1"/>
     </row>
-    <row r="263" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="263" spans="3:24">
       <c r="C263" s="9">
         <v>14</v>
       </c>
@@ -26929,7 +25723,7 @@
       </c>
       <c r="T263" s="1"/>
     </row>
-    <row r="264" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="264" spans="3:24">
       <c r="C264" s="12">
         <v>15</v>
       </c>
@@ -26956,7 +25750,7 @@
       </c>
       <c r="T264" s="1"/>
     </row>
-    <row r="265" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="265" spans="3:24">
       <c r="C265" s="48"/>
       <c r="D265" s="53"/>
       <c r="E265" s="34"/>
@@ -26980,7 +25774,7 @@
       <c r="W265" s="45"/>
       <c r="X265" s="45"/>
     </row>
-    <row r="266" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="266" spans="3:24">
       <c r="C266" s="33"/>
       <c r="D266" s="33"/>
       <c r="E266" s="33"/>
@@ -27004,12 +25798,12 @@
       <c r="W266" s="45"/>
       <c r="X266" s="45"/>
     </row>
-    <row r="267" spans="3:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="C267" s="59" t="s">
+    <row r="267" spans="3:24" ht="18.75">
+      <c r="C267" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D267" s="59"/>
-      <c r="E267" s="59"/>
+      <c r="D267" s="54"/>
+      <c r="E267" s="54"/>
       <c r="G267" s="33"/>
       <c r="H267" s="33"/>
       <c r="I267" s="33"/>
@@ -27025,26 +25819,20 @@
       <c r="S267" s="51"/>
       <c r="T267" s="1"/>
     </row>
-    <row r="282" spans="3:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="C282" s="59" t="s">
+    <row r="282" spans="3:5" ht="18.75">
+      <c r="C282" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="D282" s="59"/>
-      <c r="E282" s="59"/>
+      <c r="D282" s="54"/>
+      <c r="E282" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C282:E282"/>
-    <mergeCell ref="A245:B246"/>
-    <mergeCell ref="D246:K246"/>
-    <mergeCell ref="C267:E267"/>
-    <mergeCell ref="R245:S245"/>
-    <mergeCell ref="A165:B166"/>
-    <mergeCell ref="R165:S165"/>
-    <mergeCell ref="D166:K166"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="A66:B67"/>
-    <mergeCell ref="D67:K67"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="P5:P6"/>
     <mergeCell ref="F1:J4"/>
     <mergeCell ref="C197:F197"/>
     <mergeCell ref="C104:F104"/>
@@ -27053,11 +25841,17 @@
     <mergeCell ref="R6:S6"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C33:F33"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="M5:N6"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="A165:B166"/>
+    <mergeCell ref="R165:S165"/>
+    <mergeCell ref="D166:K166"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="A66:B67"/>
+    <mergeCell ref="D67:K67"/>
+    <mergeCell ref="C282:E282"/>
+    <mergeCell ref="A245:B246"/>
+    <mergeCell ref="D246:K246"/>
+    <mergeCell ref="C267:E267"/>
+    <mergeCell ref="R245:S245"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/dados dos inquéritos.xlsx
+++ b/dados dos inquéritos.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="79">
   <si>
     <t>Inquéritos p/ o Projeto de Inovação</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>Em relação ao abate, foi-me dito que entrou em vigor uma lei que aboliu o abate em 1 de janeiro de 2018</t>
+  </si>
+  <si>
+    <t>Dra Ana Ribeiro</t>
   </si>
 </sst>
 </file>
@@ -607,11 +610,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -619,11 +625,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -738,7 +741,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -747,7 +750,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -823,7 +825,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -861,7 +863,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -935,7 +936,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -948,7 +948,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1011,7 +1010,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1049,7 +1048,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1181,14 +1179,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="89491712"/>
-        <c:axId val="89509888"/>
+        <c:axId val="95119616"/>
+        <c:axId val="95137792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89491712"/>
+        <c:axId val="95119616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,13 +1228,13 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89509888"/>
+        <c:crossAx val="95137792"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89509888"/>
+        <c:axId val="95137792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1288,7 +1285,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89491712"/>
+        <c:crossAx val="95119616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1302,7 +1299,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1365,7 +1361,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1403,7 +1399,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1559,14 +1554,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="100181120"/>
-        <c:axId val="100182656"/>
+        <c:axId val="95388800"/>
+        <c:axId val="95390336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100181120"/>
+        <c:axId val="95388800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1609,14 +1603,14 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100182656"/>
+        <c:crossAx val="95390336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100182656"/>
+        <c:axId val="95390336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1667,7 +1661,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100181120"/>
+        <c:crossAx val="95388800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1681,7 +1675,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1744,7 +1737,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1782,7 +1775,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1856,7 +1848,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -1869,7 +1860,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1932,7 +1922,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1970,7 +1960,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2044,7 +2033,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -2057,7 +2045,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2120,7 +2107,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2158,7 +2145,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2232,7 +2218,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -2245,7 +2230,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2308,7 +2292,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2346,7 +2330,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2420,7 +2403,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -2433,7 +2415,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2496,7 +2477,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2534,7 +2515,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2608,7 +2588,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -2621,7 +2600,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2684,7 +2662,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2722,7 +2700,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2796,7 +2773,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -2809,7 +2785,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2872,7 +2847,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2910,7 +2885,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2984,7 +2958,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -2997,7 +2970,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3060,7 +3032,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3163,7 +3135,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -3172,7 +3144,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -3248,7 +3219,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3286,7 +3257,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3360,7 +3330,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -3373,7 +3342,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3436,7 +3404,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3474,7 +3442,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3606,14 +3573,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="101558144"/>
-        <c:axId val="101559680"/>
+        <c:axId val="95648384"/>
+        <c:axId val="95662464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="101558144"/>
+        <c:axId val="95648384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3656,14 +3622,14 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101559680"/>
+        <c:crossAx val="95662464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101559680"/>
+        <c:axId val="95662464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3714,7 +3680,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101558144"/>
+        <c:crossAx val="95648384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3728,7 +3694,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3791,7 +3756,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3829,7 +3794,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3961,14 +3925,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="101634816"/>
-        <c:axId val="101636352"/>
+        <c:axId val="95770112"/>
+        <c:axId val="95771648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="101634816"/>
+        <c:axId val="95770112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4011,14 +3974,14 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101636352"/>
+        <c:crossAx val="95771648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101636352"/>
+        <c:axId val="95771648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4069,7 +4032,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101634816"/>
+        <c:crossAx val="95770112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4083,7 +4046,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4146,7 +4108,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4184,7 +4146,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4258,7 +4219,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -4271,7 +4231,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4334,7 +4293,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4372,7 +4331,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4446,7 +4404,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -4459,7 +4416,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4522,7 +4478,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4560,7 +4516,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4634,7 +4589,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -4647,7 +4601,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4710,7 +4663,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4748,7 +4701,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4822,7 +4774,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -4835,7 +4786,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4898,7 +4848,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4936,7 +4886,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5004,13 +4953,12 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -5023,7 +4971,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5086,7 +5033,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5189,7 +5136,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5198,7 +5145,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -5274,7 +5220,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5380,13 +5326,12 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -5462,7 +5407,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5500,7 +5445,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5568,13 +5512,12 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -5587,7 +5530,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5650,7 +5592,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5688,7 +5630,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5756,13 +5697,12 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -5775,7 +5715,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5838,7 +5777,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5876,7 +5815,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5950,7 +5888,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -5963,7 +5900,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6026,7 +5962,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6064,7 +6000,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6138,7 +6073,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -6151,7 +6085,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6214,7 +6147,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -21730,7 +21663,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -21740,8 +21673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X282"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="O179" sqref="O179"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -21752,27 +21685,28 @@
     <col min="11" max="11" width="23.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.875" style="1"/>
     <col min="13" max="16" width="17.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
       <c r="M1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
       <c r="M2" s="1">
         <v>1</v>
       </c>
@@ -21782,11 +21716,11 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
       <c r="M3" s="1">
         <v>0</v>
       </c>
@@ -21796,60 +21730,60 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="M5" s="59" t="s">
+      <c r="M5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="59"/>
-      <c r="O5" s="58" t="s">
+      <c r="N5" s="56"/>
+      <c r="O5" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="P5" s="59" t="s">
+      <c r="P5" s="56" t="s">
         <v>61</v>
       </c>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="54"/>
       <c r="L6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="59"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="56"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="56" t="s">
+      <c r="R6" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="S6" s="56"/>
+      <c r="S6" s="57"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="55"/>
-      <c r="B7" s="55"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
       <c r="L7" s="8" t="s">
         <v>1</v>
       </c>
@@ -21865,7 +21799,9 @@
       <c r="P7" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="26" t="s">
+        <v>78</v>
+      </c>
       <c r="R7" s="23" t="s">
         <v>11</v>
       </c>
@@ -21889,7 +21825,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" s="14">
         <v>1</v>
@@ -21903,10 +21839,12 @@
       <c r="P8" s="18">
         <v>1</v>
       </c>
-      <c r="Q8" s="1"/>
+      <c r="Q8" s="14">
+        <v>1</v>
+      </c>
       <c r="R8" s="24">
-        <f t="shared" ref="R8:R14" si="0">SUM(M8:Q8)</f>
-        <v>4</v>
+        <f>SUM(M8:Q8)</f>
+        <v>5</v>
       </c>
       <c r="S8" s="17">
         <f>$L$8-R8</f>
@@ -21940,19 +21878,21 @@
       <c r="P9" s="20">
         <v>1</v>
       </c>
-      <c r="Q9" s="1"/>
+      <c r="Q9" s="27">
+        <v>1</v>
+      </c>
       <c r="R9" s="25">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>SUM(M9:Q9)</f>
+        <v>4</v>
       </c>
       <c r="S9" s="19">
-        <f t="shared" ref="S9:S14" si="1">$L$8-R9</f>
+        <f t="shared" ref="S9:S14" si="0">$L$8-R9</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="C10" s="9">
-        <f t="shared" ref="C10:C14" si="2">C9+1</f>
+        <f t="shared" ref="C10:C14" si="1">C9+1</f>
         <v>3</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -21977,19 +21917,21 @@
       <c r="P10" s="18">
         <v>0</v>
       </c>
-      <c r="Q10" s="1"/>
+      <c r="Q10" s="14">
+        <v>0</v>
+      </c>
       <c r="R10" s="24">
-        <f t="shared" si="0"/>
+        <f>SUM(M10:Q10)</f>
         <v>2</v>
       </c>
       <c r="S10" s="17">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>$L$8-R10</f>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="C11" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -22014,19 +21956,21 @@
       <c r="P11" s="20">
         <v>1</v>
       </c>
-      <c r="Q11" s="1"/>
+      <c r="Q11" s="27">
+        <v>1</v>
+      </c>
       <c r="R11" s="25">
+        <f>SUM(M11:Q11)</f>
+        <v>5</v>
+      </c>
+      <c r="S11" s="19">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="S11" s="19">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="C12" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -22051,19 +21995,21 @@
       <c r="P12" s="18">
         <v>0</v>
       </c>
-      <c r="Q12" s="1"/>
+      <c r="Q12" s="14">
+        <v>0</v>
+      </c>
       <c r="R12" s="24">
+        <f>SUM(M12:Q12)</f>
+        <v>2</v>
+      </c>
+      <c r="S12" s="17">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="S12" s="17">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="C13" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -22088,19 +22034,21 @@
       <c r="P13" s="20">
         <v>0</v>
       </c>
-      <c r="Q13" s="1"/>
+      <c r="Q13" s="27">
+        <v>0</v>
+      </c>
       <c r="R13" s="25">
+        <f>SUM(M13:Q13)</f>
+        <v>1</v>
+      </c>
+      <c r="S13" s="19">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S13" s="19">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="C14" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -22125,14 +22073,16 @@
       <c r="P14" s="18">
         <v>1</v>
       </c>
-      <c r="Q14" s="1"/>
+      <c r="Q14" s="14">
+        <v>0</v>
+      </c>
       <c r="R14" s="24">
+        <f>SUM(M14:Q14)</f>
+        <v>3</v>
+      </c>
+      <c r="S14" s="17">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="S14" s="17">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -22145,11 +22095,11 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="3:16" ht="18.75">
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
     </row>
     <row r="26" spans="3:16">
       <c r="N26" s="4"/>
@@ -22157,12 +22107,12 @@
       <c r="P26" s="4"/>
     </row>
     <row r="33" spans="3:6" ht="18.75">
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
     </row>
     <row r="49" spans="3:6" ht="18.75">
       <c r="C49" s="28" t="s">
@@ -22173,10 +22123,10 @@
       <c r="F49" s="28"/>
     </row>
     <row r="66" spans="1:20">
-      <c r="A66" s="55" t="s">
+      <c r="A66" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B66" s="55"/>
+      <c r="B66" s="54"/>
       <c r="L66" s="42" t="s">
         <v>54</v>
       </c>
@@ -22185,28 +22135,28 @@
       <c r="O66" s="34"/>
       <c r="P66" s="34"/>
       <c r="Q66" s="1"/>
-      <c r="R66" s="56" t="s">
+      <c r="R66" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="S66" s="56"/>
-      <c r="T66" s="56"/>
+      <c r="S66" s="57"/>
+      <c r="T66" s="57"/>
     </row>
     <row r="67" spans="1:20">
-      <c r="A67" s="55"/>
-      <c r="B67" s="55"/>
+      <c r="A67" s="54"/>
+      <c r="B67" s="54"/>
       <c r="C67" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="56" t="s">
+      <c r="D67" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="56"/>
-      <c r="K67" s="56"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="57"/>
+      <c r="K67" s="57"/>
       <c r="L67" s="33">
         <v>21</v>
       </c>
@@ -22278,14 +22228,14 @@
         <v>19</v>
       </c>
       <c r="S69" s="19">
-        <f t="shared" ref="S69:S86" si="3">$L$67-R69</f>
+        <f t="shared" ref="S69:S86" si="2">$L$67-R69</f>
         <v>2</v>
       </c>
       <c r="T69" s="1"/>
     </row>
     <row r="70" spans="1:20">
       <c r="C70" s="9">
-        <f t="shared" ref="C70:C77" si="4">C69+1</f>
+        <f t="shared" ref="C70:C77" si="3">C69+1</f>
         <v>3</v>
       </c>
       <c r="D70" s="16" t="s">
@@ -22307,14 +22257,14 @@
         <v>7</v>
       </c>
       <c r="S70" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="T70" s="1"/>
     </row>
     <row r="71" spans="1:20">
       <c r="C71" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D71" s="15" t="s">
@@ -22336,14 +22286,14 @@
         <v>20</v>
       </c>
       <c r="S71" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T71" s="1"/>
     </row>
     <row r="72" spans="1:20">
       <c r="C72" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="D72" s="16" t="s">
@@ -22365,14 +22315,14 @@
         <v>20</v>
       </c>
       <c r="S72" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T72" s="1"/>
     </row>
     <row r="73" spans="1:20">
       <c r="C73" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="D73" s="15" t="s">
@@ -22394,14 +22344,14 @@
         <v>6</v>
       </c>
       <c r="S73" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="T73" s="1"/>
     </row>
     <row r="74" spans="1:20">
       <c r="C74" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="D74" s="16" t="s">
@@ -22423,14 +22373,14 @@
         <v>2</v>
       </c>
       <c r="S74" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="T74" s="1"/>
     </row>
     <row r="75" spans="1:20">
       <c r="C75" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="D75" s="15" t="s">
@@ -22451,7 +22401,7 @@
         <v>6</v>
       </c>
       <c r="S75" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="T75" s="1"/>
@@ -22483,7 +22433,7 @@
     </row>
     <row r="77" spans="1:20">
       <c r="C77" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="D77" s="15" t="s">
@@ -22549,7 +22499,7 @@
         <v>8</v>
       </c>
       <c r="S79" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="T79" s="1"/>
@@ -22577,7 +22527,7 @@
         <v>18</v>
       </c>
       <c r="S80" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="T80" s="1"/>
@@ -22605,7 +22555,7 @@
         <v>5</v>
       </c>
       <c r="S81" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="T81" s="1"/>
@@ -22653,7 +22603,7 @@
         <v>15</v>
       </c>
       <c r="S83" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="T83" s="1"/>
@@ -22681,7 +22631,7 @@
         <v>2</v>
       </c>
       <c r="S84" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="T84" s="1"/>
@@ -22709,7 +22659,7 @@
         <v>14</v>
       </c>
       <c r="S85" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="T85" s="1"/>
@@ -22737,7 +22687,7 @@
         <v>0</v>
       </c>
       <c r="S86" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="T86" s="1"/>
@@ -22763,11 +22713,11 @@
       <c r="T87" s="1"/>
     </row>
     <row r="88" spans="3:20" ht="18.75">
-      <c r="C88" s="54" t="s">
+      <c r="C88" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="54"/>
-      <c r="E88" s="54"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="59"/>
       <c r="G88" s="33"/>
       <c r="H88" s="33"/>
       <c r="I88" s="33"/>
@@ -23024,12 +22974,12 @@
       <c r="T103" s="1"/>
     </row>
     <row r="104" spans="3:20" ht="18.75">
-      <c r="C104" s="54" t="s">
+      <c r="C104" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D104" s="54"/>
-      <c r="E104" s="54"/>
-      <c r="F104" s="54"/>
+      <c r="D104" s="59"/>
+      <c r="E104" s="59"/>
+      <c r="F104" s="59"/>
       <c r="G104" s="33"/>
       <c r="H104" s="33"/>
       <c r="I104" s="33"/>
@@ -24206,10 +24156,10 @@
       <c r="E164" s="2"/>
     </row>
     <row r="165" spans="1:20">
-      <c r="A165" s="55" t="s">
+      <c r="A165" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B165" s="55"/>
+      <c r="B165" s="54"/>
       <c r="L165" s="42" t="s">
         <v>50</v>
       </c>
@@ -24218,27 +24168,27 @@
       <c r="O165" s="34"/>
       <c r="P165" s="34"/>
       <c r="Q165" s="1"/>
-      <c r="R165" s="56" t="s">
+      <c r="R165" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="S165" s="56"/>
+      <c r="S165" s="57"/>
     </row>
     <row r="166" spans="1:20">
-      <c r="A166" s="55"/>
-      <c r="B166" s="55"/>
+      <c r="A166" s="54"/>
+      <c r="B166" s="54"/>
       <c r="C166" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D166" s="56" t="s">
+      <c r="D166" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="E166" s="56"/>
-      <c r="F166" s="56"/>
-      <c r="G166" s="56"/>
-      <c r="H166" s="56"/>
-      <c r="I166" s="56"/>
-      <c r="J166" s="56"/>
-      <c r="K166" s="56"/>
+      <c r="E166" s="57"/>
+      <c r="F166" s="57"/>
+      <c r="G166" s="57"/>
+      <c r="H166" s="57"/>
+      <c r="I166" s="57"/>
+      <c r="J166" s="57"/>
+      <c r="K166" s="57"/>
       <c r="L166" s="33">
         <v>4</v>
       </c>
@@ -24316,7 +24266,7 @@
     </row>
     <row r="169" spans="1:20">
       <c r="C169" s="9">
-        <f t="shared" ref="C169" si="5">C168+1</f>
+        <f t="shared" ref="C169" si="4">C168+1</f>
         <v>3</v>
       </c>
       <c r="D169" s="10" t="s">
@@ -24516,7 +24466,7 @@
     </row>
     <row r="177" spans="3:19">
       <c r="C177" s="9">
-        <f t="shared" ref="C177:C179" si="6">C176+1</f>
+        <f t="shared" ref="C177:C179" si="5">C176+1</f>
         <v>19</v>
       </c>
       <c r="D177" s="10"/>
@@ -24540,7 +24490,7 @@
     </row>
     <row r="178" spans="3:19">
       <c r="C178" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="D178" s="13"/>
@@ -24564,7 +24514,7 @@
     </row>
     <row r="179" spans="3:19">
       <c r="C179" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="D179" s="10"/>
@@ -24591,11 +24541,11 @@
       <c r="S180" s="1"/>
     </row>
     <row r="181" spans="3:19" ht="18.75">
-      <c r="C181" s="54" t="s">
+      <c r="C181" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D181" s="54"/>
-      <c r="E181" s="54"/>
+      <c r="D181" s="59"/>
+      <c r="E181" s="59"/>
     </row>
     <row r="190" spans="3:19">
       <c r="N190" s="4"/>
@@ -24603,12 +24553,12 @@
       <c r="P190" s="4"/>
     </row>
     <row r="197" spans="1:19" ht="18.75">
-      <c r="C197" s="54" t="s">
+      <c r="C197" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D197" s="54"/>
-      <c r="E197" s="54"/>
-      <c r="F197" s="54"/>
+      <c r="D197" s="59"/>
+      <c r="E197" s="59"/>
+      <c r="F197" s="59"/>
     </row>
     <row r="198" spans="1:19" ht="15.95" customHeight="1">
       <c r="A198" s="47"/>
@@ -25213,10 +25163,10 @@
       </c>
     </row>
     <row r="245" spans="1:20">
-      <c r="A245" s="55" t="s">
+      <c r="A245" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="B245" s="55"/>
+      <c r="B245" s="54"/>
       <c r="L245" s="42" t="s">
         <v>54</v>
       </c>
@@ -25225,28 +25175,28 @@
       <c r="O245" s="34"/>
       <c r="P245" s="34"/>
       <c r="Q245" s="1"/>
-      <c r="R245" s="56" t="s">
+      <c r="R245" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="S245" s="56"/>
+      <c r="S245" s="57"/>
       <c r="T245" s="34"/>
     </row>
     <row r="246" spans="1:20">
-      <c r="A246" s="55"/>
-      <c r="B246" s="55"/>
+      <c r="A246" s="54"/>
+      <c r="B246" s="54"/>
       <c r="C246" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D246" s="56" t="s">
+      <c r="D246" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="E246" s="56"/>
-      <c r="F246" s="56"/>
-      <c r="G246" s="56"/>
-      <c r="H246" s="56"/>
-      <c r="I246" s="56"/>
-      <c r="J246" s="56"/>
-      <c r="K246" s="56"/>
+      <c r="E246" s="57"/>
+      <c r="F246" s="57"/>
+      <c r="G246" s="57"/>
+      <c r="H246" s="57"/>
+      <c r="I246" s="57"/>
+      <c r="J246" s="57"/>
+      <c r="K246" s="57"/>
       <c r="L246" s="33">
         <v>291</v>
       </c>
@@ -25316,14 +25266,14 @@
         <v>237</v>
       </c>
       <c r="S248" s="19">
-        <f t="shared" ref="S248:S264" si="7">$L$246-R248</f>
+        <f t="shared" ref="S248:S264" si="6">$L$246-R248</f>
         <v>54</v>
       </c>
       <c r="T248" s="33"/>
     </row>
     <row r="249" spans="1:20">
       <c r="C249" s="9">
-        <f t="shared" ref="C249" si="8">C248+1</f>
+        <f t="shared" ref="C249" si="7">C248+1</f>
         <v>3</v>
       </c>
       <c r="D249" s="16" t="s">
@@ -25345,7 +25295,7 @@
         <v>274</v>
       </c>
       <c r="S249" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="T249" s="33"/>
@@ -25394,7 +25344,7 @@
         <v>12</v>
       </c>
       <c r="S251" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>279</v>
       </c>
       <c r="T251" s="33"/>
@@ -25423,7 +25373,7 @@
         <v>173</v>
       </c>
       <c r="S252" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>118</v>
       </c>
       <c r="T252" s="33"/>
@@ -25452,7 +25402,7 @@
         <v>106</v>
       </c>
       <c r="S253" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>185</v>
       </c>
       <c r="T253" s="33"/>
@@ -25562,7 +25512,7 @@
         <v>1</v>
       </c>
       <c r="S257" s="17">
-        <f t="shared" ref="S257:S258" si="9">$Q$256-R257</f>
+        <f t="shared" ref="S257:S258" si="8">$Q$256-R257</f>
         <v>2</v>
       </c>
       <c r="T257" s="33"/>
@@ -25589,7 +25539,7 @@
         <v>1</v>
       </c>
       <c r="S258" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="T258" s="33"/>
@@ -25636,7 +25586,7 @@
         <v>226</v>
       </c>
       <c r="S260" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="T260" s="1"/>
@@ -25691,7 +25641,7 @@
         <v>229</v>
       </c>
       <c r="S262" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="T262" s="1"/>
@@ -25718,7 +25668,7 @@
         <v>201</v>
       </c>
       <c r="S263" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="T263" s="1"/>
@@ -25745,7 +25695,7 @@
         <v>148</v>
       </c>
       <c r="S264" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>143</v>
       </c>
       <c r="T264" s="1"/>
@@ -25799,11 +25749,11 @@
       <c r="X266" s="45"/>
     </row>
     <row r="267" spans="3:24" ht="18.75">
-      <c r="C267" s="54" t="s">
+      <c r="C267" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D267" s="54"/>
-      <c r="E267" s="54"/>
+      <c r="D267" s="59"/>
+      <c r="E267" s="59"/>
       <c r="G267" s="33"/>
       <c r="H267" s="33"/>
       <c r="I267" s="33"/>
@@ -25820,19 +25770,25 @@
       <c r="T267" s="1"/>
     </row>
     <row r="282" spans="3:5" ht="18.75">
-      <c r="C282" s="54" t="s">
+      <c r="C282" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="D282" s="54"/>
-      <c r="E282" s="54"/>
+      <c r="D282" s="59"/>
+      <c r="E282" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="M5:N6"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="C282:E282"/>
+    <mergeCell ref="A245:B246"/>
+    <mergeCell ref="D246:K246"/>
+    <mergeCell ref="C267:E267"/>
+    <mergeCell ref="R245:S245"/>
+    <mergeCell ref="A165:B166"/>
+    <mergeCell ref="R165:S165"/>
+    <mergeCell ref="D166:K166"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="A66:B67"/>
+    <mergeCell ref="D67:K67"/>
     <mergeCell ref="F1:J4"/>
     <mergeCell ref="C197:F197"/>
     <mergeCell ref="C104:F104"/>
@@ -25841,17 +25797,11 @@
     <mergeCell ref="R6:S6"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C33:F33"/>
-    <mergeCell ref="A165:B166"/>
-    <mergeCell ref="R165:S165"/>
-    <mergeCell ref="D166:K166"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="A66:B67"/>
-    <mergeCell ref="D67:K67"/>
-    <mergeCell ref="C282:E282"/>
-    <mergeCell ref="A245:B246"/>
-    <mergeCell ref="D246:K246"/>
-    <mergeCell ref="C267:E267"/>
-    <mergeCell ref="R245:S245"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/dados dos inquéritos.xlsx
+++ b/dados dos inquéritos.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
   <si>
     <t>Inquéritos p/ o Projeto de Inovação</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>Dra Ana Ribeiro</t>
+  </si>
+  <si>
+    <t>Enf Fernanda Portillo</t>
   </si>
 </sst>
 </file>
@@ -722,7 +725,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$R$7:$S$7</c:f>
+              <c:f>Sheet1!$T$7:$U$7</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -736,12 +739,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$8:$S$8</c:f>
+              <c:f>Sheet1!$T$8:$U$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -863,6 +866,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -948,6 +952,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1775,6 +1780,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1860,6 +1866,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1960,6 +1967,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2045,6 +2053,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2145,6 +2154,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2230,6 +2240,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2330,6 +2341,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2415,6 +2427,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2515,6 +2528,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2600,6 +2614,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2700,6 +2715,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2785,6 +2801,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2885,6 +2902,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2970,6 +2988,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3116,7 +3135,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$R$7:$S$7</c:f>
+              <c:f>Sheet1!$T$7:$U$7</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3130,12 +3149,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$9:$S$9</c:f>
+              <c:f>Sheet1!$T$9:$U$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -3257,6 +3276,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3342,6 +3362,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3442,6 +3463,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3694,6 +3716,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3794,6 +3817,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4046,6 +4070,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4146,6 +4171,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4231,6 +4257,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4886,6 +4913,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4931,7 +4959,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$R$7:$S$7</c:f>
+              <c:f>Sheet1!$T$7:$U$7</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4945,12 +4973,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$10:$S$10</c:f>
+              <c:f>Sheet1!$T$10:$U$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -4971,6 +4999,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5117,7 +5146,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$R$7:$S$7</c:f>
+              <c:f>Sheet1!$T$7:$U$7</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5131,12 +5160,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$11:$S$11</c:f>
+              <c:f>Sheet1!$T$11:$U$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5304,7 +5333,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$R$7:$S$7</c:f>
+              <c:f>Sheet1!$T$7:$U$7</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5318,12 +5347,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$12:$S$12</c:f>
+              <c:f>Sheet1!$T$12:$U$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -5445,6 +5474,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5490,7 +5520,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$R$7:$S$7</c:f>
+              <c:f>Sheet1!$T$7:$U$7</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5504,7 +5534,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$13:$S$13</c:f>
+              <c:f>Sheet1!$T$13:$U$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5512,7 +5542,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5530,6 +5560,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5630,6 +5661,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5675,7 +5707,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$R$7:$S$7</c:f>
+              <c:f>Sheet1!$T$7:$U$7</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5689,12 +5721,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$14:$S$14</c:f>
+              <c:f>Sheet1!$T$14:$U$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -5715,6 +5747,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5815,6 +5848,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5900,6 +5934,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6000,6 +6035,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6085,6 +6121,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -21673,8 +21710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -21686,9 +21723,10 @@
     <col min="12" max="12" width="10.875" style="1"/>
     <col min="13" max="16" width="17.625" style="1" customWidth="1"/>
     <col min="17" max="17" width="13.625" customWidth="1"/>
+    <col min="18" max="18" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="F1" s="58" t="s">
         <v>0</v>
       </c>
@@ -21701,7 +21739,7 @@
       </c>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:21">
       <c r="F2" s="58"/>
       <c r="G2" s="58"/>
       <c r="H2" s="58"/>
@@ -21715,7 +21753,7 @@
       </c>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:21">
       <c r="F3" s="58"/>
       <c r="G3" s="58"/>
       <c r="H3" s="58"/>
@@ -21729,7 +21767,7 @@
       </c>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:21">
       <c r="F4" s="58"/>
       <c r="G4" s="58"/>
       <c r="H4" s="58"/>
@@ -21737,7 +21775,7 @@
       <c r="J4" s="58"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:21">
       <c r="M5" s="56" t="s">
         <v>13</v>
       </c>
@@ -21750,7 +21788,7 @@
       </c>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:21">
       <c r="A6" s="54" t="s">
         <v>1</v>
       </c>
@@ -21763,12 +21801,12 @@
       <c r="O6" s="55"/>
       <c r="P6" s="56"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="57" t="s">
+      <c r="T6" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="S6" s="57"/>
+      <c r="U6" s="57"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:21">
       <c r="A7" s="54"/>
       <c r="B7" s="54"/>
       <c r="C7" s="6" t="s">
@@ -21802,14 +21840,17 @@
       <c r="Q7" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="R7" s="23" t="s">
+      <c r="R7" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="T7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="21" t="s">
+      <c r="U7" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:21">
       <c r="C8" s="9">
         <f>1</f>
         <v>1</v>
@@ -21825,7 +21866,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M8" s="14">
         <v>1</v>
@@ -21842,16 +21883,19 @@
       <c r="Q8" s="14">
         <v>1</v>
       </c>
-      <c r="R8" s="24">
-        <f>SUM(M8:Q8)</f>
-        <v>5</v>
-      </c>
-      <c r="S8" s="17">
-        <f>$L$8-R8</f>
+      <c r="R8" s="18">
+        <v>1</v>
+      </c>
+      <c r="T8" s="24">
+        <f>SUM(M8:R8)</f>
+        <v>6</v>
+      </c>
+      <c r="U8" s="17">
+        <f>$L$8-T8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:21">
       <c r="C9" s="12">
         <f>C8+1</f>
         <v>2</v>
@@ -21881,18 +21925,21 @@
       <c r="Q9" s="27">
         <v>1</v>
       </c>
-      <c r="R9" s="25">
-        <f>SUM(M9:Q9)</f>
-        <v>4</v>
-      </c>
-      <c r="S9" s="19">
-        <f t="shared" ref="S9:S14" si="0">$L$8-R9</f>
+      <c r="R9" s="20">
         <v>1</v>
       </c>
+      <c r="T9" s="29">
+        <f t="shared" ref="T9:T14" si="0">SUM(M9:R9)</f>
+        <v>5</v>
+      </c>
+      <c r="U9" s="19">
+        <f t="shared" ref="U9:U14" si="1">$L$8-T9</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:21">
       <c r="C10" s="9">
-        <f t="shared" ref="C10:C14" si="1">C9+1</f>
+        <f t="shared" ref="C10:C14" si="2">C9+1</f>
         <v>3</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -21920,18 +21967,21 @@
       <c r="Q10" s="14">
         <v>0</v>
       </c>
-      <c r="R10" s="24">
-        <f>SUM(M10:Q10)</f>
-        <v>2</v>
-      </c>
-      <c r="S10" s="17">
-        <f>$L$8-R10</f>
+      <c r="R10" s="18">
+        <v>1</v>
+      </c>
+      <c r="T10" s="29">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="U10" s="17">
+        <f>$L$8-T10</f>
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:21">
       <c r="C11" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -21959,18 +22009,21 @@
       <c r="Q11" s="27">
         <v>1</v>
       </c>
-      <c r="R11" s="25">
-        <f>SUM(M11:Q11)</f>
-        <v>5</v>
-      </c>
-      <c r="S11" s="19">
+      <c r="R11" s="20">
+        <v>1</v>
+      </c>
+      <c r="T11" s="29">
         <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="U11" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:21">
       <c r="C12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -21998,18 +22051,21 @@
       <c r="Q12" s="14">
         <v>0</v>
       </c>
-      <c r="R12" s="24">
-        <f>SUM(M12:Q12)</f>
-        <v>2</v>
-      </c>
-      <c r="S12" s="17">
+      <c r="R12" s="18">
+        <v>1</v>
+      </c>
+      <c r="T12" s="29">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="U12" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:21">
       <c r="C13" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -22037,18 +22093,21 @@
       <c r="Q13" s="27">
         <v>0</v>
       </c>
-      <c r="R13" s="25">
-        <f>SUM(M13:Q13)</f>
+      <c r="R13" s="20">
+        <v>0</v>
+      </c>
+      <c r="T13" s="29">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="S13" s="19">
-        <f t="shared" si="0"/>
-        <v>4</v>
+      <c r="U13" s="19">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:21">
       <c r="C14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -22076,21 +22135,24 @@
       <c r="Q14" s="14">
         <v>0</v>
       </c>
-      <c r="R14" s="24">
-        <f>SUM(M14:Q14)</f>
-        <v>3</v>
-      </c>
-      <c r="S14" s="17">
+      <c r="R14" s="18">
+        <v>1</v>
+      </c>
+      <c r="T14" s="29">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="U14" s="17">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:21">
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:21">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
@@ -22228,14 +22290,14 @@
         <v>19</v>
       </c>
       <c r="S69" s="19">
-        <f t="shared" ref="S69:S86" si="2">$L$67-R69</f>
+        <f t="shared" ref="S69:S86" si="3">$L$67-R69</f>
         <v>2</v>
       </c>
       <c r="T69" s="1"/>
     </row>
     <row r="70" spans="1:20">
       <c r="C70" s="9">
-        <f t="shared" ref="C70:C77" si="3">C69+1</f>
+        <f t="shared" ref="C70:C77" si="4">C69+1</f>
         <v>3</v>
       </c>
       <c r="D70" s="16" t="s">
@@ -22257,14 +22319,14 @@
         <v>7</v>
       </c>
       <c r="S70" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="T70" s="1"/>
     </row>
     <row r="71" spans="1:20">
       <c r="C71" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D71" s="15" t="s">
@@ -22286,14 +22348,14 @@
         <v>20</v>
       </c>
       <c r="S71" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T71" s="1"/>
     </row>
     <row r="72" spans="1:20">
       <c r="C72" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="D72" s="16" t="s">
@@ -22315,14 +22377,14 @@
         <v>20</v>
       </c>
       <c r="S72" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T72" s="1"/>
     </row>
     <row r="73" spans="1:20">
       <c r="C73" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="D73" s="15" t="s">
@@ -22344,14 +22406,14 @@
         <v>6</v>
       </c>
       <c r="S73" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="T73" s="1"/>
     </row>
     <row r="74" spans="1:20">
       <c r="C74" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="D74" s="16" t="s">
@@ -22373,14 +22435,14 @@
         <v>2</v>
       </c>
       <c r="S74" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="T74" s="1"/>
     </row>
     <row r="75" spans="1:20">
       <c r="C75" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="D75" s="15" t="s">
@@ -22401,7 +22463,7 @@
         <v>6</v>
       </c>
       <c r="S75" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="T75" s="1"/>
@@ -22433,7 +22495,7 @@
     </row>
     <row r="77" spans="1:20">
       <c r="C77" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D77" s="15" t="s">
@@ -22499,7 +22561,7 @@
         <v>8</v>
       </c>
       <c r="S79" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="T79" s="1"/>
@@ -22527,7 +22589,7 @@
         <v>18</v>
       </c>
       <c r="S80" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="T80" s="1"/>
@@ -22555,7 +22617,7 @@
         <v>5</v>
       </c>
       <c r="S81" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="T81" s="1"/>
@@ -22603,7 +22665,7 @@
         <v>15</v>
       </c>
       <c r="S83" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="T83" s="1"/>
@@ -22631,7 +22693,7 @@
         <v>2</v>
       </c>
       <c r="S84" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="T84" s="1"/>
@@ -22659,7 +22721,7 @@
         <v>14</v>
       </c>
       <c r="S85" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="T85" s="1"/>
@@ -22687,7 +22749,7 @@
         <v>0</v>
       </c>
       <c r="S86" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="T86" s="1"/>
@@ -24266,7 +24328,7 @@
     </row>
     <row r="169" spans="1:20">
       <c r="C169" s="9">
-        <f t="shared" ref="C169" si="4">C168+1</f>
+        <f t="shared" ref="C169" si="5">C168+1</f>
         <v>3</v>
       </c>
       <c r="D169" s="10" t="s">
@@ -24466,7 +24528,7 @@
     </row>
     <row r="177" spans="3:19">
       <c r="C177" s="9">
-        <f t="shared" ref="C177:C179" si="5">C176+1</f>
+        <f t="shared" ref="C177:C179" si="6">C176+1</f>
         <v>19</v>
       </c>
       <c r="D177" s="10"/>
@@ -24490,7 +24552,7 @@
     </row>
     <row r="178" spans="3:19">
       <c r="C178" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="D178" s="13"/>
@@ -24514,7 +24576,7 @@
     </row>
     <row r="179" spans="3:19">
       <c r="C179" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="D179" s="10"/>
@@ -25266,14 +25328,14 @@
         <v>237</v>
       </c>
       <c r="S248" s="19">
-        <f t="shared" ref="S248:S264" si="6">$L$246-R248</f>
+        <f t="shared" ref="S248:S264" si="7">$L$246-R248</f>
         <v>54</v>
       </c>
       <c r="T248" s="33"/>
     </row>
     <row r="249" spans="1:20">
       <c r="C249" s="9">
-        <f t="shared" ref="C249" si="7">C248+1</f>
+        <f t="shared" ref="C249" si="8">C248+1</f>
         <v>3</v>
       </c>
       <c r="D249" s="16" t="s">
@@ -25295,7 +25357,7 @@
         <v>274</v>
       </c>
       <c r="S249" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="T249" s="33"/>
@@ -25344,7 +25406,7 @@
         <v>12</v>
       </c>
       <c r="S251" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>279</v>
       </c>
       <c r="T251" s="33"/>
@@ -25373,7 +25435,7 @@
         <v>173</v>
       </c>
       <c r="S252" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>118</v>
       </c>
       <c r="T252" s="33"/>
@@ -25402,7 +25464,7 @@
         <v>106</v>
       </c>
       <c r="S253" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>185</v>
       </c>
       <c r="T253" s="33"/>
@@ -25512,7 +25574,7 @@
         <v>1</v>
       </c>
       <c r="S257" s="17">
-        <f t="shared" ref="S257:S258" si="8">$Q$256-R257</f>
+        <f t="shared" ref="S257:S258" si="9">$Q$256-R257</f>
         <v>2</v>
       </c>
       <c r="T257" s="33"/>
@@ -25539,7 +25601,7 @@
         <v>1</v>
       </c>
       <c r="S258" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="T258" s="33"/>
@@ -25586,7 +25648,7 @@
         <v>226</v>
       </c>
       <c r="S260" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
       <c r="T260" s="1"/>
@@ -25641,7 +25703,7 @@
         <v>229</v>
       </c>
       <c r="S262" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
       <c r="T262" s="1"/>
@@ -25668,7 +25730,7 @@
         <v>201</v>
       </c>
       <c r="S263" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="T263" s="1"/>
@@ -25695,7 +25757,7 @@
         <v>148</v>
       </c>
       <c r="S264" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>143</v>
       </c>
       <c r="T264" s="1"/>
@@ -25794,7 +25856,7 @@
     <mergeCell ref="C104:F104"/>
     <mergeCell ref="C181:E181"/>
     <mergeCell ref="R66:T66"/>
-    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="A6:B7"/>

--- a/dados dos inquéritos.xlsx
+++ b/dados dos inquéritos.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
   <si>
     <t>Inquéritos p/ o Projeto de Inovação</t>
   </si>
@@ -263,14 +263,36 @@
   <si>
     <t>Enf Fernanda Portillo</t>
   </si>
+  <si>
+    <t>Parceiros</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quanto estaria disposto a pagar mensalmente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estaria disposto a contribuir com campanhas de desconto para os animais adotados através da plataforma? </t>
+  </si>
+  <si>
+    <t>Total Parceiros</t>
+  </si>
+  <si>
+    <t>Mania dos Cães</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -323,8 +345,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,6 +468,17 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -449,12 +489,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -465,7 +507,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -537,7 +579,7 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -589,16 +631,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -613,7 +655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -625,14 +667,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="40% - Cor1" xfId="3" builtinId="31"/>
+    <cellStyle name="Cor5" xfId="4" builtinId="45"/>
     <cellStyle name="Hiperligação" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperligação Visitada" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1053,6 +1103,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1304,6 +1355,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1404,6 +1456,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1680,6 +1733,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4358,6 +4412,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4443,6 +4498,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4543,6 +4599,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4628,6 +4685,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4728,6 +4786,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4813,6 +4872,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -21708,10 +21768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X282"/>
+  <dimension ref="A1:X306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" topLeftCell="A282" zoomScale="89" workbookViewId="0">
+      <selection activeCell="R305" sqref="R305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -21720,7 +21780,7 @@
     <col min="3" max="3" width="10.875" style="5"/>
     <col min="4" max="10" width="10.875" style="1"/>
     <col min="11" max="11" width="23.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.875" style="1"/>
+    <col min="12" max="12" width="12.75" style="1" customWidth="1"/>
     <col min="13" max="16" width="17.625" style="1" customWidth="1"/>
     <col min="17" max="17" width="13.625" customWidth="1"/>
     <col min="18" max="18" width="19" customWidth="1"/>
@@ -25838,8 +25898,126 @@
       <c r="D282" s="59"/>
       <c r="E282" s="59"/>
     </row>
+    <row r="298" spans="1:16">
+      <c r="L298" s="42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16">
+      <c r="A299" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B299" s="54"/>
+      <c r="C299" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D299" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E299" s="57"/>
+      <c r="F299" s="57"/>
+      <c r="G299" s="57"/>
+      <c r="H299" s="57"/>
+      <c r="I299" s="57"/>
+      <c r="J299" s="57"/>
+      <c r="K299" s="57"/>
+      <c r="L299" s="1">
+        <v>1</v>
+      </c>
+      <c r="M299" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="P299" s="60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16">
+      <c r="A300" s="54"/>
+      <c r="B300" s="54"/>
+      <c r="C300" s="9">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="D300" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E300" s="11"/>
+      <c r="F300" s="11"/>
+      <c r="G300" s="11"/>
+      <c r="H300" s="11"/>
+      <c r="I300" s="11"/>
+      <c r="J300" s="11"/>
+      <c r="K300" s="11"/>
+      <c r="M300" s="14">
+        <v>1</v>
+      </c>
+      <c r="P300" s="29">
+        <f>SUM(M300)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16">
+      <c r="C301" s="12">
+        <f>C300+1</f>
+        <v>2</v>
+      </c>
+      <c r="D301" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E301" s="14"/>
+      <c r="F301" s="14"/>
+      <c r="G301" s="14"/>
+      <c r="H301" s="14"/>
+      <c r="I301" s="14"/>
+      <c r="J301" s="14"/>
+      <c r="K301" s="14"/>
+      <c r="M301" s="27">
+        <v>1</v>
+      </c>
+      <c r="P301" s="61">
+        <f>SUM(M301)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16">
+      <c r="C302" s="9">
+        <f t="shared" ref="C302" si="10">C301+1</f>
+        <v>3</v>
+      </c>
+      <c r="D302" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E302" s="11"/>
+      <c r="F302" s="11"/>
+      <c r="G302" s="11"/>
+      <c r="H302" s="11"/>
+      <c r="I302" s="11"/>
+      <c r="J302" s="11"/>
+      <c r="K302" s="11"/>
+      <c r="M302" s="14">
+        <v>0</v>
+      </c>
+      <c r="P302" s="29">
+        <f>SUM(M302)/L299</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16">
+      <c r="P303"/>
+    </row>
+    <row r="304" spans="1:16">
+      <c r="P304"/>
+    </row>
+    <row r="305" spans="16:16">
+      <c r="P305"/>
+    </row>
+    <row r="306" spans="16:16">
+      <c r="P306"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="26">
+    <mergeCell ref="D299:K299"/>
+    <mergeCell ref="A299:B300"/>
     <mergeCell ref="C282:E282"/>
     <mergeCell ref="A245:B246"/>
     <mergeCell ref="D246:K246"/>
@@ -25866,8 +26044,8 @@
     <mergeCell ref="P5:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
-  <picture r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <picture r:id="rId3"/>
 </worksheet>
 </file>